--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8435655349597692</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04217827674798846</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06748524279678154</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1031446287024655</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05314462870246547</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01285829787674059</v>
+        <v>0.004226407627352899</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9283,10 +9257,10 @@
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.003999999999999976</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0002110459897565856</v>
       </c>
       <c r="L65" s="172" t="n">
         <v>0</v>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001168385533635283</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007676489547492394</v>
+        <v>0.001016186440677966</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003999999999999997</v>
+        <v>0.01241497994150881</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0006774576271186434</v>
+        <v>0.0007585578559975071</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01544768959702472</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0006921802628679877</v>
+        <v>0.0004838983050847462</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02753565228411797</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007577561918473243</v>
+        <v>0.001016186440677966</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.004180877470344631</v>
+        <v>0.00827981932364117</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001535297909498479</v>
+        <v>0.00152512874030076</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008091393230585532</v>
+        <v>0.02504986823249084</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00154637212813396</v>
+        <v>0.001517115711995014</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02499999999999997</v>
+        <v>0.03542617381464336</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00129483491421759</v>
+        <v>0.001518001459580354</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.04499999999999998</v>
+        <v>0.00827981932364117</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001524279661016949</v>
+        <v>0.00152512874030076</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.009935701204547016</v>
+        <v>0.01151922291649516</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002302946864247718</v>
+        <v>0.00228769311045114</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01136728659331969</v>
+        <v>0.03376756410413076</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002319558192200941</v>
+        <v>0.002275673567992521</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03231569118570141</v>
+        <v>0.04896333355290472</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002076540788603963</v>
+        <v>0.002277002189370532</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.01151922291649516</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002640005689809911</v>
+        <v>0.00228769311045114</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01033108213066145</v>
+        <v>0.01456755807142178</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003070595818996958</v>
+        <v>0.00305025748060152</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01432557042366714</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003092744256267921</v>
+        <v>0.002714398142741815</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002664592672232791</v>
+        <v>0.002901105153637265</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.056202109117935</v>
+        <v>0.01456755807142178</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003031024767389297</v>
+        <v>0.00305025748060152</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004286099292246862</v>
+        <v>0.001016186440677966</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.02026524564310699</v>
+        <v>0.01684298251815253</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003838244773746198</v>
+        <v>0.0038128218507519</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.03836244766511088</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004226407627352899</v>
+        <v>0.003792789279987536</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03812481358704189</v>
+        <v>0.05719329035044013</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003460901314339939</v>
+        <v>0.003795003648950886</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0584155347802805</v>
+        <v>0.01684298251815253</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003788780959236622</v>
+        <v>0.0038128218507519</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004286099292246862</v>
+        <v>0.004226407627352899</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01808750094149573</v>
+        <v>0.03995492412358384</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004639116384401881</v>
+        <v>0.004551347135985043</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04043904184045796</v>
+        <v>0.0589057729084953</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004153081577207926</v>
+        <v>0.004554004378741063</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0622300499085699</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004546537151083946</v>
+        <v>0.004226407627352899</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.0217074219423983</v>
+        <v>0.01847601954024045</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005373542683244675</v>
+        <v>0.00533795059105266</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01911618156296528</v>
+        <v>0.04089830352093884</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005412302448468861</v>
+        <v>0.00530990499198255</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04197726564051679</v>
+        <v>0.06184527459053596</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004845261840075914</v>
+        <v>0.00531300510853124</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06524500801362304</v>
+        <v>0.01847601954024045</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005304293342931271</v>
+        <v>0.00533795059105266</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02849017415515487</v>
+        <v>0.01921104249818986</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006141191637993915</v>
+        <v>0.00610051496120304</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02030354562894005</v>
+        <v>0.04249330786406741</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006185488512535841</v>
+        <v>0.006068462847980057</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04424022336307695</v>
+        <v>0.0644128335837415</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005537442102943902</v>
+        <v>0.006072005838321418</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06735976260625953</v>
+        <v>0.01921104249818986</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006062049534778595</v>
+        <v>0.00610051496120304</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.03506053559674011</v>
+        <v>0.01972596073276638</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006908840592743155</v>
+        <v>0.00686307933135342</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02104947746685551</v>
+        <v>0.04414065915986098</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006958674576602822</v>
+        <v>0.006827020703977564</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04602865338399686</v>
+        <v>0.0664094880752909</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006229622365811889</v>
+        <v>0.006831006568111595</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.06987366719729898</v>
+        <v>0.01972596073276638</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006819805726625919</v>
+        <v>0.00686307933135342</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03246718843736532</v>
+        <v>0.02072099043914492</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007676489547492395</v>
+        <v>0.0076256437015038</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02205386140414711</v>
+        <v>0.04574107941521097</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007731860640669802</v>
+        <v>0.007585578559975071</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.047743294079135</v>
+        <v>0.06823627625236373</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006921802628679878</v>
+        <v>0.007590007297901771</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07248607529756124</v>
+        <v>0.02072099043914492</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007577561918473244</v>
+        <v>0.0076256437015038</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03575881484724178</v>
+        <v>0.02129634781250062</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008444138502241634</v>
+        <v>0.00838820807165418</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02301658176825036</v>
+        <v>0.04709529063700876</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008505046704736782</v>
+        <v>0.008344136415972578</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04878488382434984</v>
+        <v>0.07019423630213906</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007613982891547865</v>
+        <v>0.008349008027691949</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07559634041786584</v>
+        <v>0.02129634781250062</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008335318110320568</v>
+        <v>0.00838820807165418</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03998409699658076</v>
+        <v>0.02205224904800841</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009211787456990873</v>
+        <v>0.009150772441804561</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02423752288660069</v>
+        <v>0.04780401483214586</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009278232768803763</v>
+        <v>0.009102694271970085</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05055416099549986</v>
+        <v>0.07218440641179613</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008306163154415852</v>
+        <v>0.009108008757482126</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07780381606903258</v>
+        <v>0.02205224904800841</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009093074302167893</v>
+        <v>0.009150772441804561</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03619171705559354</v>
+        <v>0.02238891034084335</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009979436411740112</v>
+        <v>0.009913336811954941</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02501656908663361</v>
+        <v>0.04906797400751367</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01005141883287074</v>
+        <v>0.009861252127967592</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05215186396844365</v>
+        <v>0.07470782476851412</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00899834341728384</v>
+        <v>0.009867009487272304</v>
       </c>
       <c r="N78" t="n">
-        <v>0.08050785576188102</v>
+        <v>0.02238891034084335</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009850830494015217</v>
+        <v>0.009913336811954941</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03643035719449143</v>
+        <v>0.02310654788618041</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01074708536648935</v>
+        <v>0.01067590118210532</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02565360469578457</v>
+        <v>0.0502878901700036</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01082460489693772</v>
+        <v>0.0106198099839651</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0537787311190395</v>
+        <v>0.07606552955947243</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009690523680151828</v>
+        <v>0.01062601021706248</v>
       </c>
       <c r="N79" t="n">
-        <v>0.08200781300723092</v>
+        <v>0.02310654788618041</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01060858668586254</v>
+        <v>0.01067590118210532</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0387486995834857</v>
+        <v>0.02370537787919465</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01151473432123859</v>
+        <v>0.0114384655522557</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02644851404148901</v>
+        <v>0.05216448532650711</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0115977909610047</v>
+        <v>0.01137836783996261</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05523550082314599</v>
+        <v>0.07765855897185026</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01038270394301982</v>
+        <v>0.01138501094685266</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08470304131590201</v>
+        <v>0.02370537787919465</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01136634287770986</v>
+        <v>0.0114384655522557</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.04519542639278759</v>
+        <v>0.02428561651506106</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01228238327598783</v>
+        <v>0.01220102992240608</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02750118145118242</v>
+        <v>0.05269848148391559</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01237097702507168</v>
+        <v>0.01213692569596011</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05592291145662162</v>
+        <v>0.07978795119282678</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0110748842058878</v>
+        <v>0.01214401167664284</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08659289419871374</v>
+        <v>0.02428561651506106</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01212409906955719</v>
+        <v>0.01220102992240608</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.05314462870246547</v>
+        <v>0.02494747998895469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01285829787674059</v>
+        <v>0.01296359429255646</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02801149125230029</v>
+        <v>0.0537906006491205</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01314416308913866</v>
+        <v>0.01289548355195762</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05744170139532478</v>
+        <v>0.0811547444095812</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01176706446875579</v>
+        <v>0.01290301240643301</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08827672516648616</v>
+        <v>0.02494747998895469</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01288185526140451</v>
+        <v>0.01296359429255646</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.05277056566931052</v>
+        <v>0.02539118449605049</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01381768118548631</v>
+        <v>0.01372615866270684</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02887932777227807</v>
+        <v>0.05524156482901327</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01391734915320564</v>
+        <v>0.01365404140795513</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05879260901511404</v>
+        <v>0.08255997680929283</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01245924473162378</v>
+        <v>0.01366201313622319</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09015388773003868</v>
+        <v>0.02539118449605049</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01363961145325184</v>
+        <v>0.01372615866270684</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0600291474449757</v>
+        <v>0.02611694623152354</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01458533014023555</v>
+        <v>0.01448872303285722</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02930457533855123</v>
+        <v>0.05575209603048531</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01469053521727262</v>
+        <v>0.01441259926395263</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05937637269184787</v>
+        <v>0.0850046865791409</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01315142499449177</v>
+        <v>0.01442101386601337</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09162373540019114</v>
+        <v>0.02611694623152354</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01439736764509916</v>
+        <v>0.01448872303285722</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.05853804459336902</v>
+        <v>0.02652498139054882</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01535297909498479</v>
+        <v>0.0152512874030076</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02998711827855524</v>
+        <v>0.05682291626042807</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0154637212813396</v>
+        <v>0.01517115711995014</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06079373080138464</v>
+        <v>0.08648991190630473</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01384360525735976</v>
+        <v>0.01518001459580354</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09328562168776311</v>
+        <v>0.02652498139054882</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01515512383694649</v>
+        <v>0.0152512874030076</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0592351182307356</v>
+        <v>0.02681550616830135</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01612062804973403</v>
+        <v>0.01601385177315798</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03052684091972557</v>
+        <v>0.05825474752573298</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01623690734540658</v>
+        <v>0.01592971497594765</v>
       </c>
       <c r="L86" t="n">
-        <v>0.061745421719583</v>
+        <v>0.08721669097796336</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01453578552022774</v>
+        <v>0.01593901532559372</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09463890010357423</v>
+        <v>0.02681550616830135</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01591288002879381</v>
+        <v>0.01601385177315798</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.07105822947332052</v>
+        <v>0.02738873675995612</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01688827700448327</v>
+        <v>0.01677641614330836</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03112362758949769</v>
+        <v>0.05854831183329143</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01701009340947356</v>
+        <v>0.01668827283194516</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06213218382230126</v>
+        <v>0.08928606198129624</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01522796578309573</v>
+        <v>0.0166980160553839</v>
       </c>
       <c r="N87" t="n">
-        <v>0.09658292415844433</v>
+        <v>0.02738873675995612</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01667063622064114</v>
+        <v>0.01677641614330836</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.06894523943736894</v>
+        <v>0.02794488936068819</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01765592595923251</v>
+        <v>0.01753898051345874</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03157736261530707</v>
+        <v>0.06000433118999493</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01778327947354054</v>
+        <v>0.01744683068794266</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06295475548539803</v>
+        <v>0.0898990631034825</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01592014604596372</v>
+        <v>0.01745701678517407</v>
       </c>
       <c r="N88" t="n">
-        <v>0.097517047363193</v>
+        <v>0.02794488936068819</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01742839241248846</v>
+        <v>0.01753898051345874</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.06983400923912593</v>
+        <v>0.02838418016567257</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01842357491398175</v>
+        <v>0.01830154488360912</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03168793032458918</v>
+        <v>0.06082352760273485</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01855646553760753</v>
+        <v>0.01820538854394017</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06381387508473169</v>
+        <v>0.09155673253170127</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0166123263088317</v>
+        <v>0.01821601751496425</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09884062322864007</v>
+        <v>0.02838418016567257</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01818614860433579</v>
+        <v>0.01830154488360912</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.07766239999483662</v>
+        <v>0.02890682537008425</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01919122386873098</v>
+        <v>0.0190641092537595</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03205521504477947</v>
+        <v>0.06170662307840261</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0193296516016745</v>
+        <v>0.01896394639993768</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06481028099616079</v>
+        <v>0.09206010845313206</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0173045065716997</v>
+        <v>0.01897501824475443</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09945300526560497</v>
+        <v>0.02890682537008425</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01894390479618311</v>
+        <v>0.0190641092537595</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0843682728207461</v>
+        <v>0.02911304116909824</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01995887282348022</v>
+        <v>0.01982667362390988</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03267910110331343</v>
+        <v>0.06205433962388962</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02010283766574148</v>
+        <v>0.01972250425593518</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06514471159554375</v>
+        <v>0.09351022905495393</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01799668683456768</v>
+        <v>0.01973401897454461</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1007535469849076</v>
+        <v>0.02911304116909824</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01970166098803043</v>
+        <v>0.01982667362390988</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.08388948883309955</v>
+        <v>0.02950304375788959</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02072652177822946</v>
+        <v>0.02058923799406026</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03265947282762653</v>
+        <v>0.06306739924608745</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02087602372980846</v>
+        <v>0.02048106211193269</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06571790525873911</v>
+        <v>0.09440813252434616</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01868886709743567</v>
+        <v>0.02049301970433479</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1016416018973675</v>
+        <v>0.02950304375788959</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02045941717987776</v>
+        <v>0.02058923799406026</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.08316390914814195</v>
+        <v>0.0297770493316333</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0214941707329787</v>
+        <v>0.02135180236421064</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0329962145451542</v>
+        <v>0.06364652395188736</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02164920979387544</v>
+        <v>0.0212396199679302</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06633060036160529</v>
+        <v>0.09575485704848802</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01938104736030366</v>
+        <v>0.02125202043412496</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1014165235138045</v>
+        <v>0.0297770493316333</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02121717337172508</v>
+        <v>0.02135180236421064</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.09312939488211855</v>
+        <v>0.03043527408550435</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02226181968772794</v>
+        <v>0.02211436673436102</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03328921058333197</v>
+        <v>0.06449243574818089</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02242239585794242</v>
+        <v>0.02199817782392771</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06668353528000079</v>
+        <v>0.09665144081455862</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02007322762317164</v>
+        <v>0.02201102116391514</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1021776653450381</v>
+        <v>0.03043527408550435</v>
       </c>
       <c r="O94" t="n">
-        <v>0.0219749295635724</v>
+        <v>0.02211436673436102</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.08972380715127443</v>
+        <v>0.03067793421467781</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02302946864247718</v>
+        <v>0.0228769311045114</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03333834526959527</v>
+        <v>0.06510585664185939</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02319558192200941</v>
+        <v>0.02275673567992521</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06707744838978411</v>
+        <v>0.09819892200973745</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02076540788603963</v>
+        <v>0.02277002189370532</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1029243809018882</v>
+        <v>0.03067793421467781</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02273268575541973</v>
+        <v>0.0228769311045114</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.09188500707185462</v>
+        <v>0.03110524591432867</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02379711759722642</v>
+        <v>0.02363949547466178</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03344350293137958</v>
+        <v>0.06508750863981438</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02396876798607638</v>
+        <v>0.02351529353592272</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06761307806681369</v>
+        <v>0.09889833882120341</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02145758814890762</v>
+        <v>0.02352902262349549</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1026560236951743</v>
+        <v>0.03110524591432867</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02349044194726706</v>
+        <v>0.02363949547466178</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0955508557601043</v>
+        <v>0.03141742537963192</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02456476655197566</v>
+        <v>0.02440205984481216</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03370456789612039</v>
+        <v>0.06623811374893721</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02474195405014337</v>
+        <v>0.02427385139192023</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06829116268694801</v>
+        <v>0.099750729436136</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02214976841177561</v>
+        <v>0.02428802335328567</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1030719472357161</v>
+        <v>0.03141742537963192</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02424819813911438</v>
+        <v>0.02440205984481216</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0996592143322686</v>
+        <v>0.03171468880576263</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0253324155067249</v>
+        <v>0.02516462421496254</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03372142898138415</v>
+        <v>0.06615839397611939</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02551514011421034</v>
+        <v>0.02503240924791774</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0684124406260456</v>
+        <v>0.1004571320417145</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0228419486746436</v>
+        <v>0.02504702408307585</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1034715050343334</v>
+        <v>0.03171468880576263</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0250059543309617</v>
+        <v>0.02516462421496254</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1001479439045926</v>
+        <v>0.03179725238789577</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02610006446147414</v>
+        <v>0.02592718858511292</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03339509233467654</v>
+        <v>0.06664907132825221</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02628832617827732</v>
+        <v>0.02579096710391524</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06797765025996488</v>
+        <v>0.1013185848251179</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02353412893751158</v>
+        <v>0.02580602481286602</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1036436930556918</v>
+        <v>0.03179725238789577</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02576371052280903</v>
+        <v>0.02592718858511292</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.09510603379574875</v>
+        <v>0.03226533232120637</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02686771341622338</v>
+        <v>0.0266897529552633</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03362877267638117</v>
+        <v>0.0673108678122272</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0270615122423443</v>
+        <v>0.02654952495991275</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06828752996456439</v>
+        <v>0.1016361259735256</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02422630920037957</v>
+        <v>0.0265650255426562</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1027580502745283</v>
+        <v>0.03226533232120637</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02652146671465636</v>
+        <v>0.0266897529552633</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09486274021679023</v>
+        <v>0.03251914480086945</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02763536237097262</v>
+        <v>0.02745231732541368</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03332589805899921</v>
+        <v>0.0681445054349358</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02783469830641129</v>
+        <v>0.02730808281591026</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06854281811570256</v>
+        <v>0.1026107936741167</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02491848946324756</v>
+        <v>0.02732402627244638</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1025239296316292</v>
+        <v>0.03251914480086945</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02727922290650368</v>
+        <v>0.02745231732541368</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.09945784026735252</v>
+        <v>0.03265890602205999</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02840301132572186</v>
+        <v>0.02821488169556407</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03328989653503177</v>
+        <v>0.06785070620326947</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02860788437047827</v>
+        <v>0.02806664067190777</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06823682032469491</v>
+        <v>0.1027436261140707</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02561066972611555</v>
+        <v>0.02808302700223655</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1025539986465074</v>
+        <v>0.03265890602205999</v>
       </c>
       <c r="O102" t="n">
-        <v>0.028036979098351</v>
+        <v>0.02821488169556407</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.09791846584179134</v>
+        <v>0.03268483217995306</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0291706602804711</v>
+        <v>0.02897744606571444</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03302419615697996</v>
+        <v>0.06823019212411954</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02938107043454525</v>
+        <v>0.02882519852790527</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06802390286670384</v>
+        <v>0.1041356614805668</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02630284998898353</v>
+        <v>0.02884202773202673</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1017609248386753</v>
+        <v>0.03268483217995306</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02879473529019833</v>
+        <v>0.02897744606571444</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1012717488344625</v>
+        <v>0.03319713946972365</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02993830923522034</v>
+        <v>0.02974001043586482</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03293222497734494</v>
+        <v>0.06918368520437754</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03015425649861223</v>
+        <v>0.02958375638390278</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06820422174121235</v>
+        <v>0.1043879379607839</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02699503025185153</v>
+        <v>0.02960102846181691</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1012573757276455</v>
+        <v>0.03319713946972365</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02955249148204565</v>
+        <v>0.02974001043586482</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.09354482113972162</v>
+        <v>0.03319604408654675</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03070595818996958</v>
+        <v>0.0305025748060152</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03261741104862778</v>
+        <v>0.06921190745093478</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03092744256267921</v>
+        <v>0.03034231423990029</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06818752073009293</v>
+        <v>0.1048014937419017</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02768721051471951</v>
+        <v>0.03036002919160708</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1003560188329307</v>
+        <v>0.03319604408654675</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03031024767389297</v>
+        <v>0.0305025748060152</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.09776481465192458</v>
+        <v>0.03338176222559741</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03147360714471882</v>
+        <v>0.03126513917616558</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03238318242332966</v>
+        <v>0.06931558087068282</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03170062862674618</v>
+        <v>0.03110087209589779</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06758354361521821</v>
+        <v>0.105477367011099</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0283793907775875</v>
+        <v>0.03111902992139726</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0992695216740434</v>
+        <v>0.03338176222559741</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0310680038657403</v>
+        <v>0.03126513917616558</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.09795886126542705</v>
+        <v>0.03365451008205064</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03224125609946806</v>
+        <v>0.03202770354631596</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03223296715395167</v>
+        <v>0.06959542747051295</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03247381469081317</v>
+        <v>0.0318594299518953</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06730203417846076</v>
+        <v>0.1058165959555554</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02907157104045548</v>
+        <v>0.03187803065118745</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09881055177049619</v>
+        <v>0.03365451008205064</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03182576005758762</v>
+        <v>0.03202770354631596</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.09315409287458479</v>
+        <v>0.03381450385108144</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0330089050542173</v>
+        <v>0.03279026791646635</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03207019329299497</v>
+        <v>0.07045216925731673</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03324700075488014</v>
+        <v>0.0326179878078928</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06605273620169305</v>
+        <v>0.1060202187624499</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02976375130332347</v>
+        <v>0.03263703138097762</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09799177664180164</v>
+        <v>0.03381450385108144</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03258351624943495</v>
+        <v>0.03279026791646635</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.09537764137375354</v>
+        <v>0.03406195972786483</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03377655400896654</v>
+        <v>0.03355283228661672</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03159828889296065</v>
+        <v>0.0701865282379856</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03402018681894713</v>
+        <v>0.03337654566389031</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06564539346678774</v>
+        <v>0.1064892736189619</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03045593156619146</v>
+        <v>0.0333960321107678</v>
       </c>
       <c r="N109" t="n">
-        <v>0.09602586380747241</v>
+        <v>0.03406195972786483</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03334127244128227</v>
+        <v>0.03355283228661672</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.09565663865728904</v>
+        <v>0.03399709390757581</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03454420296371578</v>
+        <v>0.0343153966567671</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03132068200634984</v>
+        <v>0.07069922641941084</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03479337288301411</v>
+        <v>0.03413510351988782</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06528974975561738</v>
+        <v>0.1068247987122705</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03114811182905945</v>
+        <v>0.03415503284055797</v>
       </c>
       <c r="N110" t="n">
-        <v>0.09492548078702101</v>
+        <v>0.03399709390757581</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03409902863312959</v>
+        <v>0.0343153966567671</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.09001821661954709</v>
+        <v>0.03422012258538945</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03531185191846502</v>
+        <v>0.03507796102691748</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03104080068566369</v>
+        <v>0.07059098580848397</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03556655894708109</v>
+        <v>0.03489366137588532</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06479554885005448</v>
+        <v>0.1072278322295551</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03184029209192744</v>
+        <v>0.03491403357034815</v>
       </c>
       <c r="N111" t="n">
-        <v>0.09420329509996012</v>
+        <v>0.03422012258538945</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03485678482497692</v>
+        <v>0.03507796102691748</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.09448950715488338</v>
+        <v>0.03423126195648069</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03607950087321426</v>
+        <v>0.03584052539706786</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03096207298340331</v>
+        <v>0.07116252841209644</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03633974501114806</v>
+        <v>0.03565221923188283</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06367253453197164</v>
+        <v>0.1074994123579948</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03253247235479542</v>
+        <v>0.03567303430013833</v>
       </c>
       <c r="N112" t="n">
-        <v>0.09297197426580234</v>
+        <v>0.03423126195648069</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03561454101682424</v>
+        <v>0.03584052539706786</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.09209764215765365</v>
+        <v>0.03443072821602461</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03684714982796349</v>
+        <v>0.03660308976721825</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0306879269520698</v>
+        <v>0.07111457623713963</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03711293107521505</v>
+        <v>0.03641077708788034</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06323045058324148</v>
+        <v>0.107940577284769</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03322465261766341</v>
+        <v>0.03643203502992851</v>
       </c>
       <c r="N113" t="n">
-        <v>0.09244418580406005</v>
+        <v>0.03443072821602461</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03637229720867157</v>
+        <v>0.03660308976721825</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.08986975352221366</v>
+        <v>0.03431873755919619</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03761479878271273</v>
+        <v>0.03736565413736862</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03012179064416433</v>
+        <v>0.071047851290505</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03788611713928203</v>
+        <v>0.03716933494387785</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06197904078573646</v>
+        <v>0.1081523651970567</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0339168328805314</v>
+        <v>0.03719103575971868</v>
       </c>
       <c r="N114" t="n">
-        <v>0.09033259723424608</v>
+        <v>0.03431873755919619</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03713005340051889</v>
+        <v>0.03736565413736862</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.08582500904538112</v>
+        <v>0.03449550618117043</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03838244773746197</v>
+        <v>0.038128218507519</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03006709211218801</v>
+        <v>0.07146307557908402</v>
       </c>
       <c r="K115" t="n">
-        <v>0.038659303203349</v>
+        <v>0.03792789279987536</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06112804892132923</v>
+        <v>0.1075358142820373</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03460901314339939</v>
+        <v>0.03795003648950886</v>
       </c>
       <c r="N115" t="n">
-        <v>0.09004987607587284</v>
+        <v>0.03449550618117043</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03788780959236621</v>
+        <v>0.038128218507519</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.08686822071389216</v>
+        <v>0.03456125027712238</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03915009669221121</v>
+        <v>0.03889078287766938</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02962725940864196</v>
+        <v>0.07176097110976809</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03943248926741599</v>
+        <v>0.03868645065587286</v>
       </c>
       <c r="L116" t="n">
-        <v>0.0607872187718923</v>
+        <v>0.10829196272689</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03530119340626738</v>
+        <v>0.03870903721929904</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08860868984845305</v>
+        <v>0.03456125027712238</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03864556578421354</v>
+        <v>0.03889078287766938</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.08996165070997925</v>
+        <v>0.03471618604222705</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03991774564696045</v>
+        <v>0.03965334724781976</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02970572058602729</v>
+        <v>0.07114225988944856</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04020567533148297</v>
+        <v>0.03944500851187037</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05976629411929824</v>
+        <v>0.1083218487187941</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03599337366913536</v>
+        <v>0.03946803794908921</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08782170607149919</v>
+        <v>0.03471618604222705</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03940332197606087</v>
+        <v>0.03965334724781976</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0881021821749309</v>
+        <v>0.03456052967165944</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04068539460170969</v>
+        <v>0.04041591161797015</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02940590369684515</v>
+        <v>0.07140766392501699</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04097886139554995</v>
+        <v>0.04020356636786788</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05917501874541964</v>
+        <v>0.1080265104449288</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03668555393200335</v>
+        <v>0.04022703867887939</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08690159226452393</v>
+        <v>0.03456052967165944</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04016107816790819</v>
+        <v>0.04041591161797015</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0892866982500356</v>
+        <v>0.03479449736059455</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04145304355645893</v>
+        <v>0.04117847598812052</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02903123679359666</v>
+        <v>0.07185790522336469</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04175204745961693</v>
+        <v>0.04096212422386538</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05892313643212904</v>
+        <v>0.1086069860924733</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03737773419487134</v>
+        <v>0.04098603940866957</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08626101594703989</v>
+        <v>0.03479449736059455</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04091883435975552</v>
+        <v>0.04117847598812052</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.08751208207658193</v>
+        <v>0.03471830530420743</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04222069251120817</v>
+        <v>0.0419410403582709</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02888514792878294</v>
+        <v>0.07159370579138319</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04252523352368391</v>
+        <v>0.04172068207986289</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05782039096129904</v>
+        <v>0.1084643138486069</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03806991445773932</v>
+        <v>0.04174504013845975</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08521264463855954</v>
+        <v>0.03471830530420743</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04167659055160284</v>
+        <v>0.0419410403582709</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.09277521679585835</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0429883414659574</v>
+        <v>0.04270360472842128</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02907106515490511</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04329841958775089</v>
+        <v>0.0424792399358604</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05717652611480215</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03876209472060731</v>
+        <v>0.04250404086824992</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08506914585859554</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04243434674345017</v>
+        <v>0.04270360472842128</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.09507298554915336</v>
+        <v>0.03483629734853963</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04375599042070664</v>
+        <v>0.04346616909857166</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02869241652446432</v>
+        <v>0.07172487276399811</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04407160565181787</v>
+        <v>0.04323779779185791</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05690128567451097</v>
+        <v>0.1087136784353581</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0394542749834753</v>
+        <v>0.0432630415980401</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08404318712666042</v>
+        <v>0.03483629734853963</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04319210293529749</v>
+        <v>0.04346616909857166</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.08740227147775551</v>
+        <v>0.03482872238370048</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04452363937545589</v>
+        <v>0.04422873346872205</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02895263008996166</v>
+        <v>0.07182115626360155</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04484479171588485</v>
+        <v>0.04399635564785542</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05660441342229805</v>
+        <v>0.1089092906688895</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04014645524634328</v>
+        <v>0.04402204232783027</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08374743596226686</v>
+        <v>0.03482872238370048</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04394985912714481</v>
+        <v>0.04422873346872205</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09375995772295329</v>
+        <v>0.03480819694830414</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04529128833020513</v>
+        <v>0.04499129783887242</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02875750469900727</v>
+        <v>0.07160394591441518</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04561797777995183</v>
+        <v>0.04475491350385292</v>
       </c>
       <c r="L124" t="n">
-        <v>0.056695653140036</v>
+        <v>0.1087900763332775</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04083863550921128</v>
+        <v>0.04478104305762045</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08379455988492746</v>
+        <v>0.03480819694830414</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04470761531899214</v>
+        <v>0.04499129783887242</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09214292742603525</v>
+        <v>0.03487523815051349</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04605893728495437</v>
+        <v>0.0457538622090228</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02891871440577379</v>
+        <v>0.07197352987910302</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04639116384401881</v>
+        <v>0.04551347135985043</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05578474860959728</v>
+        <v>0.1089564184563115</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04153081577207927</v>
+        <v>0.04554004378741063</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08379722641415466</v>
+        <v>0.03487523815051349</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04546537151083946</v>
+        <v>0.0457538622090228</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.09854806372828984</v>
+        <v>0.03473036309849137</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04682658623970361</v>
+        <v>0.04651642657917318</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02913328308241835</v>
+        <v>0.07163024087544506</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04716434990808579</v>
+        <v>0.04627202921584794</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05578144361285459</v>
+        <v>0.108708603141593</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04222299603494725</v>
+        <v>0.04629904451720081</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08373324758089412</v>
+        <v>0.03473036309849137</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04622312770268679</v>
+        <v>0.04651642657917318</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.08897224977100565</v>
+        <v>0.03477408890040062</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04759423519445285</v>
+        <v>0.04727899094932356</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02929642246816654</v>
+        <v>0.07127441162122145</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04793753597215276</v>
+        <v>0.04703058707184544</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05579046280697916</v>
+        <v>0.1081469164927236</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04291517629781524</v>
+        <v>0.04705804524699099</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08357985062159951</v>
+        <v>0.03477408890040062</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04698088389453411</v>
+        <v>0.04727899094932356</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.09941236869547113</v>
+        <v>0.03440693266440413</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04836188414920208</v>
+        <v>0.04804155531947394</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02940334430224395</v>
+        <v>0.07130637483421221</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04871072203621975</v>
+        <v>0.04778914492784295</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05639492822717265</v>
+        <v>0.1082716446133051</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04360735656068323</v>
+        <v>0.04781704597678117</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0842054986410114</v>
+        <v>0.03440693266440413</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04773864008638144</v>
+        <v>0.04804155531947394</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09586530364297485</v>
+        <v>0.03462941149866469</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04912953310395132</v>
+        <v>0.04880411968962432</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02944926032387617</v>
+        <v>0.07112646323219746</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04948390810028673</v>
+        <v>0.04854770278384046</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05608712531222831</v>
+        <v>0.108383073606939</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04429953682355121</v>
+        <v>0.04857604670657134</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08587794188558873</v>
+        <v>0.03462941149866469</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04849639627822876</v>
+        <v>0.04880411968962432</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.09232793775480527</v>
+        <v>0.03424204251134522</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04989718205870056</v>
+        <v>0.0495666840597747</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03002938227228877</v>
+        <v>0.07113500953295723</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05025709416435371</v>
+        <v>0.04930626063983796</v>
       </c>
       <c r="L130" t="n">
-        <v>0.0565609588148252</v>
+        <v>0.1086814895772269</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0449917170864192</v>
+        <v>0.04933504743636152</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08636493060179062</v>
+        <v>0.03424204251134522</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04925415247007608</v>
+        <v>0.0495666840597747</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.09879715417225091</v>
+        <v>0.03444534281060851</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0506648310134498</v>
+        <v>0.05032924842992508</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03023892188670736</v>
+        <v>0.07143234645427166</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05103028022842069</v>
+        <v>0.05006481849583547</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05691033348764243</v>
+        <v>0.1083671786277706</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04568389734928719</v>
+        <v>0.05009404816615169</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08773421503607615</v>
+        <v>0.03444534281060851</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05001190866192341</v>
+        <v>0.05032924842992508</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.09226983603660033</v>
+        <v>0.03433982950461748</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05143247996819904</v>
+        <v>0.05109181280007546</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03047309090635753</v>
+        <v>0.07141880671392076</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05180346629248767</v>
+        <v>0.05082337635183298</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05722915408335902</v>
+        <v>0.1074404268621715</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04637607761215518</v>
+        <v>0.05085304889594187</v>
       </c>
       <c r="N132" t="n">
-        <v>0.08975354543490432</v>
+        <v>0.03433982950461748</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05076966485377073</v>
+        <v>0.05109181280007546</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.09674286648914199</v>
+        <v>0.03422601970153492</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05220012892294829</v>
+        <v>0.05185437717022584</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03072710107046488</v>
+        <v>0.07059472302968464</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05257665235655465</v>
+        <v>0.05158193420783048</v>
       </c>
       <c r="L133" t="n">
-        <v>0.057511325354654</v>
+        <v>0.1082015203840314</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04706825787502317</v>
+        <v>0.05161204962573205</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09149067204473438</v>
+        <v>0.03422601970153492</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05152742104561805</v>
+        <v>0.05185437717022584</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.09821312867116444</v>
+        <v>0.03380443050952374</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05296777787769752</v>
+        <v>0.05261694154037622</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03139616411825497</v>
+        <v>0.0708604281193434</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05334983842062163</v>
+        <v>0.05234049206382799</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05875075205420649</v>
+        <v>0.1080507452969519</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04776043813789115</v>
+        <v>0.05237105035552223</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0935133451120253</v>
+        <v>0.03380443050952374</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05228517723746538</v>
+        <v>0.05261694154037622</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.09767750572395617</v>
+        <v>0.03377557903674674</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05373542683244676</v>
+        <v>0.0533795059105266</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0315754917889534</v>
+        <v>0.07041625470067711</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05412302448468861</v>
+        <v>0.0530990499198255</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05864133893469545</v>
+        <v>0.1077883877045347</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04845261840075914</v>
+        <v>0.05313005108531241</v>
       </c>
       <c r="N135" t="n">
-        <v>0.09518931488323612</v>
+        <v>0.03377557903674674</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05304293342931271</v>
+        <v>0.0533795059105266</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.09913288078880569</v>
+        <v>0.0336399823913668</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05450307578719599</v>
+        <v>0.05414207028067698</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03186029582178578</v>
+        <v>0.07066253549146581</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05489621054875558</v>
+        <v>0.05385760777582301</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05987699074880004</v>
+        <v>0.1071147337103813</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04914479866362713</v>
+        <v>0.05388905181510258</v>
       </c>
       <c r="N136" t="n">
-        <v>0.09708633160482594</v>
+        <v>0.0336399823913668</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05380068962116002</v>
+        <v>0.05414207028067698</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.09957613700700157</v>
+        <v>0.03369815768154678</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05527072474194524</v>
+        <v>0.05490463465082736</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03244578795597768</v>
+        <v>0.07059960320948963</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05566939661282257</v>
+        <v>0.05461616563182051</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06065161224919924</v>
+        <v>0.1075300694180933</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04983697892649511</v>
+        <v>0.05464805254489276</v>
       </c>
       <c r="N137" t="n">
-        <v>0.09847214552325378</v>
+        <v>0.03369815768154678</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05455844581300735</v>
+        <v>0.05490463465082736</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.09800415751983224</v>
+        <v>0.03335062201544951</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05603837369669448</v>
+        <v>0.05566719902097774</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03272717993075468</v>
+        <v>0.0704277905725286</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05644258267688956</v>
+        <v>0.05537472348781802</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06065910818857212</v>
+        <v>0.1074346809312725</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05052915918936311</v>
+        <v>0.05540705327468293</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1003145068849788</v>
+        <v>0.03335062201544951</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05531620200485468</v>
+        <v>0.05566719902097774</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09541382546858626</v>
+        <v>0.03309789250123786</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05680602265144372</v>
+        <v>0.05642976339112813</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03299968348534241</v>
+        <v>0.06984743029836279</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05721576874095653</v>
+        <v>0.05613328134381553</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06149338331959775</v>
+        <v>0.1072288543535205</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05122133945223109</v>
+        <v>0.05616605400447311</v>
       </c>
       <c r="N139" t="n">
-        <v>0.10128116593646</v>
+        <v>0.03309789250123786</v>
       </c>
       <c r="O139" t="n">
-        <v>0.056073958196702</v>
+        <v>0.05642976339112813</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.1018020239945522</v>
+        <v>0.03304048624707469</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05757367160619296</v>
+        <v>0.05719232776127851</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03365851035896641</v>
+        <v>0.07005885510477236</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05798895480502351</v>
+        <v>0.05689183919981303</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06234834239495518</v>
+        <v>0.1061128757884388</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05191351971509908</v>
+        <v>0.05692505473426329</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1037398729241567</v>
+        <v>0.03304048624707469</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05683171438854933</v>
+        <v>0.05719232776127851</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.09816563623901842</v>
+        <v>0.03297892036112282</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0583413205609422</v>
+        <v>0.05795489213142888</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0339988722908523</v>
+        <v>0.06986239770953731</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05876214086909049</v>
+        <v>0.05765039705581054</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06341789016732347</v>
+        <v>0.1063870313396291</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05260569997796707</v>
+        <v>0.05768405546405347</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1044583780945275</v>
+        <v>0.03297892036112282</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05758947058039666</v>
+        <v>0.05795489213142888</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.09750154534327354</v>
+        <v>0.03281371195154514</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05910896951569143</v>
+        <v>0.05871745650157927</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03421598102022566</v>
+        <v>0.06965839083043776</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05953532693315747</v>
+        <v>0.05840895491180805</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06409593138938169</v>
+        <v>0.1064516071106932</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05329788024083505</v>
+        <v>0.05844305619384365</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1058044316940319</v>
+        <v>0.03281371195154514</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05834722677224397</v>
+        <v>0.05871745650157927</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.1038066344486061</v>
+        <v>0.03274537812650448</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05987661847044068</v>
+        <v>0.05948002087172964</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03430504828631209</v>
+        <v>0.06944716718525373</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06030851299722445</v>
+        <v>0.05916751276780555</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06447637081380886</v>
+        <v>0.1056068892052324</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05399006050370305</v>
+        <v>0.05920205692363382</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1071457839691288</v>
+        <v>0.03274537812650448</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0591049829640913</v>
+        <v>0.05948002087172964</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09707778669630451</v>
+        <v>0.03247443599416369</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06064426742518991</v>
+        <v>0.06024258524188002</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.06912905949176534</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06108169906129143</v>
+        <v>0.05992607062380307</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06595311319328406</v>
+        <v>0.1059531637268487</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05468224076657104</v>
+        <v>0.059961057653424</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1082501851662772</v>
+        <v>0.03247443599416369</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05986273915593862</v>
+        <v>0.06024258524188002</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1062892574049309</v>
+        <v>0.03230140266268565</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06141191637993916</v>
+        <v>0.0610051496120304</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03509095868938919</v>
+        <v>0.06860440046775268</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06185488512535842</v>
+        <v>0.06068462847980057</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06622006328048632</v>
+        <v>0.1049907167791434</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05537442102943902</v>
+        <v>0.06072005838321417</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1078853855319363</v>
+        <v>0.03230140266268565</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06062049534778595</v>
+        <v>0.0610051496120304</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.09853190223068178</v>
+        <v>0.03222679524023318</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06217956533468839</v>
+        <v>0.06176771398218078</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03502555216325579</v>
+        <v>0.06837352283099579</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0626280711894254</v>
+        <v>0.06144318633579807</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06687112582809476</v>
+        <v>0.1049198344657183</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05606660129230701</v>
+        <v>0.06147905911300435</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.03222679524023318</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06137825153963328</v>
+        <v>0.06176771398218078</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1047531395115926</v>
+        <v>0.03175113083496917</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06294721428943764</v>
+        <v>0.06253027835233116</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03546608411250865</v>
+        <v>0.06793675929927478</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06340125725349237</v>
+        <v>0.06220174419179559</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06820020558878834</v>
+        <v>0.1052408028901752</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05675878155517499</v>
+        <v>0.06223805984279453</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1082105196121506</v>
+        <v>0.03175113083496917</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06213600773148059</v>
+        <v>0.06253027835233116</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1069753721787595</v>
+        <v>0.03177492655505641</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06371486324418688</v>
+        <v>0.06329284272248153</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03571110583145894</v>
+        <v>0.06799444259036974</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06417444331755935</v>
+        <v>0.06296030204779308</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06840120731524615</v>
+        <v>0.1039539081561153</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05745096181804298</v>
+        <v>0.06299706057258471</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1089978375868061</v>
+        <v>0.03177492655505641</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06289376392332792</v>
+        <v>0.06329284272248153</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.09919814682252343</v>
+        <v>0.03149869950865783</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06448251219893612</v>
+        <v>0.06405540709263192</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03585916861441767</v>
+        <v>0.0676469054220607</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06494762938162633</v>
+        <v>0.0637188599037906</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06896803576014734</v>
+        <v>0.1044594363671406</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05814314208091096</v>
+        <v>0.06375606130237489</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1086817126134392</v>
+        <v>0.03149869950865783</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06365152011517523</v>
+        <v>0.06405540709263192</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1034210100332255</v>
+        <v>0.03132296680393623</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06525016115368536</v>
+        <v>0.0648179714627823</v>
       </c>
       <c r="J150" t="n">
-        <v>0.036008823755696</v>
+        <v>0.06759448051212777</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0657208154456933</v>
+        <v>0.0644774177597881</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06999459567617083</v>
+        <v>0.1035576736268526</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05883532234377896</v>
+        <v>0.06451506203216506</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1087621481861808</v>
+        <v>0.03132296680393623</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06440927630702258</v>
+        <v>0.0648179714627823</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.09864350840120673</v>
+        <v>0.03124824554905449</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06601781010843459</v>
+        <v>0.06558053583293269</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03645862254960497</v>
+        <v>0.06743750057835102</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06649400150976029</v>
+        <v>0.0652359756157856</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07037479181599571</v>
+        <v>0.103848906038853</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05952750260664694</v>
+        <v>0.06527406276195524</v>
       </c>
       <c r="N151" t="n">
-        <v>0.109039147799162</v>
+        <v>0.03124824554905449</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0651670324988699</v>
+        <v>0.06558053583293269</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1028651885168081</v>
+        <v>0.03097505285217543</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06678545906318382</v>
+        <v>0.06634310020308307</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03680711629045572</v>
+        <v>0.06677629833851054</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06726718757382728</v>
+        <v>0.06599453347178312</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07070252893230114</v>
+        <v>0.1034334197067433</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06021968286951494</v>
+        <v>0.06603306349174541</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1093127149465139</v>
+        <v>0.03097505285217543</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06592478869071722</v>
+        <v>0.06634310020308307</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.09908559697037067</v>
+        <v>0.03090390582146195</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06755310801793307</v>
+        <v>0.06710566457323344</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03685285627255928</v>
+        <v>0.06701120651038636</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06804037363789425</v>
+        <v>0.06675309132778062</v>
       </c>
       <c r="L153" t="n">
-        <v>0.071571711777766</v>
+        <v>0.1026115007341252</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06091186313238292</v>
+        <v>0.06679206422153559</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1095828531223677</v>
+        <v>0.03090390582146195</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06668254488256455</v>
+        <v>0.06710566457323344</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1013042803522355</v>
+        <v>0.03063532156507685</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06832075697268231</v>
+        <v>0.06786822894338382</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03699439379022684</v>
+        <v>0.0663425578117586</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06881355970196124</v>
+        <v>0.06751164918377812</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.1027834352246004</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06160404339525091</v>
+        <v>0.06755106495132576</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1092495658208543</v>
+        <v>0.03063532156507685</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06744030107441187</v>
+        <v>0.06786822894338382</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1075207852527435</v>
+        <v>0.03066981719118303</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06908840592743155</v>
+        <v>0.06863079331353421</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03743028013776939</v>
+        <v>0.0665706849604073</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06958674576602822</v>
+        <v>0.06827020703977564</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07208477549049949</v>
+        <v>0.1025495092817705</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06229622365811889</v>
+        <v>0.06831006568111594</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1094128565361048</v>
+        <v>0.03066981719118303</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06819805726625919</v>
+        <v>0.06863079331353421</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1037346582622357</v>
+        <v>0.03040790980794332</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06985605488218079</v>
+        <v>0.06939335768368458</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03775906660949808</v>
+        <v>0.0658959206741126</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07035993183009519</v>
+        <v>0.06902876489577314</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0727922287786234</v>
+        <v>0.1014100090092371</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06298840392098688</v>
+        <v>0.06906906641090611</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1098727287622505</v>
+        <v>0.03040790980794332</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06895581345810652</v>
+        <v>0.06939335768368458</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.09994544597105318</v>
+        <v>0.03015011652352056</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07062370383693004</v>
+        <v>0.07015592205383496</v>
       </c>
       <c r="J157" t="n">
-        <v>0.037679304499724</v>
+        <v>0.06551859767065457</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07113311789416217</v>
+        <v>0.06978732275177064</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07320329517781096</v>
+        <v>0.1014652205106018</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06368058418385487</v>
+        <v>0.0698280671406963</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1099291859934221</v>
+        <v>0.03015011652352056</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06971356964995384</v>
+        <v>0.07015592205383496</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.100152694969537</v>
+        <v>0.03009695444607764</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07139135279167927</v>
+        <v>0.07091848642398534</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03788954510275822</v>
+        <v>0.06543904866781322</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07190630395822915</v>
+        <v>0.07054588060776816</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07321683470983331</v>
+        <v>0.1012154298894663</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06437276444672287</v>
+        <v>0.07058706787048648</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1093822317237509</v>
+        <v>0.03009695444607764</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07047132584180116</v>
+        <v>0.07091848642398534</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1053559518480281</v>
+        <v>0.02994253512684752</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07215900174642852</v>
+        <v>0.07168105079413573</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03818833971291183</v>
+        <v>0.06505760638336869</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07267949002229612</v>
+        <v>0.07130443846376566</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07423170739646145</v>
+        <v>0.1009609232494322</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06506494470959084</v>
+        <v>0.07134606860027666</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1091318694473679</v>
+        <v>0.02994253512684752</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07122908203364849</v>
+        <v>0.07168105079413573</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1075547631968675</v>
+        <v>0.02978093702336679</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07292665070117775</v>
+        <v>0.0724436151642861</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03847423962449596</v>
+        <v>0.06517460353510104</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07345267608636312</v>
+        <v>0.07206299631976318</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07404677325946654</v>
+        <v>0.1000019866941012</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06575712497245884</v>
+        <v>0.07210506933006684</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1094781026584045</v>
+        <v>0.02978093702336679</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07198683822549581</v>
+        <v>0.0724436151642861</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1097486756063963</v>
+        <v>0.02941264605770695</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07369429965592698</v>
+        <v>0.07320617953443649</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03864579613182167</v>
+        <v>0.06419037284079032</v>
       </c>
       <c r="K161" t="n">
-        <v>0.0742258621504301</v>
+        <v>0.07282155417576068</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07446089232061964</v>
+        <v>0.1004389063270748</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06644930523532681</v>
+        <v>0.07286407005985701</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1094209348509912</v>
+        <v>0.02941264605770695</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07274459441734314</v>
+        <v>0.07320617953443649</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1049372356669555</v>
+        <v>0.02933814815341748</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07446194861067623</v>
+        <v>0.07396874390458687</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03880156052920007</v>
+        <v>0.06390524701821665</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07499904821449707</v>
+        <v>0.07358011203175818</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07537292460169179</v>
+        <v>0.1001719682519547</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06714148549819481</v>
+        <v>0.07362307078964719</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1091603695192594</v>
+        <v>0.02933814815341748</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07350235060919047</v>
+        <v>0.07396874390458687</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.100119989968886</v>
+        <v>0.02915792923404779</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07522959756542547</v>
+        <v>0.07473130827473724</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03904008411094224</v>
+        <v>0.06401955831400435</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07577223427856405</v>
+        <v>0.0743386698877557</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07578173012445416</v>
+        <v>0.09890145857234256</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0678336657610628</v>
+        <v>0.07438207151943736</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1095964101573402</v>
+        <v>0.02915792923404779</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07426010680103778</v>
+        <v>0.07473130827473724</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.106296485102529</v>
+        <v>0.02917247522314742</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0759972465201747</v>
+        <v>0.07549387264488762</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03885991817135927</v>
+        <v>0.06371315843629852</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07654542034263104</v>
+        <v>0.0750972277437532</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07588616891067779</v>
+        <v>0.09932766339184007</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06852584602393079</v>
+        <v>0.07514107224922754</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1101290602593645</v>
+        <v>0.02917247522314742</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07501786299288511</v>
+        <v>0.07549387264488762</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1074662676582255</v>
+        <v>0.02898227204426576</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07676489547492393</v>
+        <v>0.07625643701503799</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03925961400476227</v>
+        <v>0.06346759087166631</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07731860640669801</v>
+        <v>0.07585578559975072</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0761851009821338</v>
+        <v>0.0983508688140487</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06921802628679878</v>
+        <v>0.07590007297901771</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1099583233194636</v>
+        <v>0.02898227204426576</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07577561918473243</v>
+        <v>0.07625643701503799</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1016288842263164</v>
+        <v>0.02848780562095231</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07753254442967318</v>
+        <v>0.07701900138518838</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0391377229054623</v>
+        <v>0.06288513685713903</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07809179247076499</v>
+        <v>0.07661434345574822</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07677738636059325</v>
+        <v>0.09847136094257014</v>
       </c>
       <c r="M166" t="n">
-        <v>0.06991020654966676</v>
+        <v>0.0766590737088079</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1095842028317685</v>
+        <v>0.02848780562095231</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07653337537657975</v>
+        <v>0.07701900138518838</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1007838813971427</v>
+        <v>0.02848956187675646</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07830019338442241</v>
+        <v>0.07778156575533876</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03909279616777053</v>
+        <v>0.06216807762974791</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07886497853483199</v>
+        <v>0.07737290131174572</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07736188506782715</v>
+        <v>0.09748942588100606</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07060238681253475</v>
+        <v>0.07741807443859808</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1103067022904101</v>
+        <v>0.02848956187675646</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07729113156842708</v>
+        <v>0.07778156575533876</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1109308057610456</v>
+        <v>0.02818802673522772</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07906784233917166</v>
+        <v>0.07854413012548914</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03912338508599794</v>
+        <v>0.06211869442652423</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07963816459889896</v>
+        <v>0.07813145916774324</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07733745712560675</v>
+        <v>0.09750534973295816</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07129456707540273</v>
+        <v>0.07817707516838825</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1102258251895196</v>
+        <v>0.02818802673522772</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07804888776027441</v>
+        <v>0.07854413012548914</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.109069203908366</v>
+        <v>0.02808368611991555</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0798354912939209</v>
+        <v>0.07930669449563953</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03912823019120508</v>
+        <v>0.06183926848449922</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08041135066296594</v>
+        <v>0.07889001702374074</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07760296255570301</v>
+        <v>0.096619418602028</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07198674733827072</v>
+        <v>0.07893607589817843</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1102415750232282</v>
+        <v>0.02808368611991555</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07880664395212174</v>
+        <v>0.07930669449563953</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.102198622429445</v>
+        <v>0.0277770259543694</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08060314024867014</v>
+        <v>0.0800692588657899</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03940916404958114</v>
+        <v>0.06113208104070419</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08118453672703292</v>
+        <v>0.07964857487973824</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07805726137988706</v>
+        <v>0.09723191859181712</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07267892760113871</v>
+        <v>0.0796950766279686</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1094539552856667</v>
+        <v>0.0277770259543694</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07956440014396907</v>
+        <v>0.0800692588657899</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1013186079146235</v>
+        <v>0.02776853216213875</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08137078920341938</v>
+        <v>0.08083182323594029</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0390677374153942</v>
+        <v>0.06059941333217039</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08195772279109989</v>
+        <v>0.08040713273573576</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07839921361992994</v>
+        <v>0.09654313580592727</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0733711078640067</v>
+        <v>0.08045407735775878</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1103629694709664</v>
+        <v>0.02776853216213875</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08032215633581638</v>
+        <v>0.08083182323594029</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1044287069542427</v>
+        <v>0.02755869066677301</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08213843815816863</v>
+        <v>0.08159438760609067</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03920485604623884</v>
+        <v>0.06024354659592915</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08273090885516687</v>
+        <v>0.08116569059173326</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07902767929760285</v>
+        <v>0.09575335634796012</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07406328812687468</v>
+        <v>0.08121307808754896</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1094686210732583</v>
+        <v>0.02755869066677301</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08107991252766371</v>
+        <v>0.08159438760609067</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1075284661386434</v>
+        <v>0.02734798739182166</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08290608711291786</v>
+        <v>0.08235695197624104</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03902142569970976</v>
+        <v>0.05916676206901161</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08350409491923386</v>
+        <v>0.08192424844773076</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07884151843467677</v>
+        <v>0.09516286632151716</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07475546838974267</v>
+        <v>0.08197207881733914</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1100709135866735</v>
+        <v>0.02734798739182166</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08183766871951104</v>
+        <v>0.08235695197624104</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1096174320581668</v>
+        <v>0.02703690826083417</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08367373606766711</v>
+        <v>0.08311951634639142</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0388183521334016</v>
+        <v>0.05867134098844909</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08427728098330083</v>
+        <v>0.08268280630372828</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07943959105292281</v>
+        <v>0.09547074697363278</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07544764865261067</v>
+        <v>0.08273107954712931</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1095536535069463</v>
+        <v>0.02703690826083417</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08259542491135835</v>
+        <v>0.08311951634639142</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1076951513031538</v>
+        <v>0.02692593919735999</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08444138502241634</v>
+        <v>0.0838820807165418</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03899654110490892</v>
+        <v>0.05835956459127289</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08505046704736782</v>
+        <v>0.08344136415972578</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07982075717411208</v>
+        <v>0.09446910954064075</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07613982891547864</v>
+        <v>0.0834900802769195</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1102864359661718</v>
+        <v>0.02692593919735999</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08335318110320568</v>
+        <v>0.0838820807165418</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1117611704639455</v>
+        <v>0.02651556612494856</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08520903397716557</v>
+        <v>0.08464464508669219</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03875689837182644</v>
+        <v>0.05783371411451427</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08582365311143481</v>
+        <v>0.08419992201572329</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08038387682001566</v>
+        <v>0.09385539050784059</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07683200917834664</v>
+        <v>0.08424908100670968</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1094704700916442</v>
+        <v>0.02651556612494856</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08411093729505299</v>
+        <v>0.08464464508669219</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1058150361308829</v>
+        <v>0.02620627496714938</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08597668293191481</v>
+        <v>0.08540720945684256</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03870032969174876</v>
+        <v>0.05659607079520443</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08659683917550177</v>
+        <v>0.0849584798717208</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0801278100124046</v>
+        <v>0.09442828281792104</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07752418944121463</v>
+        <v>0.08500808173649985</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1100077893584568</v>
+        <v>0.02620627496714938</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08486869348690033</v>
+        <v>0.08540720945684256</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1028562948943071</v>
+        <v>0.02619855164751186</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08674433188666406</v>
+        <v>0.08616977382699294</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03852774082227053</v>
+        <v>0.0562489158703747</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08737002523956876</v>
+        <v>0.0857170377277183</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08015141677305004</v>
+        <v>0.09378647941357104</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07821636970408262</v>
+        <v>0.08576708246629003</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1097004272417036</v>
+        <v>0.02619855164751186</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08562644967874766</v>
+        <v>0.08616977382699294</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.106884493344559</v>
+        <v>0.02579288208958549</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08751198084141329</v>
+        <v>0.08693233819714333</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03824003752098641</v>
+        <v>0.05579453057705633</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08814321130363574</v>
+        <v>0.08647559558371581</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08035355712372302</v>
+        <v>0.09352867323747938</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0789085499669506</v>
+        <v>0.0865260831960802</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1088504172164781</v>
+        <v>0.02579288208958549</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08638420587059498</v>
+        <v>0.08693233819714333</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1088991780719796</v>
+        <v>0.02588975221691973</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08827962979616254</v>
+        <v>0.0876949025672937</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03793812554549099</v>
+        <v>0.0549351961522806</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08891639736770271</v>
+        <v>0.08723415343971332</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08083309108619466</v>
+        <v>0.09285355723233507</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07960073022981859</v>
+        <v>0.08728508392587038</v>
       </c>
       <c r="N180" t="n">
-        <v>0.109259792757874</v>
+        <v>0.02588975221691973</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0871419620624423</v>
+        <v>0.0876949025672937</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1108930793754777</v>
+        <v>0.02568964795306401</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08904727875091177</v>
+        <v>0.08845746693744409</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03792291065337894</v>
+        <v>0.05457319383307876</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08968958343176969</v>
+        <v>0.08799271129571083</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08118887868223607</v>
+        <v>0.09255982434082688</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08029291049268657</v>
+        <v>0.08804408465566055</v>
       </c>
       <c r="N181" t="n">
-        <v>0.108530587340985</v>
+        <v>0.02568964795306401</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08789971825428962</v>
+        <v>0.08845746693744409</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1058171613546005</v>
+        <v>0.02549305522156782</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08981492770566102</v>
+        <v>0.08922003130759447</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03749529860224489</v>
+        <v>0.0540108048564821</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09046276949583669</v>
+        <v>0.08875126915170833</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08081977993361827</v>
+        <v>0.09154616750564387</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08098509075555456</v>
+        <v>0.08880308538545073</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1075648344409046</v>
+        <v>0.02549305522156782</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08865747444613695</v>
+        <v>0.08922003130759447</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1106664543222364</v>
+        <v>0.02510045994598059</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09058257666041025</v>
+        <v>0.08998259567774484</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03725619514968349</v>
+        <v>0.05285031045952182</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09123595555990366</v>
+        <v>0.08950982700770584</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08112465486211234</v>
+        <v>0.09141127966947488</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08167727101842255</v>
+        <v>0.0895620861152409</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1072645675327266</v>
+        <v>0.02510045994598059</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08941523063798427</v>
+        <v>0.08998259567774484</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1084466350890192</v>
+        <v>0.0248123480498518</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0913502256151595</v>
+        <v>0.09074516004789522</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03690650605328941</v>
+        <v>0.05269399187922924</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09200914162397064</v>
+        <v>0.09026838486370335</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08100236348948944</v>
+        <v>0.09095385377500859</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08236945128129054</v>
+        <v>0.09032108684503108</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1073318200915447</v>
+        <v>0.0248123480498518</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09017298682983159</v>
+        <v>0.09074516004789522</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1021633804655832</v>
+        <v>0.02492920545673089</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09211787456990873</v>
+        <v>0.0915077244180456</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0368471370706572</v>
+        <v>0.05134413035263563</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09278232768803762</v>
+        <v>0.09102694271970085</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08105176583752066</v>
+        <v>0.09037258276493415</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08306163154415853</v>
+        <v>0.09108008757482126</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1063686255924523</v>
+        <v>0.02492920545673089</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09093074302167892</v>
+        <v>0.0915077244180456</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.1078223672625623</v>
+        <v>0.02445151809016732</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09288552352465798</v>
+        <v>0.09227028878819599</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03657899395938156</v>
+        <v>0.05100300711677219</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09355551375210459</v>
+        <v>0.09178550057569836</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08157172192797699</v>
+        <v>0.08976615958194034</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08375381180702651</v>
+        <v>0.09183908830461145</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1059770175105433</v>
+        <v>0.02445151809016732</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09168849921352624</v>
+        <v>0.09227028878819599</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1094292722905907</v>
+        <v>0.02447977187371056</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09365317247940722</v>
+        <v>0.09303285315834636</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03620298247705712</v>
+        <v>0.05007290340867029</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09432869981617158</v>
+        <v>0.09254405843169587</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08103618114504657</v>
+        <v>0.08823327716871598</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0844459920698945</v>
+        <v>0.09259808903440163</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1053590293209112</v>
+        <v>0.02447977187371056</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09244625540537357</v>
+        <v>0.09303285315834636</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1059897723603023</v>
+        <v>0.02411445273091008</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09442082143415646</v>
+        <v>0.09379541752849674</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03582000838127855</v>
+        <v>0.05015610046536112</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09510188588023856</v>
+        <v>0.09330261628769337</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08160363482719996</v>
+        <v>0.08797262846795012</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08513817233276248</v>
+        <v>0.0933570897641918</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1049166944986498</v>
+        <v>0.02411445273091008</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0932040115972209</v>
+        <v>0.09379541752849674</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.1085095442823313</v>
+        <v>0.02405604658531527</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0951884703889057</v>
+        <v>0.09455798189864713</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03563097742964043</v>
+        <v>0.04945487952387601</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09587507194430553</v>
+        <v>0.09406117414369088</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08067936839237683</v>
+        <v>0.0877829064223315</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08583035259563047</v>
+        <v>0.09411609049398198</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1051520465188526</v>
+        <v>0.02405604658531527</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09396176778906823</v>
+        <v>0.09455798189864713</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1069942648673116</v>
+        <v>0.02410503936047569</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09595611934365493</v>
+        <v>0.0953205462687975</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03523679537973742</v>
+        <v>0.04867152182124615</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09664825800837253</v>
+        <v>0.09481973199968839</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08086957763226366</v>
+        <v>0.08606280397454907</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08652253285849847</v>
+        <v>0.09487509122377215</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1043671188566134</v>
+        <v>0.02410503936047569</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09471952398091554</v>
+        <v>0.0953205462687975</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.09944961092587751</v>
+        <v>0.02376191697994072</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09672376829840416</v>
+        <v>0.09608311063894788</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03523836798916417</v>
+        <v>0.04820830859450281</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09742144407243951</v>
+        <v>0.09557828985568589</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07998045833854686</v>
+        <v>0.08611101406729177</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08721471312136646</v>
+        <v>0.09563409195356233</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1034639449870257</v>
+        <v>0.02376191697994072</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09547728017276287</v>
+        <v>0.09608311063894788</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1008812592686629</v>
+        <v>0.02372716536725984</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09749141725315341</v>
+        <v>0.09684567500909827</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03473660101551532</v>
+        <v>0.04776752108067733</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09819463013650648</v>
+        <v>0.09633684771168341</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08011820630291294</v>
+        <v>0.08532622964324843</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08790689338423445</v>
+        <v>0.0963930926833525</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1032445583851833</v>
+        <v>0.02372716536725984</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09623503636461019</v>
+        <v>0.09684567500909827</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0982948867063019</v>
+        <v>0.02370127044598253</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09825906620790265</v>
+        <v>0.09760823937924865</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03443240021638549</v>
+        <v>0.04695144051680092</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09896781620057346</v>
+        <v>0.09709540556768091</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07938901731704834</v>
+        <v>0.08370714364510778</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08859907364710243</v>
+        <v>0.09715209341314268</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1019109925261797</v>
+        <v>0.02370127044598253</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09699279255645751</v>
+        <v>0.09760823937924865</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1056961700494286</v>
+        <v>0.02348471813965823</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09902671516265188</v>
+        <v>0.09837080374939902</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03432667134936936</v>
+        <v>0.04626234813990487</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09974100226464044</v>
+        <v>0.09785396342367841</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07849908717263948</v>
+        <v>0.08285244901555899</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08929125390997042</v>
+        <v>0.09791109414293286</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1012652808851087</v>
+        <v>0.02348471813965823</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09775054874830484</v>
+        <v>0.09837080374939902</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1050907861086769</v>
+        <v>0.02317799437183639</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09979436411740113</v>
+        <v>0.0991333681195494</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03372032017206153</v>
+        <v>0.04570252518702039</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1005141883287074</v>
+        <v>0.09861252127967593</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07845461166137283</v>
+        <v>0.08206083869729086</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0899834341728384</v>
+        <v>0.09867009487272303</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1013094569370639</v>
+        <v>0.02317799437183639</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09850830494015217</v>
+        <v>0.0991333681195494</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1044844116946811</v>
+        <v>0.02328158506606645</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1005620130721504</v>
+        <v>0.09989593248969979</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03351425244205664</v>
+        <v>0.04587425289517885</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1012873743927744</v>
+        <v>0.09937107913567343</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07736178657493484</v>
+        <v>0.08133100563299217</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09067561443570639</v>
+        <v>0.09942909560251321</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09994555415713891</v>
+        <v>0.02328158506606645</v>
       </c>
       <c r="O196" t="n">
-        <v>0.0992660611319995</v>
+        <v>0.09989593248969979</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1018827236180751</v>
+        <v>0.02319592997546584</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1013296620268996</v>
+        <v>0.1006584968598502</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03340937391694933</v>
+        <v>0.04557964582529053</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1020605604568414</v>
+        <v>0.1001296369916709</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07642680770501198</v>
+        <v>0.08026164276535191</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09136779469857438</v>
+        <v>0.1001880963323034</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0993756060204275</v>
+        <v>0.02319592997546584</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1000238173238468</v>
+        <v>0.1006584968598502</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1032913986894931</v>
+        <v>0.02291882185235436</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1020973109816488</v>
+        <v>0.1014210612300006</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03290659035433427</v>
+        <v>0.04460691440925549</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1028337465209084</v>
+        <v>0.1008881948476684</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07555587084329066</v>
+        <v>0.0796514430370589</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09205997496144237</v>
+        <v>0.1009470970620936</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09850164600202316</v>
+        <v>0.02291882185235436</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1007815735156941</v>
+        <v>0.1014210612300006</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.103716113719569</v>
+        <v>0.02314828244658478</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1028649599363981</v>
+        <v>0.1021836256001509</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03260680751180606</v>
+        <v>0.04454709965292666</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1036069325849753</v>
+        <v>0.101646752703666</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07495517178145739</v>
+        <v>0.07809909939080212</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09275215522431035</v>
+        <v>0.1017060977918837</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09822570757701965</v>
+        <v>0.02314828244658478</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1015393297075415</v>
+        <v>0.1021836256001509</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.09716254551893688</v>
+        <v>0.02288355046936913</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1036326088911473</v>
+        <v>0.1029461899703013</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03231093114695936</v>
+        <v>0.04399932020883607</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1043801186490423</v>
+        <v>0.1024053105596635</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07443090631119856</v>
+        <v>0.0775049998717573</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09344433548717834</v>
+        <v>0.1024650985216739</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09744982422051063</v>
+        <v>0.02288355046936913</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1022970858993888</v>
+        <v>0.1029461899703013</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0956363708982309</v>
+        <v>0.02302386463191952</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1044002578458966</v>
+        <v>0.1037087543404517</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03221986701738881</v>
+        <v>0.04416269472951587</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1051533047131093</v>
+        <v>0.103163868415661</v>
       </c>
       <c r="L201" t="n">
-        <v>0.0735892702242007</v>
+        <v>0.07520609862376537</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09413651575004633</v>
+        <v>0.1032240992514641</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09647602940758965</v>
+        <v>0.02302386463191952</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1030548420912361</v>
+        <v>0.1037087543404517</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.09314326666808512</v>
+        <v>0.02266846364544801</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1051679068006458</v>
+        <v>0.1044713187106021</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03163452088068905</v>
+        <v>0.04323634186749803</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1059264907771763</v>
+        <v>0.1039224262716585</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0727364593121502</v>
+        <v>0.07356789759176779</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09482869601291431</v>
+        <v>0.1039830999812543</v>
       </c>
       <c r="N202" t="n">
-        <v>0.0960063566133505</v>
+        <v>0.02266846364544801</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1038125982830834</v>
+        <v>0.1044713187106021</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.09668890963913354</v>
+        <v>0.02271658622116662</v>
       </c>
       <c r="G203" t="n">
-        <v>0.105935555755395</v>
+        <v>0.1052338830807524</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0316557984944547</v>
+        <v>0.04311938027531456</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1066996768412433</v>
+        <v>0.104680984127656</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07137866936673354</v>
+        <v>0.07075931707438249</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0955208762757823</v>
+        <v>0.1047421007110445</v>
       </c>
       <c r="N203" t="n">
-        <v>0.09534283931288678</v>
+        <v>0.02271658622116662</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1045703544749308</v>
+        <v>0.1052338830807524</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09327897662201023</v>
+        <v>0.02266747107028745</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1067032047101443</v>
+        <v>0.1059964474509028</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03118460561628041</v>
+        <v>0.0426109286054977</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1074728629053102</v>
+        <v>0.1054395419836535</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07102209617963712</v>
+        <v>0.06744927737022721</v>
       </c>
       <c r="M204" t="n">
-        <v>0.0962130565386503</v>
+        <v>0.1055011014408346</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09438751098129206</v>
+        <v>0.02266747107028745</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1053281106667781</v>
+        <v>0.1059964474509028</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.09891914442734928</v>
+        <v>0.02252035690402258</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1074708536648935</v>
+        <v>0.1067590118210532</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03101660771520467</v>
+        <v>0.04291010551057933</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1082460489693772</v>
+        <v>0.106198099839651</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07027293554254746</v>
+        <v>0.06400669877791987</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09690523680151829</v>
+        <v>0.1062601021706248</v>
       </c>
       <c r="N205" t="n">
-        <v>0.09454240509366019</v>
+        <v>0.02252035690402258</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1060858668586254</v>
+        <v>0.1067590118210532</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.09961508986578477</v>
+        <v>0.02247448243358403</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1082385026196428</v>
+        <v>0.1075215761912036</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03064630600703226</v>
+        <v>0.04251602964309159</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1090192350334442</v>
+        <v>0.1069566576956485</v>
       </c>
       <c r="L206" t="n">
-        <v>0.069037383247151</v>
+        <v>0.06080050159607808</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09759741706438627</v>
+        <v>0.107019102900415</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09400955512508458</v>
+        <v>0.02247448243358403</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1068436230504727</v>
+        <v>0.1075215761912036</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09937248974795071</v>
+        <v>0.02272908637018391</v>
       </c>
       <c r="G207" t="n">
-        <v>0.109006151574392</v>
+        <v>0.108284140561354</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03027369796746557</v>
+        <v>0.04172781965556652</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1097924210975112</v>
+        <v>0.107715215551646</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06872163508513421</v>
+        <v>0.0572996061233198</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09828959732725426</v>
+        <v>0.1077781036302052</v>
       </c>
       <c r="N207" t="n">
-        <v>0.0926798576017554</v>
+        <v>0.02272908637018391</v>
       </c>
       <c r="O207" t="n">
-        <v>0.10760137924232</v>
+        <v>0.108284140561354</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.09319702088448117</v>
+        <v>0.02258340742503426</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1097738005291412</v>
+        <v>0.1090467049315043</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02999878488538983</v>
+        <v>0.04144459420053614</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1105656071615781</v>
+        <v>0.1084737734076435</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06783188684818348</v>
+        <v>0.0543729326582626</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09898177759012224</v>
+        <v>0.1085371043599953</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09273967214257917</v>
+        <v>0.02258340742503426</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1083591354341674</v>
+        <v>0.1090467049315043</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1000943600860102</v>
+        <v>0.02243668430934714</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1105414494838905</v>
+        <v>0.1098092693016547</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03002156804969025</v>
+        <v>0.04156547193053256</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1113387932256451</v>
+        <v>0.109232331263641</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06657433432798529</v>
+        <v>0.05138940149952459</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09967395785299023</v>
+        <v>0.1092961050897855</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09158897891040296</v>
+        <v>0.02243668430934714</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1091168916260147</v>
+        <v>0.1098092693016547</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.09306846804395508</v>
+        <v>0.02238815573433464</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1113090984386397</v>
+        <v>0.1105718336718051</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0297420487492521</v>
+        <v>0.04138957149808781</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1121119792897121</v>
+        <v>0.1099908891196385</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06595517331622605</v>
+        <v>0.04741793294572338</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1003661381158582</v>
+        <v>0.1100551058195757</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09152781530964593</v>
+        <v>0.02238815573433464</v>
       </c>
       <c r="O210" t="n">
-        <v>0.109874647817862</v>
+        <v>0.1105718336718051</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.09806853441757885</v>
+        <v>0.02223706041120883</v>
       </c>
       <c r="G211" t="n">
-        <v>0.112076747393389</v>
+        <v>0.1113343980419555</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02926022827296056</v>
+        <v>0.04121601155573393</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1128851653537791</v>
+        <v>0.110749446975636</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06508059960459234</v>
+        <v>0.04512744729547674</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1010583183787262</v>
+        <v>0.1108141065493659</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09005621874472708</v>
+        <v>0.02223706041120883</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1106324040097094</v>
+        <v>0.1113343980419555</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.09306887734740582</v>
+        <v>0.02218263705118174</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1128443963481382</v>
+        <v>0.1120969624121059</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02907610790970089</v>
+        <v>0.04094391075600298</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1136583514178461</v>
+        <v>0.1115080048316335</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06505680898477051</v>
+        <v>0.04208686484740254</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1017504986415942</v>
+        <v>0.1115731072791561</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08947422662006577</v>
+        <v>0.02218263705118174</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1113901602015567</v>
+        <v>0.1120969624121059</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.09006972674309702</v>
+        <v>0.02212412436546547</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1136120453028874</v>
+        <v>0.1128595267822563</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02878968894835829</v>
+        <v>0.03997238775142703</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1144315374819131</v>
+        <v>0.1122665626876311</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06388999724844699</v>
+        <v>0.03976510590011861</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1024426789044622</v>
+        <v>0.1123321080089462</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08938187634008071</v>
+        <v>0.02212412436546547</v>
       </c>
       <c r="O213" t="n">
-        <v>0.112147916393404</v>
+        <v>0.1128595267822563</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09707131251431342</v>
+        <v>0.02216076106527204</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1143796942576367</v>
+        <v>0.1136220911524066</v>
       </c>
       <c r="J214" t="n">
-        <v>0.028500972677818</v>
+        <v>0.0397005611945381</v>
       </c>
       <c r="K214" t="n">
-        <v>0.11520472354598</v>
+        <v>0.1130251205436286</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06378636018730835</v>
+        <v>0.03743109075224271</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1031348591673302</v>
+        <v>0.1130911087387364</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08797920530919129</v>
+        <v>0.02216076106527204</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1129056725852513</v>
+        <v>0.1136220911524066</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.09307386457071598</v>
+        <v>0.02229178586181357</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1151473432123859</v>
+        <v>0.114384655522557</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02820996038696523</v>
+        <v>0.0399275497378683</v>
       </c>
       <c r="K215" t="n">
-        <v>0.115977909610047</v>
+        <v>0.1137836783996261</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06345209359304091</v>
+        <v>0.03525373970239259</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1038270394301982</v>
+        <v>0.1138501094685266</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08716625093181657</v>
+        <v>0.02229178586181357</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1136634287770987</v>
+        <v>0.114384655522557</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.09107761282196572</v>
+        <v>0.02201643746630209</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1159149921671352</v>
+        <v>0.1151472198927074</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02771665336468522</v>
+        <v>0.03925247203394969</v>
       </c>
       <c r="K216" t="n">
-        <v>0.116751095674114</v>
+        <v>0.1145422362556236</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06299339325733122</v>
+        <v>0.03430197304918614</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1045192196930661</v>
+        <v>0.1146091101983168</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08714305061237559</v>
+        <v>0.02201643746630209</v>
       </c>
       <c r="O216" t="n">
-        <v>0.114421184968946</v>
+        <v>0.1151472198927074</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09708278717772362</v>
+        <v>0.02193515644804137</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1166826411218844</v>
+        <v>0.1159097842628578</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02762105289986316</v>
+        <v>0.03887444673531423</v>
       </c>
       <c r="K217" t="n">
-        <v>0.117524281738181</v>
+        <v>0.1153007941116211</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06291645497186568</v>
+        <v>0.03424471109124105</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1052113999559341</v>
+        <v>0.1153681109281069</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08560964175528757</v>
+        <v>0.02193515644804137</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1151789411607933</v>
+        <v>0.1159097842628578</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.09508961754765063</v>
+        <v>0.02204973163117604</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1174502900766336</v>
+        <v>0.1166723486330082</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02742316028138433</v>
+        <v>0.03889259249449409</v>
       </c>
       <c r="K218" t="n">
-        <v>0.118297467802248</v>
+        <v>0.1160593519676186</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06272747452833077</v>
+        <v>0.03380287639447055</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1059035802188021</v>
+        <v>0.1161271116578971</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08566606176497144</v>
+        <v>0.02204973163117604</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1159366973526406</v>
+        <v>0.1166723486330082</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.09209833384140781</v>
+        <v>0.02186022354029057</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1182179390313829</v>
+        <v>0.1174349130031585</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02682297679813393</v>
+        <v>0.03840602796402126</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1190706538663149</v>
+        <v>0.1168179098236161</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06253264771841288</v>
+        <v>0.03340289129222301</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1065957604816701</v>
+        <v>0.1168861123876873</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08431234804584636</v>
+        <v>0.02186022354029057</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1166944535444879</v>
+        <v>0.1174349130031585</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.09610916596865612</v>
+        <v>0.02186665707643198</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1189855879861321</v>
+        <v>0.1181974773733089</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02652050373899718</v>
+        <v>0.03851387179642779</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1198438399303819</v>
+        <v>0.1175764676796136</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06262236254016842</v>
+        <v>0.03390294119269599</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1072879407445381</v>
+        <v>0.1176451131174775</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0838485380023315</v>
+        <v>0.02186665707643198</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1174522097363353</v>
+        <v>0.1181974773733089</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.09712234383905655</v>
+        <v>0.02156905714064732</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1197532369408814</v>
+        <v>0.1189600417434593</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02651574239285931</v>
+        <v>0.03821552111805743</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1206170259944489</v>
+        <v>0.1183350255356111</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06262275714149051</v>
+        <v>0.0337030473211854</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1079801210074061</v>
+        <v>0.1184041138472676</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08277466903884589</v>
+        <v>0.02156905714064732</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1182099659281826</v>
+        <v>0.1189600417434593</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.09013809736227005</v>
+        <v>0.02146744863398357</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1205208858956306</v>
+        <v>0.1197226061136097</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02620869404860553</v>
+        <v>0.03751533710037802</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1213902120585159</v>
+        <v>0.1190935833916086</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06202418218473013</v>
+        <v>0.03380323090298687</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1086723012702741</v>
+        <v>0.1191631145770578</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08259077855980873</v>
+        <v>0.02146744863398357</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1189677221200299</v>
+        <v>0.1197226061136097</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1001566564479577</v>
+        <v>0.02126185645748778</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1212885348503798</v>
+        <v>0.12048517048376</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02579935999512109</v>
+        <v>0.03731509428815954</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1221633981225829</v>
+        <v>0.1198521412476061</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06232730205619688</v>
+        <v>0.03350351316339645</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1093644815331421</v>
+        <v>0.119922115306848</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08129690396963896</v>
+        <v>0.02126185645748778</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1197254783118772</v>
+        <v>0.12048517048376</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1001782510057804</v>
+        <v>0.02135230551220695</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1220561838051291</v>
+        <v>0.1212477348539104</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02528774152129118</v>
+        <v>0.03741479185457017</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1229365841866498</v>
+        <v>0.1206106991036036</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06263278114220019</v>
+        <v>0.03410391532770984</v>
       </c>
       <c r="M224" t="n">
-        <v>0.11005666179601</v>
+        <v>0.1206811160366382</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08029308267275576</v>
+        <v>0.02135230551220695</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1204832345037246</v>
+        <v>0.1212477348539104</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1002031109453991</v>
+        <v>0.02103882069918812</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1228238327598783</v>
+        <v>0.1220102992240608</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02527383991600107</v>
+        <v>0.03671442897277793</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1237097702507168</v>
+        <v>0.1213692569596011</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06214128382904957</v>
+        <v>0.03400445862122287</v>
       </c>
       <c r="M225" t="n">
-        <v>0.110748842058878</v>
+        <v>0.1214401167664283</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07977935207357834</v>
+        <v>0.02103882069918812</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1212409906955719</v>
+        <v>0.1220102992240608</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1002314661764749</v>
+        <v>0.02102142691947828</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1235914817146276</v>
+        <v>0.1227728635942112</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02495765646813594</v>
+        <v>0.03651400481595116</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1244829563147838</v>
+        <v>0.1221278148155987</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06275347450305446</v>
+        <v>0.03320516426923137</v>
       </c>
       <c r="M226" t="n">
-        <v>0.111441022321746</v>
+        <v>0.1221991174962185</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07875574957652565</v>
+        <v>0.02102142691947828</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1219987468874192</v>
+        <v>0.1227728635942112</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.09426354660866881</v>
+        <v>0.02100014907412451</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1243591306693768</v>
+        <v>0.1235354279643616</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02463919246658107</v>
+        <v>0.03641351855725794</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1252561423788508</v>
+        <v>0.1228863726715961</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0626700175505244</v>
+        <v>0.03350605349703129</v>
       </c>
       <c r="M227" t="n">
-        <v>0.112133202584614</v>
+        <v>0.1229581182260087</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07832231258601691</v>
+        <v>0.02100014907412451</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1227565030792666</v>
+        <v>0.1235354279643616</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09129958215164172</v>
+        <v>0.02087501206417375</v>
       </c>
       <c r="G228" t="n">
-        <v>0.125126779624126</v>
+        <v>0.1242979923345119</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02401844920022163</v>
+        <v>0.03611296936986644</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1260293284429178</v>
+        <v>0.1236449305275937</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06279157735776883</v>
+        <v>0.03400714752991835</v>
       </c>
       <c r="M228" t="n">
-        <v>0.112825382847482</v>
+        <v>0.1237171189557989</v>
       </c>
       <c r="N228" t="n">
-        <v>0.077579078506471</v>
+        <v>0.02087501206417375</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1235142592711139</v>
+        <v>0.1242979923345119</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09033980271505465</v>
+        <v>0.02064604079067309</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1258944285788753</v>
+        <v>0.1250605567046623</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02399542795794288</v>
+        <v>0.03601235642694486</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1268025145069847</v>
+        <v>0.1244034883835912</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06231881831109728</v>
+        <v>0.03330846759318834</v>
       </c>
       <c r="M229" t="n">
-        <v>0.11351756311035</v>
+        <v>0.1244761196855891</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07602608474230738</v>
+        <v>0.02064604079067309</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1242720154629612</v>
+        <v>0.1250605567046623</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1003844382085686</v>
+        <v>0.02061326015466952</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1266620775336245</v>
+        <v>0.1258231210748127</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02357013002863002</v>
+        <v>0.03571167890166133</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1275757005710517</v>
+        <v>0.1251620462395887</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06225240479681923</v>
+        <v>0.03331003491213719</v>
       </c>
       <c r="M230" t="n">
-        <v>0.114209743373218</v>
+        <v>0.1252351204153792</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07556336869794483</v>
+        <v>0.02061326015466952</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1250297716548085</v>
+        <v>0.1258231210748127</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.1004337185418445</v>
+        <v>0.02037669505721006</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1274297264883738</v>
+        <v>0.1265856854449631</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0230425567011683</v>
+        <v>0.03511093596718406</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1283488866351187</v>
+        <v>0.1259206040955862</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06269300120124413</v>
+        <v>0.03381187071206065</v>
       </c>
       <c r="M231" t="n">
-        <v>0.114901923636086</v>
+        <v>0.1259941211451694</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07479096777780259</v>
+        <v>0.02037669505721006</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1257875278466558</v>
+        <v>0.1265856854449631</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.0944878736245435</v>
+        <v>0.02023637039934173</v>
       </c>
       <c r="G232" t="n">
-        <v>0.128197375443123</v>
+        <v>0.1273482498151134</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02281270926444293</v>
+        <v>0.03451012679668117</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1291220726991857</v>
+        <v>0.1266791619515837</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06254127191068154</v>
+        <v>0.03371399621825466</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1155941038989539</v>
+        <v>0.1267531218749596</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07360891938629976</v>
+        <v>0.02023637039934173</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1265452840385032</v>
+        <v>0.1273482498151134</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09854713336632642</v>
+        <v>0.02009231108211157</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1289650243978722</v>
+        <v>0.1281108141852638</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02248058900733912</v>
+        <v>0.03440925056332086</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1298952587632527</v>
+        <v>0.1274377198075812</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06279788131144087</v>
+        <v>0.03391643265601496</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1162862841618219</v>
+        <v>0.1275121226047498</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07311726092785542</v>
+        <v>0.02009231108211157</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1273030402303505</v>
+        <v>0.1281108141852638</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.1006117276768543</v>
+        <v>0.02004454200656659</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1297326733526215</v>
+        <v>0.1288733785554142</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02224619721874213</v>
+        <v>0.03450830644027134</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1306684448273197</v>
+        <v>0.1281962776635787</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06246349378983168</v>
+        <v>0.03381920125063742</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1169784644246899</v>
+        <v>0.1282711233345399</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0725160298068887</v>
+        <v>0.02004454200656659</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1280607964221978</v>
+        <v>0.1288733785554142</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.09968188646578818</v>
+        <v>0.0197930880737538</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1305003223073707</v>
+        <v>0.1296359429255646</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02180953518753717</v>
+        <v>0.03410729360070067</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1314416308913866</v>
+        <v>0.1289548355195762</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06293877373216339</v>
+        <v>0.03332232322741779</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1176706446875579</v>
+        <v>0.1290301240643301</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07150526342781871</v>
+        <v>0.0197930880737538</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1288185526140452</v>
+        <v>0.1296359429255646</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.100757839642789</v>
+        <v>0.01983797418472025</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1312679712621199</v>
+        <v>0.130398507295715</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02137060420260946</v>
+        <v>0.0333062112177771</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1322148169554536</v>
+        <v>0.1297133933755737</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06262438552474553</v>
+        <v>0.03422581981165201</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1183628249504259</v>
+        <v>0.1297891247941203</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07068499919506449</v>
+        <v>0.01983797418472025</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1295763088058925</v>
+        <v>0.130398507295715</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09183981711751776</v>
+        <v>0.01947922524051292</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1320356202168692</v>
+        <v>0.1311610716658654</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0211294055528442</v>
+        <v>0.03340505846466879</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1329880030195206</v>
+        <v>0.1304719512315712</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06282099355388757</v>
+        <v>0.0333297122286359</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1190550052132939</v>
+        <v>0.1305481255239105</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06925527451304514</v>
+        <v>0.01947922524051292</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1303340649977398</v>
+        <v>0.1311610716658654</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09692804879963543</v>
+        <v>0.01941686614217884</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1328032691716184</v>
+        <v>0.1319236360360158</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02098594052712667</v>
+        <v>0.03280383451454388</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1337611890835876</v>
+        <v>0.1312305090875687</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06292926220589898</v>
+        <v>0.03343402170366516</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1197471854761619</v>
+        <v>0.1313071262537007</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06871612678617989</v>
+        <v>0.01941686614217884</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1310918211895871</v>
+        <v>0.1319236360360158</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.100022764598803</v>
+        <v>0.01905092179076506</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1335709181263676</v>
+        <v>0.1326862004061661</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02044021041434205</v>
+        <v>0.03280253854057055</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1345343751476546</v>
+        <v>0.1319890669435662</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06324985586708931</v>
+        <v>0.03353876946203582</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1204393657390299</v>
+        <v>0.1320661269834908</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06766759341888762</v>
+        <v>0.01905092179076506</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1318495773814344</v>
+        <v>0.1326862004061661</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.09612419442468154</v>
+        <v>0.01908141708731859</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1343385670811169</v>
+        <v>0.1334487647763165</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02029221650337559</v>
+        <v>0.03200116971591699</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1353075612117215</v>
+        <v>0.1327476247995637</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06338343892376799</v>
+        <v>0.03394397672904353</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1211315460018978</v>
+        <v>0.132825127713281</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06610971181558761</v>
+        <v>0.01908141708731859</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1326073335732818</v>
+        <v>0.1334487647763165</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09123256818693193</v>
+        <v>0.01890837693288644</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1351062160358661</v>
+        <v>0.1342113291464669</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01994196008311251</v>
+        <v>0.03189972721375137</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1360807472757885</v>
+        <v>0.1335061826555612</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0637306757622445</v>
+        <v>0.03364966472998426</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1218237262647658</v>
+        <v>0.1335841284430712</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06524251938069892</v>
+        <v>0.01890837693288644</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1333650897651291</v>
+        <v>0.1342113291464669</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09534811579521521</v>
+        <v>0.01853182622851562</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1358738649906154</v>
+        <v>0.1349738935166173</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01948944244243805</v>
+        <v>0.03159821020724182</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1368539333398555</v>
+        <v>0.1342647405115588</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06329223076882837</v>
+        <v>0.03345585469015366</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1225159065276338</v>
+        <v>0.1343431291728614</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0650660535186407</v>
+        <v>0.01853182622851562</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1341228459569764</v>
+        <v>0.1349738935166173</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.09247106715919234</v>
+        <v>0.01855178987525319</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1366415139453646</v>
+        <v>0.1357364578867676</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01913466487023738</v>
+        <v>0.03159661786955653</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1376271194039225</v>
+        <v>0.1350232983675562</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06346876832982906</v>
+        <v>0.03386256783484776</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1232080867905018</v>
+        <v>0.1351021299026515</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06358035163383197</v>
+        <v>0.01855178987525319</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1348806021488237</v>
+        <v>0.1357364578867676</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09460165218852434</v>
+        <v>0.01826829277414613</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1374091629001138</v>
+        <v>0.136499022256918</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01867762865539578</v>
+        <v>0.03119494937386366</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1384003054679895</v>
+        <v>0.1357818562235538</v>
       </c>
       <c r="L244" t="n">
-        <v>0.0641609528315561</v>
+        <v>0.03356982538936232</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1239002670533698</v>
+        <v>0.1358611306324417</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06228545113069184</v>
+        <v>0.01826829277414613</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1356383583406711</v>
+        <v>0.136499022256918</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.09774010079287224</v>
+        <v>0.01798135982624148</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1381768118548631</v>
+        <v>0.1372615866270684</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01821833508679846</v>
+        <v>0.03069320389333138</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1391734915320564</v>
+        <v>0.1365404140795513</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06396944866031892</v>
+        <v>0.03407764857899315</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1245924473162378</v>
+        <v>0.1366201313622319</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0615813894136395</v>
+        <v>0.01798135982624148</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1363961145325184</v>
+        <v>0.1372615866270684</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09988664288189691</v>
+        <v>0.01799101593258624</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1389444608096123</v>
+        <v>0.1380241509972188</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01805678545333064</v>
+        <v>0.03019138060112786</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1399466775961234</v>
+        <v>0.1372989719355488</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06419492020242704</v>
+        <v>0.03408605862903608</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1252846275791058</v>
+        <v>0.1373791320920221</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06036820388709385</v>
+        <v>0.01799101593258624</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1371538707243657</v>
+        <v>0.1380241509972188</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09204150836525946</v>
+        <v>0.01769728599422747</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1397121097643616</v>
+        <v>0.1387867153673692</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01759298104387755</v>
+        <v>0.03058947867042131</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1407198636601904</v>
+        <v>0.1380575297915463</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06493803184418995</v>
+        <v>0.03429507676478688</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1259768078419738</v>
+        <v>0.1381381328218122</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05944593195547415</v>
+        <v>0.01769728599422747</v>
       </c>
       <c r="O247" t="n">
-        <v>0.137911626916213</v>
+        <v>0.1387867153673692</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0922049271526208</v>
+        <v>0.01760019491221218</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1404797587191108</v>
+        <v>0.1395492797375195</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0171269231473244</v>
+        <v>0.03008749727437984</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1414930497242574</v>
+        <v>0.1388160876475438</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06509944797191708</v>
+        <v>0.03410472421154154</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1266689881048418</v>
+        <v>0.1388971335516024</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05851461102319955</v>
+        <v>0.01760019491221218</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1386693831080603</v>
+        <v>0.1395492797375195</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.09437712915364196</v>
+        <v>0.01739976758758735</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1412474076738601</v>
+        <v>0.1403118441076699</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01695861305255643</v>
+        <v>0.02978543558617164</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1422662357883243</v>
+        <v>0.1395746455035413</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06517983297191801</v>
+        <v>0.03391502219459569</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1273611683677097</v>
+        <v>0.1396561342813926</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05727427849468902</v>
+        <v>0.01739976758758735</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1394271392999077</v>
+        <v>0.1403118441076699</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.1025583442779839</v>
+        <v>0.01729602892140007</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1420150566286093</v>
+        <v>0.1410744084778203</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01658805204845887</v>
+        <v>0.02918329277896489</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1430394218523913</v>
+        <v>0.1403332033595388</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06527985123050217</v>
+        <v>0.03432599193924535</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1280533486305777</v>
+        <v>0.1404151350111828</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05662497177436171</v>
+        <v>0.01729602892140007</v>
       </c>
       <c r="O250" t="n">
-        <v>0.140184895491755</v>
+        <v>0.1410744084778203</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.09874880243530765</v>
+        <v>0.0168890038146973</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1427827055833585</v>
+        <v>0.1418369728479707</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01621524142391692</v>
+        <v>0.02928106802592775</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1438126079164583</v>
+        <v>0.1410917612155363</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06620016713397905</v>
+        <v>0.03413765467078628</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1287455288934457</v>
+        <v>0.141174135740973</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05576672826663681</v>
+        <v>0.0168890038146973</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1409426516836023</v>
+        <v>0.1418369728479707</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.09394873353527414</v>
+        <v>0.0168787171685261</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1435503545381078</v>
+        <v>0.142599537218121</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01594018246781585</v>
+        <v>0.02837876050022833</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1445857939805253</v>
+        <v>0.1418503190715338</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06634144506865816</v>
+        <v>0.03365003161451424</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1294377091563137</v>
+        <v>0.1419331364707631</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05419958537593333</v>
+        <v>0.0168787171685261</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1417004078754497</v>
+        <v>0.142599537218121</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.1021583674875444</v>
+        <v>0.01646519388393343</v>
       </c>
       <c r="G253" t="n">
-        <v>0.144318003492857</v>
+        <v>0.1433621015882715</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01556287646904084</v>
+        <v>0.02837636937503488</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1453589800445922</v>
+        <v>0.1426088769275313</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06660434942084897</v>
+        <v>0.03356314399572513</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1301298894191817</v>
+        <v>0.1426921372005533</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05312358050667026</v>
+        <v>0.01646519388393343</v>
       </c>
       <c r="O253" t="n">
-        <v>0.142458164067297</v>
+        <v>0.1433621015882715</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.09337793420177945</v>
+        <v>0.0163484588619664</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1450856524476063</v>
+        <v>0.1441246659584218</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01508332471647712</v>
+        <v>0.0278738938235156</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1461321661086593</v>
+        <v>0.1433674347835288</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06698954457686096</v>
+        <v>0.03417701303971482</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1308220696820497</v>
+        <v>0.1434511379303435</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05223875106326692</v>
+        <v>0.0163484588619664</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1432159202591443</v>
+        <v>0.1441246659584218</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.1016076635876402</v>
+        <v>0.01592853700367199</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1458533014023555</v>
+        <v>0.1448872303285722</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01470152849900994</v>
+        <v>0.0277713330188385</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1469053521727262</v>
+        <v>0.1441259926395264</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06709769492300366</v>
+        <v>0.03429165997177902</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1315142499449177</v>
+        <v>0.1442101386601337</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05144513445014237</v>
+        <v>0.01592853700367199</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1439736764509916</v>
+        <v>0.1448872303285722</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0938477855547877</v>
+        <v>0.01570545321009718</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1466209503571047</v>
+        <v>0.1456497946987226</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01421748910552451</v>
+        <v>0.02716868613417192</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1476785382367932</v>
+        <v>0.1448845504955238</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06762946484558649</v>
+        <v>0.03400710601721363</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1322064302077857</v>
+        <v>0.1449691393899238</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04944276807171549</v>
+        <v>0.01570545321009718</v>
       </c>
       <c r="O256" t="n">
-        <v>0.144731432642839</v>
+        <v>0.1456497946987226</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.09909853001288291</v>
+        <v>0.01577923238228905</v>
       </c>
       <c r="G257" t="n">
-        <v>0.147388599311854</v>
+        <v>0.146412359068873</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01383120782490604</v>
+        <v>0.02756595234268394</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1484517243008602</v>
+        <v>0.1456431083515214</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06788551873091897</v>
+        <v>0.03412337240131447</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1328986104706536</v>
+        <v>0.145728140119714</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04913168933240569</v>
+        <v>0.01577923238228905</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1454891888346863</v>
+        <v>0.146412359068873</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.1003601268715869</v>
+        <v>0.0154498994212946</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1481562482666032</v>
+        <v>0.1471749234390234</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01364268594603979</v>
+        <v>0.02696313081754273</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1492249103649272</v>
+        <v>0.1464016662075189</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06836652096531062</v>
+        <v>0.03444048034937747</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1335907907335216</v>
+        <v>0.1464871408495042</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0472119356366319</v>
+        <v>0.0154498994212946</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1462469450265336</v>
+        <v>0.1471749234390234</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.1046328060405605</v>
+        <v>0.01501747922816085</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1489238972213525</v>
+        <v>0.1479374878091737</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01325192475781097</v>
+        <v>0.02686022073191649</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1499980964289941</v>
+        <v>0.1471602240635164</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06887313593507088</v>
+        <v>0.03395845108669832</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1342829709963896</v>
+        <v>0.1472461415792944</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04678354438881321</v>
+        <v>0.01501747922816085</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1470047012183809</v>
+        <v>0.1479374878091737</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.1049167974294648</v>
+        <v>0.01478199670393482</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1496915461761017</v>
+        <v>0.1487000521793241</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01265892554910478</v>
+        <v>0.02655722125897336</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1507712824930611</v>
+        <v>0.1479187819195139</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06940602802650928</v>
+        <v>0.03367730583857287</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1349751512592576</v>
+        <v>0.1480051423090845</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04584655299336887</v>
+        <v>0.01478199670393482</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1477624574102283</v>
+        <v>0.1487000521793241</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.09721233094796072</v>
+        <v>0.0147434767496635</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1504591951308509</v>
+        <v>0.1494626165494745</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01246368960880649</v>
+        <v>0.02575413157188156</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1515444685571281</v>
+        <v>0.1486773397755114</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0701658616259353</v>
+        <v>0.03429706583029701</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1356673315221256</v>
+        <v>0.1487641430388747</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04460099885471785</v>
+        <v>0.0147434767496635</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1485202136020756</v>
+        <v>0.1494626165494745</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.09551963650570938</v>
+        <v>0.01460194426639398</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1512268440856002</v>
+        <v>0.1502251809196249</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01206621822580128</v>
+        <v>0.02555095084380912</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1523176546211951</v>
+        <v>0.1494358976315089</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07105330111965838</v>
+        <v>0.03361775228716651</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1363595117849936</v>
+        <v>0.1495231437686649</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04304691937727911</v>
+        <v>0.01460194426639398</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1492779697939229</v>
+        <v>0.1502251809196249</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.1018389440123717</v>
+        <v>0.01425742415517324</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1519944930403494</v>
+        <v>0.1509877452897752</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01136651268897441</v>
+        <v>0.0257476782479244</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1530908406852621</v>
+        <v>0.1501944554875064</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07186901089398803</v>
+        <v>0.03453938643447724</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1370516920478616</v>
+        <v>0.1502821444984551</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04248435196547212</v>
+        <v>0.01425742415517324</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1500357259857702</v>
+        <v>0.1509877452897752</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.09617048337760861</v>
+        <v>0.01410994131704829</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1527621419950986</v>
+        <v>0.1517503096599256</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01126457428721109</v>
+        <v>0.02514431295739544</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1538640267493291</v>
+        <v>0.1509530133435039</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07251365533523377</v>
+        <v>0.03376198949752501</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1377438723107296</v>
+        <v>0.1510411452282453</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04101333402371571</v>
+        <v>0.01410994131704829</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1507934821776175</v>
+        <v>0.1517503096599256</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8435655349597692</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04217827674798846</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06748524279678154</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08570243811707759</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.03570243811707759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004226407627352899</v>
+        <v>0.008638174646123431</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9257,10 +9283,10 @@
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.003999999999999976</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0002110459897565856</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
         <v>0</v>
@@ -9269,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0002737202533812705</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.004438175227954609</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001016186440677966</v>
+        <v>0.0005919260065264994</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.01241497994150881</v>
+        <v>0.005999999999999998</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007585578559975071</v>
+        <v>0.001016186440677966</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01300000000000001</v>
+        <v>0.01799999999999999</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0004838983050847462</v>
+        <v>0.001092673592126844</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02009738147064982</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001016186440677966</v>
+        <v>0.0007584334712520114</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00827981932364117</v>
+        <v>0.008663435633131419</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00152512874030076</v>
+        <v>0.001183852013052999</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.02504986823249084</v>
+        <v>0.008079819323641171</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001517115711995014</v>
+        <v>0.00152512874030076</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03542617381464336</v>
+        <v>0.02256324930318121</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001518001459580354</v>
+        <v>0.001519254177680817</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.00827981932364117</v>
+        <v>0.03847318224503776</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.00152512874030076</v>
+        <v>0.001516866942504023</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01151922291649516</v>
+        <v>0.01262463897931065</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00228769311045114</v>
+        <v>0.001775778019579498</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.03376756410413076</v>
+        <v>0.01181922291649516</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002275673567992521</v>
+        <v>0.00228769311045114</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04896333355290472</v>
+        <v>0.03107793141333975</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002277002189370532</v>
+        <v>0.002278881266521226</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01151922291649516</v>
+        <v>0.0515244772531106</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00228769311045114</v>
+        <v>0.002275300413756034</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01456755807142178</v>
+        <v>0.0162706430302725</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00305025748060152</v>
+        <v>0.002367704026105998</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
+        <v>0.01446755807142179</v>
+      </c>
+      <c r="K69" s="171" t="n">
+        <v>0.00305025748060152</v>
+      </c>
+      <c r="L69" s="172" t="n">
         <v>0.03601259994773187</v>
       </c>
-      <c r="K69" s="171" t="n">
-        <v>0.002714398142741815</v>
-      </c>
-      <c r="L69" s="172" t="n">
+      <c r="M69" s="170" t="n">
+        <v>0.003123017217993271</v>
+      </c>
+      <c r="N69" s="171" t="n">
         <v>0.05455703527102795</v>
       </c>
-      <c r="M69" s="170" t="n">
-        <v>0.002901105153637265</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.01456755807142178</v>
-      </c>
       <c r="O69" s="172" t="n">
-        <v>0.00305025748060152</v>
+        <v>0.002666672413949406</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.001016186440677966</v>
+        <v>0.004286099292246862</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01684298251815253</v>
+        <v>0.0195503055497972</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.0038128218507519</v>
+        <v>0.002959630032632497</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.03836244766511088</v>
+        <v>0.01684298251815253</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003792789279987536</v>
+        <v>0.0038128218507519</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.05719329035044013</v>
+        <v>0.03684873698668503</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003795003648950886</v>
+        <v>0.003798135444202043</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01684298251815253</v>
+        <v>0.0582738128459902</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.0038128218507519</v>
+        <v>0.003792167356260057</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.02241248430166497</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004226407627352899</v>
+        <v>0.003551556039158996</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.03995492412358384</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004551347135985043</v>
+        <v>0.004226407627352899</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0589057729084953</v>
+        <v>0.03842114389483525</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004554004378741063</v>
+        <v>0.004557762533042452</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.06048422173613549</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004226407627352899</v>
+        <v>0.004550600827512068</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01847601954024045</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00533795059105266</v>
+        <v>0.004286099292246862</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.04089830352093884</v>
+        <v>0.01827601954024045</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00530990499198255</v>
+        <v>0.00533795059105266</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.06184527459053596</v>
+        <v>0.04014806012825736</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.00531300510853124</v>
+        <v>0.005317389621882861</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01847601954024045</v>
+        <v>0.0620200625340358</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00533795059105266</v>
+        <v>0.00530903429876408</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01921104249818986</v>
+        <v>0.02679929863728966</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00610051496120304</v>
+        <v>0.004735408052211995</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.04249330786406741</v>
+        <v>0.01921104249818986</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006068462847980057</v>
+        <v>0.00610051496120304</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0644128335837415</v>
+        <v>0.04183007988446619</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006072005838321418</v>
+        <v>0.006077016710723269</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01921104249818986</v>
+        <v>0.06528243821514745</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.00610051496120304</v>
+        <v>0.006067467770016091</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01972596073276638</v>
+        <v>0.02864288867830732</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.00686307933135342</v>
+        <v>0.005327334058738495</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.04414065915986098</v>
+        <v>0.02002596073276637</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006827020703977564</v>
+        <v>0.00686307933135342</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0664094880752909</v>
+        <v>0.04286779736097643</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006831006568111595</v>
+        <v>0.006836643799563677</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01972596073276638</v>
+        <v>0.066972451754927</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00686307933135342</v>
+        <v>0.006825901241268102</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02072099043914492</v>
+        <v>0.03033332775212506</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.0076256437015038</v>
+        <v>0.005919260065264994</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.04574107941521097</v>
+        <v>0.02042099043914493</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007585578559975071</v>
+        <v>0.0076256437015038</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06823627625236373</v>
+        <v>0.0448618067553028</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007590007297901771</v>
+        <v>0.007596270888404086</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.02072099043914492</v>
+        <v>0.06959120612883063</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0076256437015038</v>
+        <v>0.007584334712520113</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02129634781250062</v>
+        <v>0.03185544691269748</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00838820807165418</v>
+        <v>0.006511186071791493</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04709529063700876</v>
+        <v>0.02119634781250061</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008344136415972578</v>
+        <v>0.00838820807165418</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.07019423630213906</v>
+        <v>0.04611270226496017</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008349008027691949</v>
+        <v>0.008355897977244495</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.02129634781250062</v>
+        <v>0.07093980431231472</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00838820807165418</v>
+        <v>0.008342768183772125</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02205224904800841</v>
+        <v>0.03319407721397917</v>
       </c>
       <c r="G77" t="n">
+        <v>0.007103112078317993</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.02175224904800842</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009150772441804561</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.04780401483214586</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009102694271970085</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.07218440641179613</v>
+        <v>0.04702107808746314</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009108008757482126</v>
+        <v>0.009115525066084904</v>
       </c>
       <c r="N77" t="n">
-        <v>0.02205224904800841</v>
+        <v>0.07271934928083557</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009150772441804561</v>
+        <v>0.009101201655024135</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02238891034084335</v>
+        <v>0.03433404970992468</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007695038084844491</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.02248891034084334</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.009913336811954941</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04906797400751367</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009861252127967592</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.07470782476851412</v>
+        <v>0.04838752842032659</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009867009487272304</v>
+        <v>0.009875152154925312</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02238891034084335</v>
+        <v>0.07523094400984953</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009913336811954941</v>
+        <v>0.009859635126276148</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02310654788618041</v>
+        <v>0.03526019545448862</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008286964091370991</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.02320654788618041</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01067590118210532</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.0502878901700036</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.0106198099839651</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.07606552955947243</v>
+        <v>0.0498126474610652</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01062601021706248</v>
+        <v>0.01063477924376572</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02310654788618041</v>
+        <v>0.07647569147481309</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01067590118210532</v>
+        <v>0.01061806859752816</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02370537787919465</v>
+        <v>0.03570243811707759</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008638174646123431</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02380537787919465</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.0114384655522557</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.05216448532650711</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01137836783996261</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.07765855897185026</v>
+        <v>0.05089702940719384</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01138501094685266</v>
+        <v>0.01139440633260613</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02370537787919465</v>
+        <v>0.07895469465118238</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0114384655522557</v>
+        <v>0.01137650206878017</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02428561651506106</v>
+        <v>0.03662417416706776</v>
       </c>
       <c r="G81" t="n">
+        <v>0.00947081610442399</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02438561651506106</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01220102992240608</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.05269848148391559</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01213692569596011</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.07978795119282678</v>
+        <v>0.05204126845622711</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01214401167664284</v>
+        <v>0.01215403342144654</v>
       </c>
       <c r="N81" t="n">
-        <v>0.02428561651506106</v>
+        <v>0.08086905651441384</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01220102992240608</v>
+        <v>0.01213493554003218</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02494747998895469</v>
+        <v>0.03724544477288834</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01006274211095049</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02484747998895469</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01296359429255646</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.0537906006491205</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01289548355195762</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.0811547444095812</v>
+        <v>0.05274595880567984</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01290301240643301</v>
+        <v>0.01291366051028695</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02494747998895469</v>
+        <v>0.08231988003996388</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01296359429255646</v>
+        <v>0.01289336901128419</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02539118449605049</v>
+        <v>0.03783947849742363</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01065466811747699</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.02549118449605049</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01372615866270684</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.05524156482901327</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01365404140795513</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.08255997680929283</v>
+        <v>0.05411169465306676</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01366201313622319</v>
+        <v>0.01367328759912735</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02539118449605049</v>
+        <v>0.08390826820328884</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01372615866270684</v>
+        <v>0.0136518024825362</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02611694623152354</v>
+        <v>0.03840716659347278</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01124659412400349</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.02591694623152353</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01448872303285722</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.05575209603048531</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01441259926395263</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.0850046865791409</v>
+        <v>0.05483907019590267</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01442101386601337</v>
+        <v>0.01443291468796776</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02611694623152354</v>
+        <v>0.08503532397984492</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01448872303285722</v>
+        <v>0.01441023595378821</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02652498139054882</v>
+        <v>0.03894940031383494</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01183852013052999</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.02662498139054882</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.0152512874030076</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.05682291626042807</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01517115711995014</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.08648991190630473</v>
+        <v>0.05612867963170229</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01518001459580354</v>
+        <v>0.01519254177680817</v>
       </c>
       <c r="N85" t="n">
-        <v>0.02652498139054882</v>
+        <v>0.08690215034508864</v>
       </c>
       <c r="O85" t="n">
-        <v>0.0152512874030076</v>
+        <v>0.01516866942504023</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02681550616830135</v>
+        <v>0.03946707091130926</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01243044613705649</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.02701550616830134</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01601385177315798</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05825474752573298</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01592971497594765</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.08721669097796336</v>
+        <v>0.05688111715798039</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01593901532559372</v>
+        <v>0.01595216886564858</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02681550616830135</v>
+        <v>0.08850985027447617</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01601385177315798</v>
+        <v>0.01592710289629224</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
+        <v>0.03996106963869486</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.01302237214358299</v>
+      </c>
+      <c r="J87" t="n">
         <v>0.02738873675995612</v>
       </c>
-      <c r="G87" t="n">
+      <c r="K87" t="n">
         <v>0.01677641614330836</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05854831183329143</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01668827283194516</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.08928606198129624</v>
+        <v>0.05839697697225171</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0166980160553839</v>
+        <v>0.01671179595448899</v>
       </c>
       <c r="N87" t="n">
-        <v>0.02738873675995612</v>
+        <v>0.08945952674346397</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01677641614330836</v>
+        <v>0.01668553636754425</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
+        <v>0.04043228774879092</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.01361429815010948</v>
+      </c>
+      <c r="J88" t="n">
         <v>0.02794488936068819</v>
       </c>
-      <c r="G88" t="n">
+      <c r="K88" t="n">
         <v>0.01753898051345874</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.06000433118999493</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01744683068794266</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.0898990631034825</v>
+        <v>0.05907685327203097</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01745701678517407</v>
+        <v>0.0174714230433294</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02794488936068819</v>
+        <v>0.09115228272750842</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01753898051345874</v>
+        <v>0.01744396983879626</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
+        <v>0.04088161649439657</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.01420622415663599</v>
+      </c>
+      <c r="J89" t="n">
         <v>0.02838418016567257</v>
       </c>
-      <c r="G89" t="n">
+      <c r="K89" t="n">
         <v>0.01830154488360912</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.06082352760273485</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01820538854394017</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.09155673253170127</v>
+        <v>0.05952134025483299</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01821601751496425</v>
+        <v>0.01823105013216981</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02838418016567257</v>
+        <v>0.09238922120206577</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01830154488360912</v>
+        <v>0.01820240331004827</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
+        <v>0.04130994712831097</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.01479815016316248</v>
+      </c>
+      <c r="J90" t="n">
         <v>0.02890682537008425</v>
       </c>
-      <c r="G90" t="n">
+      <c r="K90" t="n">
         <v>0.0190641092537595</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.06170662307840261</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01896394639993768</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.09206010845313206</v>
+        <v>0.06033103211817253</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01897501824475443</v>
+        <v>0.01899067722101021</v>
       </c>
       <c r="N90" t="n">
-        <v>0.02890682537008425</v>
+        <v>0.09357144514259247</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0190641092537595</v>
+        <v>0.01896083678130028</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02911304116909824</v>
+        <v>0.04171817090333325</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01539007616968898</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02931304116909825</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.01982667362390988</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.06205433962388962</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.01972250425593518</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.09351022905495393</v>
+        <v>0.06120652305956426</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01973401897454461</v>
+        <v>0.01975030430985062</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02911304116909824</v>
+        <v>0.09380005752454473</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01982667362390988</v>
+        <v>0.0197192702525523</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
+        <v>0.04210717907226258</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.01598200217621549</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.02950304375788959</v>
       </c>
-      <c r="G92" t="n">
+      <c r="K92" t="n">
         <v>0.02058923799406026</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.06306739924608745</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02048106211193269</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.09440813252434616</v>
+        <v>0.06204840727652294</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02049301970433479</v>
+        <v>0.02050993139869103</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02950304375788959</v>
+        <v>0.09527616132337902</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02058923799406026</v>
+        <v>0.0204777037238043</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0297770493316333</v>
+        <v>0.04247786288789809</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01657392818274198</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.0300770493316333</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02135180236421064</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06364652395188736</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.0212396199679302</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.09575485704848802</v>
+        <v>0.06245727896656345</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02125202043412496</v>
+        <v>0.02126955848753144</v>
       </c>
       <c r="N93" t="n">
-        <v>0.0297770493316333</v>
+        <v>0.09670085951455165</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02135180236421064</v>
+        <v>0.02123613719505632</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03043527408550435</v>
+        <v>0.04283111360303894</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01716585418926848</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03023527408550435</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02211436673436102</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06449243574818089</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02199817782392771</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.09665144081455862</v>
+        <v>0.06353373232720044</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02201102116391514</v>
+        <v>0.02202918557637185</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03043527408550435</v>
+        <v>0.09757525507351883</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02211436673436102</v>
+        <v>0.02199457066630833</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
+        <v>0.04316782247048427</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.01775778019579498</v>
+      </c>
+      <c r="J95" t="n">
         <v>0.03067793421467781</v>
       </c>
-      <c r="G95" t="n">
+      <c r="K95" t="n">
         <v>0.0228769311045114</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.06510585664185939</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02275673567992521</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.09819892200973745</v>
+        <v>0.06387836155594867</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02277002189370532</v>
+        <v>0.02278881266521226</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03067793421467781</v>
+        <v>0.09860045097573716</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0228769311045114</v>
+        <v>0.02275300413756034</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03110524591432867</v>
+        <v>0.04348888074303323</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01834970620232148</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03090524591432867</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02363949547466178</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.06508750863981438</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02351529353592272</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.09889833882120341</v>
+        <v>0.06459176085032292</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02352902262349549</v>
+        <v>0.02354843975405267</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03110524591432867</v>
+        <v>0.09927755019666273</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02363949547466178</v>
+        <v>0.02351143760881235</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03141742537963192</v>
+        <v>0.04379517967348495</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01894163220884798</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03121742537963192</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02440205984481216</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.06623811374893721</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02427385139192023</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.099750729436136</v>
+        <v>0.06547452440783794</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02428802335328567</v>
+        <v>0.02430806684289308</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03141742537963192</v>
+        <v>0.09940765571175203</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02440205984481216</v>
+        <v>0.02426987108006436</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03171468880576263</v>
+        <v>0.04408761051463859</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01953355821537448</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.03161468880576263</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02516462421496254</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06615839397611939</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02503240924791774</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1004571320417145</v>
+        <v>0.06612724642600848</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02504702408307585</v>
+        <v>0.02506769393173348</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03171468880576263</v>
+        <v>0.1011918704964614</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02516462421496254</v>
+        <v>0.02502830455131637</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03179725238789577</v>
+        <v>0.04436706451929331</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02012548422190098</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.03189725238789577</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02592718858511292</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06664907132825221</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02579096710391524</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1013185848251179</v>
+        <v>0.06655052110234927</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02580602481286602</v>
+        <v>0.02582732102057389</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03179725238789577</v>
+        <v>0.1011312975262472</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02592718858511292</v>
+        <v>0.02578673802256838</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03226533232120637</v>
+        <v>0.04463443294024826</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02071741022842748</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.03216533232120637</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.0266897529552633</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.0673108678122272</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02654952495991275</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1016361259735256</v>
+        <v>0.06664494263437512</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0265650255426562</v>
+        <v>0.0265869481094143</v>
       </c>
       <c r="N100" t="n">
-        <v>0.03226533232120637</v>
+        <v>0.1017270397765657</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0266897529552633</v>
+        <v>0.0265451714938204</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
+        <v>0.04489060703030257</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.02130933623495398</v>
+      </c>
+      <c r="J101" t="n">
         <v>0.03251914480086945</v>
       </c>
-      <c r="G101" t="n">
+      <c r="K101" t="n">
         <v>0.02745231732541368</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.0681445054349358</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02730808281591026</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1026107936741167</v>
+        <v>0.06701110521960071</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02732402627244638</v>
+        <v>0.02734657519825471</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03251914480086945</v>
+        <v>0.1022802002228733</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02745231732541368</v>
+        <v>0.02730360496507241</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03265890602205999</v>
+        <v>0.04513647804225539</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02190126224148048</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03245890602206</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02821488169556407</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.06785070620326947</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02806664067190777</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1027436261140707</v>
+        <v>0.06814960305554085</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02808302700223655</v>
+        <v>0.02810620228709512</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03265890602205999</v>
+        <v>0.1038918818406263</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02821488169556407</v>
+        <v>0.02806203843632442</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03268483217995306</v>
+        <v>0.04537293722890585</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02249318824800698</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03288483217995306</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02897744606571444</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.06823019212411954</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02882519852790527</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1041356614805668</v>
+        <v>0.06796103033971027</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02884202773202673</v>
+        <v>0.02886582937593552</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03268483217995306</v>
+        <v>0.1038631876052812</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02897744606571444</v>
+        <v>0.02882047190757643</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
+        <v>0.04560087584305315</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.02308511425453348</v>
+      </c>
+      <c r="J104" t="n">
         <v>0.03319713946972365</v>
       </c>
-      <c r="G104" t="n">
+      <c r="K104" t="n">
         <v>0.02974001043586482</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.06918368520437754</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.02958375638390278</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1043879379607839</v>
+        <v>0.06854598126962375</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02960102846181691</v>
+        <v>0.02962545646477594</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03319713946972365</v>
+        <v>0.1042952204922941</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02974001043586482</v>
+        <v>0.02957890537882844</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03319604408654675</v>
+        <v>0.04582118513749638</v>
       </c>
       <c r="G105" t="n">
+        <v>0.02367704026105998</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03329604408654675</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.0305025748060152</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.06921190745093478</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03034231423990029</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1048014937419017</v>
+        <v>0.06930505004279605</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03036002919160708</v>
+        <v>0.03038508355361634</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03319604408654675</v>
+        <v>0.1047890834771216</v>
       </c>
       <c r="O105" t="n">
-        <v>0.0305025748060152</v>
+        <v>0.03033733885008045</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03338176222559741</v>
+        <v>0.04603475636503471</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02426896626758648</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03348176222559741</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03126513917616558</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.06931558087068282</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03110087209589779</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.105477367011099</v>
+        <v>0.06963883085674186</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03111902992139726</v>
+        <v>0.03114471064245675</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03338176222559741</v>
+        <v>0.1057458795352197</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03126513917616558</v>
+        <v>0.03109577232133247</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03365451008205064</v>
+        <v>0.04624248077846731</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02486089227411297</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03375451008205065</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03202770354631596</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.06959542747051295</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.0318594299518953</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1058165959555554</v>
+        <v>0.06954791790897599</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03187803065118745</v>
+        <v>0.03190433773129717</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03365451008205064</v>
+        <v>0.1060667116420451</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03202770354631596</v>
+        <v>0.03185420579258448</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03381450385108144</v>
+        <v>0.04644553340726504</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02545281828063947</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03391450385108144</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03279026791646635</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.07045216925731673</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.0326179878078928</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1060202187624499</v>
+        <v>0.07023290539701316</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03263703138097762</v>
+        <v>0.03266396482013757</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03381450385108144</v>
+        <v>0.1064526827730539</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03279026791646635</v>
+        <v>0.03261263926383649</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03406195972786483</v>
+        <v>0.04664707494006375</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02604474428716597</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03376195972786483</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03355283228661672</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.0701865282379856</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03337654566389031</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1064892736189619</v>
+        <v>0.06989438751836816</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0333960321107678</v>
+        <v>0.03342359190897798</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03406195972786483</v>
+        <v>0.1065048959037027</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03355283228661672</v>
+        <v>0.0333710727350885</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03399709390757581</v>
+        <v>0.04684769038544608</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02663667029369247</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03409709390757582</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.0343153966567671</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.07069922641941084</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03413510351988782</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1068247987122705</v>
+        <v>0.07073295847055575</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03415503284055797</v>
+        <v>0.03418321899781838</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03399709390757581</v>
+        <v>0.1073244540094477</v>
       </c>
       <c r="O110" t="n">
-        <v>0.0343153966567671</v>
+        <v>0.03412950620634051</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03422012258538945</v>
+        <v>0.04704728046392259</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02722859630021897</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03402012258538946</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03507796102691748</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.07059098580848397</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03489366137588532</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1072278322295551</v>
+        <v>0.0703492124510906</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03491403357034815</v>
+        <v>0.0349428460866588</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03422012258538945</v>
+        <v>0.1077124600657451</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03507796102691748</v>
+        <v>0.03488793967759252</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
+        <v>0.04724574589600386</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.02782052230674547</v>
+      </c>
+      <c r="J112" t="n">
         <v>0.03423126195648069</v>
       </c>
-      <c r="G112" t="n">
+      <c r="K112" t="n">
         <v>0.03584052539706786</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.07116252841209644</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03565221923188283</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1074994123579948</v>
+        <v>0.07114374365748757</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03567303430013833</v>
+        <v>0.0357024731754992</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03423126195648069</v>
+        <v>0.1079700170480515</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03584052539706786</v>
+        <v>0.03564637314884454</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03443072821602461</v>
+        <v>0.04744298740220045</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02841244831327197</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03423072821602462</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03660308976721825</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.07111457623713963</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03641077708788034</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.107940577284769</v>
+        <v>0.07081714628726138</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03643203502992851</v>
+        <v>0.03646210026433962</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03443072821602461</v>
+        <v>0.108098227931823</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03660308976721825</v>
+        <v>0.03640480662009654</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03431873755919619</v>
+        <v>0.04763890570302291</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02900437431979847</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03441873755919618</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03736565413736862</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.071047851290505</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03716933494387785</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1081523651970567</v>
+        <v>0.07107001453792672</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03719103575971868</v>
+        <v>0.03722172735318002</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03431873755919619</v>
+        <v>0.1073981956925162</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03736565413736862</v>
+        <v>0.03716324009134855</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03449550618117043</v>
+        <v>0.04783340151898183</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02959630032632497</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03439550618117045</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.038128218507519</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.07146307557908402</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03792789279987536</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1075358142820373</v>
+        <v>0.07110294260699845</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03795003648950886</v>
+        <v>0.03798135444202043</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03449550618117043</v>
+        <v>0.1082710233055872</v>
       </c>
       <c r="O115" t="n">
-        <v>0.038128218507519</v>
+        <v>0.03792167356260057</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03456125027712238</v>
+        <v>0.04802637557058774</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03018822633285147</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03466125027712239</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03889078287766938</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.07176097110976809</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03868645065587286</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.10829196272689</v>
+        <v>0.07141652469199128</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03870903721929904</v>
+        <v>0.03874098153086084</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03456125027712238</v>
+        <v>0.1080178137464926</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03889078287766938</v>
+        <v>0.03868010703385258</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03471618604222705</v>
+        <v>0.04821772857835123</v>
       </c>
       <c r="G117" t="n">
+        <v>0.03078015233937796</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03461618604222705</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.03965334724781976</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.07114225988944856</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.03944500851187037</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1083218487187941</v>
+        <v>0.07151135499041991</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03946803794908921</v>
+        <v>0.03950060861970125</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03471618604222705</v>
+        <v>0.1084396699906884</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03965334724781976</v>
+        <v>0.03943854050510459</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
+        <v>0.04840736126278286</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.03137207834590447</v>
+      </c>
+      <c r="J118" t="n">
         <v>0.03456052967165944</v>
       </c>
-      <c r="G118" t="n">
+      <c r="K118" t="n">
         <v>0.04041591161797015</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.07140766392501699</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04020356636786788</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1080265104449288</v>
+        <v>0.07138802769979916</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04022703867887939</v>
+        <v>0.04026023570854166</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03456052967165944</v>
+        <v>0.1082376950136314</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04041591161797015</v>
+        <v>0.0401969739763566</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03479449736059455</v>
+        <v>0.04859517434439319</v>
       </c>
       <c r="G119" t="n">
+        <v>0.03196400435243097</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.03469449736059455</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04117847598812052</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.07185790522336469</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04096212422386538</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1086069860924733</v>
+        <v>0.07124713701764379</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04098603940866957</v>
+        <v>0.04101986279738207</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03479449736059455</v>
+        <v>0.1089129917907776</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04117847598812052</v>
+        <v>0.04095540744760861</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03471830530420743</v>
+        <v>0.04878106854369278</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03255593035895746</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03491830530420743</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.0419410403582709</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.07159370579138319</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04172068207986289</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1084643138486069</v>
+        <v>0.07158927714146845</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04174504013845975</v>
+        <v>0.04177948988622247</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03471830530420743</v>
+        <v>0.1090666632975834</v>
       </c>
       <c r="O120" t="n">
-        <v>0.0419410403582709</v>
+        <v>0.04171384091886062</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
+        <v>0.0489649445811922</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.03314785636548397</v>
+      </c>
+      <c r="J121" t="n">
         <v>0.03493632924887161</v>
       </c>
-      <c r="G121" t="n">
+      <c r="K121" t="n">
         <v>0.04270360472842128</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.07202519989546374</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.0424792399358604</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
+        <v>0.04253911697506289</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.1091140705420559</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04250404086824992</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.03493632924887161</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.04270360472842128</v>
+        <v>0.04247227439011264</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03483629734853963</v>
+        <v>0.04914670317740201</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03373978237201047</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03483630470331359</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04346616909857166</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.07172487276399811</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04323779779185791</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1087136784353581</v>
+        <v>0.07152502659711724</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0432630415980401</v>
+        <v>0.04329874406390329</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03483629734853963</v>
+        <v>0.1085135424019996</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04346616909857166</v>
+        <v>0.04323070786136465</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03482872238370048</v>
+        <v>0.0493262450528328</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03433170837853696</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03493047628105998</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04422873346872205</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.07182115626360155</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04399635564785542</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1089092906688895</v>
+        <v>0.07171418304978958</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04402204232783027</v>
+        <v>0.04405837115274371</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03482872238370048</v>
+        <v>0.1085975877665994</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04422873346872205</v>
+        <v>0.04398914133261666</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03480819694830414</v>
+        <v>0.04950347092799509</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03492363438506346</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.0349146837208464</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04499129783887242</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.07160394591441518</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04475491350385292</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1087900763332775</v>
+        <v>0.07197356500010879</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04478104305762045</v>
+        <v>0.04481799824158411</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03480819694830414</v>
+        <v>0.1087267570743626</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04499129783887242</v>
+        <v>0.04474757480386867</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03487523815051349</v>
+        <v>0.04967828152339948</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03551556039158996</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.0345893254251515</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.0457538622090228</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.07197352987910302</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04551347135985043</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1089564184563115</v>
+        <v>0.07130412039505518</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04554004378741063</v>
+        <v>0.04557762533042452</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03487523815051349</v>
+        <v>0.1082023235134406</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0457538622090228</v>
+        <v>0.04550600827512068</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03473036309849137</v>
+        <v>0.04985057755955653</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03610748639811646</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03455479979645393</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04651642657917318</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.07163024087544506</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04627202921584794</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.108708603141593</v>
+        <v>0.07140697870854337</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04629904451720081</v>
+        <v>0.04633725241926492</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03473036309849137</v>
+        <v>0.108326723313075</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04651642657917318</v>
+        <v>0.0462644417463727</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03477408890040062</v>
+        <v>0.05002025975697678</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03669941240464297</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03461150523723232</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04727899094932356</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.07127441162122145</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04703058707184544</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1081469164927236</v>
+        <v>0.07108326941448823</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04705804524699099</v>
+        <v>0.04709687950810534</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03477408890040062</v>
+        <v>0.1084023927025075</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04727899094932356</v>
+        <v>0.0470228752176247</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03440693266440413</v>
+        <v>0.05018722883617083</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03729133841116946</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03475984014996535</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04804155531947394</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.07130637483421221</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04778914492784295</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1082716446133051</v>
+        <v>0.07113412198680444</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04781704597678117</v>
+        <v>0.04785650659694574</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03440693266440413</v>
+        <v>0.1081317679109797</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04804155531947394</v>
+        <v>0.04778130868887671</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.03462941149866469</v>
+        <v>0.0503513855176492</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03788326441769596</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03440020293713168</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04880411968962432</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.07112646323219746</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04854770278384046</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.108383073606939</v>
+        <v>0.07076066589940674</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04857604670657134</v>
+        <v>0.04861613368578616</v>
       </c>
       <c r="N129" t="n">
-        <v>0.03462941149866469</v>
+        <v>0.1073172851677332</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04880411968962432</v>
+        <v>0.04853974216012873</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03424204251134522</v>
+        <v>0.05051263052192249</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03847519042422246</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03433299200120994</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.0495666840597747</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.07113500953295723</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.04930626063983796</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1086814895772269</v>
+        <v>0.07096403062620985</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04933504743636152</v>
+        <v>0.04937576077462656</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03424204251134522</v>
+        <v>0.1071613807020098</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0495666840597747</v>
+        <v>0.04929817563138074</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03444534281060851</v>
+        <v>0.05067086456950128</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03906711643074896</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03425860574467879</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05032924842992508</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.07143234645427166</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05006481849583547</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1083671786277706</v>
+        <v>0.07074534564112855</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05009404816615169</v>
+        <v>0.05013538786346697</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03444534281060851</v>
+        <v>0.106166490743051</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05032924842992508</v>
+        <v>0.05005660910263274</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03433982950461748</v>
+        <v>0.05082598838089608</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03965904243727546</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03417744257001687</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05109181280007546</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.07141880671392076</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05082337635183298</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1074404268621715</v>
+        <v>0.07050574041807758</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05085304889594187</v>
+        <v>0.05089501495230738</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03433982950461748</v>
+        <v>0.1067350515200984</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05109181280007546</v>
+        <v>0.05081504257388476</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03422601970153492</v>
+        <v>0.0509779026766175</v>
       </c>
       <c r="G133" t="n">
+        <v>0.04025096844380196</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03408990087970286</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05185437717022584</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.07059472302968464</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05158193420783048</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1082015203840314</v>
+        <v>0.07024634443097166</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05161204962573205</v>
+        <v>0.05165464204114779</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03422601970153492</v>
+        <v>0.1052694992623938</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05185437717022584</v>
+        <v>0.05157347604513677</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03380443050952374</v>
+        <v>0.05112650817717607</v>
       </c>
       <c r="G134" t="n">
+        <v>0.04084289445032846</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.03419637907621537</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05261694154037622</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.0708604281193434</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05234049206382799</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1080507452969519</v>
+        <v>0.07016828715372553</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05237105035552223</v>
+        <v>0.0524142691299882</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03380443050952374</v>
+        <v>0.1050722701991787</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05261694154037622</v>
+        <v>0.05233190951638878</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03377557903674674</v>
+        <v>0.0512717056030824</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04143482045685496</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03399727556203311</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.0533795059105266</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.07041625470067711</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.0530990499198255</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1077883877045347</v>
+        <v>0.06927269806025393</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05313005108531241</v>
+        <v>0.05317389621882861</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03377557903674674</v>
+        <v>0.1049458005596947</v>
       </c>
       <c r="O135" t="n">
-        <v>0.0533795059105266</v>
+        <v>0.05309034298764079</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0336399823913668</v>
+        <v>0.05141339567484701</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04202674646338145</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03409298873963468</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05414207028067698</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.07066253549146581</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05385760777582301</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1071147337103813</v>
+        <v>0.0691607066244716</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05388905181510258</v>
+        <v>0.05393352330766901</v>
       </c>
       <c r="N136" t="n">
-        <v>0.0336399823913668</v>
+        <v>0.1041925265731836</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05414207028067698</v>
+        <v>0.05384877645889281</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03369815768154678</v>
+        <v>0.05155147911298048</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04261867246990796</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03368391701149877</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05490463465082736</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.07059960320948963</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05461616563182051</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1075300694180933</v>
+        <v>0.06903344232029329</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05464805254489276</v>
+        <v>0.05469315039650942</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03369815768154678</v>
+        <v>0.1041148844688869</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05490463465082736</v>
+        <v>0.05460720993014481</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03335062201544951</v>
+        <v>0.05168585663799338</v>
       </c>
       <c r="G138" t="n">
+        <v>0.04321059847643446</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03357045878010399</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05566719902097774</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.0704277905725286</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05537472348781802</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1074346809312725</v>
+        <v>0.06849203462163375</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05540705327468293</v>
+        <v>0.05545277748534983</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03335062201544951</v>
+        <v>0.1031153104760463</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05566719902097774</v>
+        <v>0.05536564340139683</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03309789250123786</v>
+        <v>0.05181642897039627</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04380252448296095</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03355301244792902</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05642976339112813</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.06984743029836279</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05613328134381553</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1072288543535205</v>
+        <v>0.06853761300240768</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05616605400447311</v>
+        <v>0.05621240457419024</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03309789250123786</v>
+        <v>0.1019962408239034</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05642976339112813</v>
+        <v>0.05612407687264884</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03304048624707469</v>
+        <v>0.05194309683069971</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04439445048948745</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03353197641745252</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05719232776127851</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.07005885510477236</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05689183919981303</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1061128757884388</v>
+        <v>0.06777130693652983</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05692505473426329</v>
+        <v>0.05697203166303065</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03304048624707469</v>
+        <v>0.1015601117416998</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05719232776127851</v>
+        <v>0.05688251034390085</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03297892036112282</v>
+        <v>0.05206576093941427</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04498637649601395</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03320774909115314</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05795489213142888</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.06986239770953731</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05765039705581054</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1063870313396291</v>
+        <v>0.06719424589791501</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05768405546405347</v>
+        <v>0.05773165875187105</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03297892036112282</v>
+        <v>0.1006093594586772</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05795489213142888</v>
+        <v>0.05764094381515285</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03281371195154514</v>
+        <v>0.05218432201705052</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04557830250254045</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03318072887150948</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05871745650157927</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.06965839083043776</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05840895491180805</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1064516071106932</v>
+        <v>0.06670755936047781</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05844305619384365</v>
+        <v>0.05849128584071146</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03281371195154514</v>
+        <v>0.09994642020407724</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05871745650157927</v>
+        <v>0.05839937728640487</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03274537812650448</v>
+        <v>0.05229868078411902</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04617022850906696</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03315131416100027</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.05948002087172964</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.06944716718525373</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.05916751276780555</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1056068892052324</v>
+        <v>0.06631237679813312</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05920205692363382</v>
+        <v>0.05925091292955188</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03274537812650448</v>
+        <v>0.09927373020714148</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05948002087172964</v>
+        <v>0.05915781075765688</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03247443599416369</v>
+        <v>0.05240873796113033</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04676215451559346</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03291990336210411</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06024258524188002</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.06912905949176534</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.05992607062380307</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1059531637268487</v>
+        <v>0.06640982768479561</v>
       </c>
       <c r="M144" t="n">
-        <v>0.059961057653424</v>
+        <v>0.06001054001839229</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03247443599416369</v>
+        <v>0.09909372569711161</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06024258524188002</v>
+        <v>0.0599162442289089</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03230140266268565</v>
+        <v>0.05251439426859501</v>
       </c>
       <c r="G145" t="n">
+        <v>0.04735408052211995</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03278689487729967</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.0610051496120304</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.06860440046775268</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06068462847980057</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1049907167791434</v>
+        <v>0.06580104149438004</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06072005838321417</v>
+        <v>0.06077016710723269</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03230140266268565</v>
+        <v>0.09790884290322927</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0610051496120304</v>
+        <v>0.0606746777001609</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03222679524023318</v>
+        <v>0.05261555042702364</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04794600652864645</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03285268710906562</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06176771398218078</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.06837352283099579</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06144318633579807</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1049198344657183</v>
+        <v>0.06568714770080111</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06147905911300435</v>
+        <v>0.06152979419607309</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03222679524023318</v>
+        <v>0.0973215180547361</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06176771398218078</v>
+        <v>0.06143311117141292</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03175113083496917</v>
+        <v>0.05271210715692677</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04853793253517295</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03261767845988058</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06253027835233116</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.06793675929927478</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06220174419179559</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1052408028901752</v>
+        <v>0.06526927577797362</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06223805984279453</v>
+        <v>0.06228942128491351</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03175113083496917</v>
+        <v>0.09673418738087364</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06253027835233116</v>
+        <v>0.06219154464266494</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03177492655505641</v>
+        <v>0.05280396517881498</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04912985854169945</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03228226733222322</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06329284272248153</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.06799444259036974</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06296030204779308</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1039539081561153</v>
+        <v>0.06474855519981224</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06299706057258471</v>
+        <v>0.06304904837375391</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03177492655505641</v>
+        <v>0.09594928711088369</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06329284272248153</v>
+        <v>0.06294997811391694</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03149869950865783</v>
+        <v>0.05289102521319881</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04972178454822595</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03234685212857216</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06405540709263192</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.0676469054220607</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.0637188599037906</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1044594363671406</v>
+        <v>0.06382611544023181</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06375606130237489</v>
+        <v>0.06380867546259433</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03149869950865783</v>
+        <v>0.09536925347400771</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06405540709263192</v>
+        <v>0.06370841158516896</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03132296680393623</v>
+        <v>0.05297318798058885</v>
       </c>
       <c r="G150" t="n">
+        <v>0.05031371055475244</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03201183125140611</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.0648179714627823</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.06759448051212777</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0644774177597881</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1035576736268526</v>
+        <v>0.06410308597314698</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06451506203216506</v>
+        <v>0.06456830255143473</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03132296680393623</v>
+        <v>0.09469652269948747</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0648179714627823</v>
+        <v>0.06446684505642096</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03124824554905449</v>
+        <v>0.05305035420149565</v>
       </c>
       <c r="G151" t="n">
+        <v>0.05090563656127894</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03187760310320369</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06558053583293269</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.06743750057835102</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.0652359756157856</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.103848906038853</v>
+        <v>0.0633805962724725</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06527406276195524</v>
+        <v>0.06532792964027515</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03124824554905449</v>
+        <v>0.09413353101656458</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06558053583293269</v>
+        <v>0.06522527852767297</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03097505285217543</v>
+        <v>0.05312242459642978</v>
       </c>
       <c r="G152" t="n">
+        <v>0.05149756256780545</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03194456608644353</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06634310020308307</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.06677629833851054</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06599453347178312</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1034334197067433</v>
+        <v>0.06285977581212313</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06603306349174541</v>
+        <v>0.06608755672911555</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03097505285217543</v>
+        <v>0.09408271465448065</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06634310020308307</v>
+        <v>0.06598371199892498</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03090390582146195</v>
+        <v>0.05318929988590179</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05208948857433195</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03171311860360432</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06710566457323344</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.06701120651038636</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06675309132778062</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1026115007341252</v>
+        <v>0.06284175406601361</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06679206422153559</v>
+        <v>0.06684718381795596</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03090390582146195</v>
+        <v>0.09274650984247723</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06710566457323344</v>
+        <v>0.066742145470177</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03063532156507685</v>
+        <v>0.05325088079042227</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05268141458085845</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03168365905716469</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06786822894338382</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.0663425578117586</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06751164918377812</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1027834352246004</v>
+        <v>0.06212766050805871</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06755106495132576</v>
+        <v>0.06760681090679638</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03063532156507685</v>
+        <v>0.09212735280979611</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06786822894338382</v>
+        <v>0.06750057894142901</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03066981719118303</v>
+        <v>0.05330706803050178</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05327334058738495</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03135658584960332</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06863079331353421</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.0665706849604073</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06827020703977564</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1025495092817705</v>
+        <v>0.06181862461217311</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06831006568111594</v>
+        <v>0.06836643799563677</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03066981719118303</v>
+        <v>0.09182767978567885</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06863079331353421</v>
+        <v>0.06825901241268102</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03040790980794332</v>
+        <v>0.05335776232665085</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05386526659391144</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03133229738339882</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.06939335768368458</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.0658959206741126</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.06902876489577314</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1014100090092371</v>
+        <v>0.06101577585227158</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06906906641090611</v>
+        <v>0.06912606508447719</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03040790980794332</v>
+        <v>0.09084992699936706</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06939335768368458</v>
+        <v>0.06901744588393303</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03015011652352056</v>
+        <v>0.05340286439938009</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05445719260043794</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03111119206102987</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07015592205383496</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.06551859767065457</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.06978732275177064</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1014652205106018</v>
+        <v>0.06072024370226883</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0698280671406963</v>
+        <v>0.0698856921733176</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03015011652352056</v>
+        <v>0.09049653068010238</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07015592205383496</v>
+        <v>0.06977587935518505</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03009695444607764</v>
+        <v>0.05344227496920005</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05504911860696445</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03099119837654056</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07091848642398534</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.06543904866781322</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07054588060776816</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1012154298894663</v>
+        <v>0.0602244063485049</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07058706787048648</v>
+        <v>0.070645319262158</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03009695444607764</v>
+        <v>0.09066149348522823</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07091848642398534</v>
+        <v>0.07053431282643705</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02994253512684752</v>
+        <v>0.05347589475662129</v>
       </c>
       <c r="G159" t="n">
+        <v>0.05564104461349094</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03096841010838265</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07168105079413573</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.06505760638336869</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07130443846376566</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1009609232494322</v>
+        <v>0.06021473805501509</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07134606860027666</v>
+        <v>0.07140494635099841</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02994253512684752</v>
+        <v>0.0898314858283441</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07168105079413573</v>
+        <v>0.07129274629768907</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02978093702336679</v>
+        <v>0.05350362448215437</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05623297062001744</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03094288787971169</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.0724436151642861</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.06517460353510104</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07206299631976318</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1000019866941012</v>
+        <v>0.05979161647689851</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07210506933006684</v>
+        <v>0.07216457343983881</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02978093702336679</v>
+        <v>0.08930573294595767</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0724436151642861</v>
+        <v>0.07205117976894107</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02941264605770695</v>
+        <v>0.05352536486630984</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05682489662654394</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03081475714536827</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07320617953443649</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.06419037284079032</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07282155417576068</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1004389063270748</v>
+        <v>0.05915562434240898</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07286407005985701</v>
+        <v>0.07292420052867923</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02941264605770695</v>
+        <v>0.08888366509318213</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07320617953443649</v>
+        <v>0.07280961324019308</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02933814815341748</v>
+        <v>0.0535410166295983</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05741682263307044</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03078414336019299</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07396874390458687</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.06390524701821665</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07358011203175818</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1001719682519547</v>
+        <v>0.05860734437980034</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07362307078964719</v>
+        <v>0.07368382761751964</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02933814815341748</v>
+        <v>0.08846471252513072</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07396874390458687</v>
+        <v>0.07356804671144511</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02915792923404779</v>
+        <v>0.05355048049253029</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05800874863959694</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03055117197902639</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07473130827473724</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.06401955831400435</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.0743386698877557</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.09890145857234256</v>
+        <v>0.05814735931732651</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07438207151943736</v>
+        <v>0.07444345470636005</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02915792923404779</v>
+        <v>0.08804830549691683</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07473130827473724</v>
+        <v>0.07432648018269711</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02917247522314742</v>
+        <v>0.05355365717561637</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05860067464612344</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.03031596845670907</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07549387264488762</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.06371315843629852</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.0750972277437532</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.09932766339184007</v>
+        <v>0.05817625188324141</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07514107224922754</v>
+        <v>0.07520308179520045</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02917247522314742</v>
+        <v>0.08663387426365388</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07549387264488762</v>
+        <v>0.07508491365394913</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02898227204426576</v>
+        <v>0.05355365717561639</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05860067464612344</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03027865824808164</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07625643701503799</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.06346759087166631</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07585578559975072</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.0983508688140487</v>
+        <v>0.05699460480579882</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07590007297901771</v>
+        <v>0.07596270888404086</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02898227204426576</v>
+        <v>0.0865208490804551</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07625643701503799</v>
+        <v>0.07584334712520113</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02848780562095231</v>
+        <v>0.05264845975898708</v>
       </c>
       <c r="G166" t="n">
+        <v>0.05860040611765943</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03003936680798468</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07701900138518838</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.06288513685713903</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07661434345574822</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.09847136094257014</v>
+        <v>0.05680300081325262</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0766590737088079</v>
+        <v>0.07672233597288128</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02848780562095231</v>
+        <v>0.08620866020243378</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07701900138518838</v>
+        <v>0.07660178059645315</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02848956187675646</v>
+        <v>0.05175341351937114</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05860013758919541</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02989821959125875</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07778156575533876</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.06216807762974791</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07737290131174572</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.09748942588100606</v>
+        <v>0.0561020226338568</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07741807443859808</v>
+        <v>0.07748196306172168</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02848956187675646</v>
+        <v>0.08549673788470347</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07778156575533876</v>
+        <v>0.07736021406770516</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02818802673522772</v>
+        <v>0.05086899874683286</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05859986906073139</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.02985534205274447</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07854413012548914</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.06211869442652423</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07813145916774324</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.09750534973295816</v>
+        <v>0.05559225299586509</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07817707516838825</v>
+        <v>0.07824159015056209</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02818802673522772</v>
+        <v>0.0854845123823772</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07854413012548914</v>
+        <v>0.07811864753895717</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02808368611991555</v>
+        <v>0.04999569573155167</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05859960053226737</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02971085964728243</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.07930669449563953</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.06183926848449922</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.07889001702374074</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.096619418602028</v>
+        <v>0.05527427462753143</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07893607589817843</v>
+        <v>0.0790012172394025</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02808368611991555</v>
+        <v>0.08417141395056843</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07930669449563953</v>
+        <v>0.07887708101020918</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0277770259543694</v>
+        <v>0.04913398476359139</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05859933200380336</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02966489782971318</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.0800692588657899</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.06113208104070419</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.07964857487973824</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.09723191859181712</v>
+        <v>0.05484867025710974</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0796950766279686</v>
+        <v>0.0797608443282429</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0277770259543694</v>
+        <v>0.0842568728443906</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0800692588657899</v>
+        <v>0.07963551448146119</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02776853216213875</v>
+        <v>0.04828434613305452</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05859906347533934</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.02931758205487732</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08083182323594029</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.06059941333217039</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08040713273573576</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.09654313580592727</v>
+        <v>0.05441602261285378</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08045407735775878</v>
+        <v>0.08052047141708332</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02776853216213875</v>
+        <v>0.08394031931895679</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08083182323594029</v>
+        <v>0.08039394795271319</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02755869066677301</v>
+        <v>0.0474472601300074</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05859879494687532</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02906903777761546</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08159438760609067</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.06024354659592915</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08116569059173326</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.09575335634796012</v>
+        <v>0.05337691442301748</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08121307808754896</v>
+        <v>0.08128009850592373</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02755869066677301</v>
+        <v>0.08342118362938056</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08159438760609067</v>
+        <v>0.08115238142396522</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02734798739182166</v>
+        <v>0.04662320704462539</v>
       </c>
       <c r="G173" t="n">
+        <v>0.0585985264184113</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02891939045276816</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08235695197624104</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.05916676206901161</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08192424844773076</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.09516286632151716</v>
+        <v>0.0530319284158548</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08197207881733914</v>
+        <v>0.08203972559476413</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02734798739182166</v>
+        <v>0.08219889603077501</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08235695197624104</v>
+        <v>0.08191081489521722</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02703690826083417</v>
+        <v>0.04581266716697432</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05859825788994729</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02876876553517602</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08311951634639142</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.05867134098844909</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08268280630372828</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.09547074697363278</v>
+        <v>0.0523816473196195</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08273107954712931</v>
+        <v>0.08279935268360454</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02703690826083417</v>
+        <v>0.08137288677825372</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08311951634639142</v>
+        <v>0.08266924836646923</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02692593919735999</v>
+        <v>0.04501612078715667</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05859798936148328</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0288172884796796</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.0838820807165418</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.05835956459127289</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08344136415972578</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.09446910954064075</v>
+        <v>0.05232665386256546</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0834900802769195</v>
+        <v>0.08355897977244495</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02692593919735999</v>
+        <v>0.08164258612692993</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0838820807165418</v>
+        <v>0.08342768183772124</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02651556612494856</v>
+        <v>0.04423404819524124</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05859772083301925</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0285650847411195</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08464464508669219</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.05783371411451427</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08419992201572329</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.09385539050784059</v>
+        <v>0.0512675307729466</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08424908100670968</v>
+        <v>0.08431860686128537</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02651556612494856</v>
+        <v>0.08100742433191677</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08464464508669219</v>
+        <v>0.08418611530897326</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02620627496714938</v>
+        <v>0.04346692968139858</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05859745230455524</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02861227977433636</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08540720945684256</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.05659607079520443</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.0849584798717208</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.09442828281792104</v>
+        <v>0.05090486077901679</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08500808173649985</v>
+        <v>0.08507823395012577</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02620627496714938</v>
+        <v>0.08066683164832783</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08540720945684256</v>
+        <v>0.08494454878022528</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02619855164751186</v>
+        <v>0.04271524553569687</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05859718377609122</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.0281589990341707</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08616977382699294</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.0562489158703747</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.0857170377277183</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.09378647941357104</v>
+        <v>0.05013922660902989</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08576708246629003</v>
+        <v>0.08583786103896618</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02619855164751186</v>
+        <v>0.07962023833127629</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08616977382699294</v>
+        <v>0.08570298225147728</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02579288208958549</v>
+        <v>0.04197947604823861</v>
       </c>
       <c r="G179" t="n">
+        <v>0.0585969152476272</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02820536797546309</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08693233819714333</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.05579453057705633</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08647559558371581</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.09352867323747938</v>
+        <v>0.05017121099123975</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0865260831960802</v>
+        <v>0.08659748812780659</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02579288208958549</v>
+        <v>0.07926707463587557</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08693233819714333</v>
+        <v>0.08646141572272929</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02588975221691973</v>
+        <v>0.04126010150909534</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05859664671916318</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02785151205305419</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.0876949025672937</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.0549351961522806</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.08723415343971332</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.09285355723233507</v>
+        <v>0.04940139665390031</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08728508392587038</v>
+        <v>0.08735711521664699</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02588975221691973</v>
+        <v>0.07820677081723887</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0876949025672937</v>
+        <v>0.08721984919398131</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02568964795306401</v>
+        <v>0.0405576022084322</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05859637819069916</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02799755672178454</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08845746693744409</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.05457319383307876</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08799271129571083</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.09255982434082688</v>
+        <v>0.04853036632526536</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08804408465566055</v>
+        <v>0.08811674230548741</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02568964795306401</v>
+        <v>0.07823875713047962</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08845746693744409</v>
+        <v>0.08797828266523332</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02549305522156782</v>
+        <v>0.03987245843632004</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05859610966223515</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02754362743649474</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.08922003130759447</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.0540108048564821</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.08875126915170833</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.09154616750564387</v>
+        <v>0.04825870273358887</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08880308538545073</v>
+        <v>0.0888763693943278</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02549305522156782</v>
+        <v>0.07736246383071121</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08922003130759447</v>
+        <v>0.08873671613648533</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02510045994598059</v>
+        <v>0.03920515048286133</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05859584113377114</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02738984965202536</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.08998259567774484</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.05285031045952182</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.08950982700770584</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.09141127966947488</v>
+        <v>0.04758698860712465</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0895620861152409</v>
+        <v>0.08963599648316822</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02510045994598059</v>
+        <v>0.07687732117304685</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08998259567774484</v>
+        <v>0.08949514960773734</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0248123480498518</v>
+        <v>0.03855615863813075</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05859557260530711</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02743634882321699</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09074516004789522</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.05269399187922924</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09026838486370335</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.09095385377500859</v>
+        <v>0.04731580667412658</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09032108684503108</v>
+        <v>0.09039562357200863</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0248123480498518</v>
+        <v>0.07578275941259982</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09074516004789522</v>
+        <v>0.09025358307898934</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02492920545673089</v>
+        <v>0.03792596319228729</v>
       </c>
       <c r="G185" t="n">
+        <v>0.0585953040768431</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02718325040491024</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.0915077244180456</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.05134413035263563</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09102694271970085</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.09037258276493415</v>
+        <v>0.04674573966284853</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09108008757482126</v>
+        <v>0.09115525066084904</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02492920545673089</v>
+        <v>0.07527820880448355</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0915077244180456</v>
+        <v>0.09101201655024137</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02445151809016732</v>
+        <v>0.03731504443540481</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05859503554837908</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02693067985194567</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09227028878819599</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.05100300711677219</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09178550057569836</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.08976615958194034</v>
+        <v>0.04607737030154438</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09183908830461145</v>
+        <v>0.09191487774968946</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02445151809016732</v>
+        <v>0.07526309960381128</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09227028878819599</v>
+        <v>0.09177045002149337</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02447977187371056</v>
+        <v>0.03672388265758583</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05859476701991507</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02687876261916387</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09303285315834636</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.05007290340867029</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09254405843169587</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.08823327716871598</v>
+        <v>0.04541128131846803</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09259808903440163</v>
+        <v>0.09267450483852985</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02447977187371056</v>
+        <v>0.07483686206569645</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09303285315834636</v>
+        <v>0.09252888349274539</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02411445273091008</v>
+        <v>0.03615295814890843</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05859449849145104</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02692762416140546</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09379541752849674</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.05015610046536112</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09330261628769337</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.08797262846795012</v>
+        <v>0.04434805544187331</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0933570897641918</v>
+        <v>0.09343413192737027</v>
       </c>
       <c r="N188" t="n">
-        <v>0.02411445273091008</v>
+        <v>0.07429892644525232</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09379541752849674</v>
+        <v>0.09328731696399739</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02405604658531527</v>
+        <v>0.03560275119952482</v>
       </c>
       <c r="G189" t="n">
+        <v>0.05859422996298703</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.02667738993351096</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09455798189864713</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.04945487952387601</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09406117414369088</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.0877829064223315</v>
+        <v>0.04438827540001414</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09411609049398198</v>
+        <v>0.09419375901621067</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02405604658531527</v>
+        <v>0.07264872299759223</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09455798189864713</v>
+        <v>0.0940457504352494</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02410503936047569</v>
+        <v>0.03507178091492683</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05859396143452301</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.026428185390321</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.0953205462687975</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.04867152182124615</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09481973199968839</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.08606280397454907</v>
+        <v>0.04373252392114438</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09487509122377215</v>
+        <v>0.09495338610505108</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02410503936047569</v>
+        <v>0.07208568197782955</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0953205462687975</v>
+        <v>0.09480418390650142</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02376191697994072</v>
+        <v>0.03454876047770558</v>
       </c>
       <c r="G191" t="n">
+        <v>0.058593692906059</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02618013598667619</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09608311063894788</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.04820830859450281</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09557828985568589</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.08611101406729177</v>
+        <v>0.04278138373351786</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09563409195356233</v>
+        <v>0.09571301319389149</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02376191697994072</v>
+        <v>0.07200923364107747</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09608311063894788</v>
+        <v>0.09556261737775343</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02372716536725984</v>
+        <v>0.0340322089933562</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05859342437759497</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02623336717741707</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09684567500909827</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.04776752108067733</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09633684771168341</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.08532622964324843</v>
+        <v>0.04283543756538849</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0963930926833525</v>
+        <v>0.09647264028273189</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02372716536725984</v>
+        <v>0.07061880824244948</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09684567500909827</v>
+        <v>0.09632105084900544</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02370127044598253</v>
+        <v>0.03352260675202616</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05859315584913096</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02598807223792102</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09760823937924865</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.04695144051680092</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09709540556768091</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.08370714364510778</v>
+        <v>0.04218257181133245</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09715209341314268</v>
+        <v>0.09723226737157231</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02370127044598253</v>
+        <v>0.06990070912168445</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09760823937924865</v>
+        <v>0.09707948432025745</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02348471813965823</v>
+        <v>0.03302043404379534</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05859288732066694</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02594430176556524</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09837080374939902</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.04626234813990487</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09785396342367841</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.08285244901555899</v>
+        <v>0.04130852140684027</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09791109414293286</v>
+        <v>0.09799189446041272</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02348471813965823</v>
+        <v>0.07004063991617088</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09837080374939902</v>
+        <v>0.09783791779150947</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02317799437183639</v>
+        <v>0.03252617115876623</v>
       </c>
       <c r="G195" t="n">
+        <v>0.05859261879220293</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.0256019218746945</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.0991333681195494</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.04570252518702039</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.09861252127967593</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.08206083869729086</v>
+        <v>0.04081498086183946</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09867009487272303</v>
+        <v>0.09875152154925312</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02317799437183639</v>
+        <v>0.06834109062709975</v>
       </c>
       <c r="O195" t="n">
-        <v>0.0991333681195494</v>
+        <v>0.09859635126276148</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02328158506606645</v>
+        <v>0.03204029838702036</v>
       </c>
       <c r="G196" t="n">
+        <v>0.0585923502637389</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02576079815883385</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.09989593248969979</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.04587425289517885</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.09937107913567343</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.08133100563299217</v>
+        <v>0.04000368491906586</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09942909560251321</v>
+        <v>0.09951114863809353</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02328158506606645</v>
+        <v>0.06850458297477136</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09989593248969979</v>
+        <v>0.09935478473401349</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02319592997546584</v>
+        <v>0.03156329601870259</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05859208173527489</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02562079621150838</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1006584968598502</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.04557964582529053</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1001296369916709</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.08026164276535191</v>
+        <v>0.03957636832125544</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1001880963323034</v>
+        <v>0.1002707757269339</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02319592997546584</v>
+        <v>0.06703363867948592</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1006584968598502</v>
+        <v>0.1001132182052655</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02291882185235436</v>
+        <v>0.03109564434389402</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05859181320681087</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02538178162624311</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1014210612300006</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.04460691440925549</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1008881948476684</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.0796514430370589</v>
+        <v>0.03893476581114397</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1009470970620936</v>
+        <v>0.1010304028157744</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02291882185235436</v>
+        <v>0.06603077946154379</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1014210612300006</v>
+        <v>0.1008716516765175</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02314828244658478</v>
+        <v>0.03063782365269718</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05859154467834686</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02534361999656315</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1021836256001509</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.04454709965292666</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.101646752703666</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.07809909939080212</v>
+        <v>0.03848061213146742</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1017060977918837</v>
+        <v>0.1017900299046148</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02314828244658478</v>
+        <v>0.06529852704124506</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1021836256001509</v>
+        <v>0.1016300851477695</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02288355046936913</v>
+        <v>0.03019031423519532</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05859127614988283</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02510617691599352</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1029461899703013</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.04399932020883607</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1024053105596635</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.0775049998717573</v>
+        <v>0.03771564202496164</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1024650985216739</v>
+        <v>0.1025496569934552</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02288355046936913</v>
+        <v>0.06463940313889022</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1029461899703013</v>
+        <v>0.1023885186190215</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02302386463191952</v>
+        <v>0.0297535963815299</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05859100762141882</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02496931797805933</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1037087543404517</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.04416269472951587</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.103163868415661</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.07520609862376537</v>
+        <v>0.03724159023436252</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1032240992514641</v>
+        <v>0.1033092840822956</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02302386463191952</v>
+        <v>0.06355592947477939</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1037087543404517</v>
+        <v>0.1031469520902735</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02266846364544801</v>
+        <v>0.02932815038178374</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05859073909295481</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02483290877628561</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1044713187106021</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.04323634186749803</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1039224262716585</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.07356789759176779</v>
+        <v>0.0361601915024059</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1039830999812543</v>
+        <v>0.104068911171136</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02266846364544801</v>
+        <v>0.06225062776921297</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1044713187106021</v>
+        <v>0.1039053855615256</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02271658622116662</v>
+        <v>0.02891445652605931</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05859047056449079</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02449681490419743</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1052338830807524</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.04311938027531456</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.104680984127656</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.07075931707438249</v>
+        <v>0.03537318057182773</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1047421007110445</v>
+        <v>0.1048285382599764</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02271658622116662</v>
+        <v>0.06132601974249113</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1052338830807524</v>
+        <v>0.1046638190327776</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02266747107028745</v>
+        <v>0.02851299510444194</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05859020203602677</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02446090195531986</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1059964474509028</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.0426109286054977</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1054395419836535</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.06744927737022721</v>
+        <v>0.03488229218536382</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1055011014408346</v>
+        <v>0.1055881653488168</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02266747107028745</v>
+        <v>0.05998462711491409</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1059964474509028</v>
+        <v>0.1054222525040296</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02252035690402258</v>
+        <v>0.02812424640706905</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05858993350756275</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02442503552317793</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1067590118210532</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.04291010551057933</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.106198099839651</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.06400669877791987</v>
+        <v>0.03378926108575006</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1062601021706248</v>
+        <v>0.1063477924376572</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02252035690402258</v>
+        <v>0.05912897160678227</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1067590118210532</v>
+        <v>0.1061806859752816</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02247448243358403</v>
+        <v>0.02774869072402543</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05858966497909873</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02428908120129675</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1075215761912036</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.04251602964309159</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1069566576956485</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.06080050159607808</v>
+        <v>0.03319582201572244</v>
       </c>
       <c r="M206" t="n">
-        <v>0.107019102900415</v>
+        <v>0.1071074195264976</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02247448243358403</v>
+        <v>0.05816157493839574</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1075215761912036</v>
+        <v>0.1069391194465336</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02272908637018391</v>
+        <v>0.02738680834541356</v>
       </c>
       <c r="G207" t="n">
+        <v>0.05858939645063472</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02415290458320134</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.108284140561354</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.04172781965556652</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.107715215551646</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.0572996061233198</v>
+        <v>0.03260370971801671</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1077781036302052</v>
+        <v>0.107867046615338</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02272908637018391</v>
+        <v>0.05698495883005494</v>
       </c>
       <c r="O207" t="n">
-        <v>0.108284140561354</v>
+        <v>0.1076975529177856</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02258340742503426</v>
+        <v>0.02703907956132112</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05858912792217069</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02411637126241681</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1090467049315043</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.04144459420053614</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1084737734076435</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.0543729326582626</v>
+        <v>0.03201465893536878</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1085371043599953</v>
+        <v>0.1086266737041784</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02258340742503426</v>
+        <v>0.0557016450020601</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1090467049315043</v>
+        <v>0.1084559863890376</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02243668430934714</v>
+        <v>0.0267059846618809</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05858885939370668</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.0236793468324682</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1098092693016547</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.04156547193053256</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.109232331263641</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.05138940149952459</v>
+        <v>0.03153040441051461</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1092961050897855</v>
+        <v>0.1093863007930188</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02243668430934714</v>
+        <v>0.05471415517471145</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1098092693016547</v>
+        <v>0.1092144198602896</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02238815573433464</v>
+        <v>0.02638800393717995</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05858859086524267</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02374169688688052</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1105718336718051</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.04138957149808781</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1099908891196385</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04741793294572338</v>
+        <v>0.03085268088618995</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1100551058195757</v>
+        <v>0.1101459278818592</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02238815573433464</v>
+        <v>0.05342501106830927</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1105718336718051</v>
+        <v>0.1099728533315417</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02223706041120883</v>
+        <v>0.02608561767732076</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05858832233677865</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02360328701917892</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1113343980419555</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.04121601155573393</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.110749446975636</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.04512744729547674</v>
+        <v>0.03018322310513083</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1108141065493659</v>
+        <v>0.1109055549706997</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02223706041120883</v>
+        <v>0.05263673440315386</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1113343980419555</v>
+        <v>0.1107312868027937</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02218263705118174</v>
+        <v>0.02579930617239375</v>
       </c>
       <c r="G212" t="n">
+        <v>0.05858805380831462</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.0234639828228884</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1120969624121059</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.04094391075600298</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1115080048316335</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.04208686484740254</v>
+        <v>0.02902376581007299</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1115731072791561</v>
+        <v>0.1116651820595401</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02218263705118174</v>
+        <v>0.05195184689954541</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1120969624121059</v>
+        <v>0.1114897202740457</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02212412436546547</v>
+        <v>0.02552954971252633</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05858778527985061</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02312364989153408</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1128595267822563</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.03997238775142703</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1122665626876311</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.03976510590011861</v>
+        <v>0.02847604374375243</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1123321080089462</v>
+        <v>0.1124248091483805</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02212412436546547</v>
+        <v>0.05007287027778423</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1128595267822563</v>
+        <v>0.1122481537452977</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02216076106527204</v>
+        <v>0.02527682858780819</v>
       </c>
       <c r="G214" t="n">
+        <v>0.0585875167513866</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02318215381864096</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1136220911524066</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.0397005611945381</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1130251205436286</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.03743109075224271</v>
+        <v>0.02824179164890492</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1130911087387364</v>
+        <v>0.1131844362372209</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02216076106527204</v>
+        <v>0.04980232625817066</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1136220911524066</v>
+        <v>0.1130065872165497</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02229178586181357</v>
+        <v>0.02527682858780819</v>
       </c>
       <c r="G215" t="n">
+        <v>0.0585875167513866</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02283936019773415</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.114384655522557</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.0399275497378683</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1137836783996261</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.03525373970239259</v>
+        <v>0.02732274426826642</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1138501094685266</v>
+        <v>0.1139440633260613</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02229178586181357</v>
+        <v>0.04854273656100483</v>
       </c>
       <c r="O215" t="n">
-        <v>0.114384655522557</v>
+        <v>0.1137650206878017</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02201643746630209</v>
+        <v>0.02463254998409722</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05856051259728066</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02279513462233868</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1151472198927074</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.03925247203394969</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1145422362556236</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.03430197304918614</v>
+        <v>0.02672063634457283</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1146091101983168</v>
+        <v>0.1147036904149017</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02201643746630209</v>
+        <v>0.04699662290658713</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1151472198927074</v>
+        <v>0.1145234541590537</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02193515644804137</v>
+        <v>0.02399545152535239</v>
       </c>
       <c r="G217" t="n">
+        <v>0.05853350844317474</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02284934268597964</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1159097842628578</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.03887444673531423</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1153007941116211</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03424471109124105</v>
+        <v>0.02593720262055993</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1153681109281069</v>
+        <v>0.1154633175037421</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02193515644804137</v>
+        <v>0.04636650701521777</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1159097842628578</v>
+        <v>0.1152818876303057</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02204973163117604</v>
+        <v>0.02336586372202053</v>
       </c>
       <c r="G218" t="n">
+        <v>0.0585065042890688</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02250184998218208</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1166723486330082</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.03889259249449409</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1160593519676186</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.03380287639447055</v>
+        <v>0.02547417783896369</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1161271116578971</v>
+        <v>0.1162229445925825</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02204973163117604</v>
+        <v>0.04535491060719704</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1166723486330082</v>
+        <v>0.1160403211015577</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02186022354029057</v>
+        <v>0.02274411708454961</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05847950013496288</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02225252210447105</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1174349130031585</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.03840602796402126</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1168179098236161</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.03340289129222301</v>
+        <v>0.02493329674251998</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1168861123876873</v>
+        <v>0.1169825716814229</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02186022354029057</v>
+        <v>0.04436435540282518</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1174349130031585</v>
+        <v>0.1167987545728097</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02186665707643198</v>
+        <v>0.02213054212338651</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05845249598085694</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02230122464637165</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1181974773733089</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.03851387179642779</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1175764676796136</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.03390294119269599</v>
+        <v>0.02471629407396464</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1176451131174775</v>
+        <v>0.1177421987702633</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02186665707643198</v>
+        <v>0.0428973631224025</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1181974773733089</v>
+        <v>0.1175571880440618</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02156905714064732</v>
+        <v>0.02152546934897892</v>
       </c>
       <c r="G221" t="n">
+        <v>0.058425491826751</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02224782320140889</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1189600417434593</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.03821552111805743</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1183350255356111</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.0337030473211854</v>
+        <v>0.02432490457603359</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1184041138472676</v>
+        <v>0.1185018258591038</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02156905714064732</v>
+        <v>0.04225645548622925</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1189600417434593</v>
+        <v>0.1183156215153138</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02146744863398357</v>
+        <v>0.02092922927177451</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05839848767264508</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02179218336310787</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1197226061136097</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.03751533710037802</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1190935833916086</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.03380323090298687</v>
+        <v>0.02386086299146267</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1191631145770578</v>
+        <v>0.1192614529479442</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02146744863398357</v>
+        <v>0.04154415421460556</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1197226061136097</v>
+        <v>0.1190740549865658</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02126185645748778</v>
+        <v>0.0203421524022202</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05837148351853914</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02193417072499367</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.12048517048376</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.03731509428815954</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1198521412476061</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.03350351316339645</v>
+        <v>0.02302590406298785</v>
       </c>
       <c r="M223" t="n">
-        <v>0.119922115306848</v>
+        <v>0.1200210800367846</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02126185645748778</v>
+        <v>0.04046298102783202</v>
       </c>
       <c r="O223" t="n">
-        <v>0.12048517048376</v>
+        <v>0.1198324884578178</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02135230551220695</v>
+        <v>0.01976456925076389</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05834447936443322</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02167365088059128</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1212477348539104</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.03741479185457017</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1206106991036036</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.03410391532770984</v>
+        <v>0.02262176253334489</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1206811160366382</v>
+        <v>0.120780707125625</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02135230551220695</v>
+        <v>0.03961545764620861</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1212477348539104</v>
+        <v>0.1205909219290698</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02103882069918812</v>
+        <v>0.0191968103278525</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05831747521032728</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02131048942342585</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1220102992240608</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.03671442897277793</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1213692569596011</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.03400445862122287</v>
+        <v>0.02285017314526977</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1214401167664283</v>
+        <v>0.1215403342144654</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02103882069918812</v>
+        <v>0.03880410579003574</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1220102992240608</v>
+        <v>0.1213493554003218</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02102142691947828</v>
+        <v>0.01863920614393371</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05829047105622135</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02114455194702237</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1227728635942112</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.03651400481595116</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1221278148155987</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.03320516426923137</v>
+        <v>0.02181287064149831</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1221991174962185</v>
+        <v>0.1222999613033058</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02102142691947828</v>
+        <v>0.0380314471796136</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1227728635942112</v>
+        <v>0.1221077888715738</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02100014907412451</v>
+        <v>0.01809208720945517</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05826346690211542</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02117570404490594</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1235354279643616</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.03641351855725794</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1228863726715961</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.03350605349703129</v>
+        <v>0.02181158976476641</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1229581182260087</v>
+        <v>0.1230595883921462</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02100014907412451</v>
+        <v>0.03790000353524248</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1235354279643616</v>
+        <v>0.1228662223428258</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02087501206417375</v>
+        <v>0.0175557840348638</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05823646274800949</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02090381131060161</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1242979923345119</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.03611296936986644</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1236449305275937</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.03400714752991835</v>
+        <v>0.02164806525781002</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1237171189557989</v>
+        <v>0.1238192154809866</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02087501206417375</v>
+        <v>0.03671229657722264</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1242979923345119</v>
+        <v>0.1236246558140778</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02064604079067309</v>
+        <v>0.01703062713060753</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05820945859390356</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02072873933763449</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1250605567046623</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.03601235642694486</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1244034883835912</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.03330846759318834</v>
+        <v>0.02102403186336485</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1244761196855891</v>
+        <v>0.124578842569827</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02064604079067309</v>
+        <v>0.03647084802585437</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1250605567046623</v>
+        <v>0.1243830892853299</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02061326015466952</v>
+        <v>0.01651694700713328</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05818245443979763</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02075035325169228</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1258231210748127</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.03571167890166133</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1251620462395887</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.03331003491213719</v>
+        <v>0.02154098823130021</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1252351204153792</v>
+        <v>0.1253384696586674</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02061326015466952</v>
+        <v>0.03537788310736945</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1258231210748127</v>
+        <v>0.1251415227565819</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02037669505721006</v>
+        <v>0.01601507417488892</v>
       </c>
       <c r="G231" t="n">
+        <v>0.05815545028569171</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02056850501640392</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1265856854449631</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.03511093596718406</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1259206040955862</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.03381187071206065</v>
+        <v>0.02067606335233471</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1259941211451694</v>
+        <v>0.1260980967475078</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02037669505721006</v>
+        <v>0.03510719245130245</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1265856854449631</v>
+        <v>0.1258999562278339</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02023637039934173</v>
+        <v>0.01552533914432144</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05812844613158577</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02038318838875869</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1273482498151134</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.03451012679668117</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1266791619515837</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.03371399621825466</v>
+        <v>0.02081340845576224</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1267531218749596</v>
+        <v>0.1268577238363482</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02023637039934173</v>
+        <v>0.03404089735565924</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1273482498151134</v>
+        <v>0.1266583896990859</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02009231108211157</v>
+        <v>0.01504807242587847</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05810144197747984</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02019445760813933</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1281108141852638</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.03440925056332086</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1274377198075812</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.03391643265601496</v>
+        <v>0.02065318682474654</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1275121226047498</v>
+        <v>0.1276173509251887</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02009231108211157</v>
+        <v>0.03417946253702014</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1281108141852638</v>
+        <v>0.1274168231703379</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02004454200656659</v>
+        <v>0.01458360453000764</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05807443782337391</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01980236691392867</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1288733785554142</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.03450830644027134</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1281962776635787</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.03381920125063742</v>
+        <v>0.02089556174245136</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1282711233345399</v>
+        <v>0.1283769780140291</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02004454200656659</v>
+        <v>0.03352335271196505</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1288733785554142</v>
+        <v>0.1281752566415899</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0197930880737538</v>
+        <v>0.01413226596715595</v>
       </c>
       <c r="G235" t="n">
+        <v>0.05804743366926798</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01970697054550953</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1296359429255646</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.03410729360070067</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1289548355195762</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.03332232322741779</v>
+        <v>0.02014069649204039</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1290301240643301</v>
+        <v>0.1291366051028695</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0197930880737538</v>
+        <v>0.03257303259707434</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1296359429255646</v>
+        <v>0.1289336901128419</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01983797418472025</v>
+        <v>0.01369438724777121</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05802042951516205</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01950832274226469</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.130398507295715</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.0333062112177771</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1297133933755737</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.03422581981165201</v>
+        <v>0.0200887543566774</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1297891247941203</v>
+        <v>0.1298962321917099</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01983797418472025</v>
+        <v>0.03252896690892798</v>
       </c>
       <c r="O236" t="n">
-        <v>0.130398507295715</v>
+        <v>0.1296921235840939</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01947922524051292</v>
+        <v>0.01327029888230046</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05799342536105612</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01910647774357692</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1311610716658654</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.03340505846466879</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1304719512315712</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.0333297122286359</v>
+        <v>0.02033989861952615</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1305481255239105</v>
+        <v>0.1306558592805503</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01947922524051292</v>
+        <v>0.03149162036410619</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1311610716658654</v>
+        <v>0.1304505570553459</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01941686614217884</v>
+        <v>0.0128603313811913</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05796642120695018</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01890148978882907</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1319236360360158</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.03280383451454388</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1312305090875687</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.03343402170366516</v>
+        <v>0.0197942925637504</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1313071262537007</v>
+        <v>0.1314154863693907</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01941686614217884</v>
+        <v>0.03166145767918904</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1319236360360158</v>
+        <v>0.131208990526598</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01905092179076506</v>
+        <v>0.01246481525489133</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05793941705284426</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.0187934131174039</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1326862004061661</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.03280253854057055</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1319890669435662</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.03353876946203582</v>
+        <v>0.02005209947251391</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1320661269834908</v>
+        <v>0.1321751134582311</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01905092179076506</v>
+        <v>0.03093894357075677</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1326862004061661</v>
+        <v>0.13196742399785</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01908141708731859</v>
+        <v>0.01208273142952068</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05791241289873832</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01868230196868424</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1334487647763165</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.03200116971591699</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1327476247995637</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.03394397672904353</v>
+        <v>0.01931348262898036</v>
       </c>
       <c r="M240" t="n">
-        <v>0.132825127713281</v>
+        <v>0.1329347405470715</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01908141708731859</v>
+        <v>0.03022454275538949</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1334487647763165</v>
+        <v>0.132725857469102</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01890837693288644</v>
+        <v>0.01170631290956536</v>
       </c>
       <c r="G241" t="n">
+        <v>0.0578854087446324</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01856821058205287</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1342113291464669</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.03189972721375137</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1335061826555612</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.03364966472998426</v>
+        <v>0.01967860531631357</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1335841284430712</v>
+        <v>0.1336943676359119</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01890837693288644</v>
+        <v>0.03011871994966736</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1342113291464669</v>
+        <v>0.133484290940354</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01853182622851562</v>
+        <v>0.01133454062114552</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05785840459052646</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01805119319689259</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1349738935166173</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.03159821020724182</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1342647405115588</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.03345585469015366</v>
+        <v>0.01954763081767724</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1343431291728614</v>
+        <v>0.1344539947247523</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01853182622851562</v>
+        <v>0.02862193987017053</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1349738935166173</v>
+        <v>0.134242724411606</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01855178987525319</v>
+        <v>0.01096774507470875</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05783140043642052</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01793130405258619</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1357364578867676</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.03159661786955653</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1350232983675562</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.03386256783484776</v>
+        <v>0.01912072241623514</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1351021299026515</v>
+        <v>0.1352136218135928</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01855178987525319</v>
+        <v>0.02873466723347906</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1357364578867676</v>
+        <v>0.135001157882858</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01826829277414613</v>
+        <v>0.01060625678070261</v>
       </c>
       <c r="G244" t="n">
+        <v>0.0578043962823146</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01780859738851652</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.136499022256918</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.03119494937386366</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1357818562235538</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.03356982538936232</v>
+        <v>0.01929804339515101</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1358611306324417</v>
+        <v>0.1359732489024331</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01826829277414613</v>
+        <v>0.0286573667561732</v>
       </c>
       <c r="O244" t="n">
-        <v>0.136499022256918</v>
+        <v>0.13575959135411</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01798135982624148</v>
+        <v>0.0102504062495742</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05777739212820867</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.0173831274440663</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1372615866270684</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.03069320389333138</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1365404140795513</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.03407764857899315</v>
+        <v>0.01897975703758858</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1366201313622319</v>
+        <v>0.1367328759912735</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01798135982624148</v>
+        <v>0.02749050315483309</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1372615866270684</v>
+        <v>0.136518024825362</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01799101593258624</v>
+        <v>0.009900523991771257</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05775038797410274</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01725494845861839</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1380241509972188</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.03019138060112786</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1372989719355488</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.03408605862903608</v>
+        <v>0.01896602662671168</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1373791320920221</v>
+        <v>0.137492503080114</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01799101593258624</v>
+        <v>0.02723454114603868</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1380241509972188</v>
+        <v>0.1372764582966141</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01769728599422747</v>
+        <v>0.009556940517740885</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05772338381999681</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01712411467155557</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1387867153673692</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.03058947867042131</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1380575297915463</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.03429507676478688</v>
+        <v>0.01855701544568397</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1381381328218122</v>
+        <v>0.1382521301689544</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01769728599422747</v>
+        <v>0.02658994544637039</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1387867153673692</v>
+        <v>0.1380348917678661</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01760019491221218</v>
+        <v>0.009219986337930669</v>
       </c>
       <c r="G248" t="n">
+        <v>0.05769637966589087</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01699068032226064</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1395492797375195</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.03008749727437984</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1388160876475438</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.03410472421154154</v>
+        <v>0.01865288677766919</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1388971335516024</v>
+        <v>0.1390117572577948</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01760019491221218</v>
+        <v>0.02685718077240823</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1395492797375195</v>
+        <v>0.1387933252391181</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01739976758758735</v>
+        <v>0.008889991962788155</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05766937551178495</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01655469965011638</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1403118441076699</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.02978543558617164</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1395746455035413</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.03391502219459569</v>
+        <v>0.01835380390583113</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1396561342813926</v>
+        <v>0.1397713843466352</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01739976758758735</v>
+        <v>0.02603671184073225</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1403118441076699</v>
+        <v>0.1395517587103701</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01729602892140007</v>
+        <v>0.008567287902760477</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05764237135767901</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01651622689450563</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1410744084778203</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.02918329277896489</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1403332033595388</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.03432599193924535</v>
+        <v>0.01875993011333354</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1404151350111828</v>
+        <v>0.1405310114354756</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01729602892140007</v>
+        <v>0.02592900336792281</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1410744084778203</v>
+        <v>0.1403101921816221</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0168890038146973</v>
+        <v>0.008252204668295335</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05761536720357309</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01607531629481117</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1418369728479707</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.02928106802592775</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1410917612155363</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.03413765467078628</v>
+        <v>0.01817142868334012</v>
       </c>
       <c r="M251" t="n">
-        <v>0.141174135740973</v>
+        <v>0.141290638524316</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0168890038146973</v>
+        <v>0.02543452007055985</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1418369728479707</v>
+        <v>0.1410686256528741</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0168787171685261</v>
+        <v>0.00794507276983987</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05758836304946715</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.0157320220904158</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.142599537218121</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.02837876050022833</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1418503190715338</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.03365003161451424</v>
+        <v>0.01818846289901471</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1419331364707631</v>
+        <v>0.1420502656131564</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0168787171685261</v>
+        <v>0.02525372666522369</v>
       </c>
       <c r="O252" t="n">
-        <v>0.142599537218121</v>
+        <v>0.1418270591241261</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01646519388393343</v>
+        <v>0.007646222717841752</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05756135889536123</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01568639852070226</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1433621015882715</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.02837636937503488</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1426088769275313</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.03356314399572513</v>
+        <v>0.01831119604352097</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1426921372005533</v>
+        <v>0.1428098927019968</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01646519388393343</v>
+        <v>0.02388708786849431</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1433621015882715</v>
+        <v>0.1425854925953781</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0163484588619664</v>
+        <v>0.007355985022748167</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05753435474125529</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01543849982505345</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1441246659584218</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.0278738938235156</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1433674347835288</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.03417701303971482</v>
+        <v>0.01843979140002269</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1434511379303435</v>
+        <v>0.1435695197908372</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0163484588619664</v>
+        <v>0.02403506839695196</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1441246659584218</v>
+        <v>0.1433439260666302</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01592853700367199</v>
+        <v>0.007074690195006644</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05750735058714936</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01528838024285213</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1448872303285722</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.0277713330188385</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1441259926395264</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.03429165997177902</v>
+        <v>0.01777441225168358</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1442101386601337</v>
+        <v>0.1443291468796776</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01592853700367199</v>
+        <v>0.02389813296717669</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1448872303285722</v>
+        <v>0.1441023595378821</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01570545321009718</v>
+        <v>0.006802668745064716</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05748034643304343</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01503609401348106</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1456497946987226</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.02716868613417192</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1448845504955238</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.03400710601721363</v>
+        <v>0.0178152218816674</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1449691393899238</v>
+        <v>0.145088773968518</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01570545321009718</v>
+        <v>0.02377674629574872</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1456497946987226</v>
+        <v>0.1448607930091342</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01577923238228905</v>
+        <v>0.006540251183369573</v>
       </c>
       <c r="G257" t="n">
+        <v>0.0574533422789375</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01448169537632311</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.146412359068873</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.02756595234268394</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1456431083515214</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.03412337240131447</v>
+        <v>0.01816238357313793</v>
       </c>
       <c r="M257" t="n">
-        <v>0.145728140119714</v>
+        <v>0.1458484010573585</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01577923238228905</v>
+        <v>0.02267137309924827</v>
       </c>
       <c r="O257" t="n">
-        <v>0.146412359068873</v>
+        <v>0.1456192264803862</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0154498994212946</v>
+        <v>0.006287768020368845</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05742633812483158</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01422523857076102</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1471749234390234</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.02696313081754273</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1464016662075189</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.03444048034937747</v>
+        <v>0.01761606060925888</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1464871408495042</v>
+        <v>0.1466080281461989</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0154498994212946</v>
+        <v>0.02268247809425528</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1471749234390234</v>
+        <v>0.1463776599516382</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01501747922816085</v>
+        <v>0.006045549766509742</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05739933397072564</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01406677783617762</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1479374878091737</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.02686022073191649</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1471602240635164</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.03395845108669832</v>
+        <v>0.01787641627319406</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1472461415792944</v>
+        <v>0.1473676552350393</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01501747922816085</v>
+        <v>0.02251052599735009</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1479374878091737</v>
+        <v>0.1471360934228902</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01478199670393482</v>
+        <v>0.005813926932239789</v>
       </c>
       <c r="G260" t="n">
+        <v>0.0573723298166197</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01370636741195569</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1487000521793241</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.02655722125897336</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1479187819195139</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.03367730583857287</v>
+        <v>0.01784361384810715</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1480051423090845</v>
+        <v>0.1481272823238797</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01478199670393482</v>
+        <v>0.0223559815251127</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1487000521793241</v>
+        <v>0.1478945268941422</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0147434767496635</v>
+        <v>0.005593230028006504</v>
       </c>
       <c r="G261" t="n">
+        <v>0.05734532566251378</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01374406153747804</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1494626165494745</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.02575413157188156</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1486773397755114</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.03429706583029701</v>
+        <v>0.01801781661716192</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1487641430388747</v>
+        <v>0.1488869094127201</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0147434767496635</v>
+        <v>0.02251930939412333</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1494626165494745</v>
+        <v>0.1486529603653942</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01460194426639398</v>
+        <v>0.005383789564257099</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05731832150840784</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01347991445212747</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1502251809196249</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.02555095084380912</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1494358976315089</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.03361775228716651</v>
+        <v>0.01819918786352215</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1495231437686649</v>
+        <v>0.1496465365015605</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01460194426639398</v>
+        <v>0.02130097432096206</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1502251809196249</v>
+        <v>0.1494113938366462</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01425742415517324</v>
+        <v>0.005185936051439181</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05729131735430192</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01301398039528676</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1509877452897752</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.0257476782479244</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1501944554875064</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.03453938643447724</v>
+        <v>0.01818789087035147</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1502821444984551</v>
+        <v>0.1504061635904009</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01425742415517324</v>
+        <v>0.02210144102220918</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1509877452897752</v>
+        <v>0.1501698273078983</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01410994131704829</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05726431320019598</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01274631360633874</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1517503096599256</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.02514431295739544</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1509530133435039</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.03376198949752501</v>
+        <v>0.01768408892081377</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1510411452282453</v>
+        <v>0.1511657906792413</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01410994131704829</v>
+        <v>0.02142117421444473</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1517503096599256</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1509282607791503</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05725115530545914</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005675313954833228</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05725142383392315</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006346852851788432</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05725169236238716</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.007014573292895621</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05725196089085119</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007678431880097689</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0572522294193152</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008338385215424786</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05725249794777922</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.00899438990087794</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05725276647624324</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009646402538486462</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05725303500470726</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01029437973019461</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05725330353317128</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01093827807803188</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05725357206163529</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01157805418399927</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0572538405900993</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01221366465012538</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05725410911856333</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01284506607835591</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05725437764702734</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01347221507071963</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05725464617549136</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01409506822921754</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05725491470395537</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01471358215587751</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0572551832324194</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.0153277134526467</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05725545176088341</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01593741872155316</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05725572028934742</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01654265456459789</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05725598881781144</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01714337758380796</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05725625734627546</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01773954438113211</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05725652587473948</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.0183311115585976</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.0572567944032035</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01891803571820543</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05725706293166751</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01950027346198187</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05725733146013154</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.02007778139187726</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05725759998859555</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.0206506933184139</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05725786851705957</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0212200290945679</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05725813704552358</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02178592253086059</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05725840557398761</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0223483302292438</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05725867410245162</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02290720879174321</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05725894263091563</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02346251482035983</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05725921115937965</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02401420491711864</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05725947968784367</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.0245622356839726</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05725974821630769</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02510656372294687</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05726001674477171</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02564714563604242</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05726028527323572</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0261839380252836</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05726055380169975</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02671689749262465</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05726082233016376</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02724598064009007</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05726109085862777</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02777114406968087</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05726135938709179</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02829234438342065</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05726162791555581</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02880953818326508</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05726189644401983</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02932268207123795</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05726216497248384</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02983173264934025</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05726243350094786</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0303366465195949</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05726270202941188</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03083738028395901</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.0572629705578759</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03133389054445559</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05726323908633991</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03182613390308571</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05726350761480393</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03231406696187153</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05726377614326796</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03279764632277157</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05726404467173197</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0332768285878082</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05726431320019598</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0332768285878082</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05725115530545914</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03378561888208288</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0572786965164931</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03428968782660487</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05730623772752706</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0347889076256465</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05733377893856103</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0352831504834802</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.057361320149595</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.0357722886043783</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05738886136062896</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.03625619419261322</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05741640257166292</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0367347394524575</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.0574439437826969</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03720779658818311</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05747148499373086</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03767523780406271</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05749902620476482</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03813693530436855</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05752656741579879</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03859276129337312</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05755410862683276</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03904258797534872</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05758164983786672</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03948628755456779</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05760919104890069</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03992373223530266</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05763673225993465</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.04035479422182572</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05766427347096861</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04077934571840935</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05769181468200258</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04119725892932595</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05771935589303654</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04160840605884786</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05774689710407051</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04201265931124763</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05777443831510448</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04240989089079733</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05780197952613845</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04279997300176948</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05782952073717242</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04318277784843647</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05785706194820638</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04355817763507065</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05788460315924034</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04392604456594446</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05791214437027431</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04428677267788467</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05793968558130827</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04464336517049043</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05796722679234224</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04499621608058861</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0579947680033762</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04534519761245154</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05802230921441016</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04569018197035163</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05804985042544413</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04603104135856124</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05807739163647809</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04636764798135291</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05810493284751207</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04669987404299872</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05813247405854603</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04702759174777119</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05816001526958</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04735067329994269</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05818755648061397</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.04766899090378561</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05821509769164793</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04798241676357233</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05824263890268189</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.0482908230835752</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05827018011371585</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.04859408206806662</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05829772132474982</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04889206592131896</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05832526253578379</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04918464684760461</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05835280374681775</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04947169705119596</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05838034495785172</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04975308873636534</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05840788616888568</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05002869410738515</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05843542737991964</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05029838536852789</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05846296859095362</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05056203472406572</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05849050980198758</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05081951437827111</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05851805101302155</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.0510706965354164</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05854559222405551</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05131545339977404</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05857313343508948</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05155365717561639</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05860067464612344</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05155365717561639</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05860067464612344</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05298477227092807</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.06023224495456943</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05436508081203113</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.06186381526301542</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05569425403622363</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06349538557146141</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05697196318080365</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.0651269558799074</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05819787948306925</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06675852618835339</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.0593716741803185</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06839009649679936</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.06049301850984949</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07002166680524537</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.06156158370896027</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07165323711369136</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.06257704101494893</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07328480742213733</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.06353906166511356</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07491637773058334</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.06444731689675219</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07654794803902931</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.06530147794716291</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.0781795183474753</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.06610121605364383</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07981108865592129</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.06684620245349294</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.08144265896436727</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06753610838400839</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08307422927281327</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06817060508248823</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08470579958125926</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.06874936378623052</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08633736988970524</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06927205573253334</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08796894019815124</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06973835215869476</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08960051050659723</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.07014792430201286</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.09123208081504321</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0705004433997857</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0928636511234892</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.07079558068931137</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09449522143193519</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.07103300740788793</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09612679174038118</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.07121239479281342</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09775836204882717</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.07140487623415517</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09938993235727316</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.07139573651090368</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1010215026657191</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.07139398990047152</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1026530729741651</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.07129246461656276</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1042846432826111</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.07109062605007967</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1059162135910571</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.07079626136214114</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1075477838995031</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.07041715771386603</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1091793542079491</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06996110226637321</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1108109245163951</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06943588218078155</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1124424948248411</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06884928461820992</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1140740651332871</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06820909673977718</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.115705635441733</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.06752310570660218</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.117337205750179</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.0667990986798038</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.118968776058625</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.06604486282050091</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.120600346367071</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.06526818528981237</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.122231916675517</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.06447685324885706</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.123863486983963</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.06367865385875382</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.125495057292409</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.06288137428062153</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1271266276008549</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.06209280167557905</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.128758197909301</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.06132072320474526</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1303897682177469</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.06057292602923901</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1320213385261929</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05985719731017916</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1336529088346389</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05918132420868462</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1352844791430849</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05855309388587421</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1369160494515309</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05798029350286681</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1385476197599769</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.05747071022078129</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1401791900684229</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.05700760167550029</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1418107603768688</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05654060924810209</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1434423306853148</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.05606936230792711</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1450739009937608</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.05559548372604156</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1467054713022068</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.05512059637351162</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1483370416106528</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05464632312140345</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.05417428684078326</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1516001822275448</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.05370611040271724</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1532317525359908</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.05324341667827157</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1548633228444368</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.05278782853851242</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1564948931528828</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.05234096885450601</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1581264634613287</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.05190446049731851</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1597580337697747</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0514799263380161</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1613896040782207</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.05106898924766497</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1630211743866667</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.0506732720973313</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1646527446951127</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.05029439775808131</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1662843150035587</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04993398910098115</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1679158853120047</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04959366899709702</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1695474556204506</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.0492750603174951</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1711790259288966</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.04897978593324159</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1728105962373426</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.04870946871540266</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1744421665457886</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.04846573153504451</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1760737368542346</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.0482501972632333</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1777053071626806</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.04806448877103527</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1793368774711266</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.04791022892951655</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1809684477795725</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.04778878783282392</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1826000180880186</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.04768170199529831</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1842315883964646</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.04757693210929584</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1858631587049105</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.04747470550877204</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1874947290133565</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.04737524952768252</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1891262993218025</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.04727879149998282</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1907578696302485</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.04718555875962854</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1923894399386945</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.04709577864057522</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1940210102471405</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.04700967847677845</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1956525805555865</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.0469274856021938</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1972841508640324</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.04684942735077682</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1989157211724784</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.04677573105648311</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.2005472914809244</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.04670662405326823</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2021788617893704</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.04664233367508772</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2038104320978164</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.04658308725589716</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2054420024062624</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.04652911212965216</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2070735727147084</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.04648063563030826</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2087051430231544</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.04643788509182101</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2103367133316004</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.04640108784814605</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2119682836400464</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.04637047123323886</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2135998539484923</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.04634626258105505</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2152314242569383</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0463286892255502</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2168629945653843</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.04631797850067987</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2184945648738303</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.04631435774039966</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2201261351822763</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08570243811707759</v>
+        <v>0.1031446287024655</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03570243811707759</v>
+        <v>0.05314462870246547</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008638174646123431</v>
+        <v>0.01285829787674059</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9295,10 +9295,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0002737202533812705</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.004438175227954609</v>
+        <v>0.007890161886257234</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005919260065264994</v>
+        <v>0.001646836715547694</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.005999999999999998</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001016186440677966</v>
+        <v>0.001270233050847456</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01799999999999999</v>
+        <v>0.0154854179775247</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001092673592126844</v>
+        <v>0.0008094687128082</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.02009738147064982</v>
+        <v>0.03000636939906537</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007584334712520114</v>
+        <v>0.001026668879370521</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.008663435633131419</v>
+        <v>0.01452639723942425</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001183852013052999</v>
+        <v>0.003293673431095387</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008079819323641171</v>
+        <v>0.0174681646244358</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.00152512874030076</v>
+        <v>0.003810699152542369</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.02256324930318121</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001519254177680817</v>
+        <v>0.003528425141242936</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03847318224503776</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001516866942504023</v>
+        <v>0.003849191063174111</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01262463897931065</v>
+        <v>0.02530696604879308</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001775778019579498</v>
+        <v>0.004286099292246862</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01181922291649516</v>
+        <v>0.01878524496588817</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00228769311045114</v>
+        <v>0.004804114185976776</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03107793141333975</v>
+        <v>0.03929121102119937</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002278881266521226</v>
+        <v>0.004799858798871759</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.0515244772531106</v>
+        <v>0.05769148839923</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002275300413756034</v>
+        <v>0.004804694466036552</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0162706430302725</v>
+        <v>0.02742907509819238</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002367704026105998</v>
+        <v>0.006587346862190775</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01446755807142179</v>
+        <v>0.02071152137524246</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00305025748060152</v>
+        <v>0.006405485581302369</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.04251958493490418</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003123017217993271</v>
+        <v>0.006399811731829012</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.06361103859485867</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002666672413949406</v>
+        <v>0.006406259288048736</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02530696604879308</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0195503055497972</v>
+        <v>0.03305722945091218</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002959630032632497</v>
+        <v>0.008234183577738469</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01684298251815253</v>
+        <v>0.02221086476223029</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.0038128218507519</v>
+        <v>0.00800685697662796</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03684873698668503</v>
+        <v>0.04590863060897132</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003798135444202043</v>
+        <v>0.007999764664786265</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0582738128459902</v>
+        <v>0.06857038791276815</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003792167356260057</v>
+        <v>0.008007824110060919</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02241248430166497</v>
+        <v>0.04109308425900163</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003551556039158996</v>
+        <v>0.009881020293286162</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.02360162214512117</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004226407627352899</v>
+        <v>0.009608228371953553</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03842114389483525</v>
+        <v>0.04949303423705242</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004557762533042452</v>
+        <v>0.009599717597743519</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06048422173613549</v>
+        <v>0.07330589150823252</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004550600827512068</v>
+        <v>0.009609388932073104</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.04267653171723729</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004286099292246862</v>
+        <v>0.01152785700883386</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01827601954024045</v>
+        <v>0.02510214054218457</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00533795059105266</v>
+        <v>0.01120959976727915</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04014806012825736</v>
+        <v>0.051807482012799</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005317389621882861</v>
+        <v>0.01119967053070077</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0620200625340358</v>
+        <v>0.07645390453652579</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00530903429876408</v>
+        <v>0.01121095375408529</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02679929863728966</v>
+        <v>0.05314462870246547</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.004735408052211995</v>
+        <v>0.01285829787674059</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01921104249818986</v>
+        <v>0.02623076697169004</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.00610051496120304</v>
+        <v>0.01281097116260474</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04183007988446619</v>
+        <v>0.05448666012986275</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006077016710723269</v>
+        <v>0.01279962346365802</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06528243821514745</v>
+        <v>0.08075078215292197</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006067467770016091</v>
+        <v>0.01281251857609747</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02864288867830732</v>
+        <v>0.05414933240304279</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005327334058738495</v>
+        <v>0.01482153043992924</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02002596073276637</v>
+        <v>0.02730584845190705</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00686307933135342</v>
+        <v>0.01441234255793033</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04286779736097643</v>
+        <v>0.05596525478189535</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006836643799563677</v>
+        <v>0.01439957639661528</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.066972451754927</v>
+        <v>0.08423287951269509</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006825901241268102</v>
+        <v>0.01441408339810966</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.03033332775212506</v>
+        <v>0.05631881197075303</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005919260065264994</v>
+        <v>0.01646836715547694</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02042099043914493</v>
+        <v>0.0279457320011051</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.0076256437015038</v>
+        <v>0.01601371395325592</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0448618067553028</v>
+        <v>0.05787795216254829</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007596270888404086</v>
+        <v>0.01599952932957253</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06959120612883063</v>
+        <v>0.0863365517711191</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007584334712520113</v>
+        <v>0.01601564822012184</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.03185544691269748</v>
+        <v>0.05842139734906837</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006511186071791493</v>
+        <v>0.01811520387102463</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02119634781250061</v>
+        <v>0.02886876463755372</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00838820807165418</v>
+        <v>0.01761508534858152</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04611270226496017</v>
+        <v>0.05945943846547333</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008355897977244495</v>
+        <v>0.01759948226252979</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.07093980431231472</v>
+        <v>0.08949815408346806</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008342768183772125</v>
+        <v>0.01761721304213403</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.03319407721397917</v>
+        <v>0.06641879728311252</v>
       </c>
       <c r="G77" t="n">
-        <v>0.007103112078317993</v>
+        <v>0.01976204058657232</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02175224904800842</v>
+        <v>0.02919329337952239</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009150772441804561</v>
+        <v>0.01921645674390711</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04702107808746314</v>
+        <v>0.060544399884322</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009115525066084904</v>
+        <v>0.01919943519548704</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07271934928083557</v>
+        <v>0.091654041605016</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009101201655024135</v>
+        <v>0.01921877786414621</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.03433404970992468</v>
+        <v>0.0662727205180092</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007695038084844491</v>
+        <v>0.02140887730212002</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02248891034084334</v>
+        <v>0.02973766524528061</v>
       </c>
       <c r="K78" t="n">
-        <v>0.009913336811954941</v>
+        <v>0.0208178281392327</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04838752842032659</v>
+        <v>0.06146752261274599</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009875152154925312</v>
+        <v>0.02079938812844429</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07523094400984953</v>
+        <v>0.09314056949103688</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009859635126276148</v>
+        <v>0.02082034268615839</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.03526019545448862</v>
+        <v>0.07294487579888215</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008286964091370991</v>
+        <v>0.02305571401766771</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02320654788618041</v>
+        <v>0.03032022725309787</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01067590118210532</v>
+        <v>0.02241919953455829</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0498126474610652</v>
+        <v>0.0629634928443969</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01063477924376572</v>
+        <v>0.02239934106140154</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07647569147481309</v>
+        <v>0.09469409289680492</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01061806859752816</v>
+        <v>0.02242190750817058</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.03570243811707759</v>
+        <v>0.07739697187085506</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008638174646123431</v>
+        <v>0.02470255073321541</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02380537787919465</v>
+        <v>0.03075932642124368</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0114384655522557</v>
+        <v>0.02402057092988388</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05089702940719384</v>
+        <v>0.06326699677292633</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01139440633260613</v>
+        <v>0.0239992939943588</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07895469465118238</v>
+        <v>0.09575096697759383</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01137650206878017</v>
+        <v>0.02402347233018276</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.03662417416706776</v>
+        <v>0.0745907174790517</v>
       </c>
       <c r="G81" t="n">
-        <v>0.00947081610442399</v>
+        <v>0.0263493874487631</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02438561651506106</v>
+        <v>0.0312737216340082</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01220102992240608</v>
+        <v>0.02562194232520948</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05204126845622711</v>
+        <v>0.06441668628210656</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01215403342144654</v>
+        <v>0.02559924692731605</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08086905651441384</v>
+        <v>0.09705903727758725</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01213493554003218</v>
+        <v>0.02562503715219494</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03724544477288834</v>
+        <v>0.08648782136859576</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01006274211095049</v>
+        <v>0.02799622416431079</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02484747998895469</v>
+        <v>0.03177666030757262</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01296359429255646</v>
+        <v>0.02722331372053507</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05274595880567984</v>
+        <v>0.0654428025906415</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01291366051028695</v>
+        <v>0.0271991998602733</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08231988003996388</v>
+        <v>0.0992184383380606</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01289336901128419</v>
+        <v>0.02722660197420713</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.03783947849742363</v>
+        <v>0.08904999228461094</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01065466811747699</v>
+        <v>0.02964306087985849</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02549118449605049</v>
+        <v>0.03216695826699988</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01372615866270684</v>
+        <v>0.02882468511586066</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05411169465306676</v>
+        <v>0.06614205604678389</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01367328759912735</v>
+        <v>0.02879915279323056</v>
       </c>
       <c r="N83" t="n">
-        <v>0.08390826820328884</v>
+        <v>0.0998385257346131</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0136518024825362</v>
+        <v>0.02882816679621931</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03840716659347278</v>
+        <v>0.08623893897222104</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01124659412400349</v>
+        <v>0.03128989759540618</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02591694623152353</v>
+        <v>0.03224205729379838</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01448872303285722</v>
+        <v>0.03042605651118625</v>
       </c>
       <c r="L84" t="n">
-        <v>0.05483907019590267</v>
+        <v>0.06680918659589924</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01443291468796776</v>
+        <v>0.03039910572618781</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08503532397984492</v>
+        <v>0.1012113066757658</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01441023595378821</v>
+        <v>0.03042973161823149</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03894940031383494</v>
+        <v>0.0840163701765497</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01183852013052999</v>
+        <v>0.03293673431095388</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02662498139054882</v>
+        <v>0.03259939916947652</v>
       </c>
       <c r="K85" t="n">
-        <v>0.0152512874030076</v>
+        <v>0.03202742790651184</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05612867963170229</v>
+        <v>0.06773893418335294</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01519254177680817</v>
+        <v>0.03199905865914506</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08690215034508864</v>
+        <v>0.1025287883700399</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01516866942504023</v>
+        <v>0.03203129644024368</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03946707091130926</v>
+        <v>0.0863837359286663</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01243044613705649</v>
+        <v>0.03458357102650157</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02701550616830134</v>
+        <v>0.03313642567554273</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01601385177315798</v>
+        <v>0.03362879930183744</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05688111715798039</v>
+        <v>0.06862603875451062</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01595216886564858</v>
+        <v>0.03359901159210232</v>
       </c>
       <c r="N86" t="n">
-        <v>0.08850985027447617</v>
+        <v>0.1034829780259562</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01592710289629224</v>
+        <v>0.03363286126225586</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03996106963869486</v>
+        <v>0.09564580777960682</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01302237214358299</v>
+        <v>0.03623040774204926</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02738873675995612</v>
+        <v>0.03345057859350538</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01677641614330836</v>
+        <v>0.03523017069716303</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05839697697225171</v>
+        <v>0.06926524025473768</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01671179595448899</v>
+        <v>0.03519896452505957</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08945952674346397</v>
+        <v>0.1040658828520361</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01668553636754425</v>
+        <v>0.03523442608426805</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.04043228774879092</v>
+        <v>0.09586741534973162</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01361429815010948</v>
+        <v>0.03787724445759696</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02794488936068819</v>
+        <v>0.0337392997048729</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01753898051345874</v>
+        <v>0.03683154209248862</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05907685327203097</v>
+        <v>0.0692512786293997</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0174714230433294</v>
+        <v>0.03679891745801683</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09115228272750842</v>
+        <v>0.1046695100568004</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01744396983879626</v>
+        <v>0.03683599090628023</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.04088161649439657</v>
+        <v>0.09404009367422023</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01420622415663599</v>
+        <v>0.03952408117314465</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02838418016567257</v>
+        <v>0.03380003079115372</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01830154488360912</v>
+        <v>0.03843291348781421</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05952134025483299</v>
+        <v>0.0697788938238621</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01823105013216981</v>
+        <v>0.03839887039097407</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09238922120206577</v>
+        <v>0.1064858668487701</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01820240331004827</v>
+        <v>0.03843755572829242</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04130994712831097</v>
+        <v>0.09715537778825217</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01479815016316248</v>
+        <v>0.04117091788869234</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02890682537008425</v>
+        <v>0.03403021363385618</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0190641092537595</v>
+        <v>0.04003428488313981</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06033103211817253</v>
+        <v>0.07024282578349039</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01899067722101021</v>
+        <v>0.03999882332393133</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09357144514259247</v>
+        <v>0.1069069604364666</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01896083678130028</v>
+        <v>0.0400391205503046</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04171817090333325</v>
+        <v>0.100204802727007</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01539007616968898</v>
+        <v>0.04281775460424003</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02931304116909825</v>
+        <v>0.03442729001448874</v>
       </c>
       <c r="K91" t="n">
-        <v>0.01982667362390988</v>
+        <v>0.0416356562784654</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06120652305956426</v>
+        <v>0.07113781445365006</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01975030430985062</v>
+        <v>0.04159877625688858</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09380005752454473</v>
+        <v>0.1073247980284107</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0197192702525523</v>
+        <v>0.04164068537231678</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04210717907226258</v>
+        <v>0.1001799035256642</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01598200217621549</v>
+        <v>0.04446459131978773</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02950304375788959</v>
+        <v>0.0344887017145598</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02058923799406026</v>
+        <v>0.04323702767379099</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06204840727652294</v>
+        <v>0.07125859977970664</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02050993139869103</v>
+        <v>0.04319872918984584</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09527616132337902</v>
+        <v>0.1077313868331235</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0204777037238043</v>
+        <v>0.04324225019432897</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04247786288789809</v>
+        <v>0.09607221521940337</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01657392818274198</v>
+        <v>0.04611142803533543</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0300770493316333</v>
+        <v>0.03451189051557776</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02135180236421064</v>
+        <v>0.04483839906911659</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06245727896656345</v>
+        <v>0.07179992170702559</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02126955848753144</v>
+        <v>0.04479868212280309</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09670085951455165</v>
+        <v>0.1081187340591261</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02123613719505632</v>
+        <v>0.04484381501634115</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04283111360303894</v>
+        <v>0.09887327284340397</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01716585418926848</v>
+        <v>0.04775826475088311</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03023527408550435</v>
+        <v>0.03493632924887161</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02211436673436102</v>
+        <v>0.04643977046444218</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06353373232720044</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02202918557637185</v>
+        <v>0.04639863505576034</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09757525507351883</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02199457066630833</v>
+        <v>0.04644537983835334</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04316782247048427</v>
+        <v>0.1025746114328456</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01775778019579498</v>
+        <v>0.04940510146643081</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03067793421467781</v>
+        <v>0.03473336654648801</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0228769311045114</v>
+        <v>0.04804114185976777</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06387836155594867</v>
+        <v>0.07172313514691261</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02278881266521226</v>
+        <v>0.0479985879887176</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09860045097573716</v>
+        <v>0.108603732609085</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02275300413756034</v>
+        <v>0.04804694466036552</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04348888074303323</v>
+        <v>0.1051677660229078</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01834970620232148</v>
+        <v>0.05105193818197851</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03090524591432867</v>
+        <v>0.03493164524121431</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02363949547466178</v>
+        <v>0.04964251325509336</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06459176085032292</v>
+        <v>0.0715106000476573</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02354843975405267</v>
+        <v>0.04959854092167485</v>
       </c>
       <c r="N96" t="n">
-        <v>0.09927755019666273</v>
+        <v>0.109100344522628</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02351143760881235</v>
+        <v>0.0496485094823777</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.04379517967348495</v>
+        <v>0.10464427164877</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01894163220884798</v>
+        <v>0.0526987748975262</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03121742537963192</v>
+        <v>0.03490635663665388</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02440205984481216</v>
+        <v>0.05124388465041895</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06547452440783794</v>
+        <v>0.07185200057741767</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02430806684289308</v>
+        <v>0.0511984938546321</v>
       </c>
       <c r="N97" t="n">
-        <v>0.09940765571175203</v>
+        <v>0.1090227064034878</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02426987108006436</v>
+        <v>0.05125007430438989</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04408761051463859</v>
+        <v>0.09899566334561175</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01953355821537448</v>
+        <v>0.05434561161307389</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03161468880576263</v>
+        <v>0.03456033985042177</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02516462421496254</v>
+        <v>0.05284525604574455</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06612724642600848</v>
+        <v>0.07155115372616011</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02506769393173348</v>
+        <v>0.05279844678758935</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1011918704964614</v>
+        <v>0.1085802288757134</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02502830455131637</v>
+        <v>0.05285163912640208</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.04436706451929331</v>
+        <v>0.1062892574049309</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02012548422190098</v>
+        <v>0.05599244832862158</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03189725238789577</v>
+        <v>0.03459494313743797</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02592718858511292</v>
+        <v>0.05444662744107014</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06655052110234927</v>
+        <v>0.07161083169436863</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02582732102057389</v>
+        <v>0.05439839972054661</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1011312975262472</v>
+        <v>0.1082771243709137</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02578673802256838</v>
+        <v>0.05445320394841426</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04463443294024826</v>
+        <v>0.1022892450929523</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02071741022842748</v>
+        <v>0.05763928504416928</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03216533232120637</v>
+        <v>0.0344115147526225</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0266897529552633</v>
+        <v>0.05604799883639573</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06664494263437512</v>
+        <v>0.07123380668252707</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0265869481094143</v>
+        <v>0.05599835265350386</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1017270397765657</v>
+        <v>0.1076176053206973</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0265451714938204</v>
+        <v>0.05605476877042644</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04489060703030257</v>
+        <v>0.09625399962875361</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02130933623495398</v>
+        <v>0.05928612175971697</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03251914480086945</v>
+        <v>0.03461140295089532</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02745231732541368</v>
+        <v>0.05764937023172132</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06701110521960071</v>
+        <v>0.07062285089111947</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02734657519825471</v>
+        <v>0.05759830558646111</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1022802002228733</v>
+        <v>0.107805884156673</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02730360496507241</v>
+        <v>0.05765633359243862</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04513647804225539</v>
+        <v>0.09814932982945451</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02190126224148048</v>
+        <v>0.06093295847526466</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03245890602206</v>
+        <v>0.03449595598717649</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02821488169556407</v>
+        <v>0.05925074162704691</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06814960305554085</v>
+        <v>0.07088073652062979</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02810620228709512</v>
+        <v>0.05919825851941837</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1038918818406263</v>
+        <v>0.1067461733104494</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02806203843632442</v>
+        <v>0.05925789841445081</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04537293722890585</v>
+        <v>0.1039797032501107</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02249318824800698</v>
+        <v>0.06257979519081236</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03288483217995306</v>
+        <v>0.03416652211638595</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02897744606571444</v>
+        <v>0.0608521130223725</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06796103033971027</v>
+        <v>0.07011023577154191</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02886582937593552</v>
+        <v>0.06079821145237562</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1038631876052812</v>
+        <v>0.1073426852136354</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02882047190757643</v>
+        <v>0.06085946323646298</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04560087584305315</v>
+        <v>0.1017495811712988</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02308511425453348</v>
+        <v>0.06422663190636006</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03319713946972365</v>
+        <v>0.03402444959344372</v>
       </c>
       <c r="K104" t="n">
-        <v>0.02974001043586482</v>
+        <v>0.06245348441769809</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06854598126962375</v>
+        <v>0.07021412084433984</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02962545646477594</v>
+        <v>0.06239816438533288</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1042952204922941</v>
+        <v>0.1060996322978396</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02957890537882844</v>
+        <v>0.06246102805847518</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04582118513749638</v>
+        <v>0.1024634248735951</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02367704026105998</v>
+        <v>0.06587346862190775</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03329604408654675</v>
+        <v>0.03397108667326984</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0305025748060152</v>
+        <v>0.06405485581302368</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06930505004279605</v>
+        <v>0.06989516393950748</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03038508355361634</v>
+        <v>0.06399811731829012</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1047890834771216</v>
+        <v>0.1059212269946709</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03033733885008045</v>
+        <v>0.06406259288048735</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04603475636503471</v>
+        <v>0.09912569563757609</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02426896626758648</v>
+        <v>0.06752030533745544</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03348176222559741</v>
+        <v>0.03370778161078426</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03126513917616558</v>
+        <v>0.06565622720834929</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06963883085674186</v>
+        <v>0.06965613725752881</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03114471064245675</v>
+        <v>0.06559807025124738</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1057458795352197</v>
+        <v>0.1053116817357378</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03109577232133247</v>
+        <v>0.06566415770249955</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04624248077846731</v>
+        <v>0.09774085474381816</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02486089227411297</v>
+        <v>0.06916714205300313</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03375451008205065</v>
+        <v>0.033635882660907</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03202770354631596</v>
+        <v>0.06725759860367488</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06954791790897599</v>
+        <v>0.06929981299888777</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03190433773129717</v>
+        <v>0.06719802318420463</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1060667116420451</v>
+        <v>0.1050752089526492</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03185420579258448</v>
+        <v>0.06726572252451173</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04644553340726504</v>
+        <v>0.1013133634728978</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02545281828063947</v>
+        <v>0.07081397876855083</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03391450385108144</v>
+        <v>0.03325673807855808</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03279026791646635</v>
+        <v>0.06885896999900047</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07023290539701316</v>
+        <v>0.06892896336406831</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03266396482013757</v>
+        <v>0.06879797611716189</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1064526827730539</v>
+        <v>0.1045160210770137</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03261263926383649</v>
+        <v>0.06886728734652391</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04664707494006375</v>
+        <v>0.1008476831053915</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02604474428716597</v>
+        <v>0.07246081548409852</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03376195972786483</v>
+        <v>0.03307169611865746</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03355283228661672</v>
+        <v>0.07046034139432607</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06989438751836816</v>
+        <v>0.06834636055355439</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03342359190897798</v>
+        <v>0.07039792905011914</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1065048959037027</v>
+        <v>0.1032383305404402</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0333710727350885</v>
+        <v>0.0704688521685361</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04684769038544608</v>
+        <v>0.1033482749218756</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02663667029369247</v>
+        <v>0.07410765219964621</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03409709390757582</v>
+        <v>0.03288210503612515</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0343153966567671</v>
+        <v>0.07206171278965165</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07073295847055575</v>
+        <v>0.06805477676782998</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03418321899781838</v>
+        <v>0.0719978819830764</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1073244540094477</v>
+        <v>0.1027463497745372</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03412950620634051</v>
+        <v>0.07207041699054828</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04704728046392259</v>
+        <v>0.1008196002029265</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02722859630021897</v>
+        <v>0.07575448891519392</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03402012258538946</v>
+        <v>0.03278931308588118</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03507796102691748</v>
+        <v>0.07366308418497725</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0703492124510906</v>
+        <v>0.06755698420737893</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0349428460866588</v>
+        <v>0.07359783491603365</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1077124600657451</v>
+        <v>0.1020442912109136</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03488793967759252</v>
+        <v>0.07367198181256046</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04724574589600386</v>
+        <v>0.0942661202291207</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02782052230674547</v>
+        <v>0.0774013256307416</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03423126195648069</v>
+        <v>0.03279466852284553</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03584052539706786</v>
+        <v>0.07526445558030284</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07114374365748757</v>
+        <v>0.06735575507268535</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0357024731754992</v>
+        <v>0.07519778784899091</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1079700170480515</v>
+        <v>0.102336367281178</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03564637314884454</v>
+        <v>0.07527354663457264</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04744298740220045</v>
+        <v>0.0916922962810347</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02841244831327197</v>
+        <v>0.07904816234628929</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03423072821602462</v>
+        <v>0.03249951960193821</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03660308976721825</v>
+        <v>0.07686582697562842</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07081714628726138</v>
+        <v>0.06695386156423305</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03646210026433962</v>
+        <v>0.07679774078194815</v>
       </c>
       <c r="N113" t="n">
-        <v>0.108098227931823</v>
+        <v>0.1018267904169393</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03640480662009654</v>
+        <v>0.07687511145658484</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04763890570302291</v>
+        <v>0.09510258963924487</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02900437431979847</v>
+        <v>0.08069499906183698</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03441873755919618</v>
+        <v>0.03220521457807919</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03736565413736862</v>
+        <v>0.07846719837095402</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07107001453792672</v>
+        <v>0.06655407588250603</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03722172735318002</v>
+        <v>0.0783976937149054</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1073981956925162</v>
+        <v>0.100319773049806</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03716324009134855</v>
+        <v>0.07847667627859702</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04783340151898183</v>
+        <v>0.09450146158432765</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02959630032632497</v>
+        <v>0.08234183577738467</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03439550618117045</v>
+        <v>0.03201310170618851</v>
       </c>
       <c r="K115" t="n">
-        <v>0.038128218507519</v>
+        <v>0.08006856976627962</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07110294260699845</v>
+        <v>0.06595862417305987</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03798135444202043</v>
+        <v>0.07999764664786266</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1082710233055872</v>
+        <v>0.100319527611387</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03792167356260057</v>
+        <v>0.0800782411006092</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04802637557058774</v>
+        <v>0.09289337339685946</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03018822633285147</v>
+        <v>0.08398867249293238</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03466125027712239</v>
+        <v>0.03200764465073105</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03889078287766938</v>
+        <v>0.0816699411616052</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07141652469199128</v>
+        <v>0.06532745602436896</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03874098153086084</v>
+        <v>0.08159759958081991</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1080178137464926</v>
+        <v>0.09897939162433045</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03868010703385258</v>
+        <v>0.08167980592262139</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04821772857835123</v>
+        <v>0.08928278635741677</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03078015233937796</v>
+        <v>0.08563550920848007</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03461618604222705</v>
+        <v>0.03167466972773297</v>
       </c>
       <c r="K117" t="n">
-        <v>0.03965334724781976</v>
+        <v>0.08327131255693079</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07151135499041991</v>
+        <v>0.06524083898186597</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03950060861970125</v>
+        <v>0.08319755251377717</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1084396699906884</v>
+        <v>0.09865308184119814</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03943854050510459</v>
+        <v>0.08328137074463356</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04840736126278286</v>
+        <v>0.090674161746576</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03137207834590447</v>
+        <v>0.08728234592402777</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03456052967165944</v>
+        <v>0.03141856812117538</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04041591161797015</v>
+        <v>0.08487268395225639</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07138802769979916</v>
+        <v>0.06470780520610325</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04026023570854166</v>
+        <v>0.08479750544673442</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1082376950136314</v>
+        <v>0.09775428107351264</v>
       </c>
       <c r="O118" t="n">
-        <v>0.0401969739763566</v>
+        <v>0.08488293556664575</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04859517434439319</v>
+        <v>0.09407196084491362</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03196400435243097</v>
+        <v>0.08892918263957546</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03469449736059455</v>
+        <v>0.03094373260675166</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04117847598812052</v>
+        <v>0.08647405534758197</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07124713701764379</v>
+        <v>0.06393738685763309</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04101986279738207</v>
+        <v>0.08639745837969168</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1089129917907776</v>
+        <v>0.09759671392698904</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04095540744760861</v>
+        <v>0.08648450038865793</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04878106854369278</v>
+        <v>0.09443792214913413</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03255593035895746</v>
+        <v>0.09057601935512316</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03491830530420743</v>
+        <v>0.03075455596015507</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0419410403582709</v>
+        <v>0.08807542674290757</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07158927714146845</v>
+        <v>0.06363861609700786</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04177948988622247</v>
+        <v>0.08799741131264892</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1090666632975834</v>
+        <v>0.09629410500734276</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04171384091886062</v>
+        <v>0.08808606521067013</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.0489649445811922</v>
+        <v>0.08971495028589588</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03314785636548397</v>
+        <v>0.09222285607067085</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.03035543095707893</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04270360472842128</v>
+        <v>0.08967679813823318</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.06282052508477981</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04253911697506289</v>
+        <v>0.08959736424560617</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.09536017892028886</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04247227439011264</v>
+        <v>0.08968763003268231</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04914670317740201</v>
+        <v>0.09191671871341769</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03373978237201047</v>
+        <v>0.09386969278621854</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03483630470331359</v>
+        <v>0.03015075037321656</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04346616909857166</v>
+        <v>0.09127816953355876</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07152502659711724</v>
+        <v>0.0624921459815013</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04329874406390329</v>
+        <v>0.09119731717856343</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1085135424019996</v>
+        <v>0.09400866027154242</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04323070786136465</v>
+        <v>0.09128919485469449</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0493262450528328</v>
+        <v>0.0940577628170978</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03433170837853696</v>
+        <v>0.09551652950176623</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03493047628105998</v>
+        <v>0.02994490698426132</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04422873346872205</v>
+        <v>0.09287954092888435</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07171418304978958</v>
+        <v>0.06126251094772461</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04405837115274371</v>
+        <v>0.09279727011152068</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1085975877665994</v>
+        <v>0.09375327366681885</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04398914133261666</v>
+        <v>0.09289075967670668</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04950347092799509</v>
+        <v>0.09215261798233443</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03492363438506346</v>
+        <v>0.09716336621731393</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0349146837208464</v>
+        <v>0.02974229356590645</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04499129783887242</v>
+        <v>0.09448091232420995</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07197356500010879</v>
+        <v>0.06114065214400208</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04481799824158411</v>
+        <v>0.09439722304447794</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1087267570743626</v>
+        <v>0.09190774371183325</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04474757480386867</v>
+        <v>0.09449232449871885</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04967828152339948</v>
+        <v>0.08621581959452573</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03551556039158996</v>
+        <v>0.09881020293286162</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0345893254251515</v>
+        <v>0.02924730289384532</v>
       </c>
       <c r="K125" t="n">
-        <v>0.0457538622090228</v>
+        <v>0.09608228371953553</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07130412039505518</v>
+        <v>0.060135601730886</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04557762533042452</v>
+        <v>0.09599717597743519</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1082023235134406</v>
+        <v>0.09178579501230077</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04550600827512068</v>
+        <v>0.09609388932073104</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04985057755955653</v>
+        <v>0.08526190303907002</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03610748639811646</v>
+        <v>0.1004570396484093</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03455479979645393</v>
+        <v>0.02906432774377124</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04651642657917318</v>
+        <v>0.09768365511486113</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07140697870854337</v>
+        <v>0.05975639186892875</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04633725241926492</v>
+        <v>0.09759712891039245</v>
       </c>
       <c r="N126" t="n">
-        <v>0.108326723313075</v>
+        <v>0.09050115217393662</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0462644417463727</v>
+        <v>0.09769545414274322</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05002025975697678</v>
+        <v>0.08430540370136536</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03669941240464297</v>
+        <v>0.102103876363957</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03461150523723232</v>
+        <v>0.02868634301360098</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04727899094932356</v>
+        <v>0.09928502651018672</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07108326941448823</v>
+        <v>0.0592794408146157</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04709687950810534</v>
+        <v>0.0991970818433497</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1084023927025075</v>
+        <v>0.08943358208267849</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0470228752176247</v>
+        <v>0.0992970189647554</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05018722883617083</v>
+        <v>0.08036085696681004</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03729133841116946</v>
+        <v>0.1037507130795047</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03475984014996535</v>
+        <v>0.02848341044978867</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04804155531947394</v>
+        <v>0.1008863979055123</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07113412198680444</v>
+        <v>0.05874950024360484</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04785650659694574</v>
+        <v>0.1007970347763069</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1081317679109797</v>
+        <v>0.08878859632588226</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04778130868887671</v>
+        <v>0.1008985837867676</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0503513855176492</v>
+        <v>0.07944279822080229</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03788326441769596</v>
+        <v>0.1053975497950524</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03440020293713168</v>
+        <v>0.02795929848493381</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04880411968962432</v>
+        <v>0.1024877693008379</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07076066589940674</v>
+        <v>0.0579775322085741</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04861613368578616</v>
+        <v>0.1023969877092642</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1073172851677332</v>
+        <v>0.08817712381865889</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04853974216012873</v>
+        <v>0.1025001486087798</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05051263052192249</v>
+        <v>0.08156576284874023</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03847519042422246</v>
+        <v>0.1070443865106001</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03433299200120994</v>
+        <v>0.02762029537872827</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0495666840597747</v>
+        <v>0.1040891406961635</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07096403062620985</v>
+        <v>0.05747646625000016</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04937576077462656</v>
+        <v>0.1039969406422215</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1071613807020098</v>
+        <v>0.08721881133811044</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04929817563138074</v>
+        <v>0.104101713430792</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05067086456950128</v>
+        <v>0.0876831579807309</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03906711643074896</v>
+        <v>0.1086912232261478</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03425860574467879</v>
+        <v>0.02727268939086389</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05032924842992508</v>
+        <v>0.1056905120914891</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07074534564112855</v>
+        <v>0.05665923190835964</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05013538786346697</v>
+        <v>0.1055968935751787</v>
       </c>
       <c r="N131" t="n">
-        <v>0.106166490743051</v>
+        <v>0.08543330566133878</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05005660910263274</v>
+        <v>0.1057032782528042</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05082598838089608</v>
+        <v>0.07671784134365441</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03965904243727546</v>
+        <v>0.1103380599416955</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03417744257001687</v>
+        <v>0.02722276878103252</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05109181280007546</v>
+        <v>0.1072918834868147</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07050574041807758</v>
+        <v>0.05583875872412913</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05089501495230738</v>
+        <v>0.107196846508136</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1067350515200984</v>
+        <v>0.0846402535654458</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05081504257388476</v>
+        <v>0.1073048430748163</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0509779026766175</v>
+        <v>0.08568948358543241</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04025096844380196</v>
+        <v>0.1119848966572432</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03408990087970286</v>
+        <v>0.02677682180892603</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05185437717022584</v>
+        <v>0.1088932548821403</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07024634443097166</v>
+        <v>0.05502797623778527</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05165464204114779</v>
+        <v>0.1087967994410932</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1052694992623938</v>
+        <v>0.08355930182753363</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05157347604513677</v>
+        <v>0.1089064078968285</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05112650817717607</v>
+        <v>0.08461889211452059</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04084289445032846</v>
+        <v>0.1136317333727909</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03419637907621537</v>
+        <v>0.02654113673423625</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05261694154037622</v>
+        <v>0.1104946262774659</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07016828715372553</v>
+        <v>0.05393981398980466</v>
       </c>
       <c r="M134" t="n">
-        <v>0.0524142691299882</v>
+        <v>0.1103967523740505</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1050722701991787</v>
+        <v>0.08251009722470398</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05233190951638878</v>
+        <v>0.1105079727188407</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0512717056030824</v>
+        <v>0.08352687433937464</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04143482045685496</v>
+        <v>0.1152785700883386</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03399727556203311</v>
+        <v>0.02602200181665502</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0533795059105266</v>
+        <v>0.1120959976727915</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06927269806025393</v>
+        <v>0.05368720152066395</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05317389621882861</v>
+        <v>0.1119967053070077</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1049458005596947</v>
+        <v>0.08141228653405891</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05309034298764079</v>
+        <v>0.1121095375408529</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05141339567484701</v>
+        <v>0.07343423766845029</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04202674646338145</v>
+        <v>0.1169254068038863</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03409298873963468</v>
+        <v>0.02592570531587424</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05414207028067698</v>
+        <v>0.113697369068117</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0691607066244716</v>
+        <v>0.05338306837083975</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05393352330766901</v>
+        <v>0.113596658239965</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1041925265731836</v>
+        <v>0.08048551653270036</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05384877645889281</v>
+        <v>0.1137111023628651</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05155147911298048</v>
+        <v>0.07936178951020315</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04261867246990796</v>
+        <v>0.1185722435194339</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03368391701149877</v>
+        <v>0.02545853549158572</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05490463465082736</v>
+        <v>0.1152987404634426</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06903344232029329</v>
+        <v>0.05214034408080867</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05469315039650942</v>
+        <v>0.1151966111729222</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1041148844688869</v>
+        <v>0.07974943399773027</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05460720993014481</v>
+        <v>0.1153126671848772</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05168585663799338</v>
+        <v>0.07733033727308899</v>
       </c>
       <c r="G138" t="n">
-        <v>0.04321059847643446</v>
+        <v>0.1202190802349816</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03357045878010399</v>
+        <v>0.02542678060348133</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05566719902097774</v>
+        <v>0.1169001118587682</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06849203462163375</v>
+        <v>0.05167195819104736</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05545277748534983</v>
+        <v>0.1167965641058795</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1031153104760463</v>
+        <v>0.07932368570625048</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05536564340139683</v>
+        <v>0.1169142320068894</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05181642897039627</v>
+        <v>0.07336068836556346</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04380252448296095</v>
+        <v>0.1218659169505293</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03355301244792902</v>
+        <v>0.02493672891125291</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05642976339112813</v>
+        <v>0.1185014832540938</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06853761300240768</v>
+        <v>0.05129084024203243</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05621240457419024</v>
+        <v>0.1183965170388367</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1019962408239034</v>
+        <v>0.0781279184353631</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05612407687264884</v>
+        <v>0.1185157968289016</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05194309683069971</v>
+        <v>0.06947365019608229</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04439445048948745</v>
+        <v>0.123512753666077</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03353197641745252</v>
+        <v>0.02509466867459229</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05719232776127851</v>
+        <v>0.1201028546494194</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06777130693652983</v>
+        <v>0.05120991977424053</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05697203166303065</v>
+        <v>0.119996469971794</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1015601117416998</v>
+        <v>0.0778817789621698</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05688251034390085</v>
+        <v>0.1201173616509138</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05206576093941427</v>
+        <v>0.06869003017310113</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04498637649601395</v>
+        <v>0.1251595903816247</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03320774909115314</v>
+        <v>0.02470688815319137</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05795489213142888</v>
+        <v>0.121704226044745</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06719424589791501</v>
+        <v>0.05114212632814821</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05773165875187105</v>
+        <v>0.1215964229047512</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1006093594586772</v>
+        <v>0.07790491406377281</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05764094381515285</v>
+        <v>0.121718926472926</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05218432201705052</v>
+        <v>0.07003063570507569</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04557830250254045</v>
+        <v>0.1268064270971724</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03318072887150948</v>
+        <v>0.02467950449778715</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05871745650157927</v>
+        <v>0.1233055974400706</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06670755936047781</v>
+        <v>0.05089836070735948</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05849128584071146</v>
+        <v>0.1231963758377085</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09994642020407724</v>
+        <v>0.07721662005702934</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05839937728640487</v>
+        <v>0.1233204912949382</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.05229868078411902</v>
+        <v>0.06951627420046164</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04617022850906696</v>
+        <v>0.1284532638127201</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03315131416100027</v>
+        <v>0.02488499784400917</v>
       </c>
       <c r="K143" t="n">
-        <v>0.05948002087172964</v>
+        <v>0.1249069688353962</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06631237679813312</v>
+        <v>0.05091175659426064</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05925091292955188</v>
+        <v>0.1247963287706658</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09927373020714148</v>
+        <v>0.07783334751524168</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05915781075765688</v>
+        <v>0.1249220561169504</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05240873796113033</v>
+        <v>0.07616775306771474</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04676215451559346</v>
+        <v>0.1301001005282678</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03291990336210411</v>
+        <v>0.02499967109050051</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06024258524188002</v>
+        <v>0.1265083402307218</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06640982768479561</v>
+        <v>0.05104394245585248</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06001054001839229</v>
+        <v>0.126396281703623</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09909372569711161</v>
+        <v>0.07787877390494286</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0599162442289089</v>
+        <v>0.1265236209389625</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05251439426859501</v>
+        <v>0.0700058797152906</v>
       </c>
       <c r="G145" t="n">
-        <v>0.04735408052211995</v>
+        <v>0.1317469372438155</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03278689487729967</v>
+        <v>0.0248230621782296</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0610051496120304</v>
+        <v>0.1281097116260474</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06580104149438004</v>
+        <v>0.05089396823421052</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06077016710723269</v>
+        <v>0.1279962346365802</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09790884290322927</v>
+        <v>0.07775145558810803</v>
       </c>
       <c r="O145" t="n">
-        <v>0.0606746777001609</v>
+        <v>0.1281251857609747</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05261555042702364</v>
+        <v>0.0690045178839841</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04794600652864645</v>
+        <v>0.1333937739593632</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03285268710906562</v>
+        <v>0.02475470904816494</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06176771398218078</v>
+        <v>0.129711083021373</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06568714770080111</v>
+        <v>0.05106088387141047</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06152979419607309</v>
+        <v>0.1295961875695375</v>
       </c>
       <c r="N146" t="n">
-        <v>0.0973215180547361</v>
+        <v>0.07754994892671269</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06143311117141292</v>
+        <v>0.1297267505829869</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05271210715692677</v>
+        <v>0.06904093411332464</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04853793253517295</v>
+        <v>0.1350406106749109</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03261767845988058</v>
+        <v>0.02499414964127492</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06253027835233116</v>
+        <v>0.1313124544166986</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06526927577797362</v>
+        <v>0.0517437393095278</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06228942128491351</v>
+        <v>0.1311961405024948</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09673418738087364</v>
+        <v>0.07757281028273177</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06219154464266494</v>
+        <v>0.1313283154049991</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05280396517881498</v>
+        <v>0.07410587910464379</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04912985854169945</v>
+        <v>0.1366874473904586</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03228226733222322</v>
+        <v>0.02484092189852805</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06329284272248153</v>
+        <v>0.1329138258120242</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06474855519981224</v>
+        <v>0.05144158449063824</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06304904837375391</v>
+        <v>0.132796093435452</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09594928711088369</v>
+        <v>0.07801859601814082</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06294997811391694</v>
+        <v>0.1329298802270113</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05289102521319881</v>
+        <v>0.0761978239371477</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04972178454822595</v>
+        <v>0.1383342841060063</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03234685212857216</v>
+        <v>0.02509456376089272</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06405540709263192</v>
+        <v>0.1345151972073498</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06382611544023181</v>
+        <v>0.05185346935681731</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06380867546259433</v>
+        <v>0.1343960463684093</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09536925347400771</v>
+        <v>0.07798586249491496</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06370841158516896</v>
+        <v>0.1345314450490235</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05297318798058885</v>
+        <v>0.07031523969004254</v>
       </c>
       <c r="G150" t="n">
-        <v>0.05031371055475244</v>
+        <v>0.139981120821554</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03201183125140611</v>
+        <v>0.02515461316933745</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0648179714627823</v>
+        <v>0.1361165686026753</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06410308597314698</v>
+        <v>0.05187844385014057</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06456830255143473</v>
+        <v>0.1359959993013665</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09469652269948747</v>
+        <v>0.07817316607502933</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06446684505642096</v>
+        <v>0.1361330098710356</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05305035420149565</v>
+        <v>0.07645659744253445</v>
       </c>
       <c r="G151" t="n">
-        <v>0.05090563656127894</v>
+        <v>0.1416279575371017</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03187760310320369</v>
+        <v>0.02532060806483068</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06558053583293269</v>
+        <v>0.1377179399980009</v>
       </c>
       <c r="L151" t="n">
-        <v>0.0633805962724725</v>
+        <v>0.05211555791268371</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06532792964027515</v>
+        <v>0.1375959522343238</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09413353101656458</v>
+        <v>0.07827906312045929</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06522527852767297</v>
+        <v>0.1377345746930478</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05312242459642978</v>
+        <v>0.07362036827382959</v>
       </c>
       <c r="G152" t="n">
-        <v>0.05149756256780545</v>
+        <v>0.1432747942526494</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03194456608644353</v>
+        <v>0.02529208638834085</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06634310020308307</v>
+        <v>0.1393193113933265</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06285977581212313</v>
+        <v>0.05176386148652226</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06608755672911555</v>
+        <v>0.139195905167281</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09408271465448065</v>
+        <v>0.07870210999318017</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06598371199892498</v>
+        <v>0.13933613951506</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05318929988590179</v>
+        <v>0.07380502326313408</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05208948857433195</v>
+        <v>0.144921630968197</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03171311860360432</v>
+        <v>0.02536858608083643</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06710566457323344</v>
+        <v>0.1409206827886521</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06284175406601361</v>
+        <v>0.05212240451373182</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06684718381795596</v>
+        <v>0.1407958581002383</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09274650984247723</v>
+        <v>0.079040863055167</v>
       </c>
       <c r="O153" t="n">
-        <v>0.066742145470177</v>
+        <v>0.1409377043370722</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05325088079042227</v>
+        <v>0.07100903348965411</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05268141458085845</v>
+        <v>0.1465684676837447</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03168365905716469</v>
+        <v>0.02544964508328586</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06786822894338382</v>
+        <v>0.1425220541839777</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06212766050805871</v>
+        <v>0.05209023693638803</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06760681090679638</v>
+        <v>0.1423958110331955</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09212735280979611</v>
+        <v>0.07969387866839517</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06750057894142901</v>
+        <v>0.1425392691590844</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05330706803050178</v>
+        <v>0.07723087003259581</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05327334058738495</v>
+        <v>0.1482153043992924</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03135658584960332</v>
+        <v>0.02546057723486279</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06863079331353421</v>
+        <v>0.1441234255793033</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06181862461217311</v>
+        <v>0.05263279914370361</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06836643799563677</v>
+        <v>0.1439957639661528</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09182767978567885</v>
+        <v>0.07923764470174555</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06825901241268102</v>
+        <v>0.1441408339810966</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05335776232665085</v>
+        <v>0.07746900397116534</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05386526659391144</v>
+        <v>0.1498621411148401</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03133229738339882</v>
+        <v>0.02564689627121187</v>
       </c>
       <c r="K156" t="n">
-        <v>0.06939335768368458</v>
+        <v>0.1457247969746289</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06101577585227158</v>
+        <v>0.05303032793024071</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06912606508447719</v>
+        <v>0.1455957168991101</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09084992699936706</v>
+        <v>0.07991675673348908</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06901744588393303</v>
+        <v>0.1457423988031087</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05340286439938009</v>
+        <v>0.06772190638456883</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05445719260043794</v>
+        <v>0.1515089778303878</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03111119206102987</v>
+        <v>0.02589636529142489</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07015592205383496</v>
+        <v>0.1473261683699545</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06072024370226883</v>
+        <v>0.05335507094483199</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0698856921733176</v>
+        <v>0.1471956698320673</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09049653068010238</v>
+        <v>0.08049371655688714</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06977587935518505</v>
+        <v>0.1473439636251209</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05344227496920005</v>
+        <v>0.074064656541207</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05504911860696445</v>
+        <v>0.1531558145459355</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03099119837654056</v>
+        <v>0.02609503584855874</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07091848642398534</v>
+        <v>0.1489275397652801</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0602244063485049</v>
+        <v>0.05377834823178629</v>
       </c>
       <c r="M158" t="n">
-        <v>0.070645319262158</v>
+        <v>0.1487956227650246</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09066149348522823</v>
+        <v>0.08212494422431704</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07053431282643705</v>
+        <v>0.1489455284471331</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05347589475662129</v>
+        <v>0.07564852733910843</v>
       </c>
       <c r="G159" t="n">
-        <v>0.05564104461349094</v>
+        <v>0.1548026512614832</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03096841010838265</v>
+        <v>0.02672895949567028</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07168105079413573</v>
+        <v>0.1505289111606057</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06021473805501509</v>
+        <v>0.05517147983541243</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07140494635099841</v>
+        <v>0.1503955756979818</v>
       </c>
       <c r="N159" t="n">
-        <v>0.0898314858283441</v>
+        <v>0.08346685978815593</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07129274629768907</v>
+        <v>0.1505470932691453</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05350362448215437</v>
+        <v>0.07843474017398407</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05623297062001744</v>
+        <v>0.1564494879770309</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03094288787971169</v>
+        <v>0.02708418778581641</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0724436151642861</v>
+        <v>0.1521302825559313</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05979161647689851</v>
+        <v>0.05550578580001925</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07216457343983881</v>
+        <v>0.151995528630939</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08930573294595767</v>
+        <v>0.08367588330078102</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07205117976894107</v>
+        <v>0.1521486580911575</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05352536486630984</v>
+        <v>0.07037714061724948</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05682489662654394</v>
+        <v>0.1580963246925786</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03081475714536827</v>
+        <v>0.02724677227205403</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07320617953443649</v>
+        <v>0.1537316539512568</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05915562434240898</v>
+        <v>0.05655258616991557</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07292420052867923</v>
+        <v>0.1535954815638963</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08888366509318213</v>
+        <v>0.0849084348145695</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07280961324019308</v>
+        <v>0.1537502229131697</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0535410166295983</v>
+        <v>0.07242957424032025</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05741682263307044</v>
+        <v>0.1597431614081263</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03078414336019299</v>
+        <v>0.02770276450744007</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07396874390458687</v>
+        <v>0.1553330253465824</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05860734437980034</v>
+        <v>0.05718320098941018</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07368382761751964</v>
+        <v>0.1551954344968536</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08846471252513072</v>
+        <v>0.08612093438189866</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07356804671144511</v>
+        <v>0.1553517877351819</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05355048049253029</v>
+        <v>0.07454588661461195</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05800874863959694</v>
+        <v>0.161389998123674</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03055117197902639</v>
+        <v>0.02793821604503137</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07473130827473724</v>
+        <v>0.156934396741908</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05814735931732651</v>
+        <v>0.05736895030281194</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07444345470636005</v>
+        <v>0.1567953874298108</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08804830549691683</v>
+        <v>0.08716980205514552</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07432648018269711</v>
+        <v>0.156953352557194</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05355365717561637</v>
+        <v>0.07867992331154022</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05860067464612344</v>
+        <v>0.1630368348392217</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03031596845670907</v>
+        <v>0.02843917843788486</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07549387264488762</v>
+        <v>0.1585357681372336</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05817625188324141</v>
+        <v>0.05858115415442963</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07520308179520045</v>
+        <v>0.1583953403627681</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08663387426365388</v>
+        <v>0.08881145788668737</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07508491365394913</v>
+        <v>0.1585549173792062</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05355365717561639</v>
+        <v>0.08078552990252061</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05860067464612344</v>
+        <v>0.1646836715547693</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03027865824808164</v>
+        <v>0.02840002369172727</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07625643701503799</v>
+        <v>0.1601371395325592</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05699460480579882</v>
+        <v>0.05881411662905825</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07596270888404086</v>
+        <v>0.1599952932957253</v>
       </c>
       <c r="N165" t="n">
-        <v>0.0865208490804551</v>
+        <v>0.08912720898766452</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07584334712520113</v>
+        <v>0.1601564822012184</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05264845975898708</v>
+        <v>0.07781655195896872</v>
       </c>
       <c r="G166" t="n">
-        <v>0.05860040611765943</v>
+        <v>0.1663305082703171</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03003936680798468</v>
+        <v>0.02885033674415859</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07701900138518838</v>
+        <v>0.1617385109278848</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05680300081325262</v>
+        <v>0.05912860338289699</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07672233597288128</v>
+        <v>0.1615952462286826</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08620866020243378</v>
+        <v>0.09020931707398472</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07660178059645315</v>
+        <v>0.1617580470232306</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05175341351937114</v>
+        <v>0.08072683505230011</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05860013758919541</v>
+        <v>0.1679773449858648</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02989821959125875</v>
+        <v>0.02909470431803481</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07778156575533876</v>
+        <v>0.1633398823232104</v>
       </c>
       <c r="L167" t="n">
-        <v>0.0561020226338568</v>
+        <v>0.05983093361190103</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07748196306172168</v>
+        <v>0.1631951991616398</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08549673788470347</v>
+        <v>0.09117283523494596</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07736021406770516</v>
+        <v>0.1633596118452428</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05086899874683286</v>
+        <v>0.08752696412314145</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05859986906073139</v>
+        <v>0.1696241817014124</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02985534205274447</v>
+        <v>0.02933356890007476</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07854413012548914</v>
+        <v>0.164941253718536</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05559225299586509</v>
+        <v>0.06042201713058548</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07824159015056209</v>
+        <v>0.1647951520945971</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0854845123823772</v>
+        <v>0.09121914595765312</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07811864753895717</v>
+        <v>0.1649611766672549</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04999569573155167</v>
+        <v>0.08430462302193198</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05859960053226737</v>
+        <v>0.1712710184169601</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02971085964728243</v>
+        <v>0.02966737297699729</v>
       </c>
       <c r="K169" t="n">
-        <v>0.07930669449563953</v>
+        <v>0.1665426251138616</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05527427462753143</v>
+        <v>0.06050276375346528</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0790012172394025</v>
+        <v>0.1663951050275543</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08417141395056843</v>
+        <v>0.09184963172921085</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07887708101020918</v>
+        <v>0.1665627414892671</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04913398476359139</v>
+        <v>0.08406358300032821</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05859933200380336</v>
+        <v>0.1729178551325078</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02966489782971318</v>
+        <v>0.02959655903552122</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0800692588657899</v>
+        <v>0.1681439965091872</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05484867025710974</v>
+        <v>0.06117408329505539</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0797608443282429</v>
+        <v>0.1679950579605116</v>
       </c>
       <c r="N170" t="n">
-        <v>0.0842568728443906</v>
+        <v>0.09326567503672423</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07963551448146119</v>
+        <v>0.1681643063112793</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04828434613305452</v>
+        <v>0.08980530821571975</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05859906347533934</v>
+        <v>0.1745646918480555</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02931758205487732</v>
+        <v>0.0298215695623654</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08083182323594029</v>
+        <v>0.1697453679045128</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05441602261285378</v>
+        <v>0.06163688556987085</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08052047141708332</v>
+        <v>0.1695950108934688</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08394031931895679</v>
+        <v>0.09316865836729782</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08039394795271319</v>
+        <v>0.1697658711332915</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0474472601300074</v>
+        <v>0.08853126282549617</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05859879494687532</v>
+        <v>0.1762115285636032</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02906903777761546</v>
+        <v>0.03034284704424869</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08159438760609067</v>
+        <v>0.1713467392998384</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05337691442301748</v>
+        <v>0.06249208039242657</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08128009850592373</v>
+        <v>0.1711949638264261</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08342118362938056</v>
+        <v>0.09445996420803654</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08115238142396522</v>
+        <v>0.1713674359553037</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04662320704462539</v>
+        <v>0.08724291098704692</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0585985264184113</v>
+        <v>0.1778583652791509</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02891939045276816</v>
+        <v>0.03046083396788991</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08235695197624104</v>
+        <v>0.1729481106951639</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0530319284158548</v>
+        <v>0.0628405775772376</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08203972559476413</v>
+        <v>0.1727949167593834</v>
       </c>
       <c r="N173" t="n">
-        <v>0.08219889603077501</v>
+        <v>0.09544097504604515</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08191081489521722</v>
+        <v>0.1729690007773159</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04581266716697432</v>
+        <v>0.08894171685776164</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05859825788994729</v>
+        <v>0.1795052019946986</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02876876553517602</v>
+        <v>0.03067597282000792</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08311951634639142</v>
+        <v>0.1745494820904895</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0523816473196195</v>
+        <v>0.06298328693881894</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08279935268360454</v>
+        <v>0.1743948696923406</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08137288677825372</v>
+        <v>0.09531307336842854</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08266924836646923</v>
+        <v>0.174570565599328</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04501612078715667</v>
+        <v>0.09162914459502983</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05859798936148328</v>
+        <v>0.1811520387102463</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0288172884796796</v>
+        <v>0.03068870608732158</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0838820807165418</v>
+        <v>0.1761508534858151</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05232665386256546</v>
+        <v>0.06322111829168547</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08355897977244495</v>
+        <v>0.1759948226252978</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08164258612692993</v>
+        <v>0.09667764166229148</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08342768183772124</v>
+        <v>0.1761721304213403</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04423404819524124</v>
+        <v>0.08830665835624096</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05859772083301925</v>
+        <v>0.182798875425794</v>
       </c>
       <c r="J176" t="n">
-        <v>0.0285650847411195</v>
+        <v>0.03089950800209369</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08464464508669219</v>
+        <v>0.1777522248811407</v>
       </c>
       <c r="L176" t="n">
-        <v>0.0512675307729466</v>
+        <v>0.06435534994258094</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08431860686128537</v>
+        <v>0.1775947755582551</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08100742433191677</v>
+        <v>0.09653612773471815</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08418611530897326</v>
+        <v>0.1777736952433524</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04346692968139858</v>
+        <v>0.0899757222987847</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05859745230455524</v>
+        <v>0.1844457121413417</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02861227977433636</v>
+        <v>0.0313184169004485</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08540720945684256</v>
+        <v>0.1793535962764664</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05090486077901679</v>
+        <v>0.06470851355948712</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08507823395012577</v>
+        <v>0.1791947284912123</v>
       </c>
       <c r="N177" t="n">
-        <v>0.08066683164832783</v>
+        <v>0.09811943443624277</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08494454878022528</v>
+        <v>0.1793752600653646</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04271524553569687</v>
+        <v>0.0876378005800505</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05859718377609122</v>
+        <v>0.1860925488568894</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0281589990341707</v>
+        <v>0.03134795569243494</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08616977382699294</v>
+        <v>0.1809549676717919</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05013922660902989</v>
+        <v>0.06468234761650771</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08583786103896618</v>
+        <v>0.1807946814241696</v>
       </c>
       <c r="N178" t="n">
-        <v>0.07962023833127629</v>
+        <v>0.09823619825894037</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08570298225147728</v>
+        <v>0.1809768248873768</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04197947604823861</v>
+        <v>0.09230597988067557</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0585969152476272</v>
+        <v>0.1877393855724371</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02820536797546309</v>
+        <v>0.03188052323664964</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08693233819714333</v>
+        <v>0.1825563390671175</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05017121099123975</v>
+        <v>0.06566122310494077</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08659748812780659</v>
+        <v>0.1823946343571269</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07926707463587557</v>
+        <v>0.09866267051268207</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08646141572272929</v>
+        <v>0.182578389709389</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04126010150909534</v>
+        <v>0.08801367074961494</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05859664671916318</v>
+        <v>0.1893862222879848</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02785151205305419</v>
+        <v>0.03200851839168921</v>
       </c>
       <c r="K180" t="n">
-        <v>0.0876949025672937</v>
+        <v>0.1841577104624431</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04940139665390031</v>
+        <v>0.06562951101608455</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08735711521664699</v>
+        <v>0.1839945872900841</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07820677081723887</v>
+        <v>0.1000751025073389</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08721984919398131</v>
+        <v>0.1841799545314012</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0405576022084322</v>
+        <v>0.08774052010240765</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05859637819069916</v>
+        <v>0.1910330590035325</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02799755672178454</v>
+        <v>0.0320243400161503</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08845746693744409</v>
+        <v>0.1857590818577687</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04853036632526536</v>
+        <v>0.0666715823412371</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08811674230548741</v>
+        <v>0.1855945402230414</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07823875713047962</v>
+        <v>0.1002497455527818</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08797828266523332</v>
+        <v>0.1857815193534134</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03987245843632004</v>
+        <v>0.08946137629747736</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05859610966223515</v>
+        <v>0.1926798957190802</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02754362743649474</v>
+        <v>0.03242038696862952</v>
       </c>
       <c r="K182" t="n">
-        <v>0.08922003130759447</v>
+        <v>0.1873604532530943</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04825870273358887</v>
+        <v>0.06637180807169657</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0888763693943278</v>
+        <v>0.1871944931559986</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07736246383071121</v>
+        <v>0.1011628509588819</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08873671613648533</v>
+        <v>0.1873830841754255</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03920515048286133</v>
+        <v>0.09515108769324734</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05859584113377114</v>
+        <v>0.1943267324346279</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02738984965202536</v>
+        <v>0.0326890581077235</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08998259567774484</v>
+        <v>0.1889618246484199</v>
       </c>
       <c r="L183" t="n">
-        <v>0.04758698860712465</v>
+        <v>0.06671455919876121</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08963599648316822</v>
+        <v>0.1887944460889559</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07687732117304685</v>
+        <v>0.10129067003551</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08949514960773734</v>
+        <v>0.1889846489974377</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03855615863813075</v>
+        <v>0.09178450264814125</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05859557260530711</v>
+        <v>0.1959735691501756</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02743634882321699</v>
+        <v>0.03272275229202885</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09074516004789522</v>
+        <v>0.1905631960437455</v>
       </c>
       <c r="L184" t="n">
-        <v>0.04731580667412658</v>
+        <v>0.06768420671372907</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09039562357200863</v>
+        <v>0.1903943990219131</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07578275941259982</v>
+        <v>0.1022094540925374</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09025358307898934</v>
+        <v>0.1905862138194499</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03792596319228729</v>
+        <v>0.0933364695205825</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0585953040768431</v>
+        <v>0.1976204058657232</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02718325040491024</v>
+        <v>0.03261706031945001</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0915077244180456</v>
+        <v>0.1921645674390711</v>
       </c>
       <c r="L185" t="n">
-        <v>0.04674573966284853</v>
+        <v>0.06787445889725122</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09115525066084904</v>
+        <v>0.1919943519548704</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07527820880448355</v>
+        <v>0.1021049116308816</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09101201655024137</v>
+        <v>0.1921877786414621</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03731504443540481</v>
+        <v>0.09378183666899462</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05859503554837908</v>
+        <v>0.1992672425812709</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02693067985194567</v>
+        <v>0.0330008713587561</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09227028878819599</v>
+        <v>0.1937659388343967</v>
       </c>
       <c r="L186" t="n">
-        <v>0.04607737030154438</v>
+        <v>0.06744683565126119</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09191487774968946</v>
+        <v>0.1935943048878276</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07526309960381128</v>
+        <v>0.1021667570464495</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09177045002149337</v>
+        <v>0.1937893434634743</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03672388265758583</v>
+        <v>0.09909783100129957</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05859476701991507</v>
+        <v>0.2009140792968186</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02687876261916387</v>
+        <v>0.03308288093103882</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09303285315834636</v>
+        <v>0.1953673102297223</v>
       </c>
       <c r="L187" t="n">
-        <v>0.04541128131846803</v>
+        <v>0.0677155010760753</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09267450483852985</v>
+        <v>0.1951942578207849</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07483686206569645</v>
+        <v>0.103122975536446</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09252888349274539</v>
+        <v>0.1953909082854864</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03615295814890843</v>
+        <v>0.09236101475093783</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05859449849145104</v>
+        <v>0.2025609160123663</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02692762416140546</v>
+        <v>0.03286306106306926</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09379541752849674</v>
+        <v>0.1969686816250479</v>
       </c>
       <c r="L188" t="n">
-        <v>0.04434805544187331</v>
+        <v>0.06818039765482661</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09343413192737027</v>
+        <v>0.1967942107537421</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07429892644525232</v>
+        <v>0.1031734797024781</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09328731696399739</v>
+        <v>0.1969924731074986</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03560275119952482</v>
+        <v>0.09561841633911722</v>
       </c>
       <c r="G189" t="n">
-        <v>0.05859422996298703</v>
+        <v>0.204207752727914</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02667738993351096</v>
+        <v>0.03304138378161843</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09455798189864713</v>
+        <v>0.1985700530203734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.04438827540001414</v>
+        <v>0.06794146787064836</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09419375901621067</v>
+        <v>0.1983941636866994</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07264872299759223</v>
+        <v>0.1034181821461524</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0940457504352494</v>
+        <v>0.1985940379295108</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03507178091492683</v>
+        <v>0.1008699432043932</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05859396143452301</v>
+        <v>0.2058545894434617</v>
       </c>
       <c r="J190" t="n">
-        <v>0.026428185390321</v>
+        <v>0.03311782111345747</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0953205462687975</v>
+        <v>0.200171424415699</v>
       </c>
       <c r="L190" t="n">
-        <v>0.04373252392114438</v>
+        <v>0.06799865420667356</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09495338610505108</v>
+        <v>0.1999941166196566</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07208568197782955</v>
+        <v>0.1038569954690757</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09480418390650142</v>
+        <v>0.200195602751523</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03454876047770558</v>
+        <v>0.09611550278532147</v>
       </c>
       <c r="G191" t="n">
-        <v>0.058593692906059</v>
+        <v>0.2075014261590094</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02618013598667619</v>
+        <v>0.03329234508535743</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09608311063894788</v>
+        <v>0.2017727958110246</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04278138373351786</v>
+        <v>0.06845189914603533</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09571301319389149</v>
+        <v>0.2015940695526139</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07200923364107747</v>
+        <v>0.1033898322728546</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09556261737775343</v>
+        <v>0.2017971675735352</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0340322089933562</v>
+        <v>0.09235500252045747</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05859342437759497</v>
+        <v>0.2091482628745571</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02623336717741707</v>
+        <v>0.03326492772408936</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09684567500909827</v>
+        <v>0.2033741672063502</v>
       </c>
       <c r="L192" t="n">
-        <v>0.04283543756538849</v>
+        <v>0.06900114517186684</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09647264028273189</v>
+        <v>0.2031940224855711</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07061880824244948</v>
+        <v>0.1045166051590961</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09632105084900544</v>
+        <v>0.2033987323955474</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03352260675202616</v>
+        <v>0.09258834984835682</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05859315584913096</v>
+        <v>0.2107950995901048</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02598807223792102</v>
+        <v>0.03343554105642436</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09760823937924865</v>
+        <v>0.2049755386016758</v>
       </c>
       <c r="L193" t="n">
-        <v>0.04218257181133245</v>
+        <v>0.06844633476730108</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09723226737157231</v>
+        <v>0.2047939754185284</v>
       </c>
       <c r="N193" t="n">
-        <v>0.06990070912168445</v>
+        <v>0.1045372267294066</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09707948432025745</v>
+        <v>0.2050002972175596</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03302043404379534</v>
+        <v>0.09381545220757498</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05859288732066694</v>
+        <v>0.2124419363056525</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02594430176556524</v>
+        <v>0.03360415710913352</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09837080374939902</v>
+        <v>0.2065769099970014</v>
       </c>
       <c r="L194" t="n">
-        <v>0.04130852140684027</v>
+        <v>0.06858741041547128</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09799189446041272</v>
+        <v>0.2063939283514857</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07004063991617088</v>
+        <v>0.1042516095853929</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09783791779150947</v>
+        <v>0.2066018620395717</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03252617115876623</v>
+        <v>0.09803621703666759</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05859261879220293</v>
+        <v>0.2140887730212002</v>
       </c>
       <c r="J195" t="n">
-        <v>0.0256019218746945</v>
+        <v>0.03367074790898786</v>
       </c>
       <c r="K195" t="n">
-        <v>0.0991333681195494</v>
+        <v>0.208178281392327</v>
       </c>
       <c r="L195" t="n">
-        <v>0.04081498086183946</v>
+        <v>0.06882431459951047</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09875152154925312</v>
+        <v>0.2079938812844429</v>
       </c>
       <c r="N195" t="n">
-        <v>0.06834109062709975</v>
+        <v>0.1041596663286618</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09859635126276148</v>
+        <v>0.2082034268615839</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03204029838702036</v>
+        <v>0.1022505517741902</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0585923502637389</v>
+        <v>0.2157356097367479</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02576079815883385</v>
+        <v>0.03373528548275846</v>
       </c>
       <c r="K196" t="n">
-        <v>0.09989593248969979</v>
+        <v>0.2097796527876526</v>
       </c>
       <c r="L196" t="n">
-        <v>0.04000368491906586</v>
+        <v>0.06955698980255176</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09951114863809353</v>
+        <v>0.2095938342174002</v>
       </c>
       <c r="N196" t="n">
-        <v>0.06850458297477136</v>
+        <v>0.10476130956082</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09935478473401349</v>
+        <v>0.2098049916835961</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03156329601870259</v>
+        <v>0.0954583638586983</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05859208173527489</v>
+        <v>0.2173824464522955</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02562079621150838</v>
+        <v>0.03379774185721642</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1006584968598502</v>
+        <v>0.2113810241829782</v>
       </c>
       <c r="L197" t="n">
-        <v>0.03957636832125544</v>
+        <v>0.06908537850772828</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1002707757269339</v>
+        <v>0.2111937871503574</v>
       </c>
       <c r="N197" t="n">
-        <v>0.06703363867948592</v>
+        <v>0.1054564518834742</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1001132182052655</v>
+        <v>0.2114065565056083</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03109564434389402</v>
+        <v>0.09765956072874749</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05859181320681087</v>
+        <v>0.2190292831678432</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02538178162624311</v>
+        <v>0.03385808905913282</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1014210612300006</v>
+        <v>0.2129823955783038</v>
       </c>
       <c r="L198" t="n">
-        <v>0.03893476581114397</v>
+        <v>0.06910942319817309</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1010304028157744</v>
+        <v>0.2127937400833147</v>
       </c>
       <c r="N198" t="n">
-        <v>0.06603077946154379</v>
+        <v>0.1047450058982312</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1008716516765175</v>
+        <v>0.2130081213276205</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03063782365269718</v>
+        <v>0.09785404982289331</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05859154467834686</v>
+        <v>0.2206761198833909</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02534361999656315</v>
+        <v>0.03381629911527867</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1021836256001509</v>
+        <v>0.2145837669736294</v>
       </c>
       <c r="L199" t="n">
-        <v>0.03848061213146742</v>
+        <v>0.06922906635701936</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1017900299046148</v>
+        <v>0.2143936930162719</v>
       </c>
       <c r="N199" t="n">
-        <v>0.06529852704124506</v>
+        <v>0.1050268842066976</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1016300851477695</v>
+        <v>0.2146096861496326</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03019031423519532</v>
+        <v>0.1000417385796913</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05859127614988283</v>
+        <v>0.2223229565989386</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02510617691599352</v>
+        <v>0.0337723440524251</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1029461899703013</v>
+        <v>0.2161851383689549</v>
       </c>
       <c r="L200" t="n">
-        <v>0.03771564202496164</v>
+        <v>0.07004425046740018</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1025496569934552</v>
+        <v>0.2159936459492292</v>
       </c>
       <c r="N200" t="n">
-        <v>0.06463940313889022</v>
+        <v>0.1055019994104803</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1023885186190215</v>
+        <v>0.2162112509716448</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0297535963815299</v>
+        <v>0.09622253443769707</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05859100762141882</v>
+        <v>0.2239697933144863</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02496931797805933</v>
+        <v>0.03372619589734317</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1037087543404517</v>
+        <v>0.2177865097642805</v>
       </c>
       <c r="L201" t="n">
-        <v>0.03724159023436252</v>
+        <v>0.06975491801244862</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1033092840822956</v>
+        <v>0.2175935988821864</v>
       </c>
       <c r="N201" t="n">
-        <v>0.06355592947477939</v>
+        <v>0.1052702641111858</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1031469520902735</v>
+        <v>0.217812815793657</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02932815038178374</v>
+        <v>0.09839634483546614</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05859073909295481</v>
+        <v>0.225616630030034</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02483290877628561</v>
+        <v>0.03397782667680393</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1044713187106021</v>
+        <v>0.2193878811596061</v>
       </c>
       <c r="L202" t="n">
-        <v>0.0361601915024059</v>
+        <v>0.06966101147529785</v>
       </c>
       <c r="M202" t="n">
-        <v>0.104068911171136</v>
+        <v>0.2191935518151437</v>
       </c>
       <c r="N202" t="n">
-        <v>0.06225062776921297</v>
+        <v>0.106331590910421</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1039053855615256</v>
+        <v>0.2194143806156692</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02891445652605931</v>
+        <v>0.101563077211554</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05859047056449079</v>
+        <v>0.2272634667455817</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02449681490419743</v>
+        <v>0.03392720841757847</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1052338830807524</v>
+        <v>0.2209892525549317</v>
       </c>
       <c r="L203" t="n">
-        <v>0.03537318057182773</v>
+        <v>0.07006247333908089</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1048285382599764</v>
+        <v>0.2207935047481009</v>
       </c>
       <c r="N203" t="n">
-        <v>0.06132601974249113</v>
+        <v>0.1058858924097925</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1046638190327776</v>
+        <v>0.2210159454376814</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02851299510444194</v>
+        <v>0.09472263900451633</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05859020203602677</v>
+        <v>0.2289103034611294</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02446090195531986</v>
+        <v>0.03417431314643789</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1059964474509028</v>
+        <v>0.2225906239502573</v>
       </c>
       <c r="L204" t="n">
-        <v>0.03488229218536382</v>
+        <v>0.06975924608693093</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1055881653488168</v>
+        <v>0.2223934576810582</v>
       </c>
       <c r="N204" t="n">
-        <v>0.05998462711491409</v>
+        <v>0.1061330812109071</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1054222525040296</v>
+        <v>0.2226175102596936</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02812424640706905</v>
+        <v>0.09487493765290855</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05858993350756275</v>
+        <v>0.2305571401766771</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02442503552317793</v>
+        <v>0.0342191128901532</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1067590118210532</v>
+        <v>0.2241919953455829</v>
       </c>
       <c r="L205" t="n">
-        <v>0.03378926108575006</v>
+        <v>0.06995127220198102</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1063477924376572</v>
+        <v>0.2239934106140155</v>
       </c>
       <c r="N205" t="n">
-        <v>0.05912897160678227</v>
+        <v>0.1060730699153715</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1061806859752816</v>
+        <v>0.2242190750817058</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02774869072402543</v>
+        <v>0.1000198805952864</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05858966497909873</v>
+        <v>0.2322039768922248</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02428908120129675</v>
+        <v>0.03416157967549552</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1075215761912036</v>
+        <v>0.2257933667409085</v>
       </c>
       <c r="L206" t="n">
-        <v>0.03319582201572244</v>
+        <v>0.06993849416736428</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1071074195264976</v>
+        <v>0.2255933635469727</v>
       </c>
       <c r="N206" t="n">
-        <v>0.05816157493839574</v>
+        <v>0.1066057711247925</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1069391194465336</v>
+        <v>0.225820639903718</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02738680834541356</v>
+        <v>0.09615737527020515</v>
       </c>
       <c r="G207" t="n">
-        <v>0.05858939645063472</v>
+        <v>0.2338508136077725</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02415290458320134</v>
+        <v>0.03430168552923589</v>
       </c>
       <c r="K207" t="n">
-        <v>0.108284140561354</v>
+        <v>0.2273947381362341</v>
       </c>
       <c r="L207" t="n">
-        <v>0.03260370971801671</v>
+        <v>0.07032085446621383</v>
       </c>
       <c r="M207" t="n">
-        <v>0.107867046615338</v>
+        <v>0.22719331647993</v>
       </c>
       <c r="N207" t="n">
-        <v>0.05698495883005494</v>
+        <v>0.1067310974407766</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1076975529177856</v>
+        <v>0.2274222047257301</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02703907956132112</v>
+        <v>0.09528732911622059</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05858912792217069</v>
+        <v>0.2354976503233202</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02411637126241681</v>
+        <v>0.0343394024781454</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1090467049315043</v>
+        <v>0.2289961095315597</v>
       </c>
       <c r="L208" t="n">
-        <v>0.03201465893536878</v>
+        <v>0.07059829558166278</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1086266737041784</v>
+        <v>0.2287932694128872</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0557016450020601</v>
+        <v>0.1071489614649309</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1084559863890376</v>
+        <v>0.2290237695477423</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.0267059846618809</v>
+        <v>0.1004096495718881</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05858885939370668</v>
+        <v>0.2371444870388679</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0236793468324682</v>
+        <v>0.03437470254899513</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1098092693016547</v>
+        <v>0.2305974809268853</v>
       </c>
       <c r="L209" t="n">
-        <v>0.03153040441051461</v>
+        <v>0.07057075999684423</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1093863007930188</v>
+        <v>0.2303932223458444</v>
       </c>
       <c r="N209" t="n">
-        <v>0.05471415517471145</v>
+        <v>0.1073592757988617</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1092144198602896</v>
+        <v>0.2306253343697545</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02638800393717995</v>
+        <v>0.1035242440757635</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05858859086524267</v>
+        <v>0.2387913237544156</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02374169688688052</v>
+        <v>0.03410755776855613</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1105718336718051</v>
+        <v>0.2321988523222109</v>
       </c>
       <c r="L210" t="n">
-        <v>0.03085268088618995</v>
+        <v>0.07093819019489123</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1101459278818592</v>
+        <v>0.2319931752788017</v>
       </c>
       <c r="N210" t="n">
-        <v>0.05342501106830927</v>
+        <v>0.107361953044176</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1099728533315417</v>
+        <v>0.2322268991917667</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02608561767732076</v>
+        <v>0.09963102006640207</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05858832233677865</v>
+        <v>0.2404381604699633</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02360328701917892</v>
+        <v>0.03433794016359946</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1113343980419555</v>
+        <v>0.2338002237175364</v>
       </c>
       <c r="L211" t="n">
-        <v>0.03018322310513083</v>
+        <v>0.070500528658937</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1109055549706997</v>
+        <v>0.233593128211759</v>
       </c>
       <c r="N211" t="n">
-        <v>0.05263673440315386</v>
+        <v>0.1071569058024804</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1107312868027937</v>
+        <v>0.2338284640137789</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02579930617239375</v>
+        <v>0.09872988498235946</v>
       </c>
       <c r="G212" t="n">
-        <v>0.05858805380831462</v>
+        <v>0.242084997185511</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0234639828228884</v>
+        <v>0.03446582176089626</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1120969624121059</v>
+        <v>0.235401595112862</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02902376581007299</v>
+        <v>0.07065771787211453</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1116651820595401</v>
+        <v>0.2351930811447162</v>
       </c>
       <c r="N212" t="n">
-        <v>0.05195184689954541</v>
+        <v>0.1068440466753817</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1114897202740457</v>
+        <v>0.235430028835791</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02552954971252633</v>
+        <v>0.09482074626219125</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05858778527985061</v>
+        <v>0.2437318339010587</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02312364989153408</v>
+        <v>0.03419117458721752</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1128595267822563</v>
+        <v>0.2370029665081876</v>
       </c>
       <c r="L213" t="n">
-        <v>0.02847604374375243</v>
+        <v>0.07100970031755705</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1124248091483805</v>
+        <v>0.2367930340776735</v>
       </c>
       <c r="N213" t="n">
-        <v>0.05007287027778423</v>
+        <v>0.1071232882644867</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1122481537452977</v>
+        <v>0.2370315936578032</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02527682858780819</v>
+        <v>0.09790351134445299</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0585875167513866</v>
+        <v>0.2453786706166063</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02318215381864096</v>
+        <v>0.03431397066933434</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1136220911524066</v>
+        <v>0.2386043379035132</v>
       </c>
       <c r="L214" t="n">
-        <v>0.02824179164890492</v>
+        <v>0.07105641847839755</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1131844362372209</v>
+        <v>0.2383929870106307</v>
       </c>
       <c r="N214" t="n">
-        <v>0.04980232625817066</v>
+        <v>0.1071945431714019</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1130065872165497</v>
+        <v>0.2386331584798154</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02527682858780819</v>
+        <v>0.1039780876677002</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0585875167513866</v>
+        <v>0.247025507332154</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02283936019773415</v>
+        <v>0.03453418203401783</v>
       </c>
       <c r="K215" t="n">
-        <v>0.114384655522557</v>
+        <v>0.2402057092988388</v>
       </c>
       <c r="L215" t="n">
-        <v>0.02732274426826642</v>
+        <v>0.07109781483776914</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1139440633260613</v>
+        <v>0.239992939943588</v>
       </c>
       <c r="N215" t="n">
-        <v>0.04854273656100483</v>
+        <v>0.1068577239977341</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1137650206878017</v>
+        <v>0.2402347233018276</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02463254998409722</v>
+        <v>0.09604438267048843</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05856051259728066</v>
+        <v>0.2486723440477017</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02279513462233868</v>
+        <v>0.03455178070803901</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1151472198927074</v>
+        <v>0.2418070806941644</v>
       </c>
       <c r="L216" t="n">
-        <v>0.02672063634457283</v>
+        <v>0.07063383187880504</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1147036904149017</v>
+        <v>0.2415928928765452</v>
       </c>
       <c r="N216" t="n">
-        <v>0.04699662290658713</v>
+        <v>0.1072127433450901</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1145234541590537</v>
+        <v>0.2418362881238398</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02399545152535239</v>
+        <v>0.09510230379137327</v>
       </c>
       <c r="G217" t="n">
-        <v>0.05853350844317474</v>
+        <v>0.2503191807632494</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02284934268597964</v>
+        <v>0.03436673871816898</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1159097842628578</v>
+        <v>0.24340845208949</v>
       </c>
       <c r="L217" t="n">
-        <v>0.02593720262055993</v>
+        <v>0.07106441208463821</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1154633175037421</v>
+        <v>0.2431928458095025</v>
       </c>
       <c r="N217" t="n">
-        <v>0.04636650701521777</v>
+        <v>0.1071595138150765</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1152818876303057</v>
+        <v>0.2434378529458519</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02336586372202053</v>
+        <v>0.1021517584689103</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0585065042890688</v>
+        <v>0.2519660174787972</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02250184998218208</v>
+        <v>0.0344790280911788</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1166723486330082</v>
+        <v>0.2450098234848156</v>
       </c>
       <c r="L218" t="n">
-        <v>0.02547417783896369</v>
+        <v>0.0709894979384019</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1162229445925825</v>
+        <v>0.2447927987424597</v>
       </c>
       <c r="N218" t="n">
-        <v>0.04535491060719704</v>
+        <v>0.1074979480093003</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1160403211015577</v>
+        <v>0.2450394177678641</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02274411708454961</v>
+        <v>0.1051926541416549</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05847950013496288</v>
+        <v>0.2536128541943448</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02225252210447105</v>
+        <v>0.03428862085383953</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1174349130031585</v>
+        <v>0.2466111948801412</v>
       </c>
       <c r="L219" t="n">
-        <v>0.02493329674251998</v>
+        <v>0.07090903192322909</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1169825716814229</v>
+        <v>0.246392751675417</v>
       </c>
       <c r="N219" t="n">
-        <v>0.04436435540282518</v>
+        <v>0.1074279585293679</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1167987545728097</v>
+        <v>0.2466409825898763</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02213054212338651</v>
+        <v>0.1052248982481629</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05845249598085694</v>
+        <v>0.2552596909098925</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02230122464637165</v>
+        <v>0.03449548903292229</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1181974773733089</v>
+        <v>0.2482125662754668</v>
       </c>
       <c r="L220" t="n">
-        <v>0.02471629407396464</v>
+        <v>0.07062295652225301</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1177421987702633</v>
+        <v>0.2479927046083742</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0428973631224025</v>
+        <v>0.1073494579768862</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1175571880440618</v>
+        <v>0.2482425474118885</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02152546934897892</v>
+        <v>0.09924839822698958</v>
       </c>
       <c r="G221" t="n">
-        <v>0.058425491826751</v>
+        <v>0.2569065276254403</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02224782320140889</v>
+        <v>0.03449960465519808</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1189600417434593</v>
+        <v>0.2498139376707924</v>
       </c>
       <c r="L221" t="n">
-        <v>0.02432490457603359</v>
+        <v>0.07083121421860664</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1185018258591038</v>
+        <v>0.2495926575413315</v>
       </c>
       <c r="N221" t="n">
-        <v>0.04225645548622925</v>
+        <v>0.1076623589534618</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1183156215153138</v>
+        <v>0.2498441122339007</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02092922927177451</v>
+        <v>0.09726306151669065</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05839848767264508</v>
+        <v>0.2585533643409879</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02179218336310787</v>
+        <v>0.03450091706999216</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1197226061136097</v>
+        <v>0.251415309066118</v>
       </c>
       <c r="L222" t="n">
-        <v>0.02386086299146267</v>
+        <v>0.07103342702573556</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1192614529479442</v>
+        <v>0.2511926104742888</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04154415421460556</v>
+        <v>0.10736653105955</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1190740549865658</v>
+        <v>0.2514456770559129</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0203421524022202</v>
+        <v>0.1032687955558217</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05837148351853914</v>
+        <v>0.2602002010565356</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02193417072499367</v>
+        <v>0.03435600517534945</v>
       </c>
       <c r="K223" t="n">
-        <v>0.12048517048376</v>
+        <v>0.2530166804614435</v>
       </c>
       <c r="L223" t="n">
-        <v>0.02302590406298785</v>
+        <v>0.0705345464054459</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1200210800367846</v>
+        <v>0.252792563407246</v>
       </c>
       <c r="N223" t="n">
-        <v>0.04046298102783202</v>
+        <v>0.1079275645547449</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1198324884578178</v>
+        <v>0.2530472418779251</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01976456925076389</v>
+        <v>0.1031655533739224</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05834447936443322</v>
+        <v>0.2618470377720833</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02167365088059128</v>
+        <v>0.03433116006158231</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1212477348539104</v>
+        <v>0.2546180518567692</v>
       </c>
       <c r="L224" t="n">
-        <v>0.02262176253334489</v>
+        <v>0.07027181796739285</v>
       </c>
       <c r="M224" t="n">
-        <v>0.120780707125625</v>
+        <v>0.2543925163402032</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03961545764620861</v>
+        <v>0.1069387532720797</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1205909219290698</v>
+        <v>0.2546488066999373</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0191968103278525</v>
+        <v>0.09680393120677017</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05831747521032728</v>
+        <v>0.263493874487631</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02131048942342585</v>
+        <v>0.03413510219769646</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1220102992240608</v>
+        <v>0.2562194232520947</v>
       </c>
       <c r="L225" t="n">
-        <v>0.02285017314526977</v>
+        <v>0.07026317221421302</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1215403342144654</v>
+        <v>0.2559924692731605</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03880410579003574</v>
+        <v>0.1064273430823003</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1213493554003218</v>
+        <v>0.2562503715219494</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01863920614393371</v>
+        <v>0.1042101666663826</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05829047105622135</v>
+        <v>0.2651407112031787</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02114455194702237</v>
+        <v>0.03397655205269765</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1227728635942112</v>
+        <v>0.2578207946474204</v>
       </c>
       <c r="L226" t="n">
-        <v>0.02181287064149831</v>
+        <v>0.06962653964854312</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1222999613033058</v>
+        <v>0.2575924222061177</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0380314471796136</v>
+        <v>0.1053205798561524</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1221077888715738</v>
+        <v>0.2578519363439616</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01809208720945517</v>
+        <v>0.09541311517054138</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05826346690211542</v>
+        <v>0.2667875479187264</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02117570404490594</v>
+        <v>0.03346423009559162</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1235354279643616</v>
+        <v>0.259422166042746</v>
       </c>
       <c r="L227" t="n">
-        <v>0.02181158976476641</v>
+        <v>0.06897985077301985</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1230595883921462</v>
+        <v>0.259192375139075</v>
       </c>
       <c r="N227" t="n">
-        <v>0.03790000353524248</v>
+        <v>0.1043457094643819</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1228662223428258</v>
+        <v>0.2594535011659738</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0175557840348638</v>
+        <v>0.09844163213702811</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05823646274800949</v>
+        <v>0.268434384634274</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02090381131060161</v>
+        <v>0.03320685679538413</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1242979923345119</v>
+        <v>0.2610235374380716</v>
       </c>
       <c r="L228" t="n">
-        <v>0.02164806525781002</v>
+        <v>0.06814103609027988</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1238192154809866</v>
+        <v>0.2607923280720323</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03671229657722264</v>
+        <v>0.1030299777777345</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1236246558140778</v>
+        <v>0.261055065987986</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01703062713060753</v>
+        <v>0.09632457298362437</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05820945859390356</v>
+        <v>0.2700812213498218</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02072873933763449</v>
+        <v>0.03291315262108088</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1250605567046623</v>
+        <v>0.2626249088333972</v>
       </c>
       <c r="L229" t="n">
-        <v>0.02102403186336485</v>
+        <v>0.0673280261029599</v>
       </c>
       <c r="M229" t="n">
-        <v>0.124578842569827</v>
+        <v>0.2623922810049895</v>
       </c>
       <c r="N229" t="n">
-        <v>0.03647084802585437</v>
+        <v>0.1026006306669561</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1243830892853299</v>
+        <v>0.2626566308099982</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01651694700713328</v>
+        <v>0.09509079312811186</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05818245443979763</v>
+        <v>0.2717280580653694</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02075035325169228</v>
+        <v>0.03239183804168766</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1258231210748127</v>
+        <v>0.2642262802287227</v>
       </c>
       <c r="L230" t="n">
-        <v>0.02154098823130021</v>
+        <v>0.06625875131369655</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1253384696586674</v>
+        <v>0.2639922339379468</v>
       </c>
       <c r="N230" t="n">
-        <v>0.03537788310736945</v>
+        <v>0.1010849140027923</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1251415227565819</v>
+        <v>0.2642581956320104</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01601507417488892</v>
+        <v>0.09576914798827213</v>
       </c>
       <c r="G231" t="n">
-        <v>0.05815545028569171</v>
+        <v>0.2733748947809171</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02056850501640392</v>
+        <v>0.03205163352621018</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1265856854449631</v>
+        <v>0.2658276516240483</v>
       </c>
       <c r="L231" t="n">
-        <v>0.02067606335233471</v>
+        <v>0.06565114222512658</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1260980967475078</v>
+        <v>0.265592186870904</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03510719245130245</v>
+        <v>0.1001100736559891</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1258999562278339</v>
+        <v>0.2658597604540225</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01552533914432144</v>
+        <v>0.08938849298188684</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05812844613158577</v>
+        <v>0.2750217314964648</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02038318838875869</v>
+        <v>0.03160125954365423</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1273482498151134</v>
+        <v>0.2674290230193739</v>
       </c>
       <c r="L232" t="n">
-        <v>0.02081340845576224</v>
+        <v>0.06502312933988663</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1268577238363482</v>
+        <v>0.2671921398038613</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03404089735565924</v>
+        <v>0.09870335549729214</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1266583896990859</v>
+        <v>0.2674613252760347</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01504807242587847</v>
+        <v>0.09397768352673758</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05810144197747984</v>
+        <v>0.2766685682120125</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02019445760813933</v>
+        <v>0.03104943656302547</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1281108141852638</v>
+        <v>0.2690303944146995</v>
       </c>
       <c r="L233" t="n">
-        <v>0.02065318682474654</v>
+        <v>0.06409264316061339</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1276173509251887</v>
+        <v>0.2687920927368185</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03417946253702014</v>
+        <v>0.09719200539744732</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1274168231703379</v>
+        <v>0.2690628900980469</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01458360453000764</v>
+        <v>0.08556557504060597</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05807443782337391</v>
+        <v>0.2783154049275602</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01980236691392867</v>
+        <v>0.03050488505332971</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1288733785554142</v>
+        <v>0.2706317658100251</v>
       </c>
       <c r="L234" t="n">
-        <v>0.02089556174245136</v>
+        <v>0.06277761418994349</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1283769780140291</v>
+        <v>0.2703920456697758</v>
       </c>
       <c r="N234" t="n">
-        <v>0.03352335271196505</v>
+        <v>0.09580326922720039</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1281752566415899</v>
+        <v>0.2706644549200591</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01413226596715595</v>
+        <v>0.08618102294127367</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05804743366926798</v>
+        <v>0.279962241643108</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01970697054550953</v>
+        <v>0.03027632548357266</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1296359429255646</v>
+        <v>0.2722331372053507</v>
       </c>
       <c r="L235" t="n">
-        <v>0.02014069649204039</v>
+        <v>0.06229597293051373</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1291366051028695</v>
+        <v>0.271991998602733</v>
       </c>
       <c r="N235" t="n">
-        <v>0.03257303259707434</v>
+        <v>0.09356439285729717</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1289336901128419</v>
+        <v>0.2722660197420713</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01369438724777121</v>
+        <v>0.08285288264652227</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05802042951516205</v>
+        <v>0.2816090783586556</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01950832274226469</v>
+        <v>0.02977247832276009</v>
       </c>
       <c r="K236" t="n">
-        <v>0.130398507295715</v>
+        <v>0.2738345086006763</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0200887543566774</v>
+        <v>0.06106564988496063</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1298962321917099</v>
+        <v>0.2735919515356903</v>
       </c>
       <c r="N236" t="n">
-        <v>0.03252896690892798</v>
+        <v>0.09290262215848338</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1296921235840939</v>
+        <v>0.2738675845640834</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01327029888230046</v>
+        <v>0.08061000957413343</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05799342536105612</v>
+        <v>0.2832559150742033</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01910647774357692</v>
+        <v>0.02940191247434656</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1311610716658654</v>
+        <v>0.2754358799960019</v>
       </c>
       <c r="L237" t="n">
-        <v>0.02033989861952615</v>
+        <v>0.06010405899665697</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1306558592805503</v>
+        <v>0.2751919044686476</v>
       </c>
       <c r="N237" t="n">
-        <v>0.03149162036410619</v>
+        <v>0.09164476576745961</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1304505570553459</v>
+        <v>0.2754691493860956</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0128603313811913</v>
+        <v>0.0814733051529756</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05796642120695018</v>
+        <v>0.284902751789751</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01890148978882907</v>
+        <v>0.02904685177283815</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1319236360360158</v>
+        <v>0.2770372513913275</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0197942925637504</v>
+        <v>0.05947264642640798</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1314154863693907</v>
+        <v>0.2767918574016048</v>
       </c>
       <c r="N238" t="n">
-        <v>0.03166145767918904</v>
+        <v>0.09053570986384718</v>
       </c>
       <c r="O238" t="n">
-        <v>0.131208990526598</v>
+        <v>0.2770707142081078</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01246481525489133</v>
+        <v>0.08736128009792271</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05793941705284426</v>
+        <v>0.2865495885052987</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0187934131174039</v>
+        <v>0.028490475717319</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1326862004061661</v>
+        <v>0.2786386227866531</v>
       </c>
       <c r="L239" t="n">
-        <v>0.02005209947251391</v>
+        <v>0.0589385259276323</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1321751134582311</v>
+        <v>0.278391810334562</v>
       </c>
       <c r="N239" t="n">
-        <v>0.03093894357075677</v>
+        <v>0.08982254502187759</v>
       </c>
       <c r="O239" t="n">
-        <v>0.13196742399785</v>
+        <v>0.27867227903012</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01208273142952068</v>
+        <v>0.08724500349796618</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05791241289873832</v>
+        <v>0.2881964252208464</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01868230196868424</v>
+        <v>0.02823276364867459</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1334487647763165</v>
+        <v>0.2802399941819786</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01931348262898036</v>
+        <v>0.05850165502230428</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1329347405470715</v>
+        <v>0.2799917632675193</v>
       </c>
       <c r="N240" t="n">
-        <v>0.03022454275538949</v>
+        <v>0.0880052066950725</v>
       </c>
       <c r="O240" t="n">
-        <v>0.132725857469102</v>
+        <v>0.2802738438521322</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01170631290956536</v>
+        <v>0.08512440699355123</v>
       </c>
       <c r="G241" t="n">
-        <v>0.0578854087446324</v>
+        <v>0.2898432619363941</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01856821058205287</v>
+        <v>0.02777369490779057</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1342113291464669</v>
+        <v>0.2818413655773043</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01967860531631357</v>
+        <v>0.05716199123239818</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1336943676359119</v>
+        <v>0.2815917162004766</v>
       </c>
       <c r="N241" t="n">
-        <v>0.03011871994966736</v>
+        <v>0.08668363033695398</v>
       </c>
       <c r="O241" t="n">
-        <v>0.133484290940354</v>
+        <v>0.2818754086741444</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01133454062114552</v>
+        <v>0.08099942222512307</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05785840459052646</v>
+        <v>0.2914900986519418</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01805119319689259</v>
+        <v>0.02751324883555235</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1349738935166173</v>
+        <v>0.2834427369726298</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01954763081767724</v>
+        <v>0.05711949207988834</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1344539947247523</v>
+        <v>0.2831916691334338</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02862193987017053</v>
+        <v>0.08605775140104366</v>
       </c>
       <c r="O242" t="n">
-        <v>0.134242724411606</v>
+        <v>0.2834769734961566</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01096774507470875</v>
+        <v>0.08186998083312691</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05783140043642052</v>
+        <v>0.2931369353674895</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01793130405258619</v>
+        <v>0.02735140477284558</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1357364578867676</v>
+        <v>0.2850441083679554</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01912072241623514</v>
+        <v>0.05607411508674917</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1352136218135928</v>
+        <v>0.2847916220663911</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02873466723347906</v>
+        <v>0.08502750534086345</v>
       </c>
       <c r="O243" t="n">
-        <v>0.135001157882858</v>
+        <v>0.2850785383181688</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01060625678070261</v>
+        <v>0.08173601445800796</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0578043962823146</v>
+        <v>0.2947837720830371</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01780859738851652</v>
+        <v>0.02668814206055574</v>
       </c>
       <c r="K244" t="n">
-        <v>0.136499022256918</v>
+        <v>0.286645479763281</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01929804339515101</v>
+        <v>0.05492581777495487</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1359732489024331</v>
+        <v>0.2863915749993483</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0286573667561732</v>
+        <v>0.08379282760993523</v>
       </c>
       <c r="O244" t="n">
-        <v>0.13575959135411</v>
+        <v>0.2866801031401809</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.0102504062495742</v>
+        <v>0.08059745474021145</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05777739212820867</v>
+        <v>0.2964306087985848</v>
       </c>
       <c r="J245" t="n">
-        <v>0.0173831274440663</v>
+        <v>0.02652344003956837</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1372615866270684</v>
+        <v>0.2882468511586066</v>
       </c>
       <c r="L245" t="n">
-        <v>0.01897975703758858</v>
+        <v>0.05427455766647987</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1367328759912735</v>
+        <v>0.2879915279323056</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02749050315483309</v>
+        <v>0.08305365366178069</v>
       </c>
       <c r="O245" t="n">
-        <v>0.136518024825362</v>
+        <v>0.2882816679621931</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009900523991771257</v>
+        <v>0.07045423332018259</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05775038797410274</v>
+        <v>0.2980774455141326</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01725494845861839</v>
+        <v>0.02625727805076902</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1380241509972188</v>
+        <v>0.2898482225539322</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01896602662671168</v>
+        <v>0.05392029228329845</v>
       </c>
       <c r="M246" t="n">
-        <v>0.137492503080114</v>
+        <v>0.2895914808652628</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02723454114603868</v>
+        <v>0.08190991894992178</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1372764582966141</v>
+        <v>0.2898832327842053</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009556940517740885</v>
+        <v>0.07430628183836659</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05772338381999681</v>
+        <v>0.2997242822296802</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01712411467155557</v>
+        <v>0.02558963543504325</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1387867153673692</v>
+        <v>0.2914495939492578</v>
       </c>
       <c r="L247" t="n">
-        <v>0.01855701544568397</v>
+        <v>0.05336297914738494</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1382521301689544</v>
+        <v>0.2911914337982201</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02658994544637039</v>
+        <v>0.08016155892788024</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1380348917678661</v>
+        <v>0.2914847976062175</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009219986337930669</v>
+        <v>0.07115353193520867</v>
       </c>
       <c r="G248" t="n">
-        <v>0.05769637966589087</v>
+        <v>0.3013711189452279</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01699068032226064</v>
+        <v>0.02522049153327659</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1395492797375195</v>
+        <v>0.2930509653445834</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01865288677766919</v>
+        <v>0.05240257578071372</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1390117572577948</v>
+        <v>0.2927913867311773</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02685718077240823</v>
+        <v>0.07880850904917797</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1387933252391181</v>
+        <v>0.2930863624282297</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008889991962788155</v>
+        <v>0.06999591525115402</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05766937551178495</v>
+        <v>0.3030179556607757</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01655469965011638</v>
+        <v>0.02494982568635454</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1403118441076699</v>
+        <v>0.294652336739909</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01835380390583113</v>
+        <v>0.05143903970525907</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1397713843466352</v>
+        <v>0.2943913396641346</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02603671184073225</v>
+        <v>0.07765070476733676</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1395517587103701</v>
+        <v>0.2946879272502418</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008567287902760477</v>
+        <v>0.07483336342664791</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05764237135767901</v>
+        <v>0.3046647923763233</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01651622689450563</v>
+        <v>0.02477761723516271</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1410744084778203</v>
+        <v>0.2962537081352346</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01875993011333354</v>
+        <v>0.05077232844299534</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1405310114354756</v>
+        <v>0.2959912925970918</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02592900336792281</v>
+        <v>0.07738808153587856</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1403101921816221</v>
+        <v>0.296289492072254</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008252204668295335</v>
+        <v>0.07366580810213552</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05761536720357309</v>
+        <v>0.306311629091871</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01607531629481117</v>
+        <v>0.02440384552058658</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1418369728479707</v>
+        <v>0.2978550795305602</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01817142868334012</v>
+        <v>0.04970239951589683</v>
       </c>
       <c r="M251" t="n">
-        <v>0.141290638524316</v>
+        <v>0.2975912455300491</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02543452007055985</v>
+        <v>0.07542057480832504</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1410686256528741</v>
+        <v>0.2978910568942663</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.00794507276983987</v>
+        <v>0.06449318091806211</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05758836304946715</v>
+        <v>0.3079584658074188</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0157320220904158</v>
+        <v>0.02392848988351173</v>
       </c>
       <c r="K252" t="n">
-        <v>0.142599537218121</v>
+        <v>0.2994564509258857</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01818846289901471</v>
+        <v>0.04922921044593787</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1420502656131564</v>
+        <v>0.2991911984630063</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02525372666522369</v>
+        <v>0.07474812003819814</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1418270591241261</v>
+        <v>0.2994926217162784</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007646222717841752</v>
+        <v>0.07131541351487282</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05756135889536123</v>
+        <v>0.3096053025229664</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01568639852070226</v>
+        <v>0.02335152966482369</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1433621015882715</v>
+        <v>0.3010578223212114</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01831119604352097</v>
+        <v>0.04805271875509279</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1428098927019968</v>
+        <v>0.3007911513959636</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02388708786849431</v>
+        <v>0.0734706526790197</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1425854925953781</v>
+        <v>0.3010941865382906</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007355985022748167</v>
+        <v>0.06813243753301293</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05753435474125529</v>
+        <v>0.3112521392385141</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01543849982505345</v>
+        <v>0.02327294420540799</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1441246659584218</v>
+        <v>0.3026591937165369</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01843979140002269</v>
+        <v>0.04757288196533599</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1435695197908372</v>
+        <v>0.3023911043289209</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02403506839695196</v>
+        <v>0.07188810818431135</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1433439260666302</v>
+        <v>0.3026957513603027</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007074690195006644</v>
+        <v>0.05994418461292762</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05750735058714936</v>
+        <v>0.3128989759540618</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01528838024285213</v>
+        <v>0.02289271284615016</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1448872303285722</v>
+        <v>0.3042605651118626</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01777441225168358</v>
+        <v>0.04658965759864173</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1443291468796776</v>
+        <v>0.3039910572618781</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02389813296717669</v>
+        <v>0.07080042200759523</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1441023595378821</v>
+        <v>0.3042973161823149</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006802668745064716</v>
+        <v>0.05875058639506214</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05748034643304343</v>
+        <v>0.3145458126696095</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01503609401348106</v>
+        <v>0.02231081492793574</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1456497946987226</v>
+        <v>0.3058619365071881</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0178152218816674</v>
+        <v>0.0460030031769843</v>
       </c>
       <c r="M256" t="n">
-        <v>0.145088773968518</v>
+        <v>0.3055910101948354</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02377674629574872</v>
+        <v>0.06940752960239299</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1448607930091342</v>
+        <v>0.3058988810043271</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006540251183369573</v>
+        <v>0.06155157451986167</v>
       </c>
       <c r="G257" t="n">
-        <v>0.0574533422789375</v>
+        <v>0.3161926493851572</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01448169537632311</v>
+        <v>0.02202722979165031</v>
       </c>
       <c r="K257" t="n">
-        <v>0.146412359068873</v>
+        <v>0.3074633079025137</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01816238357313793</v>
+        <v>0.04491287622233808</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1458484010573585</v>
+        <v>0.3071909631277926</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02267137309924827</v>
+        <v>0.06840936642222639</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1456192264803862</v>
+        <v>0.3075004458263393</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006287768020368845</v>
+        <v>0.06134708062777143</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05742633812483158</v>
+        <v>0.3178394861007049</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01422523857076102</v>
+        <v>0.02154193677817939</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1471749234390234</v>
+        <v>0.3090646792978393</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01761606060925888</v>
+        <v>0.04451923425667739</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1466080281461989</v>
+        <v>0.3087909160607499</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02268247809425528</v>
+        <v>0.06700586792061741</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1463776599516382</v>
+        <v>0.3091020106483515</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006045549766509742</v>
+        <v>0.06313703635923666</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05739933397072564</v>
+        <v>0.3194863228162526</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01406677783617762</v>
+        <v>0.02105491522840851</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1479374878091737</v>
+        <v>0.3106660506931649</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01787641627319406</v>
+        <v>0.04342203480197659</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1473676552350393</v>
+        <v>0.3103908689937071</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02251052599735009</v>
+        <v>0.06569696955108789</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1471360934228902</v>
+        <v>0.3107035754703637</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005813926932239789</v>
+        <v>0.06392137335470256</v>
       </c>
       <c r="G260" t="n">
-        <v>0.0573723298166197</v>
+        <v>0.3211331595318003</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01370636741195569</v>
+        <v>0.02086614448322319</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1487000521793241</v>
+        <v>0.3122674220884905</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01784361384810715</v>
+        <v>0.04312123538020995</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1481272823238797</v>
+        <v>0.3119908219266644</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0223559815251127</v>
+        <v>0.06528260676715958</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1478945268941422</v>
+        <v>0.3123051402923759</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005593230028006504</v>
+        <v>0.05470002325461434</v>
       </c>
       <c r="G261" t="n">
-        <v>0.05734532566251378</v>
+        <v>0.3227799962473479</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01374406153747804</v>
+        <v>0.02037560388350901</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1494626165494745</v>
+        <v>0.3138687934838161</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01801781661716192</v>
+        <v>0.04191679351335187</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1488869094127201</v>
+        <v>0.3135907748596216</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02251930939412333</v>
+        <v>0.06336271502235424</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1486529603653942</v>
+        <v>0.3139067051143881</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005383789564257099</v>
+        <v>0.05847291769941725</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05731832150840784</v>
+        <v>0.3244268329628957</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01347991445212747</v>
+        <v>0.0201832727701515</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1502251809196249</v>
+        <v>0.3154701648791416</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01819918786352215</v>
+        <v>0.04150866672337664</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1496465365015605</v>
+        <v>0.3151907277925789</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02130097432096206</v>
+        <v>0.06273722977019397</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1494113938366462</v>
+        <v>0.3155082699364002</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005185936051439181</v>
+        <v>0.05023998832955646</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05729131735430192</v>
+        <v>0.3260736696784433</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01301398039528676</v>
+        <v>0.01948913048403621</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1509877452897752</v>
+        <v>0.3170715362744673</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01818789087035147</v>
+        <v>0.0402968125322585</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1504061635904009</v>
+        <v>0.3167906807255361</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02210144102220918</v>
+        <v>0.06090608646420026</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1501698273078983</v>
+        <v>0.3171098347584124</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.05900116678547716</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05726431320019598</v>
+        <v>0.3277205063939911</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01274631360633874</v>
+        <v>0.01919315636604862</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1517503096599256</v>
+        <v>0.3186729076697928</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01768408892081377</v>
+        <v>0.03988118846197194</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1511657906792413</v>
+        <v>0.3183906336584934</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02142117421444473</v>
+        <v>0.0596692205578952</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1509282607791503</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05725115530545914</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005675313954833228</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.05725142383392315</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006346852851788432</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05725169236238716</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.007014573292895621</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05725196089085119</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007678431880097689</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0572522294193152</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008338385215424786</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05725249794777922</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.00899438990087794</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05725276647624324</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009646402538486462</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05725303500470726</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01029437973019461</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05725330353317128</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01093827807803188</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05725357206163529</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01157805418399927</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0572538405900993</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01221366465012538</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05725410911856333</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01284506607835591</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05725437764702734</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01347221507071963</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05725464617549136</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01409506822921754</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05725491470395537</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01471358215587751</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.0572551832324194</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.0153277134526467</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05725545176088341</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01593741872155316</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05725572028934742</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01654265456459789</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05725598881781144</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01714337758380796</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05725625734627546</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01773954438113211</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05725652587473948</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.0183311115585976</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.0572567944032035</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01891803571820543</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05725706293166751</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01950027346198187</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05725733146013154</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.02007778139187726</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.05725759998859555</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.0206506933184139</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05725786851705957</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.0212200290945679</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05725813704552358</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02178592253086059</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05725840557398761</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.0223483302292438</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05725867410245162</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02290720879174321</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05725894263091563</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02346251482035983</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.05725921115937965</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02401420491711864</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05725947968784367</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.0245622356839726</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05725974821630769</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02510656372294687</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05726001674477171</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02564714563604242</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05726028527323572</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.0261839380252836</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.05726055380169975</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02671689749262465</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05726082233016376</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02724598064009007</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05726109085862777</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02777114406968087</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05726135938709179</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02829234438342065</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05726162791555581</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02880953818326508</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05726189644401983</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02932268207123795</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05726216497248384</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02983173264934025</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.05726243350094786</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.0303366465195949</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05726270202941188</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03083738028395901</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.0572629705578759</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03133389054445559</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05726323908633991</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03182613390308571</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05726350761480393</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03231406696187153</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.05726377614326796</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03279764632277157</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05726404467173197</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.0332768285878082</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05726431320019598</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.0332768285878082</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05725115530545914</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03378561888208288</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.0572786965164931</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03428968782660487</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.05730623772752706</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.0347889076256465</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05733377893856103</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.0352831504834802</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.057361320149595</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.0357722886043783</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05738886136062896</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.03625619419261322</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05741640257166292</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.0367347394524575</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.0574439437826969</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03720779658818311</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05747148499373086</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03767523780406271</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.05749902620476482</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03813693530436855</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05752656741579879</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03859276129337312</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05755410862683276</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03904258797534872</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05758164983786672</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03948628755456779</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05760919104890069</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03992373223530266</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.05763673225993465</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.04035479422182572</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05766427347096861</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04077934571840935</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05769181468200258</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04119725892932595</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05771935589303654</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04160840605884786</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05774689710407051</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04201265931124763</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05777443831510448</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04240989089079733</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05780197952613845</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04279997300176948</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05782952073717242</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04318277784843647</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05785706194820638</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04355817763507065</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05788460315924034</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04392604456594446</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05791214437027431</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04428677267788467</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05793968558130827</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04464336517049043</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05796722679234224</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04499621608058861</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.0579947680033762</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04534519761245154</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.05802230921441016</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04569018197035163</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05804985042544413</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04603104135856124</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05807739163647809</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04636764798135291</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05810493284751207</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04669987404299872</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05813247405854603</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04702759174777119</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05816001526958</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04735067329994269</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05818755648061397</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.04766899090378561</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.05821509769164793</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04798241676357233</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05824263890268189</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.0482908230835752</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05827018011371585</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.04859408206806662</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05829772132474982</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04889206592131896</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05832526253578379</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04918464684760461</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.05835280374681775</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04947169705119596</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05838034495785172</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04975308873636534</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05840788616888568</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05002869410738515</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05843542737991964</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05029838536852789</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05846296859095362</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05056203472406572</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05849050980198758</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05081951437827111</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05851805101302155</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.0510706965354164</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05854559222405551</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05131545339977404</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05857313343508948</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05155365717561639</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05860067464612344</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05155365717561639</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05860067464612344</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05298477227092807</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.06023224495456943</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05436508081203113</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.06186381526301542</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05569425403622363</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06349538557146141</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05697196318080365</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.0651269558799074</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05819787948306925</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06675852618835339</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.0593716741803185</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06839009649679936</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.06049301850984949</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.07002166680524537</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.06156158370896027</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.07165323711369136</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.06257704101494893</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07328480742213733</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.06353906166511356</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07491637773058334</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.06444731689675219</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07654794803902931</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.06530147794716291</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.0781795183474753</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.06610121605364383</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.07981108865592129</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.06684620245349294</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.08144265896436727</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.06753610838400839</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08307422927281327</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.06817060508248823</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08470579958125926</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.06874936378623052</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08633736988970524</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.06927205573253334</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08796894019815124</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.06973835215869476</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08960051050659723</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.07014792430201286</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.09123208081504321</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.0705004433997857</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0928636511234892</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.07079558068931137</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09449522143193519</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.07103300740788793</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09612679174038118</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.07121239479281342</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09775836204882717</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.07140487623415517</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09938993235727316</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.07139573651090368</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1010215026657191</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.07139398990047152</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1026530729741651</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.07129246461656276</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1042846432826111</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.07109062605007967</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1059162135910571</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.07079626136214114</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1075477838995031</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.07041715771386603</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1091793542079491</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.06996110226637321</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1108109245163951</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.06943588218078155</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1124424948248411</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.06884928461820992</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1140740651332871</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.06820909673977718</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.115705635441733</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.06752310570660218</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.117337205750179</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.0667990986798038</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.118968776058625</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.06604486282050091</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.120600346367071</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.06526818528981237</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.122231916675517</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.06447685324885706</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.123863486983963</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.06367865385875382</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.125495057292409</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.06288137428062153</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1271266276008549</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.06209280167557905</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.128758197909301</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.06132072320474526</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1303897682177469</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.06057292602923901</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1320213385261929</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.05985719731017916</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1336529088346389</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.05918132420868462</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1352844791430849</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.05855309388587421</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1369160494515309</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.05798029350286681</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1385476197599769</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.05747071022078129</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1401791900684229</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.05700760167550029</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1418107603768688</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.05654060924810209</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1434423306853148</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.05606936230792711</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1450739009937608</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.05559548372604156</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1467054713022068</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.05512059637351162</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1483370416106528</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.05464632312140345</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.05417428684078326</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1516001822275448</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.05370611040271724</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1532317525359908</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.05324341667827157</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1548633228444368</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.05278782853851242</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1564948931528828</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.05234096885450601</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1581264634613287</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.05190446049731851</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1597580337697747</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.0514799263380161</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1613896040782207</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.05106898924766497</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1630211743866667</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.0506732720973313</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1646527446951127</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.05029439775808131</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1662843150035587</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04993398910098115</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1679158853120047</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04959366899709702</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1695474556204506</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.0492750603174951</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1711790259288966</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.04897978593324159</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1728105962373426</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.04870946871540266</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1744421665457886</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.04846573153504451</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1760737368542346</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.0482501972632333</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1777053071626806</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.04806448877103527</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1793368774711266</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.04791022892951655</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1809684477795725</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.04778878783282392</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1826000180880186</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.04768170199529831</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1842315883964646</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.04757693210929584</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1858631587049105</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.04747470550877204</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1874947290133565</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.04737524952768252</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1891262993218025</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.04727879149998282</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1907578696302485</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.04718555875962854</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1923894399386945</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.04709577864057522</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1940210102471405</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.04700967847677845</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1956525805555865</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.0469274856021938</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1972841508640324</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.04684942735077682</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1989157211724784</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.04677573105648311</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.2005472914809244</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.04670662405326823</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2021788617893704</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.04664233367508772</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2038104320978164</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.04658308725589716</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2054420024062624</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.04652911212965216</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2070735727147084</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.04648063563030826</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2087051430231544</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.04643788509182101</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2103367133316004</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.04640108784814605</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2119682836400464</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.04637047123323886</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2135998539484923</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.04634626258105505</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2152314242569383</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.0463286892255502</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2168629945653843</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.04631797850067987</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2184945648738303</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.04631435774039966</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2201261351822763</v>
-      </c>
-    </row>
+        <v>0.3187113995804246</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1057.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8516,10 +8516,10 @@
       <c r="K47" s="144" t="n"/>
       <c r="L47" s="144" t="n"/>
       <c r="N47" s="159" t="n">
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="O47" s="159" t="n">
-        <v>0.08493632924887161</v>
+        <v>0.1877529822338157</v>
       </c>
       <c r="P47" s="160" t="n"/>
       <c r="W47" s="151" t="n">
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="C48" s="144" t="n">
-        <v>0.04217827674798846</v>
+        <v>0.1054456918699711</v>
       </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
@@ -8721,10 +8721,10 @@
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
       <c r="J50" s="144" t="n">
-        <v>0.04217827674798846</v>
+        <v>0.1054456918699711</v>
       </c>
       <c r="K50" s="144" t="n">
-        <v>0.06748524279678154</v>
+        <v>0.1687131069919539</v>
       </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.1031446287024655</v>
+        <v>0.2515348302439654</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.05314462870246547</v>
+        <v>0.1265348302439654</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01285829787674059</v>
+        <v>0.01264399291212824</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.007890161886257234</v>
+        <v>0.009263750637631657</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001646836715547694</v>
+        <v>0.0005314544738598812</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.01874999999999999</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001270233050847456</v>
+        <v>0.001249062499999999</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0154854179775247</v>
+        <v>0.03601259994773187</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008094687128082</v>
+        <v>0.002969108126878801</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.03000636939906537</v>
+        <v>0.05455703527102795</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001026668879370521</v>
+        <v>0.002930974058848101</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.01452639723942425</v>
+        <v>0.01836857859308559</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003293673431095387</v>
+        <v>0.001062908947719762</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.0174681646244358</v>
+        <v>0.03137649111690785</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003810699152542369</v>
+        <v>0.003135295874857017</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03601259994773187</v>
+        <v>0.03708626250598099</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003528425141242936</v>
+        <v>0.003983302501962418</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.05455703527102795</v>
+        <v>0.0562424150303833</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003849191063174111</v>
+        <v>0.003982919244997285</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.02720714953404706</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004286099292246862</v>
+        <v>0.001594363421579644</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01878524496588817</v>
+        <v>0.0335726507345169</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004804114185976776</v>
+        <v>0.005977459095877972</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.03929121102119937</v>
+        <v>0.03836538215910473</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004799858798871759</v>
+        <v>0.005974953752943627</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.05769148839923</v>
+        <v>0.05833492155351294</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004804694466036552</v>
+        <v>0.005974378867495928</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.02742907509819238</v>
+        <v>0.03567212912820115</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006587346862190775</v>
+        <v>0.002125817895439525</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.02071152137524246</v>
+        <v>0.03495057203201574</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006405485581302369</v>
+        <v>0.00796994546117063</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.04251958493490418</v>
+        <v>0.04037971578696595</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006399811731829012</v>
+        <v>0.007966605003924836</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06361103859485867</v>
+        <v>0.06177817741442526</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006406259288048736</v>
+        <v>0.00796583848999457</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004286099292246862</v>
+        <v>0.004214664304042749</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02530696604879308</v>
+        <v>0.06326741512198271</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.03305722945091218</v>
+        <v>0.04365618304323314</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008234183577738469</v>
+        <v>0.002657272369299406</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02221086476223029</v>
+        <v>0.03679427873007107</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00800685697662796</v>
+        <v>0.009962431826463286</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04590863060897132</v>
+        <v>0.04253712888705422</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.007999764664786265</v>
+        <v>0.009958256254906045</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06857038791276815</v>
+        <v>0.06358408646269098</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008007824110060919</v>
+        <v>0.009957298112493214</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.04109308425900163</v>
+        <v>0.05105197694682816</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009881020293286162</v>
+        <v>0.003188726843159287</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02360162214512117</v>
+        <v>0.03771038771123855</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009608228371953553</v>
+        <v>0.01195491819175594</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04949303423705242</v>
+        <v>0.04334548695685922</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009599717597743519</v>
+        <v>0.01194990750588725</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.07330589150823252</v>
+        <v>0.06666455254788106</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009609388932073104</v>
+        <v>0.01194875773499186</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.04267653171723729</v>
+        <v>0.05775217650667137</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01152785700883386</v>
+        <v>0.003720181317019169</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02510214054218457</v>
+        <v>0.03940551585807403</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01120959976727915</v>
+        <v>0.0139474045570486</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.051807482012799</v>
+        <v>0.04471265549387055</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01119967053070077</v>
+        <v>0.01394155875686846</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.07645390453652579</v>
+        <v>0.06883147951956614</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01121095375408529</v>
+        <v>0.0139402173574905</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.05314462870246547</v>
+        <v>0.06326741512198271</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01285829787674059</v>
+        <v>0.004214664304042749</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02623076697169004</v>
+        <v>0.04018628005313316</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01281097116260474</v>
+        <v>0.01593989092234126</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05448666012986275</v>
+        <v>0.04624649999557789</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01279962346365802</v>
+        <v>0.01593321000784967</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08075078215292197</v>
+        <v>0.06969677122731699</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01281251857609747</v>
+        <v>0.01593167697998914</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.05414933240304279</v>
+        <v>0.06912031740900883</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01482153043992924</v>
+        <v>0.004783090264738932</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02730584845190705</v>
+        <v>0.04145929717897168</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01441234255793033</v>
+        <v>0.01793237728763392</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05596525478189535</v>
+        <v>0.04775488595947086</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01439957639661528</v>
+        <v>0.01792486125883088</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.08423287951269509</v>
+        <v>0.07157233152070447</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01441408339810966</v>
+        <v>0.01792313660248778</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.05631881197075303</v>
+        <v>0.07447986074205228</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01646836715547694</v>
+        <v>0.005314544738598812</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0279457320011051</v>
+        <v>0.04233118411814532</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01601371395325592</v>
+        <v>0.01992486365292657</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05787795216254829</v>
+        <v>0.04844567888303913</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01599952932957253</v>
+        <v>0.01991651250981209</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.0863365517711191</v>
+        <v>0.07287006424929943</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01601564822012184</v>
+        <v>0.01991459622498643</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.05842139734906837</v>
+        <v>0.07971011116074485</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01811520387102463</v>
+        <v>0.005845999212458694</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02886876463755372</v>
+        <v>0.04250855775320983</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01761508534858152</v>
+        <v>0.02191735001821923</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05945943846547333</v>
+        <v>0.04952674426377227</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01759948226252979</v>
+        <v>0.0219081637607933</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08949815408346806</v>
+        <v>0.07460187326267259</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01761721304213403</v>
+        <v>0.02190605584748507</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.06641879728311252</v>
+        <v>0.0847911259730426</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01976204058657232</v>
+        <v>0.006377453686318575</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02919329337952239</v>
+        <v>0.04329803496672086</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01921645674390711</v>
+        <v>0.02390983638351189</v>
       </c>
       <c r="L77" t="n">
-        <v>0.060544399884322</v>
+        <v>0.04970594759915994</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01919943519548704</v>
+        <v>0.02389981501177451</v>
       </c>
       <c r="N77" t="n">
-        <v>0.091654041605016</v>
+        <v>0.07637966241039479</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01921877786414621</v>
+        <v>0.02389751546998371</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0662727205180092</v>
+        <v>0.08970296248690175</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02140887730212002</v>
+        <v>0.006908908160178456</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02973766524528061</v>
+        <v>0.04400623264123421</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0208178281392327</v>
+        <v>0.02590232274880454</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06146752261274599</v>
+        <v>0.0509911543866918</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02079938812844429</v>
+        <v>0.02589146626275572</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09314056949103688</v>
+        <v>0.07691533554203672</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02082034268615839</v>
+        <v>0.02588897509248236</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.07294487579888215</v>
+        <v>0.09442567801027842</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02305571401766771</v>
+        <v>0.007440362634038338</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03032022725309787</v>
+        <v>0.04463976765930555</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02241919953455829</v>
+        <v>0.02789480911409721</v>
       </c>
       <c r="L79" t="n">
-        <v>0.0629634928443969</v>
+        <v>0.05129023012385747</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02239934106140154</v>
+        <v>0.02788311751373693</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09469409289680492</v>
+        <v>0.0775207965071692</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02242190750817058</v>
+        <v>0.027880434714981</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.07739697187085506</v>
+        <v>0.09893932985112876</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02470255073321541</v>
+        <v>0.007971817107898219</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03075932642124368</v>
+        <v>0.04510525690349068</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02402057092988388</v>
+        <v>0.02988729547938986</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06326699677292633</v>
+        <v>0.05211104030814664</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0239992939943588</v>
+        <v>0.02987476876471814</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09575096697759383</v>
+        <v>0.07820794915536317</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02402347233018276</v>
+        <v>0.02987189433747964</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0745907174790517</v>
+        <v>0.103223975317409</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0263493874487631</v>
+        <v>0.0085032715817581</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0312737216340082</v>
+        <v>0.04520931725634522</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02562194232520948</v>
+        <v>0.03187978184468252</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06441668628210656</v>
+        <v>0.05216145043704892</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02559924692731605</v>
+        <v>0.03186642001569934</v>
       </c>
       <c r="N81" t="n">
-        <v>0.09705903727758725</v>
+        <v>0.07978869733618926</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02562503715219494</v>
+        <v>0.03186335395997828</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.08648782136859576</v>
+        <v>0.1072596717170751</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02799622416431079</v>
+        <v>0.009034726055617981</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03177666030757262</v>
+        <v>0.045658565600425</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02722331372053507</v>
+        <v>0.03387226820997518</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0654428025906415</v>
+        <v>0.05274932600805388</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0271991998602733</v>
+        <v>0.03385807126668056</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0992184383380606</v>
+        <v>0.08037494489921831</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02722660197420713</v>
+        <v>0.03385481358247693</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.08904999228461094</v>
+        <v>0.1110264763580834</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02964306087985849</v>
+        <v>0.009566180529477863</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03216695826699988</v>
+        <v>0.0464596188182857</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02882468511586066</v>
+        <v>0.03586475457526783</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06614205604678389</v>
+        <v>0.05318253251865121</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02879915279323056</v>
+        <v>0.03584972251766177</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0998385257346131</v>
+        <v>0.08077859569402113</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02882816679621931</v>
+        <v>0.03584627320497557</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.08623893897222104</v>
+        <v>0.11450444654839</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03128989759540618</v>
+        <v>0.01009763500333774</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03224205729379838</v>
+        <v>0.04621909379248301</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03042605651118625</v>
+        <v>0.03785724094056049</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06680918659589924</v>
+        <v>0.05356893546633062</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03039910572618781</v>
+        <v>0.03784137376864297</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1012113066757658</v>
+        <v>0.08051155357016843</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03042973161823149</v>
+        <v>0.03783773282747421</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0840163701765497</v>
+        <v>0.117673639595951</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03293673431095388</v>
+        <v>0.01062908947719762</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03259939916947652</v>
+        <v>0.04654360740557265</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03202742790651184</v>
+        <v>0.03984972730585314</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06773893418335294</v>
+        <v>0.05371640034858161</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03199905865914506</v>
+        <v>0.03983302501962418</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1025287883700399</v>
+        <v>0.08148572237723117</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03203129644024368</v>
+        <v>0.03982919244997286</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0863837359286663</v>
+        <v>0.1205141128087226</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03458357102650157</v>
+        <v>0.01116054395105751</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03313642567554273</v>
+        <v>0.04703977654011046</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03362879930183744</v>
+        <v>0.0418422136711458</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06862603875451062</v>
+        <v>0.0535327926628939</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03359901159210232</v>
+        <v>0.0418246762706054</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1034829780259562</v>
+        <v>0.08111300596477999</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03363286126225586</v>
+        <v>0.04182065207247149</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.09564580777960682</v>
+        <v>0.123005923494661</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03623040774204926</v>
+        <v>0.01169199842491739</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03345057859350538</v>
+        <v>0.04671421807865206</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03523017069716303</v>
+        <v>0.04383470003643847</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06926524025473768</v>
+        <v>0.05372597790675709</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03519896452505957</v>
+        <v>0.0438163275215866</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1040658828520361</v>
+        <v>0.08200530818238572</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03523442608426805</v>
+        <v>0.04381211169497014</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.09586741534973162</v>
+        <v>0.1251291289617222</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03787724445759696</v>
+        <v>0.01222345289877727</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0337392997048729</v>
+        <v>0.04747354890375316</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03683154209248862</v>
+        <v>0.04582718640173112</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0692512786293997</v>
+        <v>0.05380382157766089</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03679891745801683</v>
+        <v>0.04580797877256781</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1046695100568004</v>
+        <v>0.08247453287961926</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03683599090628023</v>
+        <v>0.04580357131746879</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.09404009367422023</v>
+        <v>0.1265348302439654</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03952408117314465</v>
+        <v>0.01264399291212824</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03380003079115372</v>
+        <v>0.04752438589796959</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03843291348781421</v>
+        <v>0.04781967276702378</v>
       </c>
       <c r="L89" t="n">
-        <v>0.0697788938238621</v>
+        <v>0.05437418917309492</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03839887039097407</v>
+        <v>0.04779963002354902</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1064858668487701</v>
+        <v>0.08203258390605123</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03843755572829242</v>
+        <v>0.04779503093996743</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.09715537778825217</v>
+        <v>0.1284772971340247</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04117091788869234</v>
+        <v>0.01328636184649703</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03403021363385618</v>
+        <v>0.04737303665833759</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04003428488313981</v>
+        <v>0.04981215913231644</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07024282578349039</v>
+        <v>0.05474423301422995</v>
       </c>
       <c r="M90" t="n">
-        <v>0.03999882332393133</v>
+        <v>0.04979128127453023</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1069069604364666</v>
+        <v>0.08209018277405966</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0400391205503046</v>
+        <v>0.04978649056246607</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.100204802727007</v>
+        <v>0.1300633314031873</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04281775460424003</v>
+        <v>0.01381781632035691</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03442729001448874</v>
+        <v>0.04771907518902757</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0416356562784654</v>
+        <v>0.05180464549760909</v>
       </c>
       <c r="L91" t="n">
-        <v>0.07113781445365006</v>
+        <v>0.05451145059885312</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04159877625688858</v>
+        <v>0.05178293252551144</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1073247980284107</v>
+        <v>0.08334336905417455</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04164068537231678</v>
+        <v>0.05177795018496471</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1001799035256642</v>
+        <v>0.1316302438784989</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04446459131978773</v>
+        <v>0.01434927079421679</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0344887017145598</v>
+        <v>0.04806113301790607</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04323702767379099</v>
+        <v>0.05379713186290175</v>
       </c>
       <c r="L92" t="n">
-        <v>0.07125859977970664</v>
+        <v>0.05507409638892319</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04319872918984584</v>
+        <v>0.05377458377649264</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1077313868331235</v>
+        <v>0.08328962831514569</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04324225019432897</v>
+        <v>0.05376940980746336</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.09607221521940337</v>
+        <v>0.1331779667822461</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04611142803533543</v>
+        <v>0.01488072526807668</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03451189051557776</v>
+        <v>0.04759912904590394</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04483839906911659</v>
+        <v>0.05578961822819441</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07179992170702559</v>
+        <v>0.05493207741937486</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04479868212280309</v>
+        <v>0.05576623502747385</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1081187340591261</v>
+        <v>0.08302881976084936</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04484381501634115</v>
+        <v>0.055760869429962</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.09887327284340397</v>
+        <v>0.1347064323367154</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04775826475088311</v>
+        <v>0.01541217974193656</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03493632924887161</v>
+        <v>0.04773298217395203</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04643977046444218</v>
+        <v>0.05778210459348707</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07202519989546374</v>
+        <v>0.05488530072514325</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04639863505576034</v>
+        <v>0.05775788627845507</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1091140705420559</v>
+        <v>0.08336080259516165</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04644537983835334</v>
+        <v>0.05775232905246064</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1025746114328456</v>
+        <v>0.1362155727641934</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04940510146643081</v>
+        <v>0.01594363421579644</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03473336654648801</v>
+        <v>0.04846261130298116</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04804114185976777</v>
+        <v>0.05977459095877972</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07172313514691261</v>
+        <v>0.05543367334116317</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0479985879887176</v>
+        <v>0.05974953752943628</v>
       </c>
       <c r="N95" t="n">
-        <v>0.108603732609085</v>
+        <v>0.08378543602195854</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04804694466036552</v>
+        <v>0.05974378867495929</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1051677660229078</v>
+        <v>0.1377053202869668</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05105193818197851</v>
+        <v>0.01647508868965632</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03493164524121431</v>
+        <v>0.0479879353339222</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04964251325509336</v>
+        <v>0.06176707732407238</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0715106000476573</v>
+        <v>0.05567710230236952</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04959854092167485</v>
+        <v>0.06174118878041748</v>
       </c>
       <c r="N96" t="n">
-        <v>0.109100344522628</v>
+        <v>0.08390257924511618</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0496485094823777</v>
+        <v>0.06173524829745793</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.10464427164877</v>
+        <v>0.1391756071273221</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0526987748975262</v>
+        <v>0.0170065431635162</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03490635663665388</v>
+        <v>0.04840887316770595</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05124388465041895</v>
+        <v>0.06375956368936504</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07185200057741767</v>
+        <v>0.05551549464369726</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0511984938546321</v>
+        <v>0.06373284003139869</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1090227064034878</v>
+        <v>0.0838120914685106</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05125007430438989</v>
+        <v>0.06372670791995656</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.09899566334561175</v>
+        <v>0.1406263655075459</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05434561161307389</v>
+        <v>0.01753799763737608</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03456033985042177</v>
+        <v>0.04862534370526334</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05284525604574455</v>
+        <v>0.06575205005465769</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07155115372616011</v>
+        <v>0.05554875740008133</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05279844678758935</v>
+        <v>0.06572449128237989</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1085802288757134</v>
+        <v>0.08401383189601808</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05285163912640208</v>
+        <v>0.06571816754245521</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1062892574049309</v>
+        <v>0.1420575276499247</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05599244832862158</v>
+        <v>0.01806945211123596</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03459494313743797</v>
+        <v>0.04833726584752512</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05444662744107014</v>
+        <v>0.06774453641995036</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07161083169436863</v>
+        <v>0.05557679760645667</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05439839972054661</v>
+        <v>0.06771614253336111</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1082771243709137</v>
+        <v>0.08450765973151469</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05445320394841426</v>
+        <v>0.06770962716495385</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1022892450929523</v>
+        <v>0.1434690257767451</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05763928504416928</v>
+        <v>0.01860090658509584</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0344115147526225</v>
+        <v>0.04894455849542217</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05604799883639573</v>
+        <v>0.06973702278524301</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07123380668252707</v>
+        <v>0.05559952229775808</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05599835265350386</v>
+        <v>0.06970779378434232</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1076176053206973</v>
+        <v>0.08429343417887636</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05605476877042644</v>
+        <v>0.0697010867874525</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.09625399962875361</v>
+        <v>0.1448607921102939</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05928612175971697</v>
+        <v>0.01913236105895573</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03461140295089532</v>
+        <v>0.04884714054988534</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05764937023172132</v>
+        <v>0.07172950915053566</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07062285089111947</v>
+        <v>0.05641683850892057</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05759830558646111</v>
+        <v>0.07169944503532354</v>
       </c>
       <c r="N101" t="n">
-        <v>0.107805884156673</v>
+        <v>0.08477101444197943</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05765633359243862</v>
+        <v>0.07169254640995114</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.09814932982945451</v>
+        <v>0.1462327588728574</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06093295847526466</v>
+        <v>0.01966381553281561</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03449595598717649</v>
+        <v>0.04924493091184545</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05925074162704691</v>
+        <v>0.07372199551582832</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07088073652062979</v>
+        <v>0.05632865327487901</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05919825851941837</v>
+        <v>0.07369109628630474</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1067461733104494</v>
+        <v>0.08554025972469986</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05925789841445081</v>
+        <v>0.07368400603244978</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1039797032501107</v>
+        <v>0.1475848582867223</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06257979519081236</v>
+        <v>0.02019527000667549</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03416652211638595</v>
+        <v>0.04933784848223333</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0608521130223725</v>
+        <v>0.07571448188112098</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07011023577154191</v>
+        <v>0.05653487363056839</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06079821145237562</v>
+        <v>0.07568274753728595</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1073426852136354</v>
+        <v>0.08550102923091379</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06085946323646298</v>
+        <v>0.07567546565494843</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1017495811712988</v>
+        <v>0.1489170225741753</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06422663190636006</v>
+        <v>0.02072672448053537</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03402444959344372</v>
+        <v>0.04882581216197987</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06245348441769809</v>
+        <v>0.07770696824641364</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07021412084433984</v>
+        <v>0.05613540661092353</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06239816438533288</v>
+        <v>0.07767439878826715</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1060996322978396</v>
+        <v>0.08575318216449734</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06246102805847518</v>
+        <v>0.07766692527744708</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1024634248735951</v>
+        <v>0.1502291839575027</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06587346862190775</v>
+        <v>0.02125817895439525</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03397108667326984</v>
+        <v>0.04910874085201589</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06405485581302368</v>
+        <v>0.07969945461170629</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06989516393950748</v>
+        <v>0.05663015925087939</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06399811731829012</v>
+        <v>0.07966605003924836</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1059212269946709</v>
+        <v>0.08549657772932656</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06406259288048735</v>
+        <v>0.07965838489994571</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.09912569563757609</v>
+        <v>0.1515212746589914</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06752030533745544</v>
+        <v>0.02178963342825513</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03370778161078426</v>
+        <v>0.04958655345327218</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06565622720834929</v>
+        <v>0.08169194097699896</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06965613725752881</v>
+        <v>0.05641903858537092</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06559807025124738</v>
+        <v>0.08165770129022958</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1053116817357378</v>
+        <v>0.08613107512927759</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06566415770249955</v>
+        <v>0.08164984452244435</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.09774085474381816</v>
+        <v>0.1527932269009278</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06916714205300313</v>
+        <v>0.02232108790211501</v>
       </c>
       <c r="J107" t="n">
-        <v>0.033635882660907</v>
+        <v>0.04965916886667965</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06725759860367488</v>
+        <v>0.0836844273422916</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06929981299888777</v>
+        <v>0.05680195164933297</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06719802318420463</v>
+        <v>0.08364935254121079</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1050752089526492</v>
+        <v>0.08635653356822653</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06726572252451173</v>
+        <v>0.08364130414494299</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1013133634728978</v>
+        <v>0.1540449729055985</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07081397876855083</v>
+        <v>0.02285254237597489</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03325673807855808</v>
+        <v>0.04922650599316911</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06885896999900047</v>
+        <v>0.08567691370758426</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06892896336406831</v>
+        <v>0.05657880547770053</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06879797611716189</v>
+        <v>0.085641003792192</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1045160210770137</v>
+        <v>0.08597281225004949</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06886728734652391</v>
+        <v>0.08563276376744164</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1008476831053915</v>
+        <v>0.1552764448952901</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07246081548409852</v>
+        <v>0.02338399684983478</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03307169611865746</v>
+        <v>0.04938848373367138</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07046034139432607</v>
+        <v>0.08766940007287694</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06834636055355439</v>
+        <v>0.05684950710540848</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07039792905011914</v>
+        <v>0.0876326550431732</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1032383305404402</v>
+        <v>0.08647977037862259</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0704688521685361</v>
+        <v>0.08762422338994029</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.1033482749218756</v>
+        <v>0.1564875750922892</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07410765219964621</v>
+        <v>0.02391545132369466</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03288210503612515</v>
+        <v>0.04934502098911739</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07206171278965165</v>
+        <v>0.08966188643816958</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06805477676782998</v>
+        <v>0.05721396356739172</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0719978819830764</v>
+        <v>0.08962430629415441</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1027463497745372</v>
+        <v>0.086477267157822</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07207041699054828</v>
+        <v>0.08961568301243893</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1008196002029265</v>
+        <v>0.1576782957188823</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07575448891519392</v>
+        <v>0.02444690579755454</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03278931308588118</v>
+        <v>0.04929603666043791</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07366308418497725</v>
+        <v>0.09165437280346224</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06755698420737893</v>
+        <v>0.05697208189858521</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07359783491603365</v>
+        <v>0.09161595754513562</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1020442912109136</v>
+        <v>0.08676516179152366</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07367198181256046</v>
+        <v>0.09160714263493758</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.0942661202291207</v>
+        <v>0.1588485389973562</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0774013256307416</v>
+        <v>0.02497836027141442</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03279466852284553</v>
+        <v>0.0493414496485638</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07526445558030284</v>
+        <v>0.0936468591687549</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06735575507268535</v>
+        <v>0.05662376913392381</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07519778784899091</v>
+        <v>0.09360760879611682</v>
       </c>
       <c r="N112" t="n">
-        <v>0.102336367281178</v>
+        <v>0.08594331348360368</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07527354663457264</v>
+        <v>0.09359860225743621</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0916922962810347</v>
+        <v>0.1599982371499972</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07904816234628929</v>
+        <v>0.0255098147452743</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03249951960193821</v>
+        <v>0.04948117885442588</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07686582697562842</v>
+        <v>0.09563934553404756</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06695386156423305</v>
+        <v>0.0571689323083425</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07679774078194815</v>
+        <v>0.09559926004709804</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1018267904169393</v>
+        <v>0.08691158143793837</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07687511145658484</v>
+        <v>0.09559006187993485</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.09510258963924487</v>
+        <v>0.1611273223990921</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08069499906183698</v>
+        <v>0.02604126921913418</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03220521457807919</v>
+        <v>0.04971514317895498</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07846719837095402</v>
+        <v>0.09763183189934022</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06655407588250603</v>
+        <v>0.05710747845677616</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0783976937149054</v>
+        <v>0.09759091129807924</v>
       </c>
       <c r="N114" t="n">
-        <v>0.100319773049806</v>
+        <v>0.08646982485840365</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07847667627859702</v>
+        <v>0.09758152150243349</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.09450146158432765</v>
+        <v>0.1622357269669274</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08234183577738467</v>
+        <v>0.02657272369299406</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03201310170618851</v>
+        <v>0.04974326152308201</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08006856976627962</v>
+        <v>0.09962431826463287</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06595862417305987</v>
+        <v>0.05743931461415971</v>
       </c>
       <c r="M115" t="n">
-        <v>0.07999764664786266</v>
+        <v>0.09958256254906046</v>
       </c>
       <c r="N115" t="n">
-        <v>0.100319527611387</v>
+        <v>0.08671790294887566</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0800782411006092</v>
+        <v>0.09957298112493214</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09289337339685946</v>
+        <v>0.1633233830757896</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08398867249293238</v>
+        <v>0.02710417816685394</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03200764465073105</v>
+        <v>0.05006545278773769</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0816699411616052</v>
+        <v>0.1016168046299255</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06532745602436896</v>
+        <v>0.05686434781542807</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08159759958081991</v>
+        <v>0.1015742138000417</v>
       </c>
       <c r="N116" t="n">
-        <v>0.09897939162433045</v>
+        <v>0.08705567491323063</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08167980592262139</v>
+        <v>0.1015644407474308</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.08928278635741677</v>
+        <v>0.1643902229479655</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08563550920848007</v>
+        <v>0.02763563264071383</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03167466972773297</v>
+        <v>0.049881635873853</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08327131255693079</v>
+        <v>0.1036092909952182</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06524083898186597</v>
+        <v>0.05748248509551615</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08319755251377717</v>
+        <v>0.1035658650510229</v>
       </c>
       <c r="N117" t="n">
-        <v>0.09865308184119814</v>
+        <v>0.08648299995534448</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08328137074463356</v>
+        <v>0.1035559003699294</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.090674161746576</v>
+        <v>0.1654361788057414</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08728234592402777</v>
+        <v>0.02816708711457371</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03141856812117538</v>
+        <v>0.05009172968235873</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08487268395225639</v>
+        <v>0.1056017773605109</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06470780520610325</v>
+        <v>0.05689363348935891</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08479750544673442</v>
+        <v>0.1055575163020041</v>
       </c>
       <c r="N118" t="n">
-        <v>0.09775428107351264</v>
+        <v>0.0867997372790934</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08488293556664575</v>
+        <v>0.1055473599924281</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.09407196084491362</v>
+        <v>0.1664611828714042</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08892918263957546</v>
+        <v>0.02869854158843359</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03094373260675166</v>
+        <v>0.04969565311418567</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08647405534758197</v>
+        <v>0.1075942637258035</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06393738685763309</v>
+        <v>0.05679770003189119</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08639745837969168</v>
+        <v>0.1075491675529853</v>
       </c>
       <c r="N119" t="n">
-        <v>0.09759671392698904</v>
+        <v>0.08660574608835353</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08648450038865793</v>
+        <v>0.1075388196149267</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.09443792214913413</v>
+        <v>0.1674651673672402</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09057601935512316</v>
+        <v>0.02922999606229347</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03075455596015507</v>
+        <v>0.04943660820403303</v>
       </c>
       <c r="K120" t="n">
-        <v>0.08807542674290757</v>
+        <v>0.1095867500910962</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06363861609700786</v>
+        <v>0.05672048390792955</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08799741131264892</v>
+        <v>0.1095408188039665</v>
       </c>
       <c r="N120" t="n">
-        <v>0.09629410500734276</v>
+        <v>0.08618536878212713</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08808606521067013</v>
+        <v>0.1095302792374254</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08971495028589588</v>
+        <v>0.1684480645155362</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09222285607067085</v>
+        <v>0.02976145053615335</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03035543095707893</v>
+        <v>0.04934203056459951</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08967679813823318</v>
+        <v>0.1115792364563888</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06282052508477981</v>
+        <v>0.05648900989167091</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08959736424560617</v>
+        <v>0.1115324700549477</v>
       </c>
       <c r="N121" t="n">
-        <v>0.09536017892028886</v>
+        <v>0.08583189780935979</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08968763003268231</v>
+        <v>0.111521738859924</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.09191671871341769</v>
+        <v>0.1694098065385786</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09386969278621854</v>
+        <v>0.03029290501001323</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03015075037321656</v>
+        <v>0.04934357047066321</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09127816953355876</v>
+        <v>0.1135717228216815</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0624921459815013</v>
+        <v>0.05614067228290237</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09119731717856343</v>
+        <v>0.1135241213059289</v>
       </c>
       <c r="N122" t="n">
-        <v>0.09400866027154242</v>
+        <v>0.08600220760281108</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09128919485469449</v>
+        <v>0.1135131984824227</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0940577628170978</v>
+        <v>0.170350325658654</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09551652950176623</v>
+        <v>0.03082435948387311</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02994490698426132</v>
+        <v>0.04867422952063305</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09287954092888435</v>
+        <v>0.1155642091869741</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06126251094772461</v>
+        <v>0.05601330130305246</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09279727011152068</v>
+        <v>0.1155157725569101</v>
       </c>
       <c r="N123" t="n">
-        <v>0.09375327366681885</v>
+        <v>0.08535359224965766</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09289075967670668</v>
+        <v>0.1155046581049213</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09215261798233443</v>
+        <v>0.1712695540980492</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09716336621731393</v>
+        <v>0.03135581395773299</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02974229356590645</v>
+        <v>0.04846700931291784</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09448091232420995</v>
+        <v>0.1175566955522668</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06114065214400208</v>
+        <v>0.05524472717354989</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09439722304447794</v>
+        <v>0.1175074238078914</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09190774371183325</v>
+        <v>0.08454334583707623</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09449232449871885</v>
+        <v>0.1174961177274199</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.08621581959452573</v>
+        <v>0.1721674240790506</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09881020293286162</v>
+        <v>0.03188726843159288</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02924730289384532</v>
+        <v>0.04835491144592655</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09608228371953553</v>
+        <v>0.1195491819175594</v>
       </c>
       <c r="L125" t="n">
-        <v>0.060135601730886</v>
+        <v>0.0550727801158232</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09599717597743519</v>
+        <v>0.1194990750588726</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09178579501230077</v>
+        <v>0.08352876245224355</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09609388932073104</v>
+        <v>0.1194875773499186</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.08526190303907002</v>
+        <v>0.1730438678239448</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1004570396484093</v>
+        <v>0.03241872290545276</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02906432774377124</v>
+        <v>0.04797093751806802</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09768365511486113</v>
+        <v>0.1215416682828521</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05975639186892875</v>
+        <v>0.05453529035130103</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09759712891039245</v>
+        <v>0.1214907263098538</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09050115217393662</v>
+        <v>0.08336713618233643</v>
       </c>
       <c r="O126" t="n">
-        <v>0.09769545414274322</v>
+        <v>0.1214790369724172</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.08430540370136536</v>
+        <v>0.1738988175550184</v>
       </c>
       <c r="G127" t="n">
-        <v>0.102103876363957</v>
+        <v>0.03295017737931263</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02868634301360098</v>
+        <v>0.04764808912775118</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09928502651018672</v>
+        <v>0.1235341546481448</v>
       </c>
       <c r="L127" t="n">
-        <v>0.0592794408146157</v>
+        <v>0.054670088101412</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0991970818433497</v>
+        <v>0.123482377560835</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08943358208267849</v>
+        <v>0.08231576111453154</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0992970189647554</v>
+        <v>0.1234704965949159</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.08036085696681004</v>
+        <v>0.174732205494558</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1037507130795047</v>
+        <v>0.03348163185317252</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02848341044978867</v>
+        <v>0.04731889051694402</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1008863979055123</v>
+        <v>0.1255266410134374</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05874950024360484</v>
+        <v>0.05421351638960112</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1007970347763069</v>
+        <v>0.1254740288118162</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08878859632588226</v>
+        <v>0.08232925227858667</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1008985837867676</v>
+        <v>0.1254619562174145</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.07944279822080229</v>
+        <v>0.1755439638648502</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1053975497950524</v>
+        <v>0.0340130863270324</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02795929848493381</v>
+        <v>0.04703947553504673</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1024877693008379</v>
+        <v>0.1275191273787301</v>
       </c>
       <c r="L129" t="n">
-        <v>0.0579775322085741</v>
+        <v>0.05410796658187489</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1023969877092642</v>
+        <v>0.1274656800627974</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08817712381865889</v>
+        <v>0.08161798762767319</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1025001486087798</v>
+        <v>0.1274534158399131</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.08156576284874023</v>
+        <v>0.1763340248881815</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1070443865106001</v>
+        <v>0.03454454080089228</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02762029537872827</v>
+        <v>0.04696524226926738</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1040891406961635</v>
+        <v>0.1295116137440227</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05747646625000016</v>
+        <v>0.05340846220021117</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1039969406422215</v>
+        <v>0.1294573313137786</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08721881133811044</v>
+        <v>0.08091591550860089</v>
       </c>
       <c r="O130" t="n">
-        <v>0.104101713430792</v>
+        <v>0.1294448754624118</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0876831579807309</v>
+        <v>0.1771023207868386</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1086912232261478</v>
+        <v>0.03507599527475216</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02727268939086389</v>
+        <v>0.04669777893359181</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1056905120914891</v>
+        <v>0.1315041001093154</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05665923190835964</v>
+        <v>0.05311682383784358</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1055968935751787</v>
+        <v>0.1314489825647598</v>
       </c>
       <c r="N131" t="n">
-        <v>0.08543330566133878</v>
+        <v>0.08142579322025673</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1057032782528042</v>
+        <v>0.1314363350849104</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.07671784134365441</v>
+        <v>0.177848783783108</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1103380599416955</v>
+        <v>0.03560744974861205</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02722276878103252</v>
+        <v>0.04643867374200591</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1072918834868147</v>
+        <v>0.133496586474608</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05583875872412913</v>
+        <v>0.0533348720880058</v>
       </c>
       <c r="M132" t="n">
-        <v>0.107196846508136</v>
+        <v>0.133440633815741</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0846402535654458</v>
+        <v>0.08025037806152768</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1073048430748163</v>
+        <v>0.1334277947074091</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.08568948358543241</v>
+        <v>0.1785733460992762</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1119848966572432</v>
+        <v>0.03613890422247192</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02677682180892603</v>
+        <v>0.04618951490849552</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1088932548821403</v>
+        <v>0.1354890728399007</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05502797623778527</v>
+        <v>0.05306442754393134</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1087967994410932</v>
+        <v>0.1354322850667222</v>
       </c>
       <c r="N133" t="n">
-        <v>0.08355930182753363</v>
+        <v>0.08069242733130078</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1089064078968285</v>
+        <v>0.1354192543299077</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08461889211452059</v>
+        <v>0.17927593995763</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1136317333727909</v>
+        <v>0.0366703586963318</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02654113673423625</v>
+        <v>0.04605189064704659</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1104946262774659</v>
+        <v>0.1374815592051934</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05393981398980466</v>
+        <v>0.05300731079885398</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1103967523740505</v>
+        <v>0.1374239363177034</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08251009722470398</v>
+        <v>0.07995469832846314</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1105079727188407</v>
+        <v>0.1374107139524063</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.08352687433937464</v>
+        <v>0.1799564975804558</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1152785700883386</v>
+        <v>0.03720181317019169</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02602200181665502</v>
+        <v>0.04612738917164499</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1120959976727915</v>
+        <v>0.139474045570486</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05368720152066395</v>
+        <v>0.05256534244600725</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1119967053070077</v>
+        <v>0.1394155875686846</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08141228653405891</v>
+        <v>0.07963994835190158</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1121095375408529</v>
+        <v>0.139402173574905</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07343423766845029</v>
+        <v>0.1806149511900403</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1169254068038863</v>
+        <v>0.03773326764405157</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02592570531587424</v>
+        <v>0.04591759869627654</v>
       </c>
       <c r="K136" t="n">
-        <v>0.113697369068117</v>
+        <v>0.1414665319357787</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05338306837083975</v>
+        <v>0.05294034307862472</v>
       </c>
       <c r="M136" t="n">
-        <v>0.113596658239965</v>
+        <v>0.1414072388196659</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08048551653270036</v>
+        <v>0.0799509347005033</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1137111023628651</v>
+        <v>0.1413936331974036</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07936178951020315</v>
+        <v>0.1812512330086701</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1185722435194339</v>
+        <v>0.03826472211791145</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02545853549158572</v>
+        <v>0.04572410743492719</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1152987404634426</v>
+        <v>0.1434590183010713</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05214034408080867</v>
+        <v>0.05263413328994004</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1151966111729222</v>
+        <v>0.1433988900706471</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07974943399773027</v>
+        <v>0.07919041467315519</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1153126671848772</v>
+        <v>0.1433850928199023</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07733033727308899</v>
+        <v>0.1818652752586317</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1202190802349816</v>
+        <v>0.03879617659177133</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02542678060348133</v>
+        <v>0.0455485036015828</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1169001118587682</v>
+        <v>0.145451504666364</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05167195819104736</v>
+        <v>0.05274853367318694</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1167965641058795</v>
+        <v>0.1453905413216283</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07932368570625048</v>
+        <v>0.07966114556874432</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1169142320068894</v>
+        <v>0.1453765524424009</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07336068836556346</v>
+        <v>0.1824570101622116</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1218659169505293</v>
+        <v>0.03932763106563122</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02493672891125291</v>
+        <v>0.04549237541022921</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1185014832540938</v>
+        <v>0.1474439910316566</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05129084024203243</v>
+        <v>0.05238536482159889</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1183965170388367</v>
+        <v>0.1473821925726095</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0781279184353631</v>
+        <v>0.07986588468615763</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1185157968289016</v>
+        <v>0.1473680120648996</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06947365019608229</v>
+        <v>0.1830263699416965</v>
       </c>
       <c r="G140" t="n">
-        <v>0.123512753666077</v>
+        <v>0.03985908553949109</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02509466867459229</v>
+        <v>0.04595534175201582</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1201028546494194</v>
+        <v>0.1494364773969493</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05120991977424053</v>
+        <v>0.05274370347270382</v>
       </c>
       <c r="M140" t="n">
-        <v>0.119996469971794</v>
+        <v>0.1493738438235907</v>
       </c>
       <c r="N140" t="n">
-        <v>0.0778817789621698</v>
+        <v>0.07990305405968173</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1201173616509138</v>
+        <v>0.1493594716873982</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06869003017310113</v>
+        <v>0.183573286819373</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1251595903816247</v>
+        <v>0.04039054001335098</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02470688815319137</v>
+        <v>0.04562695659516375</v>
       </c>
       <c r="K141" t="n">
-        <v>0.121704226044745</v>
+        <v>0.151428963762242</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05114212632814821</v>
+        <v>0.05251151649566849</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1215964229047512</v>
+        <v>0.1513654950745719</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07790491406377281</v>
+        <v>0.07985442803632714</v>
       </c>
       <c r="O141" t="n">
-        <v>0.121718926472926</v>
+        <v>0.1513509313098969</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07003063570507569</v>
+        <v>0.1840976930175277</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1268064270971724</v>
+        <v>0.04092199448721086</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02467950449778715</v>
+        <v>0.04590430200901946</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1233055974400706</v>
+        <v>0.1534214501275346</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05089836070735948</v>
+        <v>0.05238582095233288</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1231963758377085</v>
+        <v>0.1533571463255531</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07721662005702934</v>
+        <v>0.07941560634318862</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1233204912949382</v>
+        <v>0.1533423909323955</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06951627420046164</v>
+        <v>0.1845995207584472</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1284532638127201</v>
+        <v>0.04145344896107074</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02488499784400917</v>
+        <v>0.04538601876565962</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1249069688353962</v>
+        <v>0.1554139364928273</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05091175659426064</v>
+        <v>0.05256505873958101</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1247963287706658</v>
+        <v>0.1553487975765343</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07783334751524168</v>
+        <v>0.07978422922416706</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1249220561169504</v>
+        <v>0.1553338505548942</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07616775306771474</v>
+        <v>0.1850787022644179</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1301001005282678</v>
+        <v>0.04198490343493062</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02499967109050051</v>
+        <v>0.04567074763716095</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1265083402307218</v>
+        <v>0.1574064228581199</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05104394245585248</v>
+        <v>0.05224767175429704</v>
       </c>
       <c r="M144" t="n">
-        <v>0.126396281703623</v>
+        <v>0.1573404488275155</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07787877390494286</v>
+        <v>0.07895793692316294</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1265236209389625</v>
+        <v>0.1573253101773928</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0700058797152906</v>
+        <v>0.1855351697577265</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1317469372438155</v>
+        <v>0.0425163579087905</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0248230621782296</v>
+        <v>0.04535712939560013</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1281097116260474</v>
+        <v>0.1593989092234126</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05089396823421052</v>
+        <v>0.05253210189336513</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1279962346365802</v>
+        <v>0.1593321000784967</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07775145558810803</v>
+        <v>0.07913436968407722</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1281251857609747</v>
+        <v>0.1593167697998914</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.0690045178839841</v>
+        <v>0.1859688554606596</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1333937739593632</v>
+        <v>0.04304781238265038</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02475470904816494</v>
+        <v>0.04524380481305382</v>
       </c>
       <c r="K146" t="n">
-        <v>0.129711083021373</v>
+        <v>0.1613913955887052</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05106088387141047</v>
+        <v>0.0525167910536693</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1295961875695375</v>
+        <v>0.1613237513294779</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07754994892671269</v>
+        <v>0.07891116775081047</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1297267505829869</v>
+        <v>0.1613082294223901</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06904093411332464</v>
+        <v>0.1863796915955038</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1350406106749109</v>
+        <v>0.04357926685651026</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02499414964127492</v>
+        <v>0.04532941466159882</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1313124544166986</v>
+        <v>0.1633838819539979</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0517437393095278</v>
+        <v>0.05200018113209365</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1311961405024948</v>
+        <v>0.1633154025804592</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07757281028273177</v>
+        <v>0.07958597136726359</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1313283154049991</v>
+        <v>0.1632996890448887</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.07410587910464379</v>
+        <v>0.1867676103845456</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1366874473904586</v>
+        <v>0.04411072133037014</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02484092189852805</v>
+        <v>0.04561259971331177</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1329138258120242</v>
+        <v>0.1653763683192906</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05144158449063824</v>
+        <v>0.05248071402552235</v>
       </c>
       <c r="M148" t="n">
-        <v>0.132796093435452</v>
+        <v>0.1653070538314403</v>
       </c>
       <c r="N148" t="n">
-        <v>0.07801859601814082</v>
+        <v>0.07945642077733717</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1329298802270113</v>
+        <v>0.1652911486673874</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0761978239371477</v>
+        <v>0.1871325440500717</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1383342841060063</v>
+        <v>0.04464217580423003</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02509456376089272</v>
+        <v>0.04579200074026937</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1345151972073498</v>
+        <v>0.1673688546845832</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05185346935681731</v>
+        <v>0.05215683163083942</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1343960463684093</v>
+        <v>0.1672987050824216</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07798586249491496</v>
+        <v>0.07902015622493214</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1345314450490235</v>
+        <v>0.167282608289886</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.07031523969004254</v>
+        <v>0.1874744248143686</v>
       </c>
       <c r="G150" t="n">
-        <v>0.139981120821554</v>
+        <v>0.0451736302780899</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02515461316933745</v>
+        <v>0.04556625851454837</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1361165686026753</v>
+        <v>0.1693613410498759</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05187844385014057</v>
+        <v>0.05242697584492911</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1359959993013665</v>
+        <v>0.1692903563334028</v>
       </c>
       <c r="N150" t="n">
-        <v>0.07817316607502933</v>
+        <v>0.07907481795394899</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1361330098710356</v>
+        <v>0.1692740679123846</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.07645659744253445</v>
+        <v>0.1877931848997229</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1416279575371017</v>
+        <v>0.04570508475194979</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02532060806483068</v>
+        <v>0.04573401118068557</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1377179399980009</v>
+        <v>0.1713538274151685</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05211555791268371</v>
+        <v>0.05198948977992413</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1375959522343238</v>
+        <v>0.171282007584384</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07827906312045929</v>
+        <v>0.07881783459100644</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1377345746930478</v>
+        <v>0.1712655275348833</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07362036827382959</v>
+        <v>0.1880887565284212</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1432747942526494</v>
+        <v>0.04623653922580967</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02529208638834085</v>
+        <v>0.04566830707440847</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1393193113933265</v>
+        <v>0.1733463137804612</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05176386148652226</v>
+        <v>0.05221100021498729</v>
       </c>
       <c r="M152" t="n">
-        <v>0.139195905167281</v>
+        <v>0.1732736588353652</v>
       </c>
       <c r="N152" t="n">
-        <v>0.07870210999318017</v>
+        <v>0.07849786108399193</v>
       </c>
       <c r="O152" t="n">
-        <v>0.13933613951506</v>
+        <v>0.1732569871573819</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07380502326313408</v>
+        <v>0.18836107192275</v>
       </c>
       <c r="G153" t="n">
-        <v>0.144921630968197</v>
+        <v>0.04676799369966955</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02536858608083643</v>
+        <v>0.04504763742902915</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1409206827886521</v>
+        <v>0.1753388001457539</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05212240451373182</v>
+        <v>0.05176975867643677</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1407958581002383</v>
+        <v>0.1752653100863464</v>
       </c>
       <c r="N153" t="n">
-        <v>0.079040863055167</v>
+        <v>0.07898293830922187</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1409377043370722</v>
+        <v>0.1752484467798806</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.07100903348965411</v>
+        <v>0.1886100633049961</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1465684676837447</v>
+        <v>0.04729944817352943</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02544964508328586</v>
+        <v>0.04507724539201588</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1425220541839777</v>
+        <v>0.1773312865110465</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05209023693638803</v>
+        <v>0.05207177546193303</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1423958110331955</v>
+        <v>0.1772569613373276</v>
       </c>
       <c r="N154" t="n">
-        <v>0.07969387866839517</v>
+        <v>0.07878216889695078</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1425392691590844</v>
+        <v>0.1772399064023792</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.07723087003259581</v>
+        <v>0.1888356628974459</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1482153043992924</v>
+        <v>0.04783090264738931</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02546057723486279</v>
+        <v>0.04486237411083691</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1441234255793033</v>
+        <v>0.1793237728763392</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05263279914370361</v>
+        <v>0.05132306086913652</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1439957639661528</v>
+        <v>0.1792486125883088</v>
       </c>
       <c r="N155" t="n">
-        <v>0.07923764470174555</v>
+        <v>0.07830465547743332</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1441408339810966</v>
+        <v>0.1792313660248779</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.07746900397116534</v>
+        <v>0.1890378029223859</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1498621411148401</v>
+        <v>0.0483623571212492</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02564689627121187</v>
+        <v>0.04470826673296049</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1457247969746289</v>
+        <v>0.1813162592416318</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05303032793024071</v>
+        <v>0.05082962519570763</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1455957168991101</v>
+        <v>0.18124026383929</v>
       </c>
       <c r="N156" t="n">
-        <v>0.07991675673348908</v>
+        <v>0.07755950068092404</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1457423988031087</v>
+        <v>0.1812228256473765</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06772190638456883</v>
+        <v>0.1892164156021028</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1515089778303878</v>
+        <v>0.04889381159510908</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02589636529142489</v>
+        <v>0.04402016640585502</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1473261683699545</v>
+        <v>0.1833087456069245</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05335507094483199</v>
+        <v>0.05099747873930682</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1471956698320673</v>
+        <v>0.1832319150902712</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08049371655688714</v>
+        <v>0.07665580713767767</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1473439636251209</v>
+        <v>0.1832142852698752</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.074064656541207</v>
+        <v>0.1893714331588834</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1531558145459355</v>
+        <v>0.04942526606896896</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02609503584855874</v>
+        <v>0.04370331627698865</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1489275397652801</v>
+        <v>0.1853012319722172</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05377834823178629</v>
+        <v>0.05063263179759456</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1487956227650246</v>
+        <v>0.1852235663412524</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08212494422431704</v>
+        <v>0.0761026774779488</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1489455284471331</v>
+        <v>0.1852057448923738</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.07564852733910843</v>
+        <v>0.1895027878150139</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1548026512614832</v>
+        <v>0.04995672054282883</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02672895949567028</v>
+        <v>0.04356295949382966</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1505289111606057</v>
+        <v>0.1872937183375098</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05517147983541243</v>
+        <v>0.05034109466823128</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1503955756979818</v>
+        <v>0.1872152175922336</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08346685978815593</v>
+        <v>0.07550921433199209</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1505470932691453</v>
+        <v>0.1871972045148724</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.07843474017398407</v>
+        <v>0.1896104117927811</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1564494879770309</v>
+        <v>0.05048817501668872</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02708418778581641</v>
+        <v>0.04310433920384643</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1521302825559313</v>
+        <v>0.1892862047028024</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05550578580001925</v>
+        <v>0.04992887764887741</v>
       </c>
       <c r="M160" t="n">
-        <v>0.151995528630939</v>
+        <v>0.1892068688432149</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08367588330078102</v>
+        <v>0.07498452033006214</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1521486580911575</v>
+        <v>0.1891886641373711</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.07037714061724948</v>
+        <v>0.1896942373144715</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1580963246925786</v>
+        <v>0.0510196294905486</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02724677227205403</v>
+        <v>0.04303269855450714</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1537316539512568</v>
+        <v>0.1912786910680951</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05655258616991557</v>
+        <v>0.04890199103719334</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1535954815638963</v>
+        <v>0.1911985200941961</v>
       </c>
       <c r="N161" t="n">
-        <v>0.0849084348145695</v>
+        <v>0.0742376981024136</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1537502229131697</v>
+        <v>0.1911801237598697</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.07242957424032025</v>
+        <v>0.1897541966023718</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1597431614081263</v>
+        <v>0.05155108396440848</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02770276450744007</v>
+        <v>0.04245328069328008</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1553330253465824</v>
+        <v>0.1932711774333878</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05718320098941018</v>
+        <v>0.0488664451308396</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1551954344968536</v>
+        <v>0.1931901713451773</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08612093438189866</v>
+        <v>0.07397785027930109</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1553517877351819</v>
+        <v>0.1931715833823684</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.07454588661461195</v>
+        <v>0.1897902218787685</v>
       </c>
       <c r="G163" t="n">
-        <v>0.161389998123674</v>
+        <v>0.05208253843826836</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02793821604503137</v>
+        <v>0.04217132876763358</v>
       </c>
       <c r="K163" t="n">
-        <v>0.156934396741908</v>
+        <v>0.1952636637986804</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05736895030281194</v>
+        <v>0.04822825022747657</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1567953874298108</v>
+        <v>0.1951818225961585</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08716980205514552</v>
+        <v>0.07381407949097918</v>
       </c>
       <c r="O163" t="n">
-        <v>0.156953352557194</v>
+        <v>0.195163043004867</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.07867992331154022</v>
+        <v>0.1898022453659481</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1630368348392217</v>
+        <v>0.05261399291212825</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02843917843788486</v>
+        <v>0.04179208592503583</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1585357681372336</v>
+        <v>0.1972561501639731</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05858115415442963</v>
+        <v>0.0481934166247647</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1583953403627681</v>
+        <v>0.1971734738471397</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08881145788668737</v>
+        <v>0.07315548836770253</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1585549173792062</v>
+        <v>0.1971545026273656</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.08078552990252061</v>
+        <v>0.1898022453659481</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1646836715547693</v>
+        <v>0.05261399291212825</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02840002369172727</v>
+        <v>0.04112079531295521</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1601371395325592</v>
+        <v>0.1992486365292657</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05881411662905825</v>
+        <v>0.04726795462036446</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1599952932957253</v>
+        <v>0.1991651250981209</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08912720898766452</v>
+        <v>0.07221117953972578</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1601564822012184</v>
+        <v>0.1991459622498643</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.07781655195896872</v>
+        <v>0.186842039129449</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1663305082703171</v>
+        <v>0.05261372438366423</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02885033674415859</v>
+        <v>0.0412627000788599</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1617385109278848</v>
+        <v>0.2012411228945584</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05912860338289699</v>
+        <v>0.04725787451193619</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1615952462286826</v>
+        <v>0.2011567763491021</v>
       </c>
       <c r="N166" t="n">
-        <v>0.09020931707398472</v>
+        <v>0.07179025563730368</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1617580470232306</v>
+        <v>0.2011374218723629</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.08072683505230011</v>
+        <v>0.1839137344076421</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1679773449858648</v>
+        <v>0.05261345585520021</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02909470431803481</v>
+        <v>0.04082304337021816</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1633398823232104</v>
+        <v>0.2032336092598511</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05983093361190103</v>
+        <v>0.04636918659714045</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1631951991616398</v>
+        <v>0.2031484276000833</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09117283523494596</v>
+        <v>0.07110181929069059</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1633596118452428</v>
+        <v>0.2031288814948616</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.08752696412314145</v>
+        <v>0.1810186227214416</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1696241817014124</v>
+        <v>0.0526131873267362</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02933356890007476</v>
+        <v>0.0406070683344984</v>
       </c>
       <c r="K168" t="n">
-        <v>0.164941253718536</v>
+        <v>0.2052260956251437</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06042201713058548</v>
+        <v>0.04610790117363767</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1647951520945971</v>
+        <v>0.2051400788510645</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09121914595765312</v>
+        <v>0.06995497313014132</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1649611766672549</v>
+        <v>0.2051203411173602</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.08430462302193198</v>
+        <v>0.1781579955915081</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1712710184169601</v>
+        <v>0.05261291879827218</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02966737297699729</v>
+        <v>0.04022001811916873</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1665426251138616</v>
+        <v>0.2072185819904364</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06050276375346528</v>
+        <v>0.04628002853908819</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1663951050275543</v>
+        <v>0.2071317301020457</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09184963172921085</v>
+        <v>0.06995881978591051</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1665627414892671</v>
+        <v>0.2071118007398589</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.08406358300032821</v>
+        <v>0.1753331445387524</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1729178551325078</v>
+        <v>0.05261265026980816</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02959655903552122</v>
+        <v>0.03966713587169754</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1681439965091872</v>
+        <v>0.209211068355729</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06117408329505539</v>
+        <v>0.04609157899115252</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1679950579605116</v>
+        <v>0.209123381353027</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09326567503672423</v>
+        <v>0.06952246188825273</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1681643063112793</v>
+        <v>0.2091032603623575</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.08980530821571975</v>
+        <v>0.1725453610838383</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1745646918480555</v>
+        <v>0.05261238174134414</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0298215695623654</v>
+        <v>0.03955366374735814</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1697453679045128</v>
+        <v>0.2112035547210217</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06163688556987085</v>
+        <v>0.0455484993948502</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1695950108934688</v>
+        <v>0.2111150326040082</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09316865836729782</v>
+        <v>0.06865486397459775</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1697658711332915</v>
+        <v>0.2110947199848561</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.08853126282549617</v>
+        <v>0.1697959367476738</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1762115285636032</v>
+        <v>0.05261211321288013</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03034284704424869</v>
+        <v>0.03955702563767863</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1713467392998384</v>
+        <v>0.2131960410863144</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06249208039242657</v>
+        <v>0.0456225517273891</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1711949638264261</v>
+        <v>0.2131066838549894</v>
       </c>
       <c r="N172" t="n">
-        <v>0.09445996420803654</v>
+        <v>0.06851247907024394</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1713674359553037</v>
+        <v>0.2130861796073548</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.08724291098704692</v>
+        <v>0.1670861630509256</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1778583652791509</v>
+        <v>0.05261184468441611</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03046083396788991</v>
+        <v>0.03925442217464276</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1729481106951639</v>
+        <v>0.215188527451607</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0628405775772376</v>
+        <v>0.04518993661878443</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1727949167593834</v>
+        <v>0.2150983351059706</v>
       </c>
       <c r="N173" t="n">
-        <v>0.09544097504604515</v>
+        <v>0.06796005565209801</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1729690007773159</v>
+        <v>0.2150776392298534</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.08894171685776164</v>
+        <v>0.1644173315144984</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1795052019946986</v>
+        <v>0.05261157615595209</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03067597282000792</v>
+        <v>0.03924977911306912</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1745494820904895</v>
+        <v>0.2171810138168996</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06298328693881894</v>
+        <v>0.04445515421997492</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1743948696923406</v>
+        <v>0.2170899863569518</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09531307336842854</v>
+        <v>0.06740440922454949</v>
       </c>
       <c r="O174" t="n">
-        <v>0.174570565599328</v>
+        <v>0.2170690988523521</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.09162914459502983</v>
+        <v>0.1617907336590624</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1811520387102463</v>
+        <v>0.05261130762748807</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03068870608732158</v>
+        <v>0.03854702220777625</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1761508534858151</v>
+        <v>0.2191735001821923</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06322111829168547</v>
+        <v>0.04422270468189937</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1759948226252978</v>
+        <v>0.219081637607933</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09667764166229148</v>
+        <v>0.06725235529198748</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1761721304213403</v>
+        <v>0.2190605584748507</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.08830665835624096</v>
+        <v>0.1592076610055188</v>
       </c>
       <c r="G176" t="n">
-        <v>0.182798875425794</v>
+        <v>0.05261103909902406</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03089950800209369</v>
+        <v>0.03855007721358275</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1777522248811407</v>
+        <v>0.221165986547485</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06435534994258094</v>
+        <v>0.04399708815549658</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1775947755582551</v>
+        <v>0.2210732888589142</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09653612773471815</v>
+        <v>0.06701070935880143</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1777736952433524</v>
+        <v>0.2210520180973494</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0899757222987847</v>
+        <v>0.1566694050745415</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1844457121413417</v>
+        <v>0.05261077057056004</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0313184169004485</v>
+        <v>0.03846286988530723</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1793535962764664</v>
+        <v>0.2231584729127777</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06470851355948712</v>
+        <v>0.04418280479170528</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1791947284912123</v>
+        <v>0.2230649401098954</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09811943443624277</v>
+        <v>0.06688628692938053</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1793752600653646</v>
+        <v>0.223043477719848</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0876378005800505</v>
+        <v>0.1541772573870276</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1860925488568894</v>
+        <v>0.05261050204209602</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03134795569243494</v>
+        <v>0.03848932597776814</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1809549676717919</v>
+        <v>0.2251509592780703</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06468234761650771</v>
+        <v>0.04378435474146425</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1807946814241696</v>
+        <v>0.2250565913608766</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09823619825894037</v>
+        <v>0.0666859035081141</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1809768248873768</v>
+        <v>0.2250349373423466</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.09230597988067557</v>
+        <v>0.1517325094636552</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1877393855724371</v>
+        <v>0.052610233513632</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03188052323664964</v>
+        <v>0.03803337124578413</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1825563390671175</v>
+        <v>0.2271434456433629</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06566122310494077</v>
+        <v>0.04350623815571228</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1823946343571269</v>
+        <v>0.2270482426118578</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09866267051268207</v>
+        <v>0.06591637459939148</v>
       </c>
       <c r="O179" t="n">
-        <v>0.182578389709389</v>
+        <v>0.2270263969648453</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.08801367074961494</v>
+        <v>0.1493364528253174</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1893862222879848</v>
+        <v>0.05260996498516799</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03200851839168921</v>
+        <v>0.03769893144417383</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1841577104624431</v>
+        <v>0.2291359320086556</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06562951101608455</v>
+        <v>0.04355295518538813</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1839945872900841</v>
+        <v>0.229039893862839</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1000751025073389</v>
+        <v>0.06608451570760193</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1841799545314012</v>
+        <v>0.2290178565873439</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.08774052010240765</v>
+        <v>0.1469903789926963</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1910330590035325</v>
+        <v>0.05260969645670397</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0320243400161503</v>
+        <v>0.03778993232775568</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1857590818577687</v>
+        <v>0.2311284183739483</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0666715823412371</v>
+        <v>0.04352900598143064</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1855945402230414</v>
+        <v>0.2310315451138203</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1002497455527818</v>
+        <v>0.06629714233713474</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1857815193534134</v>
+        <v>0.2310093162098426</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.08946137629747736</v>
+        <v>0.1446955794866808</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1926798957190802</v>
+        <v>0.05260942792823995</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03242038696862952</v>
+        <v>0.03791029965134829</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1873604532530943</v>
+        <v>0.2331209047392409</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06637180807169657</v>
+        <v>0.04343889069477852</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1871944931559986</v>
+        <v>0.2330231963648015</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1011628509588819</v>
+        <v>0.06566106999237925</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1873830841754255</v>
+        <v>0.2330007758323412</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.09515108769324734</v>
+        <v>0.1424533458280057</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1943267324346279</v>
+        <v>0.05260915939977594</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0326890581077235</v>
+        <v>0.03746395916977033</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1889618246484199</v>
+        <v>0.2351133911045336</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06671455919876121</v>
+        <v>0.0432871094763706</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1887944460889559</v>
+        <v>0.2350148476157827</v>
       </c>
       <c r="N183" t="n">
-        <v>0.10129067003551</v>
+        <v>0.06618311417772471</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1889846489974377</v>
+        <v>0.2349922354548399</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.09178450264814125</v>
+        <v>0.1402649695374105</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1959735691501756</v>
+        <v>0.05260889087131192</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03272275229202885</v>
+        <v>0.03775405417918323</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1905631960437455</v>
+        <v>0.2371058774698263</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06768420671372907</v>
+        <v>0.04317702061444975</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1903943990219131</v>
+        <v>0.2370064988667639</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1022094540925374</v>
+        <v>0.06516826940507109</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1905862138194499</v>
+        <v>0.2369836950773385</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0933364695205825</v>
+        <v>0.1381317421357769</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1976204058657232</v>
+        <v>0.0526086223428479</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03261706031945001</v>
+        <v>0.03756777696627447</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1921645674390711</v>
+        <v>0.2390983638351189</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06787445889725122</v>
+        <v>0.04359343567079699</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1919943519548704</v>
+        <v>0.2389981501177451</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1021049116308816</v>
+        <v>0.06569336791254421</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1921877786414621</v>
+        <v>0.2389751546998372</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.09378183666899462</v>
+        <v>0.1360549551437989</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1992672425812709</v>
+        <v>0.05260835381438388</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0330008713587561</v>
+        <v>0.03769854774778059</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1937659388343967</v>
+        <v>0.2410908502004115</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06744683565126119</v>
+        <v>0.04322936128167393</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1935943048878276</v>
+        <v>0.2409898013687263</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1021667570464495</v>
+        <v>0.0655480042047844</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1937893434634743</v>
+        <v>0.2409666143223358</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.09909783100129957</v>
+        <v>0.1340359000823532</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2009140792968186</v>
+        <v>0.05260808528591987</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03308288093103882</v>
+        <v>0.0376453128943903</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1953673102297223</v>
+        <v>0.2430833365657042</v>
       </c>
       <c r="L187" t="n">
-        <v>0.0677155010760753</v>
+        <v>0.04378358965618354</v>
       </c>
       <c r="M187" t="n">
-        <v>0.1951942578207849</v>
+        <v>0.2429814526197075</v>
       </c>
       <c r="N187" t="n">
-        <v>0.103122975536446</v>
+        <v>0.06533034907555535</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1953909082854864</v>
+        <v>0.2429580739448344</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.09236101475093783</v>
+        <v>0.1320758684721386</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2025609160123663</v>
+        <v>0.05260781675745585</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03286306106306926</v>
+        <v>0.03760701877679237</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1969686816250479</v>
+        <v>0.2450758229309969</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06818039765482661</v>
+        <v>0.04385491300342867</v>
       </c>
       <c r="M188" t="n">
-        <v>0.1967942107537421</v>
+        <v>0.2449731038706887</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1031734797024781</v>
+        <v>0.06563857331862111</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1969924731074986</v>
+        <v>0.244949533567333</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.09561841633911722</v>
+        <v>0.130176151834027</v>
       </c>
       <c r="G189" t="n">
-        <v>0.204207752727914</v>
+        <v>0.05260754822899184</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03304138378161843</v>
+        <v>0.03808261176567557</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1985700530203734</v>
+        <v>0.2470683092962895</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06794146787064836</v>
+        <v>0.04344212353251223</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1983941636866994</v>
+        <v>0.2469647551216699</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1034181821461524</v>
+        <v>0.06567084772774556</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1985940379295108</v>
+        <v>0.2469409931898317</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1008699432043932</v>
+        <v>0.1283327679788435</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2058545894434617</v>
+        <v>0.05260727970052782</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03311782111345747</v>
+        <v>0.03777103823172864</v>
       </c>
       <c r="K190" t="n">
-        <v>0.200171424415699</v>
+        <v>0.2490607956615822</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06799865420667356</v>
+        <v>0.04384401345253713</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1999941166196566</v>
+        <v>0.2489564063726512</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1038569954690757</v>
+        <v>0.0657253430966927</v>
       </c>
       <c r="O190" t="n">
-        <v>0.200195602751523</v>
+        <v>0.2489324528123303</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.09611550278532147</v>
+        <v>0.1265153661681843</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2075014261590094</v>
+        <v>0.0526070111720638</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03329234508535743</v>
+        <v>0.03797124454564027</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2017727958110246</v>
+        <v>0.2510532820268748</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06845189914603533</v>
+        <v>0.04395937497260627</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2015940695526139</v>
+        <v>0.2509480576236324</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1033898322728546</v>
+        <v>0.06650023021922635</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2017971675735352</v>
+        <v>0.250923912434829</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.09235500252045747</v>
+        <v>0.1247199642128784</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2091482628745571</v>
+        <v>0.05260674264359978</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03326492772408936</v>
+        <v>0.03798217707809937</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2033741672063502</v>
+        <v>0.2530457683921675</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06900114517186684</v>
+        <v>0.04368700030182254</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2031940224855711</v>
+        <v>0.2529397088746135</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1045166051590961</v>
+        <v>0.06679367988911034</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2033987323955474</v>
+        <v>0.2529153720573277</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.09258834984835682</v>
+        <v>0.1229478536337906</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2107950995901048</v>
+        <v>0.05260647411513577</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03343554105642436</v>
+        <v>0.03850278219979453</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2049755386016758</v>
+        <v>0.2550382547574602</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06844633476730108</v>
+        <v>0.04412568164928884</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2047939754185284</v>
+        <v>0.2549313601255948</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1045372267294066</v>
+        <v>0.06720386290010882</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2050002972175596</v>
+        <v>0.2549068316798263</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.09381545220757498</v>
+        <v>0.1212003259516303</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2124419363056525</v>
+        <v>0.05260620558667175</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03360415710913352</v>
+        <v>0.03833200628141462</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2065769099970014</v>
+        <v>0.2570307411227528</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06858741041547128</v>
+        <v>0.04437421122410803</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2063939283514857</v>
+        <v>0.256923011376576</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1042516095853929</v>
+        <v>0.06742895004598548</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2066018620395717</v>
+        <v>0.2568982913023249</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.09803621703666759</v>
+        <v>0.1194786726872602</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2140887730212002</v>
+        <v>0.05260593705820773</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03367074790898786</v>
+        <v>0.03846879569364836</v>
       </c>
       <c r="K195" t="n">
-        <v>0.208178281392327</v>
+        <v>0.2590232274880455</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06882431459951047</v>
+        <v>0.0441313812353831</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2079938812844429</v>
+        <v>0.2589146626275572</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1041596663286618</v>
+        <v>0.06676711212050435</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2082034268615839</v>
+        <v>0.2588897509248236</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1022505517741902</v>
+        <v>0.1177841853613918</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2157356097367479</v>
+        <v>0.05260566852974371</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03373528548275846</v>
+        <v>0.0388120968071845</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2097796527876526</v>
+        <v>0.2610157138533381</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06955698980255176</v>
+        <v>0.04419598389221685</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2095938342174002</v>
+        <v>0.2609063138785384</v>
       </c>
       <c r="N196" t="n">
-        <v>0.10476130956082</v>
+        <v>0.0680165199174293</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2098049916835961</v>
+        <v>0.2608812105473222</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.0954583638586983</v>
+        <v>0.1161181554948856</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2173824464522955</v>
+        <v>0.0526054000012797</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03379774185721642</v>
+        <v>0.03926085599271181</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2113810241829782</v>
+        <v>0.2630082002186307</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06908537850772828</v>
+        <v>0.04436681140371224</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2111937871503574</v>
+        <v>0.2628979651295196</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1054564518834742</v>
+        <v>0.06777534423052423</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2114065565056083</v>
+        <v>0.2628726701698209</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.09765956072874749</v>
+        <v>0.1144818746084908</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2190292831678432</v>
+        <v>0.05260513147281568</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03385808905913282</v>
+        <v>0.03941401962091903</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2129823955783038</v>
+        <v>0.2650006865839235</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06910942319817309</v>
+        <v>0.04454265597897214</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2127937400833147</v>
+        <v>0.2648896163805008</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1047450058982312</v>
+        <v>0.06844175585355311</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2130081213276205</v>
+        <v>0.2648641297923195</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.09785404982289331</v>
+        <v>0.1128766342229594</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2206761198833909</v>
+        <v>0.05260486294435166</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03381629911527867</v>
+        <v>0.03918084287906151</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2145837669736294</v>
+        <v>0.2669931729492161</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06922906635701936</v>
+        <v>0.04523554844060745</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2143936930162719</v>
+        <v>0.266881267631482</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1050268842066976</v>
+        <v>0.06783448700381939</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2146096861496326</v>
+        <v>0.2668555894148181</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.1000417385796913</v>
+        <v>0.1113037258591479</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2223229565989386</v>
+        <v>0.05260459441588765</v>
       </c>
       <c r="J200" t="n">
-        <v>0.0337723440524251</v>
+        <v>0.03982844658603799</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2161851383689549</v>
+        <v>0.2689856593145087</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07004425046740018</v>
+        <v>0.04542243803153712</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2159936459492292</v>
+        <v>0.2688729188824632</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1055019994104803</v>
+        <v>0.06827004551039528</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2162112509716448</v>
+        <v>0.2688470490373168</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.09622253443769707</v>
+        <v>0.1097644410377743</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2239697933144863</v>
+        <v>0.05260432588742363</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03372619589734317</v>
+        <v>0.03966382117486372</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2177865097642805</v>
+        <v>0.2709781456798014</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06975491801244862</v>
+        <v>0.04580978469753305</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2175935988821864</v>
+        <v>0.2708645701334444</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1052702641111858</v>
+        <v>0.06945769259544249</v>
       </c>
       <c r="O201" t="n">
-        <v>0.217812815793657</v>
+        <v>0.2708385086598154</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.09839634483546614</v>
+        <v>0.1082600712796922</v>
       </c>
       <c r="G202" t="n">
-        <v>0.225616630030034</v>
+        <v>0.05260405735895961</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03397782667680393</v>
+        <v>0.04038052445316792</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2193878811596061</v>
+        <v>0.272970632045094</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06966101147529785</v>
+        <v>0.04609020365799002</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2191935518151437</v>
+        <v>0.2728562213844256</v>
       </c>
       <c r="N202" t="n">
-        <v>0.106331590910421</v>
+        <v>0.06988624396640869</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2194143806156692</v>
+        <v>0.2728299682823141</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.101563077211554</v>
+        <v>0.1067919081056227</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2272634667455817</v>
+        <v>0.05260378883049559</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03392720841757847</v>
+        <v>0.04067211422857989</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2209892525549317</v>
+        <v>0.2749631184103867</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07006247333908089</v>
+        <v>0.04715631013230281</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2207935047481009</v>
+        <v>0.2748478726354068</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1058858924097925</v>
+        <v>0.07124451533074155</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2210159454376814</v>
+        <v>0.2748214279048127</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.09472263900451633</v>
+        <v>0.1053612430364163</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2289103034611294</v>
+        <v>0.05260352030203158</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03417431314643789</v>
+        <v>0.0411321483087288</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2225906239502573</v>
+        <v>0.2769556047756794</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06975924608693093</v>
+        <v>0.04740071933986617</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2223934576810582</v>
+        <v>0.2768395238863881</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1061330812109071</v>
+        <v>0.07152132239588876</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2226175102596936</v>
+        <v>0.2768128875273113</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.09487493765290855</v>
+        <v>0.1039693675927973</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2305571401766771</v>
+        <v>0.05260325177356756</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0342191128901532</v>
+        <v>0.04185418450124392</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2241919953455829</v>
+        <v>0.278948091140972</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06995127220198102</v>
+        <v>0.04811604650007492</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2239934106140155</v>
+        <v>0.2788311751373693</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1060730699153715</v>
+        <v>0.07300548086929798</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2242190750817058</v>
+        <v>0.27880434714981</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1000198805952864</v>
+        <v>0.1026175732956128</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2322039768922248</v>
+        <v>0.05260298324510354</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03416157967549552</v>
+        <v>0.0423317806137545</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2257933667409085</v>
+        <v>0.2809405775062647</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06993849416736428</v>
+        <v>0.04879490683232379</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2255933635469727</v>
+        <v>0.2808228263883505</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1066057711247925</v>
+        <v>0.07368580645841671</v>
       </c>
       <c r="O206" t="n">
-        <v>0.225820639903718</v>
+        <v>0.2807958067723086</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09615737527020515</v>
+        <v>0.1013071516655906</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2338508136077725</v>
+        <v>0.05260271471663952</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03430168552923589</v>
+        <v>0.04335849445388967</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2273947381362341</v>
+        <v>0.2829330638715574</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07032085446621383</v>
+        <v>0.04942991555600751</v>
       </c>
       <c r="M207" t="n">
-        <v>0.22719331647993</v>
+        <v>0.2828144776393317</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1067310974407766</v>
+        <v>0.07505111487069271</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2274222047257301</v>
+        <v>0.2827872663948073</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.09528732911622059</v>
+        <v>0.1000393942235742</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2354976503233202</v>
+        <v>0.05260244618817551</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0343394024781454</v>
+        <v>0.04382788382927882</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2289961095315597</v>
+        <v>0.28492555023685</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07059829558166278</v>
+        <v>0.05051368789052085</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2287932694128872</v>
+        <v>0.2848061288903129</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1071489614649309</v>
+        <v>0.07629022181357381</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2290237695477423</v>
+        <v>0.2847787260173059</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1004096495718881</v>
+        <v>0.09881559249029516</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2371444870388679</v>
+        <v>0.05260217765971149</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03437470254899513</v>
+        <v>0.04483350654755106</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2305974809268853</v>
+        <v>0.2869180366021427</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07057075999684423</v>
+        <v>0.0516388390552586</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2303932223458444</v>
+        <v>0.2867977801412941</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1073592757988617</v>
+        <v>0.07839194299450736</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2306253343697545</v>
+        <v>0.2867701856398046</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1035242440757635</v>
+        <v>0.09763703798659319</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2387913237544156</v>
+        <v>0.05260190913124747</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03410755776855613</v>
+        <v>0.04606892041633567</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2321988523222109</v>
+        <v>0.2889105229674353</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07093819019489123</v>
+        <v>0.05229798426961552</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2319931752788017</v>
+        <v>0.2887894313922754</v>
       </c>
       <c r="N210" t="n">
-        <v>0.107361953044176</v>
+        <v>0.07944509412094125</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2322268991917667</v>
+        <v>0.2887616452623032</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.09963102006640207</v>
+        <v>0.09650502223320363</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2404381604699633</v>
+        <v>0.05260164060278345</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03433794016359946</v>
+        <v>0.04672768324326187</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2338002237175364</v>
+        <v>0.290903009332728</v>
       </c>
       <c r="L211" t="n">
-        <v>0.070500528658937</v>
+        <v>0.05378373875298637</v>
       </c>
       <c r="M211" t="n">
-        <v>0.233593128211759</v>
+        <v>0.2907810826432565</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1071569058024804</v>
+        <v>0.08103849090032306</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2338284640137789</v>
+        <v>0.2907531048848019</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.09872988498235946</v>
+        <v>0.09542083675096229</v>
       </c>
       <c r="G212" t="n">
-        <v>0.242084997185511</v>
+        <v>0.05260137207431944</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03446582176089626</v>
+        <v>0.04770335283595892</v>
       </c>
       <c r="K212" t="n">
-        <v>0.235401595112862</v>
+        <v>0.2928954956980206</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07065771787211453</v>
+        <v>0.05488871772476592</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2351930811447162</v>
+        <v>0.2927727338942377</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1068440466753817</v>
+        <v>0.08296094904010032</v>
       </c>
       <c r="O212" t="n">
-        <v>0.235430028835791</v>
+        <v>0.2927445645073005</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.09482074626219125</v>
+        <v>0.09438577306060857</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2437318339010587</v>
+        <v>0.05260110354585542</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03419117458721752</v>
+        <v>0.04828948700205604</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2370029665081876</v>
+        <v>0.2948879820633133</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07100970031755705</v>
+        <v>0.0558055364043489</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2367930340776735</v>
+        <v>0.294764385145219</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1071232882644867</v>
+        <v>0.0840012842477208</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2370315936578032</v>
+        <v>0.2947360241297991</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.09790351134445299</v>
+        <v>0.09340112268297403</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2453786706166063</v>
+        <v>0.05260083501739141</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03431397066933434</v>
+        <v>0.04917964354918239</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2386043379035132</v>
+        <v>0.2968804684286059</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07105641847839755</v>
+        <v>0.0566268100111301</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2383929870106307</v>
+        <v>0.2967560363962002</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1071945431714019</v>
+        <v>0.08584831223063222</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2386331584798154</v>
+        <v>0.2967274837522978</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1039780876677002</v>
+        <v>0.09340112268297406</v>
       </c>
       <c r="G215" t="n">
-        <v>0.247025507332154</v>
+        <v>0.05260083501739141</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03453418203401783</v>
+        <v>0.05026738028496736</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2402057092988388</v>
+        <v>0.2988729547938986</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07109781483776914</v>
+        <v>0.05794515376450426</v>
       </c>
       <c r="M215" t="n">
-        <v>0.239992939943588</v>
+        <v>0.2987476876471813</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1068577239977341</v>
+        <v>0.08709084869628214</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2402347233018276</v>
+        <v>0.2987189433747964</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.09604438267048843</v>
+        <v>0.09097652923511941</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2486723440477017</v>
+        <v>0.05255726433027315</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03455178070803901</v>
+        <v>0.05094625501704009</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2418070806941644</v>
+        <v>0.3008654411591913</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07063383187880504</v>
+        <v>0.05865318288386623</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2415928928765452</v>
+        <v>0.3007393388981626</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1072127433450901</v>
+        <v>0.08901770935211817</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2418362881238398</v>
+        <v>0.3007104029972951</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09510230379137327</v>
+        <v>0.08857374429368638</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2503191807632494</v>
+        <v>0.0525136936431549</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03436673871816898</v>
+        <v>0.05210982555302981</v>
       </c>
       <c r="K217" t="n">
-        <v>0.24340845208949</v>
+        <v>0.3028579275244839</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07106441208463821</v>
+        <v>0.05974351258861063</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2431928458095025</v>
+        <v>0.3027309901491438</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1071595138150765</v>
+        <v>0.09051770990558816</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2434378529458519</v>
+        <v>0.3027018626197937</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1021517584689103</v>
+        <v>0.08619331973787385</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2519660174787972</v>
+        <v>0.05247012295603665</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0344790280911788</v>
+        <v>0.05255164970056578</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2450098234848156</v>
+        <v>0.3048504138897766</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0709894979384019</v>
+        <v>0.06080875809813235</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2447927987424597</v>
+        <v>0.304722641400125</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1074979480093003</v>
+        <v>0.09137966606413955</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2450394177678641</v>
+        <v>0.3046933222422923</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1051926541416549</v>
+        <v>0.08383580744688175</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2536128541943448</v>
+        <v>0.05242655226891839</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03428862085383953</v>
+        <v>0.05376528526727717</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2466111948801412</v>
+        <v>0.3068429002550693</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07090903192322909</v>
+        <v>0.06154153463182607</v>
       </c>
       <c r="M219" t="n">
-        <v>0.246392751675417</v>
+        <v>0.3067142926511062</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1074279585293679</v>
+        <v>0.09319239353522019</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2466409825898763</v>
+        <v>0.306684781864791</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1052248982481629</v>
+        <v>0.08150175929991001</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2552596909098925</v>
+        <v>0.05238298158180014</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03449548903292229</v>
+        <v>0.05404429006079328</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2482125662754668</v>
+        <v>0.3088353866203619</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07062295652225301</v>
+        <v>0.06263445740908663</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2479927046083742</v>
+        <v>0.3087059439020874</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1073494579768862</v>
+        <v>0.09474470802627749</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2482425474118885</v>
+        <v>0.3086762414872896</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.09924839822698958</v>
+        <v>0.07919172717615756</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2569065276254403</v>
+        <v>0.05233941089468188</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03449960465519808</v>
+        <v>0.05538222188874334</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2498139376707924</v>
+        <v>0.3108278729856546</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07083121421860664</v>
+        <v>0.06298014164930871</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2495926575413315</v>
+        <v>0.3106975951530686</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1076623589534618</v>
+        <v>0.09562542524475942</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2498441122339007</v>
+        <v>0.3106677011097883</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.09726306151669065</v>
+        <v>0.07690626295482429</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2585533643409879</v>
+        <v>0.05229584020756363</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03450091706999216</v>
+        <v>0.05557263855875658</v>
       </c>
       <c r="K222" t="n">
-        <v>0.251415309066118</v>
+        <v>0.3128203593509472</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07103342702573556</v>
+        <v>0.06377120257188715</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2511926104742888</v>
+        <v>0.3126892464040498</v>
       </c>
       <c r="N222" t="n">
-        <v>0.10736653105955</v>
+        <v>0.0966233608981133</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2514456770559129</v>
+        <v>0.3126591607322869</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1032687955558217</v>
+        <v>0.07464591851511009</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2602002010565356</v>
+        <v>0.05225226952044538</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03435600517534945</v>
+        <v>0.05610909787846216</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2530166804614435</v>
+        <v>0.3148128457162399</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0705345464054459</v>
+        <v>0.06460025539621664</v>
       </c>
       <c r="M223" t="n">
-        <v>0.252792563407246</v>
+        <v>0.314680897655031</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1079275645547449</v>
+        <v>0.09792733069378706</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2530472418779251</v>
+        <v>0.3146506203547855</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1031655533739224</v>
+        <v>0.07241124573621395</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2618470377720833</v>
+        <v>0.05220869883332712</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03433116006158231</v>
+        <v>0.05698515765548942</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2546180518567692</v>
+        <v>0.3168053320815326</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07027181796739285</v>
+        <v>0.06565991534169199</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2543925163402032</v>
+        <v>0.3166725489060123</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1069387532720797</v>
+        <v>0.09892615033922825</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2546488066999373</v>
+        <v>0.3166420799772842</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.09680393120677017</v>
+        <v>0.07020279649733575</v>
       </c>
       <c r="G225" t="n">
-        <v>0.263493874487631</v>
+        <v>0.05216512814620886</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03413510219769646</v>
+        <v>0.05779437569746756</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2562194232520947</v>
+        <v>0.3187978184468251</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07026317221421302</v>
+        <v>0.06604279762770796</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2559924692731605</v>
+        <v>0.3186642001569934</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1064273430823003</v>
+        <v>0.1005086355418844</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2562503715219494</v>
+        <v>0.3186335395997829</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.1042101666663826</v>
+        <v>0.06802112267767539</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2651407112031787</v>
+        <v>0.05212155745909062</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03397655205269765</v>
+        <v>0.05763030981202583</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2578207946474204</v>
+        <v>0.3207903048121178</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06962653964854312</v>
+        <v>0.0665415174736593</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2575924222061177</v>
+        <v>0.3206558514079746</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1053205798561524</v>
+        <v>0.1004636020092035</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2578519363439616</v>
+        <v>0.3206249992222815</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.09541311517054138</v>
+        <v>0.06586677615643187</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2667875479187264</v>
+        <v>0.05207798677197236</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03346423009559162</v>
+        <v>0.05828651780679336</v>
       </c>
       <c r="K227" t="n">
-        <v>0.259422166042746</v>
+        <v>0.3227827911774105</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06897985077301985</v>
+        <v>0.06674869009894083</v>
       </c>
       <c r="M227" t="n">
-        <v>0.259192375139075</v>
+        <v>0.3226475026589559</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1043457094643819</v>
+        <v>0.1013798654486328</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2594535011659738</v>
+        <v>0.3226164588447801</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09844163213702811</v>
+        <v>0.06374030881280503</v>
       </c>
       <c r="G228" t="n">
-        <v>0.268434384634274</v>
+        <v>0.0520344160848541</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03320685679538413</v>
+        <v>0.05825655748939951</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2610235374380716</v>
+        <v>0.3247752775427031</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06814103609027988</v>
+        <v>0.06755693072294722</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2607923280720323</v>
+        <v>0.3246391539099371</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1030299777777345</v>
+        <v>0.1015462415676203</v>
       </c>
       <c r="O228" t="n">
-        <v>0.261055065987986</v>
+        <v>0.3246079184672788</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09632457298362437</v>
+        <v>0.06164227252599479</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2700812213498218</v>
+        <v>0.05199084539773585</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03291315262108088</v>
+        <v>0.05875121262834787</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2626249088333972</v>
+        <v>0.3267677639079958</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0673280261029599</v>
+        <v>0.06727959907224218</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2623922810049895</v>
+        <v>0.3266308051609183</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1026006306669561</v>
+        <v>0.1024833162224064</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2626566308099982</v>
+        <v>0.3265993780897774</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.09509079312811186</v>
+        <v>0.05957321917520013</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2717280580653694</v>
+        <v>0.0519472747106176</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03239183804168766</v>
+        <v>0.05913570279185698</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2642262802287227</v>
+        <v>0.3287602502732885</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06625875131369655</v>
+        <v>0.06769120721955482</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2639922339379468</v>
+        <v>0.3286224564118995</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1010849140027923</v>
+        <v>0.1026038412071653</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2642581956320104</v>
+        <v>0.3285908377122761</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.09576914798827213</v>
+        <v>0.05753370063962089</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2733748947809171</v>
+        <v>0.05190370402349934</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03205163352621018</v>
+        <v>0.05921693330569744</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2658276516240483</v>
+        <v>0.3307527366385811</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06565114222512658</v>
+        <v>0.06809907517812855</v>
       </c>
       <c r="M231" t="n">
-        <v>0.265592186870904</v>
+        <v>0.3306141076628807</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1001100736559891</v>
+        <v>0.102718700401517</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2658597604540225</v>
+        <v>0.3305822973347747</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.08938849298188684</v>
+        <v>0.05552426879845702</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2750217314964648</v>
+        <v>0.05186013333638109</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03160125954365423</v>
+        <v>0.05909477951065401</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2674290230193739</v>
+        <v>0.3327452230038738</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06502312933988663</v>
+        <v>0.068203060049257</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2671921398038613</v>
+        <v>0.332605758913862</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09870335549729214</v>
+        <v>0.1030276773845517</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2674613252760347</v>
+        <v>0.3325737569572733</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09397768352673758</v>
+        <v>0.05354547553090751</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2766685682120125</v>
+        <v>0.05181656264926284</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03104943656302547</v>
+        <v>0.05966911674751121</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2690303944146995</v>
+        <v>0.3347377093691664</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06409264316061339</v>
+        <v>0.06790301893423389</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2687920927368185</v>
+        <v>0.3345974101648432</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09719200539744732</v>
+        <v>0.1037305557353595</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2690628900980469</v>
+        <v>0.334565216579772</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.08556557504060597</v>
+        <v>0.05159787271617218</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2783154049275602</v>
+        <v>0.05177299196214458</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03050488505332971</v>
+        <v>0.05953982035705374</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2706317658100251</v>
+        <v>0.3367301957344591</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06277761418994349</v>
+        <v>0.06879880893435283</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2703920456697758</v>
+        <v>0.3365890614158243</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09580326922720039</v>
+        <v>0.1037271190330306</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2706644549200591</v>
+        <v>0.3365566762022706</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.08618102294127367</v>
+        <v>0.04968201223345091</v>
       </c>
       <c r="G235" t="n">
-        <v>0.279962241643108</v>
+        <v>0.05172942127502633</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03027632548357266</v>
+        <v>0.05960676568006623</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2722331372053507</v>
+        <v>0.3387226820997518</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06229597293051373</v>
+        <v>0.06869028715090744</v>
       </c>
       <c r="M235" t="n">
-        <v>0.271991998602733</v>
+        <v>0.3385807126668056</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09356439285729717</v>
+        <v>0.1036171508566553</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2722660197420713</v>
+        <v>0.3385481358247693</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.08285288264652227</v>
+        <v>0.04779844596194281</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2816090783586556</v>
+        <v>0.05168585058790807</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02977247832276009</v>
+        <v>0.05986982805733332</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2738345086006763</v>
+        <v>0.3407151684650445</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06106564988496063</v>
+        <v>0.06847731068519142</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2735919515356903</v>
+        <v>0.3405723639177868</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09290262215848338</v>
+        <v>0.1040004347853237</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2738675845640834</v>
+        <v>0.3405395954472679</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.08061000957413343</v>
+        <v>0.04594772578084767</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2832559150742033</v>
+        <v>0.05164227990078982</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02940191247434656</v>
+        <v>0.06022888282963965</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2754358799960019</v>
+        <v>0.342707654830337</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06010405899665697</v>
+        <v>0.06905973663849835</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2751919044686476</v>
+        <v>0.342564015168768</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09164476576745961</v>
+        <v>0.1044767543981262</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2754691493860956</v>
+        <v>0.3425310550697666</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.0814733051529756</v>
+        <v>0.04413040356936533</v>
       </c>
       <c r="G238" t="n">
-        <v>0.284902751789751</v>
+        <v>0.05159870921367157</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02904685177283815</v>
+        <v>0.06018380533776985</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2770372513913275</v>
+        <v>0.3447001411956297</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05947264642640798</v>
+        <v>0.06893742211212195</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2767918574016048</v>
+        <v>0.3445556664197492</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09053570986384718</v>
+        <v>0.1048458932741528</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2770707142081078</v>
+        <v>0.3445225146922652</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08736128009792271</v>
+        <v>0.04234703120669488</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2865495885052987</v>
+        <v>0.05155513852655332</v>
       </c>
       <c r="J239" t="n">
-        <v>0.028490475717319</v>
+        <v>0.06023447092250858</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2786386227866531</v>
+        <v>0.3466926275609224</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0589385259276323</v>
+        <v>0.0693102242073558</v>
       </c>
       <c r="M239" t="n">
-        <v>0.278391810334562</v>
+        <v>0.3465473176707304</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08982254502187759</v>
+        <v>0.1055076349924939</v>
       </c>
       <c r="O239" t="n">
-        <v>0.27867227903012</v>
+        <v>0.3465139743147638</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.08724500349796618</v>
+        <v>0.04059590706530457</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2881964252208464</v>
+        <v>0.05151156783943506</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02823276364867459</v>
+        <v>0.06038075492464048</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2802399941819786</v>
+        <v>0.348685113926215</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05850165502230428</v>
+        <v>0.06987800002549363</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2799917632675193</v>
+        <v>0.3485389689217116</v>
       </c>
       <c r="N240" t="n">
-        <v>0.0880052066950725</v>
+        <v>0.1053617631322395</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2802738438521322</v>
+        <v>0.3485054339372625</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.08512440699355123</v>
+        <v>0.03886406198400426</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2898432619363941</v>
+        <v>0.05146799715231681</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02777369490779057</v>
+        <v>0.06052253268495014</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2818413655773043</v>
+        <v>0.3506776002915077</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05716199123239818</v>
+        <v>0.07004060666782902</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2815917162004766</v>
+        <v>0.3505306201726928</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08668363033695398</v>
+        <v>0.1058080612724799</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2818754086741444</v>
+        <v>0.3504968935597612</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.08099942222512307</v>
+        <v>0.03714979433526154</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2914900986519418</v>
+        <v>0.05142442646519856</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02751324883555235</v>
+        <v>0.06095967954422227</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2834427369726298</v>
+        <v>0.3526700866568004</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05711949207988834</v>
+        <v>0.07009790123565562</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2831916691334338</v>
+        <v>0.352522271423674</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08605775140104366</v>
+        <v>0.1063463129923054</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2834769734961566</v>
+        <v>0.3524883531822597</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08186998083312691</v>
+        <v>0.03545365599827612</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2931369353674895</v>
+        <v>0.0513808557780803</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02735140477284558</v>
+        <v>0.06109207084324142</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2850441083679554</v>
+        <v>0.354662573022093</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05607411508674917</v>
+        <v>0.07014974083026712</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2847916220663911</v>
+        <v>0.3545139226746552</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08502750534086345</v>
+        <v>0.1061763018708061</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2850785383181688</v>
+        <v>0.3544798128047584</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.08173601445800796</v>
+        <v>0.03377619885224768</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2947837720830371</v>
+        <v>0.05133728509096205</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02668814206055574</v>
+        <v>0.06101958192279236</v>
       </c>
       <c r="K244" t="n">
-        <v>0.286645479763281</v>
+        <v>0.3566550593873857</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05492581777495487</v>
+        <v>0.06979598255295713</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2863915749993483</v>
+        <v>0.3565055739256364</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08379282760993523</v>
+        <v>0.1061978114870722</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2866801031401809</v>
+        <v>0.3564712724272571</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.08059745474021145</v>
+        <v>0.032117974776376</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2964306087985848</v>
+        <v>0.0512937144038438</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02652344003956837</v>
+        <v>0.0610420881236596</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2882468511586066</v>
+        <v>0.3586475457526783</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05427455766647987</v>
+        <v>0.0699364835050193</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2879915279323056</v>
+        <v>0.3584972251766176</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08305365366178069</v>
+        <v>0.107010625420194</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2882816679621931</v>
+        <v>0.3584627320497557</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.07045423332018259</v>
+        <v>0.03047953564986018</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2980774455141326</v>
+        <v>0.05125014371672554</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02625727805076902</v>
+        <v>0.0611594647866279</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2898482225539322</v>
+        <v>0.360640032117971</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05392029228329845</v>
+        <v>0.0701711007877473</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2895914808652628</v>
+        <v>0.3604888764275989</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08190991894992178</v>
+        <v>0.1070145272492616</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2898832327842053</v>
+        <v>0.3604541916722543</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.07430628183836659</v>
+        <v>0.0288614333519001</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2997242822296802</v>
+        <v>0.05120657302960728</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02558963543504325</v>
+        <v>0.06137158725248176</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2914495939492578</v>
+        <v>0.3626325184832637</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05336297914738494</v>
+        <v>0.07089969150243478</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2911914337982201</v>
+        <v>0.3624805276785801</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08016155892788024</v>
+        <v>0.1069093005533652</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2914847976062175</v>
+        <v>0.362445651294753</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.07115353193520867</v>
+        <v>0.02726421976169548</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3013711189452279</v>
+        <v>0.05116300234248903</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02522049153327659</v>
+        <v>0.06157833086200593</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2930509653445834</v>
+        <v>0.3646250048485563</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05240257578071372</v>
+        <v>0.07052211275037532</v>
       </c>
       <c r="M248" t="n">
-        <v>0.2927913867311773</v>
+        <v>0.3644721789295612</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07880850904917797</v>
+        <v>0.1066947289115951</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2930863624282297</v>
+        <v>0.3644371109172516</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.06999591525115402</v>
+        <v>0.02568844675844555</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3030179556607757</v>
+        <v>0.05111943165537078</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02494982568635454</v>
+        <v>0.06167957095598503</v>
       </c>
       <c r="K249" t="n">
-        <v>0.294652336739909</v>
+        <v>0.366617491213849</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05143903970525907</v>
+        <v>0.07113822163286265</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2943913396641346</v>
+        <v>0.3664638301805425</v>
       </c>
       <c r="N249" t="n">
-        <v>0.07765070476733676</v>
+        <v>0.1076705959030416</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2946879272502418</v>
+        <v>0.3664285705397503</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.07483336342664791</v>
+        <v>0.02413466622135006</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3046647923763233</v>
+        <v>0.05107586096825252</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02477761723516271</v>
+        <v>0.06157518287520361</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2962537081352346</v>
+        <v>0.3686099775791416</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05077232844299534</v>
+        <v>0.07054787525119038</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2959912925970918</v>
+        <v>0.3684554814315237</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07738808153587856</v>
+        <v>0.1069366851067947</v>
       </c>
       <c r="O250" t="n">
-        <v>0.296289492072254</v>
+        <v>0.3684200301622489</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.07366580810213552</v>
+        <v>0.02260343002960878</v>
       </c>
       <c r="G251" t="n">
-        <v>0.306311629091871</v>
+        <v>0.05103229028113427</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02440384552058658</v>
+        <v>0.06176504196044644</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2978550795305602</v>
+        <v>0.3706024639444343</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04970239951589683</v>
+        <v>0.07095093070665215</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2975912455300491</v>
+        <v>0.3704471326825049</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07542057480832504</v>
+        <v>0.1073927801019447</v>
       </c>
       <c r="O251" t="n">
-        <v>0.2978910568942663</v>
+        <v>0.3704114897847475</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.06449318091806211</v>
+        <v>0.02109529006242096</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3079584658074188</v>
+        <v>0.05098871959401602</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02392848988351173</v>
+        <v>0.06204902355249811</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2994564509258857</v>
+        <v>0.3725949503097269</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04922921044593787</v>
+        <v>0.07124724510054165</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2991911984630063</v>
+        <v>0.3724387839334861</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07474812003819814</v>
+        <v>0.1076386644675817</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2994926217162784</v>
+        <v>0.3724029494072462</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.07131541351487282</v>
+        <v>0.01961079819898635</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3096053025229664</v>
+        <v>0.05094514890689776</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02335152966482369</v>
+        <v>0.06222700299214323</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3010578223212114</v>
+        <v>0.3745874366750196</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04805271875509279</v>
+        <v>0.07143667553415251</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3007911513959636</v>
+        <v>0.3744304351844673</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0734706526790197</v>
+        <v>0.1077741217827961</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3010941865382906</v>
+        <v>0.3743944090297449</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.06813243753301293</v>
+        <v>0.01815050631850475</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3112521392385141</v>
+        <v>0.05090157821977951</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02327294420540799</v>
+        <v>0.06199885562016647</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3026591937165369</v>
+        <v>0.3765799230403123</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04757288196533599</v>
+        <v>0.07131907910877835</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3023911043289209</v>
+        <v>0.3764220864354485</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07188810818431135</v>
+        <v>0.1079989356266779</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3026957513603027</v>
+        <v>0.3763858686522435</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.05994418461292762</v>
+        <v>0.01671496630017534</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3128989759540618</v>
+        <v>0.05085800753266125</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02289271284615016</v>
+        <v>0.06226445677735246</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3042605651118626</v>
+        <v>0.3785724094056049</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04658965759864173</v>
+        <v>0.07159431292571281</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3039910572618781</v>
+        <v>0.3784137376864297</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07080042200759523</v>
+        <v>0.1078128895783175</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3042973161823149</v>
+        <v>0.3783773282747421</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.05875058639506214</v>
+        <v>0.01530473002319788</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3145458126696095</v>
+        <v>0.050814436845543</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02231081492793574</v>
+        <v>0.06212368180448583</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3058619365071881</v>
+        <v>0.3805648957708976</v>
       </c>
       <c r="L256" t="n">
-        <v>0.0460030031769843</v>
+        <v>0.07136223408624953</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3055910101948354</v>
+        <v>0.3804053889374109</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06940752960239299</v>
+        <v>0.1087157672168051</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3058988810043271</v>
+        <v>0.3803687878972408</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.06155157451986167</v>
+        <v>0.01392034936677218</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3161926493851572</v>
+        <v>0.05077086615842475</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02202722979165031</v>
+        <v>0.06237640604235123</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3074633079025137</v>
+        <v>0.3825573821361902</v>
       </c>
       <c r="L257" t="n">
-        <v>0.04491287622233808</v>
+        <v>0.07142269969168222</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3071909631277926</v>
+        <v>0.3823970401883922</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06840936642222639</v>
+        <v>0.1087073521212308</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3075004458263393</v>
+        <v>0.3823602475197394</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.06134708062777143</v>
+        <v>0.01256237621009741</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3178394861007049</v>
+        <v>0.05072729547130649</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02154193677817939</v>
+        <v>0.06242250483173334</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3090646792978393</v>
+        <v>0.3845498685014829</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04451923425667739</v>
+        <v>0.07167556684330451</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3087909160607499</v>
+        <v>0.3843886914393734</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06700586792061741</v>
+        <v>0.1088874278706848</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3091020106483515</v>
+        <v>0.384351707142238</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.06313703635923666</v>
+        <v>0.01123136243237338</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3194863228162526</v>
+        <v>0.05068372478418823</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02105491522840851</v>
+        <v>0.06236185351341672</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3106660506931649</v>
+        <v>0.3865423548667756</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04342203480197659</v>
+        <v>0.07132069264241006</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3103908689937071</v>
+        <v>0.3863803426903546</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06569696955108789</v>
+        <v>0.1088557780442574</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3107035754703637</v>
+        <v>0.3863431667647367</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.06392137335470256</v>
+        <v>0.009927859912799847</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3211331595318003</v>
+        <v>0.05064015409706999</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02086614448322319</v>
+        <v>0.06269432742818606</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3122674220884905</v>
+        <v>0.3885348412320682</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04312123538020995</v>
+        <v>0.07175793419029242</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3119908219266644</v>
+        <v>0.3883719939413358</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06528260676715958</v>
+        <v>0.1090121862210388</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3123051402923759</v>
+        <v>0.3883346263872354</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.05470002325461434</v>
+        <v>0.008652420530576035</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3227799962473479</v>
+        <v>0.05059658340995173</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02037560388350901</v>
+        <v>0.06251980191682599</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3138687934838161</v>
+        <v>0.3905273275973609</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04191679351335187</v>
+        <v>0.07158714858824536</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3135907748596216</v>
+        <v>0.390363645192317</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06336271502235424</v>
+        <v>0.109056435980119</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3139067051143881</v>
+        <v>0.390326086009734</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05847291769941725</v>
+        <v>0.007405596164901704</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3244268329628957</v>
+        <v>0.05055301272283347</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0201832727701515</v>
+        <v>0.06253815232012114</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3154701648791416</v>
+        <v>0.3925198139626535</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04150866672337664</v>
+        <v>0.07160819293756246</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3151907277925789</v>
+        <v>0.3923552964432982</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06273722977019397</v>
+        <v>0.1088883109005885</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3155082699364002</v>
+        <v>0.3923175456322326</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05023998832955646</v>
+        <v>0.006187938694976608</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3260736696784433</v>
+        <v>0.05050944203571522</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01948913048403621</v>
+        <v>0.0627529822338157</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3170715362744673</v>
+        <v>0.3945123003279462</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0402968125322585</v>
+        <v>0.07202519989546374</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3167906807255361</v>
+        <v>0.3943469476942794</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06090608646420026</v>
+        <v>0.1091140705420559</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3171098347584124</v>
+        <v>0.3943090052547313</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.05900116678547716</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3277205063939911</v>
+        <v>0.05046587134859697</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01919315636604862</v>
+        <v>0.06275298223381573</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3186729076697928</v>
+        <v>0.3965047866932389</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03988118846197194</v>
+        <v>0.07202519989546377</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3183906336584934</v>
+        <v>0.3963385989452606</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0596692205578952</v>
+        <v>0.1089140705420559</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3187113995804246</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.3963004648772299</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05045271345386013</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00722143189786735</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05045298198232415</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.009432902497712045</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05045325051078817</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.01163432658355808</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05045351903925218</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.01382561893962148</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.0504537875677162</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.0160066943499271</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05045405609618021</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.0181774675986901</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05045432462464423</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.02033785346993626</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05045459315310825</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.02248776674787979</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05045486168157227</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.02462712221654741</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05045513021003628</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.02675583466015242</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0504553987385003</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.0288738188627224</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05045566726696432</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.03098098960846978</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05045593579542834</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.03307726168142304</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05045620432389235</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.03516254986579372</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05045647285235638</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.03723676894561122</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05045674138082039</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.03929983370508609</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05045700990928441</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.04135165892824878</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05045727843774842</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.04339215939926448</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05045754696621244</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.04542124990229753</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05045781549467646</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.04743884522137977</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05045808402314047</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.04944486014071929</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05045835255160449</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.05143920944434903</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05045862108006851</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.05342180791647601</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05045888960853253</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.05539257034113414</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05045915813699654</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.05735175946737188</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05045942666546056</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.05930137786827845</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05045969519392458</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.06124168829290137</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0504599637223886</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.06317260552527641</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05046023225085261</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.06509404434960782</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05046050077931663</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.06700591954993225</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05046076930778064</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.06890814591045309</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05046103783624466</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.07080063821520781</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05046130636470868</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.07268331124835813</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05046157489317269</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.07455607979406496</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05046184342163671</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.07641885863636701</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05046211195010073</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.07827156255946556</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05046238047856475</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.0801141063474002</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05046264900702876</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.08194640478437139</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05046291753549279</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0837683726544196</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.0504631860639568</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.08557992474174435</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05046345459242082</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.08738097583038702</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05046372312088483</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.08917144070454626</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05046399164934885</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.09095123414826435</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05046426017781287</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.09272027094573899</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05046452870627689</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0944784658810134</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0504647972347409</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.09622573373828434</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05046506576320492</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.09796198930159601</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05046533429166894</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.09968714735514418</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05046560282013296</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.101401122682974</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05046587134859697</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.101401122682974</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05045271345386013</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.1035864460719896</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05049682119790642</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.1057567533120254</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.0505409289419527</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.1079118099771288</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05058503668599899</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.1100513816413465</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05062914443004528</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.112175233878726</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05067325217409157</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.1142831322633143</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05071735991813786</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.1163748423691579</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05076146766218415</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.1184501297703047</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05080557540623044</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.1205087600408013</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05084968315027673</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.1225504987546946</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05089379089432301</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.1245751114860322</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.0509378986383693</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.1265823638088607</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05098200638241559</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.1285720212972275</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05102611412646187</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.1305438495251796</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05107022187050816</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.1324976140667637</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05111432961455445</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.1344330804960274</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05115843735860074</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.1363500143870174</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05120254510264702</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.1382481813137811</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05124665284669332</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.1401273468503654</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05129076059073961</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.1419872765708171</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05133486833478589</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.1438277360491838</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05137897607883218</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.145648490859512</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05142308382287847</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.1474493065758492</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05146719156692475</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.1492299487722425</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05151129931097104</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.1509911402620463</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05155540705501733</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.152738390055155</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05159951479906362</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.1544724209649233</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05164362254310991</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.1561929985653978</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0516877302871562</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.1578998884306262</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05173183803120249</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.1595928561346552</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05177594577524877</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.1612716672515321</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05182005351929506</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.1629360873553039</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05186416126334135</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.1645858820200174</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05190826900738763</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.1662208168197201</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05195237675143392</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.1678406573284588</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05199648449548021</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.1694451691202807</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.0520405922395265</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.1710341177692328</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05208469998357279</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.1726072688493621</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05212880772761908</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.1741643879347158</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05217291547166537</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.1757052405993409</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05221702321571165</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.1772295924172846</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05226113095975794</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.1787372089625939</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05230523870380423</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.1802278558093156</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05234934644785052</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.1817012985314972</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0523934541918968</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.1831573027031856</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05243756193594309</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.1845956338984277</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05248166967998938</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.1860160576912709</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05252577742403567</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.1874183396557619</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05256988516808195</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.1888022453659481</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05261399291212825</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.1888022453659481</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05261399291212825</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.1902510965232437</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05658742211231392</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.1915900510925957</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0605608513124996</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.1928234434945583</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06453428051268527</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.1939556081496854</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06850770971287094</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.1949908794785311</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.07248113891305662</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.1959335919016492</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07645456811324229</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.1967880798395938</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08042799731342798</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.197558677712919</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.08440142651361365</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.1982497199421785</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08837485571379933</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.1988655409479266</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09234828491398499</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.1994104751507171</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09632171411417068</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.1998888569711042</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1002951433143563</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.2003050208296418</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.104268572514542</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.2006633011468839</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1082420017147277</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.2009680323433843</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1122154309149134</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.2012235488396973</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.116188860115099</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.2014341850563768</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1201622893152847</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.2016042754139767</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1241357185154704</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.2017381543330512</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.128109147715656</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.201840156234154</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1320825769158417</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.2019146155378393</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1360560061160274</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.2019658666646612</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1400294353162131</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.2019982440351734</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1440028645163988</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.2020160820699303</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1479762937165845</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.2020237151894854</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.2020254778143931</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1559231521169558</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.2015193257516774</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1598965813171415</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.199213209557736</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1638700105173271</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.1959880294328484</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1678434397175128</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.1928992679093058</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1718168689176985</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.1909433414035914</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1757902981178842</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.1895385442163933</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1797637273180698</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.1882522092987211</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1837371565182555</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.1871351321332316</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1877105857184412</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.1862381082025822</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1916840149186269</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.1856119329894302</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1956574441188125</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.1852841648006677</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1996308733189982</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.1850946658263069</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.2036043025191839</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.1849675698476765</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.2075777317193696</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.1848594049906973</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.2115511609195553</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.18472669938129</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.2155245901197409</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.1845259811453756</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.2194980193199266</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.1840361227645626</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2234714485201122</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.1827392939013984</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2274448777202979</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.1807559083073657</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2314183069204836</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.1782536563621369</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2353917361206693</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.1754002284453848</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.239365165320855</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.172363314936782</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2433385945210407</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.1693106062160011</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2473120237212263</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.1664097926627147</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.251285452921412</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.1638285646565953</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2552588821215977</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.1617346125773158</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2592323113217833</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.1601157245368681</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.263205740521969</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.1584748844927355</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2671791697221547</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.1568807087236856</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2711525989223404</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.1554587537432463</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.275126028122526</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.1543345760649448</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2790994573227117</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.1536337322023089</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2830728865228974</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.153470528062326</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2870463157230831</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.1536806032579118</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2910197449232688</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.1541433755171808</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2949931741234544</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.1548251468561823</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2989666033236401</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.1556922192909657</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.3029400325238258</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.1567108948375803</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.3069134617240115</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.1578474755120756</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.3108868909241971</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1590682633305008</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.3148603201243828</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1608445902672083</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.3188337493245685</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1639873285175761</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.3228071785247542</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1683125286307667</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.3267806077249398</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1736141514497443</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.3307540369251255</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.179686157817473</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.3347274661253112</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1863225085769171</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.3387008953254969</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.1933171645710406</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.3426743245256825</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.2004640866428081</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.3466477537258682</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.2075572356351833</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.3506211829260539</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.2143905723911307</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.3545946121262396</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.2207580577536144</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3585680413264252</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.2264536525655986</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3625414705266109</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.2312713176700476</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3665148997267966</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.2350050139099254</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3704883289269822</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.2374487021281964</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3744617581271679</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.2389577823425556</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3784351873273536</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.240399063533298</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3824086165275393</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.2417838831201702</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3863820457277249</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.2431082541561566</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3903554749279106</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.2443681896942408</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3943289041280963</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.2455597027874067</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.398302333328282</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.2466788064886386</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.4022757625284676</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.24772151385092</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.4062491917286533</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.2486838379272351</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.410222620928839</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.2495617917705677</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.4141960501290247</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.2503513884339017</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.4181694793292103</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.2510486409702212</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.422142908529396</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.2516495624325099</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.4261163377295817</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.2521501658737519</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.4300897669297674</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.252546464346931</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.4340631961299531</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.2528344709050313</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.4380366253301387</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.2530696604879308</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.4420100545303244</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.2530696604879307</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.4459834837305101</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
